--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="276">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,18 @@
     <t>['50', '53']</t>
   </si>
   <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['10', '62', '73', '89', '90+3']</t>
+  </si>
+  <si>
+    <t>['26', '71']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
     <t>['4', '6', '45+2']</t>
   </si>
   <si>
@@ -698,9 +710,6 @@
   </si>
   <si>
     <t>['90']</t>
-  </si>
-  <si>
-    <t>['61']</t>
   </si>
   <si>
     <t>['10', '57']</t>
@@ -827,6 +836,12 @@
   </si>
   <si>
     <t>['48', '70']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['8', '11', '64']</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1447,7 +1462,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1528,7 +1543,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ2">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1653,7 +1668,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1731,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ3">
         <v>0.85</v>
@@ -1859,7 +1874,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2143,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ5">
         <v>0.85</v>
@@ -2683,7 +2698,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -2970,7 +2985,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ9">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3095,7 +3110,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -3176,7 +3191,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3382,7 +3397,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ11">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3585,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ12">
         <v>1.77</v>
@@ -3791,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ13">
         <v>1.08</v>
@@ -3919,7 +3934,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q14">
         <v>3.1</v>
@@ -4000,7 +4015,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR14">
         <v>1.07</v>
@@ -4125,7 +4140,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4331,7 +4346,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -4412,7 +4427,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ16">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR16">
         <v>1.73</v>
@@ -5027,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ19">
         <v>1.77</v>
@@ -5155,7 +5170,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5361,7 +5376,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5439,7 +5454,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ21">
         <v>0.85</v>
@@ -5567,7 +5582,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q22">
         <v>2.4</v>
@@ -5645,10 +5660,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ22">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5773,7 +5788,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5851,7 +5866,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ23">
         <v>1.77</v>
@@ -6060,7 +6075,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ24">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR24">
         <v>0.92</v>
@@ -6185,7 +6200,7 @@
         <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6266,7 +6281,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR25">
         <v>0.84</v>
@@ -6472,7 +6487,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ26">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR26">
         <v>1.32</v>
@@ -6597,7 +6612,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6675,7 +6690,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ27">
         <v>0.85</v>
@@ -6803,7 +6818,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7009,7 +7024,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q29">
         <v>4.33</v>
@@ -7090,7 +7105,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ29">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR29">
         <v>1.88</v>
@@ -7293,7 +7308,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ30">
         <v>1.62</v>
@@ -7499,10 +7514,10 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ31">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR31">
         <v>1.82</v>
@@ -7833,7 +7848,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8039,7 +8054,7 @@
         <v>89</v>
       </c>
       <c r="P34" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8117,10 +8132,10 @@
         <v>0.33</v>
       </c>
       <c r="AP34">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR34">
         <v>1.26</v>
@@ -8245,7 +8260,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8451,7 +8466,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q36">
         <v>2.1</v>
@@ -8532,7 +8547,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ36">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR36">
         <v>1.35</v>
@@ -8657,7 +8672,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q37">
         <v>2.2</v>
@@ -8735,7 +8750,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ37">
         <v>1.77</v>
@@ -8944,7 +8959,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ38">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR38">
         <v>1</v>
@@ -9069,7 +9084,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9275,7 +9290,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9353,7 +9368,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ40">
         <v>1.85</v>
@@ -9687,7 +9702,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10099,7 +10114,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q44">
         <v>2.4</v>
@@ -10305,7 +10320,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q45">
         <v>2.2</v>
@@ -10383,7 +10398,7 @@
         <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ45">
         <v>0.85</v>
@@ -10923,7 +10938,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11001,7 +11016,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ48">
         <v>1.08</v>
@@ -11207,10 +11222,10 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ49">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR49">
         <v>1.83</v>
@@ -11416,7 +11431,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR50">
         <v>0.98</v>
@@ -11747,7 +11762,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11825,10 +11840,10 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ52">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR52">
         <v>1.2</v>
@@ -12031,10 +12046,10 @@
         <v>1.75</v>
       </c>
       <c r="AP53">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ53">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR53">
         <v>1.83</v>
@@ -12159,7 +12174,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12365,7 +12380,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12443,10 +12458,10 @@
         <v>0.4</v>
       </c>
       <c r="AP55">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ55">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR55">
         <v>1.69</v>
@@ -12777,7 +12792,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12983,7 +12998,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13189,7 +13204,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13473,7 +13488,7 @@
         <v>1.2</v>
       </c>
       <c r="AP60">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ60">
         <v>0.85</v>
@@ -13679,7 +13694,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ61">
         <v>0.85</v>
@@ -13807,7 +13822,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -13888,7 +13903,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR62">
         <v>1.17</v>
@@ -14091,10 +14106,10 @@
         <v>1.4</v>
       </c>
       <c r="AP63">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ63">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR63">
         <v>1.65</v>
@@ -14300,7 +14315,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ64">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR64">
         <v>1.56</v>
@@ -14425,7 +14440,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14631,7 +14646,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14837,7 +14852,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14915,10 +14930,10 @@
         <v>1.2</v>
       </c>
       <c r="AP67">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ67">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR67">
         <v>1.79</v>
@@ -15124,7 +15139,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ68">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR68">
         <v>2.3</v>
@@ -15739,10 +15754,10 @@
         <v>0.83</v>
       </c>
       <c r="AP71">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR71">
         <v>1.72</v>
@@ -15867,7 +15882,7 @@
         <v>89</v>
       </c>
       <c r="P72" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -15945,7 +15960,7 @@
         <v>0.83</v>
       </c>
       <c r="AP72">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ72">
         <v>1.62</v>
@@ -16279,7 +16294,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16566,7 +16581,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ75">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR75">
         <v>1.32</v>
@@ -16691,7 +16706,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16769,7 +16784,7 @@
         <v>1.4</v>
       </c>
       <c r="AP76">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ76">
         <v>1.77</v>
@@ -17103,7 +17118,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -17390,7 +17405,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ79">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR79">
         <v>0.96</v>
@@ -17593,7 +17608,7 @@
         <v>1.17</v>
       </c>
       <c r="AP80">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ80">
         <v>0.85</v>
@@ -17799,7 +17814,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ81">
         <v>0.85</v>
@@ -17927,7 +17942,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q82">
         <v>2.88</v>
@@ -18008,7 +18023,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ82">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR82">
         <v>1.31</v>
@@ -18211,7 +18226,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ83">
         <v>1.08</v>
@@ -18339,7 +18354,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q84">
         <v>5.5</v>
@@ -18417,7 +18432,7 @@
         <v>2.17</v>
       </c>
       <c r="AP84">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ84">
         <v>1.85</v>
@@ -18545,7 +18560,7 @@
         <v>119</v>
       </c>
       <c r="P85" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18626,7 +18641,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ85">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR85">
         <v>1.2</v>
@@ -18751,7 +18766,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -18957,7 +18972,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19244,7 +19259,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR88">
         <v>1.65</v>
@@ -19369,7 +19384,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19781,7 +19796,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -19859,7 +19874,7 @@
         <v>1.86</v>
       </c>
       <c r="AP91">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ91">
         <v>1.77</v>
@@ -19987,7 +20002,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20193,7 +20208,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q93">
         <v>2.4</v>
@@ -20274,7 +20289,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ93">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR93">
         <v>2.1</v>
@@ -20399,7 +20414,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20605,7 +20620,7 @@
         <v>89</v>
       </c>
       <c r="P95" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20889,7 +20904,7 @@
         <v>0.57</v>
       </c>
       <c r="AP96">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ96">
         <v>0.85</v>
@@ -21223,7 +21238,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21301,7 +21316,7 @@
         <v>1.38</v>
       </c>
       <c r="AP98">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ98">
         <v>1.62</v>
@@ -21429,7 +21444,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>2.3</v>
@@ -21635,7 +21650,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21713,10 +21728,10 @@
         <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ100">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR100">
         <v>1.21</v>
@@ -21922,7 +21937,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ101">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR101">
         <v>1.37</v>
@@ -22334,7 +22349,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ103">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR103">
         <v>1.4</v>
@@ -22459,7 +22474,7 @@
         <v>103</v>
       </c>
       <c r="P104" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22743,7 +22758,7 @@
         <v>2.13</v>
       </c>
       <c r="AP105">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ105">
         <v>1.85</v>
@@ -22871,7 +22886,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q106">
         <v>1.67</v>
@@ -23567,10 +23582,10 @@
         <v>1.13</v>
       </c>
       <c r="AP109">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ109">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR109">
         <v>1.67</v>
@@ -23695,7 +23710,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -23773,10 +23788,10 @@
         <v>1.11</v>
       </c>
       <c r="AP110">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ110">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR110">
         <v>1.61</v>
@@ -23901,7 +23916,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -23982,7 +23997,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ111">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR111">
         <v>1.32</v>
@@ -24107,7 +24122,7 @@
         <v>165</v>
       </c>
       <c r="P112" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q112">
         <v>4.53</v>
@@ -24391,10 +24406,10 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR113">
         <v>1.71</v>
@@ -24597,7 +24612,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ114">
         <v>1.08</v>
@@ -24725,7 +24740,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24806,7 +24821,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ115">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR115">
         <v>1.44</v>
@@ -24931,7 +24946,7 @@
         <v>89</v>
       </c>
       <c r="P116" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25137,7 +25152,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25549,7 +25564,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q119">
         <v>4.33</v>
@@ -25961,7 +25976,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26167,7 +26182,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q122">
         <v>2.38</v>
@@ -26373,7 +26388,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q123">
         <v>2.6</v>
@@ -26451,10 +26466,10 @@
         <v>0.9</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ123">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR123">
         <v>1.5</v>
@@ -26657,7 +26672,7 @@
         <v>0.8</v>
       </c>
       <c r="AP124">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ124">
         <v>0.85</v>
@@ -26785,7 +26800,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q125">
         <v>5.5</v>
@@ -26863,10 +26878,10 @@
         <v>1.3</v>
       </c>
       <c r="AP125">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ125">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR125">
         <v>1.29</v>
@@ -26991,7 +27006,7 @@
         <v>87</v>
       </c>
       <c r="P126" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27197,7 +27212,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27278,7 +27293,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ127">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR127">
         <v>1.17</v>
@@ -27403,7 +27418,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q128">
         <v>3.5</v>
@@ -27609,7 +27624,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q129">
         <v>5.5</v>
@@ -28021,7 +28036,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28099,7 +28114,7 @@
         <v>1.7</v>
       </c>
       <c r="AP131">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ131">
         <v>1.77</v>
@@ -28514,7 +28529,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ133">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR133">
         <v>1.71</v>
@@ -28639,7 +28654,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28717,7 +28732,7 @@
         <v>1.55</v>
       </c>
       <c r="AP134">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ134">
         <v>1.77</v>
@@ -29051,7 +29066,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29257,7 +29272,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29541,7 +29556,7 @@
         <v>1.82</v>
       </c>
       <c r="AP138">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ138">
         <v>1.85</v>
@@ -29669,7 +29684,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -29750,7 +29765,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ139">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR139">
         <v>1.73</v>
@@ -29953,10 +29968,10 @@
         <v>0.82</v>
       </c>
       <c r="AP140">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ140">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR140">
         <v>1.8</v>
@@ -30081,7 +30096,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q141">
         <v>3.5</v>
@@ -30287,7 +30302,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q142">
         <v>3.5</v>
@@ -30574,7 +30589,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ143">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR143">
         <v>1.65</v>
@@ -30780,7 +30795,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ144">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR144">
         <v>2.17</v>
@@ -30983,7 +30998,7 @@
         <v>1.73</v>
       </c>
       <c r="AP145">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ145">
         <v>1.77</v>
@@ -31111,7 +31126,7 @@
         <v>134</v>
       </c>
       <c r="P146" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31523,7 +31538,7 @@
         <v>89</v>
       </c>
       <c r="P148" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31729,7 +31744,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -31935,7 +31950,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32504,6 +32519,1036 @@
       </c>
       <c r="BP152">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7859423</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45766.5</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="G153" t="s">
+        <v>79</v>
+      </c>
+      <c r="H153" t="s">
+        <v>70</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153" t="s">
+        <v>89</v>
+      </c>
+      <c r="P153" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q153">
+        <v>3.2</v>
+      </c>
+      <c r="R153">
+        <v>2.05</v>
+      </c>
+      <c r="S153">
+        <v>3.6</v>
+      </c>
+      <c r="T153">
+        <v>1.44</v>
+      </c>
+      <c r="U153">
+        <v>2.63</v>
+      </c>
+      <c r="V153">
+        <v>3.25</v>
+      </c>
+      <c r="W153">
+        <v>1.33</v>
+      </c>
+      <c r="X153">
+        <v>9</v>
+      </c>
+      <c r="Y153">
+        <v>1.07</v>
+      </c>
+      <c r="Z153">
+        <v>2.47</v>
+      </c>
+      <c r="AA153">
+        <v>3.09</v>
+      </c>
+      <c r="AB153">
+        <v>2.93</v>
+      </c>
+      <c r="AC153">
+        <v>1.07</v>
+      </c>
+      <c r="AD153">
+        <v>8</v>
+      </c>
+      <c r="AE153">
+        <v>1.38</v>
+      </c>
+      <c r="AF153">
+        <v>3</v>
+      </c>
+      <c r="AG153">
+        <v>2</v>
+      </c>
+      <c r="AH153">
+        <v>1.67</v>
+      </c>
+      <c r="AI153">
+        <v>1.8</v>
+      </c>
+      <c r="AJ153">
+        <v>1.95</v>
+      </c>
+      <c r="AK153">
+        <v>1.4</v>
+      </c>
+      <c r="AL153">
+        <v>1.33</v>
+      </c>
+      <c r="AM153">
+        <v>1.52</v>
+      </c>
+      <c r="AN153">
+        <v>1.08</v>
+      </c>
+      <c r="AO153">
+        <v>0.75</v>
+      </c>
+      <c r="AP153">
+        <v>1.08</v>
+      </c>
+      <c r="AQ153">
+        <v>0.77</v>
+      </c>
+      <c r="AR153">
+        <v>1.35</v>
+      </c>
+      <c r="AS153">
+        <v>1.12</v>
+      </c>
+      <c r="AT153">
+        <v>2.47</v>
+      </c>
+      <c r="AU153">
+        <v>4</v>
+      </c>
+      <c r="AV153">
+        <v>7</v>
+      </c>
+      <c r="AW153">
+        <v>13</v>
+      </c>
+      <c r="AX153">
+        <v>9</v>
+      </c>
+      <c r="AY153">
+        <v>17</v>
+      </c>
+      <c r="AZ153">
+        <v>16</v>
+      </c>
+      <c r="BA153">
+        <v>7</v>
+      </c>
+      <c r="BB153">
+        <v>7</v>
+      </c>
+      <c r="BC153">
+        <v>14</v>
+      </c>
+      <c r="BD153">
+        <v>1.91</v>
+      </c>
+      <c r="BE153">
+        <v>6.4</v>
+      </c>
+      <c r="BF153">
+        <v>2.07</v>
+      </c>
+      <c r="BG153">
+        <v>1.4</v>
+      </c>
+      <c r="BH153">
+        <v>2.65</v>
+      </c>
+      <c r="BI153">
+        <v>1.68</v>
+      </c>
+      <c r="BJ153">
+        <v>2.02</v>
+      </c>
+      <c r="BK153">
+        <v>1.9</v>
+      </c>
+      <c r="BL153">
+        <v>1.9</v>
+      </c>
+      <c r="BM153">
+        <v>2.7</v>
+      </c>
+      <c r="BN153">
+        <v>1.38</v>
+      </c>
+      <c r="BO153">
+        <v>3.55</v>
+      </c>
+      <c r="BP153">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7859422</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45766.5</v>
+      </c>
+      <c r="F154">
+        <v>4</v>
+      </c>
+      <c r="G154" t="s">
+        <v>71</v>
+      </c>
+      <c r="H154" t="s">
+        <v>72</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154" t="s">
+        <v>192</v>
+      </c>
+      <c r="P154" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q154">
+        <v>3</v>
+      </c>
+      <c r="R154">
+        <v>2.05</v>
+      </c>
+      <c r="S154">
+        <v>4</v>
+      </c>
+      <c r="T154">
+        <v>1.44</v>
+      </c>
+      <c r="U154">
+        <v>2.63</v>
+      </c>
+      <c r="V154">
+        <v>3.4</v>
+      </c>
+      <c r="W154">
+        <v>1.3</v>
+      </c>
+      <c r="X154">
+        <v>10</v>
+      </c>
+      <c r="Y154">
+        <v>1.06</v>
+      </c>
+      <c r="Z154">
+        <v>2.21</v>
+      </c>
+      <c r="AA154">
+        <v>3.2</v>
+      </c>
+      <c r="AB154">
+        <v>3.27</v>
+      </c>
+      <c r="AC154">
+        <v>1.07</v>
+      </c>
+      <c r="AD154">
+        <v>8</v>
+      </c>
+      <c r="AE154">
+        <v>1.36</v>
+      </c>
+      <c r="AF154">
+        <v>3.1</v>
+      </c>
+      <c r="AG154">
+        <v>1.95</v>
+      </c>
+      <c r="AH154">
+        <v>1.79</v>
+      </c>
+      <c r="AI154">
+        <v>1.91</v>
+      </c>
+      <c r="AJ154">
+        <v>1.91</v>
+      </c>
+      <c r="AK154">
+        <v>1.34</v>
+      </c>
+      <c r="AL154">
+        <v>1.32</v>
+      </c>
+      <c r="AM154">
+        <v>1.62</v>
+      </c>
+      <c r="AN154">
+        <v>0.67</v>
+      </c>
+      <c r="AO154">
+        <v>1.08</v>
+      </c>
+      <c r="AP154">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ154">
+        <v>1.08</v>
+      </c>
+      <c r="AR154">
+        <v>1.31</v>
+      </c>
+      <c r="AS154">
+        <v>1.15</v>
+      </c>
+      <c r="AT154">
+        <v>2.46</v>
+      </c>
+      <c r="AU154">
+        <v>6</v>
+      </c>
+      <c r="AV154">
+        <v>5</v>
+      </c>
+      <c r="AW154">
+        <v>7</v>
+      </c>
+      <c r="AX154">
+        <v>4</v>
+      </c>
+      <c r="AY154">
+        <v>13</v>
+      </c>
+      <c r="AZ154">
+        <v>9</v>
+      </c>
+      <c r="BA154">
+        <v>7</v>
+      </c>
+      <c r="BB154">
+        <v>6</v>
+      </c>
+      <c r="BC154">
+        <v>13</v>
+      </c>
+      <c r="BD154">
+        <v>1.74</v>
+      </c>
+      <c r="BE154">
+        <v>6.5</v>
+      </c>
+      <c r="BF154">
+        <v>2.32</v>
+      </c>
+      <c r="BG154">
+        <v>1.33</v>
+      </c>
+      <c r="BH154">
+        <v>2.95</v>
+      </c>
+      <c r="BI154">
+        <v>1.57</v>
+      </c>
+      <c r="BJ154">
+        <v>2.23</v>
+      </c>
+      <c r="BK154">
+        <v>1.92</v>
+      </c>
+      <c r="BL154">
+        <v>1.77</v>
+      </c>
+      <c r="BM154">
+        <v>2.4</v>
+      </c>
+      <c r="BN154">
+        <v>1.49</v>
+      </c>
+      <c r="BO154">
+        <v>3.15</v>
+      </c>
+      <c r="BP154">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7859424</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45767.39583333334</v>
+      </c>
+      <c r="F155">
+        <v>4</v>
+      </c>
+      <c r="G155" t="s">
+        <v>73</v>
+      </c>
+      <c r="H155" t="s">
+        <v>74</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155">
+        <v>5</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>6</v>
+      </c>
+      <c r="O155" t="s">
+        <v>193</v>
+      </c>
+      <c r="P155" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q155">
+        <v>3.75</v>
+      </c>
+      <c r="R155">
+        <v>2.1</v>
+      </c>
+      <c r="S155">
+        <v>3</v>
+      </c>
+      <c r="T155">
+        <v>1.4</v>
+      </c>
+      <c r="U155">
+        <v>2.75</v>
+      </c>
+      <c r="V155">
+        <v>3</v>
+      </c>
+      <c r="W155">
+        <v>1.36</v>
+      </c>
+      <c r="X155">
+        <v>9</v>
+      </c>
+      <c r="Y155">
+        <v>1.07</v>
+      </c>
+      <c r="Z155">
+        <v>3.13</v>
+      </c>
+      <c r="AA155">
+        <v>3.3</v>
+      </c>
+      <c r="AB155">
+        <v>2.23</v>
+      </c>
+      <c r="AC155">
+        <v>1.06</v>
+      </c>
+      <c r="AD155">
+        <v>8.5</v>
+      </c>
+      <c r="AE155">
+        <v>1.33</v>
+      </c>
+      <c r="AF155">
+        <v>3.25</v>
+      </c>
+      <c r="AG155">
+        <v>1.91</v>
+      </c>
+      <c r="AH155">
+        <v>1.83</v>
+      </c>
+      <c r="AI155">
+        <v>1.75</v>
+      </c>
+      <c r="AJ155">
+        <v>2</v>
+      </c>
+      <c r="AK155">
+        <v>1.62</v>
+      </c>
+      <c r="AL155">
+        <v>1.28</v>
+      </c>
+      <c r="AM155">
+        <v>1.35</v>
+      </c>
+      <c r="AN155">
+        <v>1.5</v>
+      </c>
+      <c r="AO155">
+        <v>0.75</v>
+      </c>
+      <c r="AP155">
+        <v>1.62</v>
+      </c>
+      <c r="AQ155">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR155">
+        <v>1.53</v>
+      </c>
+      <c r="AS155">
+        <v>1.49</v>
+      </c>
+      <c r="AT155">
+        <v>3.02</v>
+      </c>
+      <c r="AU155">
+        <v>9</v>
+      </c>
+      <c r="AV155">
+        <v>2</v>
+      </c>
+      <c r="AW155">
+        <v>17</v>
+      </c>
+      <c r="AX155">
+        <v>7</v>
+      </c>
+      <c r="AY155">
+        <v>31</v>
+      </c>
+      <c r="AZ155">
+        <v>10</v>
+      </c>
+      <c r="BA155">
+        <v>5</v>
+      </c>
+      <c r="BB155">
+        <v>5</v>
+      </c>
+      <c r="BC155">
+        <v>10</v>
+      </c>
+      <c r="BD155">
+        <v>2.38</v>
+      </c>
+      <c r="BE155">
+        <v>6.5</v>
+      </c>
+      <c r="BF155">
+        <v>1.71</v>
+      </c>
+      <c r="BG155">
+        <v>1.34</v>
+      </c>
+      <c r="BH155">
+        <v>2.9</v>
+      </c>
+      <c r="BI155">
+        <v>1.58</v>
+      </c>
+      <c r="BJ155">
+        <v>2.18</v>
+      </c>
+      <c r="BK155">
+        <v>1.9</v>
+      </c>
+      <c r="BL155">
+        <v>1.9</v>
+      </c>
+      <c r="BM155">
+        <v>2.48</v>
+      </c>
+      <c r="BN155">
+        <v>1.47</v>
+      </c>
+      <c r="BO155">
+        <v>3.2</v>
+      </c>
+      <c r="BP155">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7859425</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45767.39583333334</v>
+      </c>
+      <c r="F156">
+        <v>4</v>
+      </c>
+      <c r="G156" t="s">
+        <v>81</v>
+      </c>
+      <c r="H156" t="s">
+        <v>75</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156" t="s">
+        <v>194</v>
+      </c>
+      <c r="P156" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q156">
+        <v>2.2</v>
+      </c>
+      <c r="R156">
+        <v>2.25</v>
+      </c>
+      <c r="S156">
+        <v>5.5</v>
+      </c>
+      <c r="T156">
+        <v>1.4</v>
+      </c>
+      <c r="U156">
+        <v>2.75</v>
+      </c>
+      <c r="V156">
+        <v>2.75</v>
+      </c>
+      <c r="W156">
+        <v>1.4</v>
+      </c>
+      <c r="X156">
+        <v>8</v>
+      </c>
+      <c r="Y156">
+        <v>1.08</v>
+      </c>
+      <c r="Z156">
+        <v>1.6</v>
+      </c>
+      <c r="AA156">
+        <v>3.9</v>
+      </c>
+      <c r="AB156">
+        <v>5.3</v>
+      </c>
+      <c r="AC156">
+        <v>1.05</v>
+      </c>
+      <c r="AD156">
+        <v>9.5</v>
+      </c>
+      <c r="AE156">
+        <v>1.28</v>
+      </c>
+      <c r="AF156">
+        <v>3.5</v>
+      </c>
+      <c r="AG156">
+        <v>1.87</v>
+      </c>
+      <c r="AH156">
+        <v>1.87</v>
+      </c>
+      <c r="AI156">
+        <v>1.95</v>
+      </c>
+      <c r="AJ156">
+        <v>1.8</v>
+      </c>
+      <c r="AK156">
+        <v>1.13</v>
+      </c>
+      <c r="AL156">
+        <v>1.2</v>
+      </c>
+      <c r="AM156">
+        <v>2.3</v>
+      </c>
+      <c r="AN156">
+        <v>2.42</v>
+      </c>
+      <c r="AO156">
+        <v>1</v>
+      </c>
+      <c r="AP156">
+        <v>2.46</v>
+      </c>
+      <c r="AQ156">
+        <v>0.92</v>
+      </c>
+      <c r="AR156">
+        <v>1.75</v>
+      </c>
+      <c r="AS156">
+        <v>1.17</v>
+      </c>
+      <c r="AT156">
+        <v>2.92</v>
+      </c>
+      <c r="AU156">
+        <v>5</v>
+      </c>
+      <c r="AV156">
+        <v>5</v>
+      </c>
+      <c r="AW156">
+        <v>11</v>
+      </c>
+      <c r="AX156">
+        <v>7</v>
+      </c>
+      <c r="AY156">
+        <v>17</v>
+      </c>
+      <c r="AZ156">
+        <v>13</v>
+      </c>
+      <c r="BA156">
+        <v>3</v>
+      </c>
+      <c r="BB156">
+        <v>5</v>
+      </c>
+      <c r="BC156">
+        <v>8</v>
+      </c>
+      <c r="BD156">
+        <v>1.48</v>
+      </c>
+      <c r="BE156">
+        <v>6.75</v>
+      </c>
+      <c r="BF156">
+        <v>2.95</v>
+      </c>
+      <c r="BG156">
+        <v>1.43</v>
+      </c>
+      <c r="BH156">
+        <v>2.55</v>
+      </c>
+      <c r="BI156">
+        <v>1.72</v>
+      </c>
+      <c r="BJ156">
+        <v>1.98</v>
+      </c>
+      <c r="BK156">
+        <v>2.17</v>
+      </c>
+      <c r="BL156">
+        <v>1.6</v>
+      </c>
+      <c r="BM156">
+        <v>2.8</v>
+      </c>
+      <c r="BN156">
+        <v>1.37</v>
+      </c>
+      <c r="BO156">
+        <v>3.65</v>
+      </c>
+      <c r="BP156">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7859426</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45767.5</v>
+      </c>
+      <c r="F157">
+        <v>4</v>
+      </c>
+      <c r="G157" t="s">
+        <v>80</v>
+      </c>
+      <c r="H157" t="s">
+        <v>78</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>2</v>
+      </c>
+      <c r="K157">
+        <v>3</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>3</v>
+      </c>
+      <c r="N157">
+        <v>4</v>
+      </c>
+      <c r="O157" t="s">
+        <v>195</v>
+      </c>
+      <c r="P157" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q157">
+        <v>3.5</v>
+      </c>
+      <c r="R157">
+        <v>2.1</v>
+      </c>
+      <c r="S157">
+        <v>3</v>
+      </c>
+      <c r="T157">
+        <v>1.4</v>
+      </c>
+      <c r="U157">
+        <v>2.75</v>
+      </c>
+      <c r="V157">
+        <v>2.75</v>
+      </c>
+      <c r="W157">
+        <v>1.4</v>
+      </c>
+      <c r="X157">
+        <v>8</v>
+      </c>
+      <c r="Y157">
+        <v>1.08</v>
+      </c>
+      <c r="Z157">
+        <v>2.94</v>
+      </c>
+      <c r="AA157">
+        <v>3.36</v>
+      </c>
+      <c r="AB157">
+        <v>2.32</v>
+      </c>
+      <c r="AC157">
+        <v>1.06</v>
+      </c>
+      <c r="AD157">
+        <v>8.5</v>
+      </c>
+      <c r="AE157">
+        <v>1.3</v>
+      </c>
+      <c r="AF157">
+        <v>3.45</v>
+      </c>
+      <c r="AG157">
+        <v>1.79</v>
+      </c>
+      <c r="AH157">
+        <v>1.95</v>
+      </c>
+      <c r="AI157">
+        <v>1.7</v>
+      </c>
+      <c r="AJ157">
+        <v>2.05</v>
+      </c>
+      <c r="AK157">
+        <v>1.57</v>
+      </c>
+      <c r="AL157">
+        <v>1.28</v>
+      </c>
+      <c r="AM157">
+        <v>1.38</v>
+      </c>
+      <c r="AN157">
+        <v>2.42</v>
+      </c>
+      <c r="AO157">
+        <v>1.42</v>
+      </c>
+      <c r="AP157">
+        <v>2.23</v>
+      </c>
+      <c r="AQ157">
+        <v>1.54</v>
+      </c>
+      <c r="AR157">
+        <v>1.69</v>
+      </c>
+      <c r="AS157">
+        <v>1.55</v>
+      </c>
+      <c r="AT157">
+        <v>3.24</v>
+      </c>
+      <c r="AU157">
+        <v>8</v>
+      </c>
+      <c r="AV157">
+        <v>7</v>
+      </c>
+      <c r="AW157">
+        <v>7</v>
+      </c>
+      <c r="AX157">
+        <v>7</v>
+      </c>
+      <c r="AY157">
+        <v>17</v>
+      </c>
+      <c r="AZ157">
+        <v>18</v>
+      </c>
+      <c r="BA157">
+        <v>9</v>
+      </c>
+      <c r="BB157">
+        <v>4</v>
+      </c>
+      <c r="BC157">
+        <v>13</v>
+      </c>
+      <c r="BD157">
+        <v>2.17</v>
+      </c>
+      <c r="BE157">
+        <v>6.4</v>
+      </c>
+      <c r="BF157">
+        <v>1.84</v>
+      </c>
+      <c r="BG157">
+        <v>1.34</v>
+      </c>
+      <c r="BH157">
+        <v>2.9</v>
+      </c>
+      <c r="BI157">
+        <v>1.58</v>
+      </c>
+      <c r="BJ157">
+        <v>2.18</v>
+      </c>
+      <c r="BK157">
+        <v>1.98</v>
+      </c>
+      <c r="BL157">
+        <v>1.82</v>
+      </c>
+      <c r="BM157">
+        <v>2.45</v>
+      </c>
+      <c r="BN157">
+        <v>1.48</v>
+      </c>
+      <c r="BO157">
+        <v>3.2</v>
+      </c>
+      <c r="BP157">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,6 +604,12 @@
     <t>['17']</t>
   </si>
   <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
     <t>['4', '6', '45+2']</t>
   </si>
   <si>
@@ -842,6 +848,12 @@
   </si>
   <si>
     <t>['8', '11', '64']</t>
+  </si>
+  <si>
+    <t>['58', '69', '90+6']</t>
+  </si>
+  <si>
+    <t>['12', '15', '54', '84']</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP157"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1462,7 +1474,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1540,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ2">
         <v>1.54</v>
@@ -1668,7 +1680,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1874,7 +1886,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1955,7 +1967,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ4">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2698,7 +2710,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -2779,7 +2791,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ8">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2982,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ9">
         <v>0.77</v>
@@ -3110,7 +3122,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -3394,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>0.6899999999999999</v>
@@ -3809,7 +3821,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ13">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3934,7 +3946,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q14">
         <v>3.1</v>
@@ -4012,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ14">
         <v>0.92</v>
@@ -4140,7 +4152,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4218,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>1.85</v>
@@ -4346,7 +4358,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -5170,7 +5182,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5248,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ20">
         <v>0.85</v>
@@ -5376,7 +5388,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5457,7 +5469,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ21">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR21">
         <v>2.09</v>
@@ -5582,7 +5594,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>2.4</v>
@@ -5788,7 +5800,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5869,7 +5881,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ23">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR23">
         <v>1.73</v>
@@ -6200,7 +6212,7 @@
         <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6278,7 +6290,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>0.92</v>
@@ -6612,7 +6624,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6818,7 +6830,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7024,7 +7036,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q29">
         <v>4.33</v>
@@ -7723,7 +7735,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ32">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR32">
         <v>1.09</v>
@@ -7848,7 +7860,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7926,10 +7938,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ33">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR33">
         <v>1.22</v>
@@ -8054,7 +8066,7 @@
         <v>89</v>
       </c>
       <c r="P34" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8260,7 +8272,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8338,10 +8350,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR35">
         <v>1.2</v>
@@ -8466,7 +8478,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q36">
         <v>2.1</v>
@@ -8672,7 +8684,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q37">
         <v>2.2</v>
@@ -8956,7 +8968,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ38">
         <v>1.54</v>
@@ -9084,7 +9096,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9290,7 +9302,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9702,7 +9714,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10114,7 +10126,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q44">
         <v>2.4</v>
@@ -10195,7 +10207,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ44">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR44">
         <v>1.82</v>
@@ -10320,7 +10332,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q45">
         <v>2.2</v>
@@ -10607,7 +10619,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ46">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR46">
         <v>1.2</v>
@@ -10810,7 +10822,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ47">
         <v>0.85</v>
@@ -10938,7 +10950,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11019,7 +11031,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ48">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR48">
         <v>1.74</v>
@@ -11428,7 +11440,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ50">
         <v>0.92</v>
@@ -11762,7 +11774,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12174,7 +12186,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12380,7 +12392,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12667,7 +12679,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ56">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR56">
         <v>2.36</v>
@@ -12792,7 +12804,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12870,7 +12882,7 @@
         <v>0.4</v>
       </c>
       <c r="AP57">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
         <v>1.62</v>
@@ -12998,7 +13010,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13076,10 +13088,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ58">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR58">
         <v>1</v>
@@ -13204,7 +13216,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13285,7 +13297,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ59">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR59">
         <v>1.71</v>
@@ -13822,7 +13834,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14312,7 +14324,7 @@
         <v>1.25</v>
       </c>
       <c r="AP64">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ64">
         <v>0.6899999999999999</v>
@@ -14440,7 +14452,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14646,7 +14658,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14727,7 +14739,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ66">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR66">
         <v>1.38</v>
@@ -14852,7 +14864,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15342,7 +15354,7 @@
         <v>1.8</v>
       </c>
       <c r="AP69">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
         <v>1.77</v>
@@ -15548,10 +15560,10 @@
         <v>0.8</v>
       </c>
       <c r="AP70">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ70">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR70">
         <v>0.89</v>
@@ -16166,7 +16178,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ73">
         <v>0.85</v>
@@ -16294,7 +16306,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16706,7 +16718,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16787,7 +16799,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ76">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR76">
         <v>1.31</v>
@@ -17118,7 +17130,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -17199,7 +17211,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ78">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR78">
         <v>2.16</v>
@@ -17402,7 +17414,7 @@
         <v>1.17</v>
       </c>
       <c r="AP79">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ79">
         <v>0.6899999999999999</v>
@@ -17817,7 +17829,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ81">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR81">
         <v>1.54</v>
@@ -17942,7 +17954,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q82">
         <v>2.88</v>
@@ -18229,7 +18241,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ83">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR83">
         <v>1.76</v>
@@ -18354,7 +18366,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q84">
         <v>5.5</v>
@@ -18560,7 +18572,7 @@
         <v>119</v>
       </c>
       <c r="P85" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18766,7 +18778,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -18844,7 +18856,7 @@
         <v>1.5</v>
       </c>
       <c r="AP86">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ86">
         <v>1.77</v>
@@ -18972,7 +18984,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19050,7 +19062,7 @@
         <v>0.86</v>
       </c>
       <c r="AP87">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ87">
         <v>0.85</v>
@@ -19384,7 +19396,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19671,7 +19683,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ90">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR90">
         <v>2.08</v>
@@ -19796,7 +19808,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -19877,7 +19889,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ91">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -20002,7 +20014,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20080,7 +20092,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ92">
         <v>1.85</v>
@@ -20208,7 +20220,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q93">
         <v>2.4</v>
@@ -20414,7 +20426,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20620,7 +20632,7 @@
         <v>89</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20698,10 +20710,10 @@
         <v>0.71</v>
       </c>
       <c r="AP95">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ95">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR95">
         <v>1.42</v>
@@ -20907,7 +20919,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ96">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR96">
         <v>1.72</v>
@@ -21238,7 +21250,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21444,7 +21456,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>2.3</v>
@@ -21650,7 +21662,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21934,7 +21946,7 @@
         <v>1.13</v>
       </c>
       <c r="AP101">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
         <v>1.54</v>
@@ -22140,10 +22152,10 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ102">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR102">
         <v>0.9</v>
@@ -22474,7 +22486,7 @@
         <v>103</v>
       </c>
       <c r="P104" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22555,7 +22567,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ104">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR104">
         <v>1.34</v>
@@ -22886,7 +22898,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q106">
         <v>1.67</v>
@@ -23170,10 +23182,10 @@
         <v>1.63</v>
       </c>
       <c r="AP107">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ107">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR107">
         <v>1.33</v>
@@ -23710,7 +23722,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -23916,7 +23928,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -23994,7 +24006,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ111">
         <v>0.77</v>
@@ -24122,7 +24134,7 @@
         <v>165</v>
       </c>
       <c r="P112" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q112">
         <v>4.53</v>
@@ -24200,7 +24212,7 @@
         <v>1.88</v>
       </c>
       <c r="AP112">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ112">
         <v>1.77</v>
@@ -24615,7 +24627,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ114">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR114">
         <v>1.24</v>
@@ -24740,7 +24752,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24946,7 +24958,7 @@
         <v>89</v>
       </c>
       <c r="P116" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25152,7 +25164,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25230,7 +25242,7 @@
         <v>1.33</v>
       </c>
       <c r="AP117">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ117">
         <v>1.62</v>
@@ -25439,7 +25451,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ118">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR118">
         <v>1.66</v>
@@ -25564,7 +25576,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q119">
         <v>4.33</v>
@@ -25642,10 +25654,10 @@
         <v>1.56</v>
       </c>
       <c r="AP119">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR119">
         <v>1.39</v>
@@ -25976,7 +25988,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26182,7 +26194,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q122">
         <v>2.38</v>
@@ -26388,7 +26400,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q123">
         <v>2.6</v>
@@ -26800,7 +26812,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q125">
         <v>5.5</v>
@@ -27006,7 +27018,7 @@
         <v>87</v>
       </c>
       <c r="P126" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27084,7 +27096,7 @@
         <v>1.7</v>
       </c>
       <c r="AP126">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ126">
         <v>1.85</v>
@@ -27212,7 +27224,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27418,7 +27430,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q128">
         <v>3.5</v>
@@ -27496,10 +27508,10 @@
         <v>0.7</v>
       </c>
       <c r="AP128">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ128">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR128">
         <v>1.34</v>
@@ -27624,7 +27636,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q129">
         <v>5.5</v>
@@ -27702,7 +27714,7 @@
         <v>1.5</v>
       </c>
       <c r="AP129">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ129">
         <v>1.62</v>
@@ -27911,7 +27923,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ130">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR130">
         <v>1.42</v>
@@ -28036,7 +28048,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28117,7 +28129,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ131">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR131">
         <v>1.73</v>
@@ -28654,7 +28666,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28735,7 +28747,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ134">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR134">
         <v>1.26</v>
@@ -28938,7 +28950,7 @@
         <v>0.91</v>
       </c>
       <c r="AP135">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ135">
         <v>0.85</v>
@@ -29066,7 +29078,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29272,7 +29284,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29684,7 +29696,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -30096,7 +30108,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q141">
         <v>3.5</v>
@@ -30174,10 +30186,10 @@
         <v>0.73</v>
       </c>
       <c r="AP141">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ141">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR141">
         <v>1.37</v>
@@ -30302,7 +30314,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q142">
         <v>3.5</v>
@@ -30380,10 +30392,10 @@
         <v>0.91</v>
       </c>
       <c r="AP142">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ142">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR142">
         <v>1.09</v>
@@ -31126,7 +31138,7 @@
         <v>134</v>
       </c>
       <c r="P146" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31410,10 +31422,10 @@
         <v>0.92</v>
       </c>
       <c r="AP147">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ147">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR147">
         <v>1.32</v>
@@ -31538,7 +31550,7 @@
         <v>89</v>
       </c>
       <c r="P148" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31619,7 +31631,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ148">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR148">
         <v>1.22</v>
@@ -31744,7 +31756,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -31822,7 +31834,7 @@
         <v>0.92</v>
       </c>
       <c r="AP149">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ149">
         <v>0.85</v>
@@ -31950,7 +31962,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32646,7 +32658,7 @@
         <v>0.75</v>
       </c>
       <c r="AP153">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ153">
         <v>0.77</v>
@@ -32774,7 +32786,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -32855,7 +32867,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ154">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR154">
         <v>1.31</v>
@@ -32980,7 +32992,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q155">
         <v>3.75</v>
@@ -33392,7 +33404,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q157">
         <v>3.5</v>
@@ -33549,6 +33561,624 @@
       </c>
       <c r="BP157">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7859427</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45769.5625</v>
+      </c>
+      <c r="F158">
+        <v>5</v>
+      </c>
+      <c r="G158" t="s">
+        <v>77</v>
+      </c>
+      <c r="H158" t="s">
+        <v>71</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158" t="s">
+        <v>196</v>
+      </c>
+      <c r="P158" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q158">
+        <v>3.1</v>
+      </c>
+      <c r="R158">
+        <v>2.05</v>
+      </c>
+      <c r="S158">
+        <v>3.6</v>
+      </c>
+      <c r="T158">
+        <v>1.44</v>
+      </c>
+      <c r="U158">
+        <v>2.63</v>
+      </c>
+      <c r="V158">
+        <v>3.25</v>
+      </c>
+      <c r="W158">
+        <v>1.33</v>
+      </c>
+      <c r="X158">
+        <v>10</v>
+      </c>
+      <c r="Y158">
+        <v>1.06</v>
+      </c>
+      <c r="Z158">
+        <v>2.38</v>
+      </c>
+      <c r="AA158">
+        <v>3.18</v>
+      </c>
+      <c r="AB158">
+        <v>2.98</v>
+      </c>
+      <c r="AC158">
+        <v>1.03</v>
+      </c>
+      <c r="AD158">
+        <v>7.3</v>
+      </c>
+      <c r="AE158">
+        <v>1.34</v>
+      </c>
+      <c r="AF158">
+        <v>2.88</v>
+      </c>
+      <c r="AG158">
+        <v>2</v>
+      </c>
+      <c r="AH158">
+        <v>1.65</v>
+      </c>
+      <c r="AI158">
+        <v>1.8</v>
+      </c>
+      <c r="AJ158">
+        <v>1.95</v>
+      </c>
+      <c r="AK158">
+        <v>1.45</v>
+      </c>
+      <c r="AL158">
+        <v>1.3</v>
+      </c>
+      <c r="AM158">
+        <v>1.45</v>
+      </c>
+      <c r="AN158">
+        <v>0.92</v>
+      </c>
+      <c r="AO158">
+        <v>0.85</v>
+      </c>
+      <c r="AP158">
+        <v>1.07</v>
+      </c>
+      <c r="AQ158">
+        <v>0.79</v>
+      </c>
+      <c r="AR158">
+        <v>1.17</v>
+      </c>
+      <c r="AS158">
+        <v>1.12</v>
+      </c>
+      <c r="AT158">
+        <v>2.29</v>
+      </c>
+      <c r="AU158">
+        <v>5</v>
+      </c>
+      <c r="AV158">
+        <v>4</v>
+      </c>
+      <c r="AW158">
+        <v>6</v>
+      </c>
+      <c r="AX158">
+        <v>11</v>
+      </c>
+      <c r="AY158">
+        <v>14</v>
+      </c>
+      <c r="AZ158">
+        <v>19</v>
+      </c>
+      <c r="BA158">
+        <v>5</v>
+      </c>
+      <c r="BB158">
+        <v>5</v>
+      </c>
+      <c r="BC158">
+        <v>10</v>
+      </c>
+      <c r="BD158">
+        <v>2.23</v>
+      </c>
+      <c r="BE158">
+        <v>6.25</v>
+      </c>
+      <c r="BF158">
+        <v>2.06</v>
+      </c>
+      <c r="BG158">
+        <v>1.36</v>
+      </c>
+      <c r="BH158">
+        <v>2.78</v>
+      </c>
+      <c r="BI158">
+        <v>1.7</v>
+      </c>
+      <c r="BJ158">
+        <v>2.05</v>
+      </c>
+      <c r="BK158">
+        <v>2.05</v>
+      </c>
+      <c r="BL158">
+        <v>1.7</v>
+      </c>
+      <c r="BM158">
+        <v>2.83</v>
+      </c>
+      <c r="BN158">
+        <v>1.33</v>
+      </c>
+      <c r="BO158">
+        <v>4</v>
+      </c>
+      <c r="BP158">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7859428</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45769.5625</v>
+      </c>
+      <c r="F159">
+        <v>5</v>
+      </c>
+      <c r="G159" t="s">
+        <v>70</v>
+      </c>
+      <c r="H159" t="s">
+        <v>72</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>3</v>
+      </c>
+      <c r="N159">
+        <v>3</v>
+      </c>
+      <c r="O159" t="s">
+        <v>89</v>
+      </c>
+      <c r="P159" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q159">
+        <v>3.4</v>
+      </c>
+      <c r="R159">
+        <v>2.1</v>
+      </c>
+      <c r="S159">
+        <v>3.1</v>
+      </c>
+      <c r="T159">
+        <v>1.4</v>
+      </c>
+      <c r="U159">
+        <v>2.75</v>
+      </c>
+      <c r="V159">
+        <v>3</v>
+      </c>
+      <c r="W159">
+        <v>1.36</v>
+      </c>
+      <c r="X159">
+        <v>8</v>
+      </c>
+      <c r="Y159">
+        <v>1.08</v>
+      </c>
+      <c r="Z159">
+        <v>2.77</v>
+      </c>
+      <c r="AA159">
+        <v>3.36</v>
+      </c>
+      <c r="AB159">
+        <v>2.43</v>
+      </c>
+      <c r="AC159">
+        <v>1</v>
+      </c>
+      <c r="AD159">
+        <v>10.2</v>
+      </c>
+      <c r="AE159">
+        <v>1.22</v>
+      </c>
+      <c r="AF159">
+        <v>3.64</v>
+      </c>
+      <c r="AG159">
+        <v>1.89</v>
+      </c>
+      <c r="AH159">
+        <v>1.85</v>
+      </c>
+      <c r="AI159">
+        <v>1.7</v>
+      </c>
+      <c r="AJ159">
+        <v>2.05</v>
+      </c>
+      <c r="AK159">
+        <v>1.53</v>
+      </c>
+      <c r="AL159">
+        <v>1.25</v>
+      </c>
+      <c r="AM159">
+        <v>1.42</v>
+      </c>
+      <c r="AN159">
+        <v>0.85</v>
+      </c>
+      <c r="AO159">
+        <v>1.08</v>
+      </c>
+      <c r="AP159">
+        <v>0.79</v>
+      </c>
+      <c r="AQ159">
+        <v>1.21</v>
+      </c>
+      <c r="AR159">
+        <v>1.32</v>
+      </c>
+      <c r="AS159">
+        <v>1.15</v>
+      </c>
+      <c r="AT159">
+        <v>2.47</v>
+      </c>
+      <c r="AU159">
+        <v>3</v>
+      </c>
+      <c r="AV159">
+        <v>7</v>
+      </c>
+      <c r="AW159">
+        <v>6</v>
+      </c>
+      <c r="AX159">
+        <v>6</v>
+      </c>
+      <c r="AY159">
+        <v>10</v>
+      </c>
+      <c r="AZ159">
+        <v>19</v>
+      </c>
+      <c r="BA159">
+        <v>7</v>
+      </c>
+      <c r="BB159">
+        <v>6</v>
+      </c>
+      <c r="BC159">
+        <v>13</v>
+      </c>
+      <c r="BD159">
+        <v>2.16</v>
+      </c>
+      <c r="BE159">
+        <v>6.4</v>
+      </c>
+      <c r="BF159">
+        <v>2.11</v>
+      </c>
+      <c r="BG159">
+        <v>1.28</v>
+      </c>
+      <c r="BH159">
+        <v>3.08</v>
+      </c>
+      <c r="BI159">
+        <v>1.54</v>
+      </c>
+      <c r="BJ159">
+        <v>2.25</v>
+      </c>
+      <c r="BK159">
+        <v>1.95</v>
+      </c>
+      <c r="BL159">
+        <v>1.77</v>
+      </c>
+      <c r="BM159">
+        <v>2.54</v>
+      </c>
+      <c r="BN159">
+        <v>1.43</v>
+      </c>
+      <c r="BO159">
+        <v>3.42</v>
+      </c>
+      <c r="BP159">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7859429</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45769.64583333334</v>
+      </c>
+      <c r="F160">
+        <v>5</v>
+      </c>
+      <c r="G160" t="s">
+        <v>79</v>
+      </c>
+      <c r="H160" t="s">
+        <v>76</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>2</v>
+      </c>
+      <c r="K160">
+        <v>3</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>4</v>
+      </c>
+      <c r="N160">
+        <v>5</v>
+      </c>
+      <c r="O160" t="s">
+        <v>197</v>
+      </c>
+      <c r="P160" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q160">
+        <v>4</v>
+      </c>
+      <c r="R160">
+        <v>2.3</v>
+      </c>
+      <c r="S160">
+        <v>2.6</v>
+      </c>
+      <c r="T160">
+        <v>1.33</v>
+      </c>
+      <c r="U160">
+        <v>3.25</v>
+      </c>
+      <c r="V160">
+        <v>2.5</v>
+      </c>
+      <c r="W160">
+        <v>1.5</v>
+      </c>
+      <c r="X160">
+        <v>6.5</v>
+      </c>
+      <c r="Y160">
+        <v>1.11</v>
+      </c>
+      <c r="Z160">
+        <v>3.59</v>
+      </c>
+      <c r="AA160">
+        <v>3.59</v>
+      </c>
+      <c r="AB160">
+        <v>1.95</v>
+      </c>
+      <c r="AC160">
+        <v>1.01</v>
+      </c>
+      <c r="AD160">
+        <v>10.8</v>
+      </c>
+      <c r="AE160">
+        <v>1.22</v>
+      </c>
+      <c r="AF160">
+        <v>3.64</v>
+      </c>
+      <c r="AG160">
+        <v>1.82</v>
+      </c>
+      <c r="AH160">
+        <v>1.92</v>
+      </c>
+      <c r="AI160">
+        <v>1.57</v>
+      </c>
+      <c r="AJ160">
+        <v>2.25</v>
+      </c>
+      <c r="AK160">
+        <v>1.93</v>
+      </c>
+      <c r="AL160">
+        <v>1.22</v>
+      </c>
+      <c r="AM160">
+        <v>1.22</v>
+      </c>
+      <c r="AN160">
+        <v>1.08</v>
+      </c>
+      <c r="AO160">
+        <v>1.77</v>
+      </c>
+      <c r="AP160">
+        <v>1</v>
+      </c>
+      <c r="AQ160">
+        <v>1.86</v>
+      </c>
+      <c r="AR160">
+        <v>1.38</v>
+      </c>
+      <c r="AS160">
+        <v>1.12</v>
+      </c>
+      <c r="AT160">
+        <v>2.5</v>
+      </c>
+      <c r="AU160">
+        <v>5</v>
+      </c>
+      <c r="AV160">
+        <v>9</v>
+      </c>
+      <c r="AW160">
+        <v>11</v>
+      </c>
+      <c r="AX160">
+        <v>8</v>
+      </c>
+      <c r="AY160">
+        <v>16</v>
+      </c>
+      <c r="AZ160">
+        <v>17</v>
+      </c>
+      <c r="BA160">
+        <v>3</v>
+      </c>
+      <c r="BB160">
+        <v>4</v>
+      </c>
+      <c r="BC160">
+        <v>7</v>
+      </c>
+      <c r="BD160">
+        <v>2.48</v>
+      </c>
+      <c r="BE160">
+        <v>6.45</v>
+      </c>
+      <c r="BF160">
+        <v>1.87</v>
+      </c>
+      <c r="BG160">
+        <v>1.28</v>
+      </c>
+      <c r="BH160">
+        <v>3.08</v>
+      </c>
+      <c r="BI160">
+        <v>1.54</v>
+      </c>
+      <c r="BJ160">
+        <v>2.25</v>
+      </c>
+      <c r="BK160">
+        <v>1.95</v>
+      </c>
+      <c r="BL160">
+        <v>1.77</v>
+      </c>
+      <c r="BM160">
+        <v>2.54</v>
+      </c>
+      <c r="BN160">
+        <v>1.43</v>
+      </c>
+      <c r="BO160">
+        <v>3.42</v>
+      </c>
+      <c r="BP160">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,15 @@
     <t>['31']</t>
   </si>
   <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['24', '47']</t>
+  </si>
+  <si>
+    <t>['40', '61']</t>
+  </si>
+  <si>
     <t>['4', '6', '45+2']</t>
   </si>
   <si>
@@ -854,6 +863,9 @@
   </si>
   <si>
     <t>['12', '15', '54', '84']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1474,7 +1486,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1680,7 +1692,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1886,7 +1898,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2379,7 +2391,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ6">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2582,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ7">
         <v>1.62</v>
@@ -2710,7 +2722,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -3122,7 +3134,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -3200,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>0.92</v>
@@ -3409,7 +3421,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3612,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ12">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3946,7 +3958,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q14">
         <v>3.1</v>
@@ -4152,7 +4164,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4233,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR15">
         <v>0.52</v>
@@ -4358,7 +4370,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -5057,7 +5069,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ19">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR19">
         <v>1.26</v>
@@ -5182,7 +5194,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5388,7 +5400,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5594,7 +5606,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q22">
         <v>2.4</v>
@@ -5800,7 +5812,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5878,7 +5890,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ23">
         <v>1.86</v>
@@ -6084,10 +6096,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ24">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR24">
         <v>0.92</v>
@@ -6212,7 +6224,7 @@
         <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6624,7 +6636,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6830,7 +6842,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -6911,7 +6923,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ28">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR28">
         <v>1.52</v>
@@ -7036,7 +7048,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q29">
         <v>4.33</v>
@@ -7529,7 +7541,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ31">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR31">
         <v>1.82</v>
@@ -7732,7 +7744,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ32">
         <v>1.86</v>
@@ -7860,7 +7872,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8066,7 +8078,7 @@
         <v>89</v>
       </c>
       <c r="P34" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8272,7 +8284,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8478,7 +8490,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q36">
         <v>2.1</v>
@@ -8684,7 +8696,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q37">
         <v>2.2</v>
@@ -8765,7 +8777,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ37">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR37">
         <v>1.97</v>
@@ -9096,7 +9108,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9302,7 +9314,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9380,10 +9392,10 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ40">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR40">
         <v>1.88</v>
@@ -9714,7 +9726,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9792,10 +9804,10 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ42">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR42">
         <v>1.32</v>
@@ -9998,7 +10010,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>1.62</v>
@@ -10126,7 +10138,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q44">
         <v>2.4</v>
@@ -10332,7 +10344,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q45">
         <v>2.2</v>
@@ -10950,7 +10962,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11234,7 +11246,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ49">
         <v>0.77</v>
@@ -11774,7 +11786,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11855,7 +11867,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ52">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR52">
         <v>1.2</v>
@@ -12186,7 +12198,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12264,10 +12276,10 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ54">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR54">
         <v>1.29</v>
@@ -12392,7 +12404,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12676,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>0.79</v>
@@ -12804,7 +12816,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -13010,7 +13022,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13216,7 +13228,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13500,7 +13512,7 @@
         <v>1.2</v>
       </c>
       <c r="AP60">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ60">
         <v>0.85</v>
@@ -13834,7 +13846,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14327,7 +14339,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ64">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR64">
         <v>1.56</v>
@@ -14452,7 +14464,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14533,7 +14545,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ65">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -14658,7 +14670,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14864,7 +14876,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14945,7 +14957,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ67">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR67">
         <v>1.79</v>
@@ -15148,7 +15160,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>0.77</v>
@@ -15357,7 +15369,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR69">
         <v>1.35</v>
@@ -15766,7 +15778,7 @@
         <v>0.83</v>
       </c>
       <c r="AP71">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ71">
         <v>0.92</v>
@@ -16306,7 +16318,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16387,7 +16399,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ74">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR74">
         <v>1.16</v>
@@ -16590,7 +16602,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ75">
         <v>1.54</v>
@@ -16718,7 +16730,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17130,7 +17142,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -17208,7 +17220,7 @@
         <v>1.67</v>
       </c>
       <c r="AP78">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
         <v>1.86</v>
@@ -17417,7 +17429,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ79">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR79">
         <v>0.96</v>
@@ -17954,7 +17966,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q82">
         <v>2.88</v>
@@ -18032,7 +18044,7 @@
         <v>0.43</v>
       </c>
       <c r="AP82">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ82">
         <v>0.77</v>
@@ -18238,7 +18250,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ83">
         <v>1.21</v>
@@ -18366,7 +18378,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>5.5</v>
@@ -18447,7 +18459,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ84">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR84">
         <v>1.26</v>
@@ -18572,7 +18584,7 @@
         <v>119</v>
       </c>
       <c r="P85" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18778,7 +18790,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -18859,7 +18871,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ86">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR86">
         <v>1.46</v>
@@ -18984,7 +18996,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19396,7 +19408,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19680,7 +19692,7 @@
         <v>0.83</v>
       </c>
       <c r="AP90">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
         <v>1.21</v>
@@ -19808,7 +19820,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20014,7 +20026,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20095,7 +20107,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ92">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR92">
         <v>0.89</v>
@@ -20220,7 +20232,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q93">
         <v>2.4</v>
@@ -20298,10 +20310,10 @@
         <v>1.14</v>
       </c>
       <c r="AP93">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ93">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR93">
         <v>2.1</v>
@@ -20426,7 +20438,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20504,7 +20516,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ94">
         <v>0.85</v>
@@ -20632,7 +20644,7 @@
         <v>89</v>
       </c>
       <c r="P95" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20916,7 +20928,7 @@
         <v>0.57</v>
       </c>
       <c r="AP96">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ96">
         <v>0.79</v>
@@ -21122,7 +21134,7 @@
         <v>0.88</v>
       </c>
       <c r="AP97">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ97">
         <v>0.85</v>
@@ -21250,7 +21262,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21456,7 +21468,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q99">
         <v>2.3</v>
@@ -21537,7 +21549,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ99">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR99">
         <v>1.69</v>
@@ -21662,7 +21674,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -22486,7 +22498,7 @@
         <v>103</v>
       </c>
       <c r="P104" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22564,7 +22576,7 @@
         <v>0.5</v>
       </c>
       <c r="AP104">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ104">
         <v>0.79</v>
@@ -22773,7 +22785,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ105">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR105">
         <v>1.48</v>
@@ -22898,7 +22910,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q106">
         <v>1.67</v>
@@ -22976,7 +22988,7 @@
         <v>1.13</v>
       </c>
       <c r="AP106">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ106">
         <v>0.85</v>
@@ -23594,10 +23606,10 @@
         <v>1.13</v>
       </c>
       <c r="AP109">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ109">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR109">
         <v>1.67</v>
@@ -23722,7 +23734,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -23800,7 +23812,7 @@
         <v>1.11</v>
       </c>
       <c r="AP110">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ110">
         <v>1.54</v>
@@ -23928,7 +23940,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24134,7 +24146,7 @@
         <v>165</v>
       </c>
       <c r="P112" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q112">
         <v>4.53</v>
@@ -24215,7 +24227,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ112">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR112">
         <v>1.03</v>
@@ -24752,7 +24764,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24833,7 +24845,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ115">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR115">
         <v>1.44</v>
@@ -24958,7 +24970,7 @@
         <v>89</v>
       </c>
       <c r="P116" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25039,7 +25051,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ116">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR116">
         <v>1.19</v>
@@ -25164,7 +25176,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25576,7 +25588,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q119">
         <v>4.33</v>
@@ -25860,7 +25872,7 @@
         <v>1.11</v>
       </c>
       <c r="AP120">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ120">
         <v>0.85</v>
@@ -25988,7 +26000,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26066,10 +26078,10 @@
         <v>1.89</v>
       </c>
       <c r="AP121">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ121">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR121">
         <v>2.18</v>
@@ -26194,7 +26206,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q122">
         <v>2.38</v>
@@ -26400,7 +26412,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q123">
         <v>2.6</v>
@@ -26684,7 +26696,7 @@
         <v>0.8</v>
       </c>
       <c r="AP124">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ124">
         <v>0.85</v>
@@ -26812,7 +26824,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q125">
         <v>5.5</v>
@@ -27018,7 +27030,7 @@
         <v>87</v>
       </c>
       <c r="P126" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27099,7 +27111,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ126">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR126">
         <v>1.33</v>
@@ -27224,7 +27236,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27305,7 +27317,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ127">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR127">
         <v>1.17</v>
@@ -27430,7 +27442,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q128">
         <v>3.5</v>
@@ -27636,7 +27648,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q129">
         <v>5.5</v>
@@ -27920,7 +27932,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ130">
         <v>1.21</v>
@@ -28048,7 +28060,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28332,10 +28344,10 @@
         <v>1.9</v>
       </c>
       <c r="AP132">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ132">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR132">
         <v>2.23</v>
@@ -28666,7 +28678,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29078,7 +29090,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29284,7 +29296,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29362,7 +29374,7 @@
         <v>1.64</v>
       </c>
       <c r="AP137">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ137">
         <v>1.62</v>
@@ -29571,7 +29583,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ138">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR138">
         <v>1.54</v>
@@ -29696,7 +29708,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -29983,7 +29995,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ140">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR140">
         <v>1.8</v>
@@ -30108,7 +30120,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q141">
         <v>3.5</v>
@@ -30314,7 +30326,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q142">
         <v>3.5</v>
@@ -30804,7 +30816,7 @@
         <v>1.09</v>
       </c>
       <c r="AP144">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ144">
         <v>0.92</v>
@@ -31010,10 +31022,10 @@
         <v>1.73</v>
       </c>
       <c r="AP145">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ145">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR145">
         <v>1.73</v>
@@ -31138,7 +31150,7 @@
         <v>134</v>
       </c>
       <c r="P146" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31216,10 +31228,10 @@
         <v>1.67</v>
       </c>
       <c r="AP146">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ146">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR146">
         <v>1.49</v>
@@ -31550,7 +31562,7 @@
         <v>89</v>
       </c>
       <c r="P148" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31756,7 +31768,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -31962,7 +31974,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32040,10 +32052,10 @@
         <v>1.75</v>
       </c>
       <c r="AP150">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ150">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR150">
         <v>2.15</v>
@@ -32786,7 +32798,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -32992,7 +33004,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q155">
         <v>3.75</v>
@@ -33073,7 +33085,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ155">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR155">
         <v>1.53</v>
@@ -33404,7 +33416,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q157">
         <v>3.5</v>
@@ -33482,7 +33494,7 @@
         <v>1.42</v>
       </c>
       <c r="AP157">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ157">
         <v>1.54</v>
@@ -33816,7 +33828,7 @@
         <v>89</v>
       </c>
       <c r="P159" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q159">
         <v>3.4</v>
@@ -34022,7 +34034,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -34179,6 +34191,624 @@
       </c>
       <c r="BP160">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7859430</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45770.5625</v>
+      </c>
+      <c r="F161">
+        <v>5</v>
+      </c>
+      <c r="G161" t="s">
+        <v>78</v>
+      </c>
+      <c r="H161" t="s">
+        <v>73</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+      <c r="O161" t="s">
+        <v>198</v>
+      </c>
+      <c r="P161" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q161">
+        <v>2.4</v>
+      </c>
+      <c r="R161">
+        <v>2.3</v>
+      </c>
+      <c r="S161">
+        <v>4.33</v>
+      </c>
+      <c r="T161">
+        <v>1.33</v>
+      </c>
+      <c r="U161">
+        <v>3.25</v>
+      </c>
+      <c r="V161">
+        <v>2.5</v>
+      </c>
+      <c r="W161">
+        <v>1.5</v>
+      </c>
+      <c r="X161">
+        <v>6</v>
+      </c>
+      <c r="Y161">
+        <v>1.13</v>
+      </c>
+      <c r="Z161">
+        <v>1.83</v>
+      </c>
+      <c r="AA161">
+        <v>3.5</v>
+      </c>
+      <c r="AB161">
+        <v>4.2</v>
+      </c>
+      <c r="AC161">
+        <v>1.01</v>
+      </c>
+      <c r="AD161">
+        <v>13</v>
+      </c>
+      <c r="AE161">
+        <v>1.16</v>
+      </c>
+      <c r="AF161">
+        <v>4.25</v>
+      </c>
+      <c r="AG161">
+        <v>1.6</v>
+      </c>
+      <c r="AH161">
+        <v>2.1</v>
+      </c>
+      <c r="AI161">
+        <v>1.62</v>
+      </c>
+      <c r="AJ161">
+        <v>2.2</v>
+      </c>
+      <c r="AK161">
+        <v>1.2</v>
+      </c>
+      <c r="AL161">
+        <v>1.22</v>
+      </c>
+      <c r="AM161">
+        <v>2.05</v>
+      </c>
+      <c r="AN161">
+        <v>2.08</v>
+      </c>
+      <c r="AO161">
+        <v>1.77</v>
+      </c>
+      <c r="AP161">
+        <v>2</v>
+      </c>
+      <c r="AQ161">
+        <v>1.71</v>
+      </c>
+      <c r="AR161">
+        <v>2.14</v>
+      </c>
+      <c r="AS161">
+        <v>1.48</v>
+      </c>
+      <c r="AT161">
+        <v>3.62</v>
+      </c>
+      <c r="AU161">
+        <v>5</v>
+      </c>
+      <c r="AV161">
+        <v>2</v>
+      </c>
+      <c r="AW161">
+        <v>19</v>
+      </c>
+      <c r="AX161">
+        <v>7</v>
+      </c>
+      <c r="AY161">
+        <v>29</v>
+      </c>
+      <c r="AZ161">
+        <v>11</v>
+      </c>
+      <c r="BA161">
+        <v>9</v>
+      </c>
+      <c r="BB161">
+        <v>3</v>
+      </c>
+      <c r="BC161">
+        <v>12</v>
+      </c>
+      <c r="BD161">
+        <v>1.59</v>
+      </c>
+      <c r="BE161">
+        <v>6.85</v>
+      </c>
+      <c r="BF161">
+        <v>3.14</v>
+      </c>
+      <c r="BG161">
+        <v>1.24</v>
+      </c>
+      <c r="BH161">
+        <v>3.34</v>
+      </c>
+      <c r="BI161">
+        <v>1.48</v>
+      </c>
+      <c r="BJ161">
+        <v>2.4</v>
+      </c>
+      <c r="BK161">
+        <v>1.85</v>
+      </c>
+      <c r="BL161">
+        <v>1.85</v>
+      </c>
+      <c r="BM161">
+        <v>2.38</v>
+      </c>
+      <c r="BN161">
+        <v>1.49</v>
+      </c>
+      <c r="BO161">
+        <v>3.14</v>
+      </c>
+      <c r="BP161">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7859431</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45770.5625</v>
+      </c>
+      <c r="F162">
+        <v>5</v>
+      </c>
+      <c r="G162" t="s">
+        <v>75</v>
+      </c>
+      <c r="H162" t="s">
+        <v>74</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>2</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>3</v>
+      </c>
+      <c r="O162" t="s">
+        <v>199</v>
+      </c>
+      <c r="P162" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q162">
+        <v>4</v>
+      </c>
+      <c r="R162">
+        <v>2.1</v>
+      </c>
+      <c r="S162">
+        <v>2.75</v>
+      </c>
+      <c r="T162">
+        <v>1.4</v>
+      </c>
+      <c r="U162">
+        <v>2.75</v>
+      </c>
+      <c r="V162">
+        <v>3</v>
+      </c>
+      <c r="W162">
+        <v>1.36</v>
+      </c>
+      <c r="X162">
+        <v>8</v>
+      </c>
+      <c r="Y162">
+        <v>1.08</v>
+      </c>
+      <c r="Z162">
+        <v>3.55</v>
+      </c>
+      <c r="AA162">
+        <v>3.34</v>
+      </c>
+      <c r="AB162">
+        <v>2.05</v>
+      </c>
+      <c r="AC162">
+        <v>1.01</v>
+      </c>
+      <c r="AD162">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE162">
+        <v>1.26</v>
+      </c>
+      <c r="AF162">
+        <v>3.32</v>
+      </c>
+      <c r="AG162">
+        <v>1.95</v>
+      </c>
+      <c r="AH162">
+        <v>1.79</v>
+      </c>
+      <c r="AI162">
+        <v>1.8</v>
+      </c>
+      <c r="AJ162">
+        <v>1.95</v>
+      </c>
+      <c r="AK162">
+        <v>1.75</v>
+      </c>
+      <c r="AL162">
+        <v>1.25</v>
+      </c>
+      <c r="AM162">
+        <v>1.28</v>
+      </c>
+      <c r="AN162">
+        <v>1.62</v>
+      </c>
+      <c r="AO162">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP162">
+        <v>1.71</v>
+      </c>
+      <c r="AQ162">
+        <v>0.64</v>
+      </c>
+      <c r="AR162">
+        <v>1.45</v>
+      </c>
+      <c r="AS162">
+        <v>1.45</v>
+      </c>
+      <c r="AT162">
+        <v>2.9</v>
+      </c>
+      <c r="AU162">
+        <v>7</v>
+      </c>
+      <c r="AV162">
+        <v>4</v>
+      </c>
+      <c r="AW162">
+        <v>3</v>
+      </c>
+      <c r="AX162">
+        <v>12</v>
+      </c>
+      <c r="AY162">
+        <v>12</v>
+      </c>
+      <c r="AZ162">
+        <v>21</v>
+      </c>
+      <c r="BA162">
+        <v>3</v>
+      </c>
+      <c r="BB162">
+        <v>5</v>
+      </c>
+      <c r="BC162">
+        <v>8</v>
+      </c>
+      <c r="BD162">
+        <v>2.99</v>
+      </c>
+      <c r="BE162">
+        <v>6.7</v>
+      </c>
+      <c r="BF162">
+        <v>1.64</v>
+      </c>
+      <c r="BG162">
+        <v>1.28</v>
+      </c>
+      <c r="BH162">
+        <v>3.08</v>
+      </c>
+      <c r="BI162">
+        <v>1.54</v>
+      </c>
+      <c r="BJ162">
+        <v>2.25</v>
+      </c>
+      <c r="BK162">
+        <v>1.95</v>
+      </c>
+      <c r="BL162">
+        <v>1.77</v>
+      </c>
+      <c r="BM162">
+        <v>2.54</v>
+      </c>
+      <c r="BN162">
+        <v>1.43</v>
+      </c>
+      <c r="BO162">
+        <v>3.42</v>
+      </c>
+      <c r="BP162">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7859432</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45770.64583333334</v>
+      </c>
+      <c r="F163">
+        <v>5</v>
+      </c>
+      <c r="G163" t="s">
+        <v>80</v>
+      </c>
+      <c r="H163" t="s">
+        <v>81</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>2</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>3</v>
+      </c>
+      <c r="O163" t="s">
+        <v>200</v>
+      </c>
+      <c r="P163" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q163">
+        <v>3.1</v>
+      </c>
+      <c r="R163">
+        <v>2.25</v>
+      </c>
+      <c r="S163">
+        <v>3.2</v>
+      </c>
+      <c r="T163">
+        <v>1.33</v>
+      </c>
+      <c r="U163">
+        <v>3.25</v>
+      </c>
+      <c r="V163">
+        <v>2.63</v>
+      </c>
+      <c r="W163">
+        <v>1.44</v>
+      </c>
+      <c r="X163">
+        <v>7</v>
+      </c>
+      <c r="Y163">
+        <v>1.1</v>
+      </c>
+      <c r="Z163">
+        <v>2.59</v>
+      </c>
+      <c r="AA163">
+        <v>3.25</v>
+      </c>
+      <c r="AB163">
+        <v>2.66</v>
+      </c>
+      <c r="AC163">
+        <v>1.01</v>
+      </c>
+      <c r="AD163">
+        <v>11.9</v>
+      </c>
+      <c r="AE163">
+        <v>1.21</v>
+      </c>
+      <c r="AF163">
+        <v>3.74</v>
+      </c>
+      <c r="AG163">
+        <v>1.85</v>
+      </c>
+      <c r="AH163">
+        <v>1.89</v>
+      </c>
+      <c r="AI163">
+        <v>1.57</v>
+      </c>
+      <c r="AJ163">
+        <v>2.25</v>
+      </c>
+      <c r="AK163">
+        <v>1.48</v>
+      </c>
+      <c r="AL163">
+        <v>1.25</v>
+      </c>
+      <c r="AM163">
+        <v>1.48</v>
+      </c>
+      <c r="AN163">
+        <v>2.23</v>
+      </c>
+      <c r="AO163">
+        <v>1.85</v>
+      </c>
+      <c r="AP163">
+        <v>2.29</v>
+      </c>
+      <c r="AQ163">
+        <v>1.71</v>
+      </c>
+      <c r="AR163">
+        <v>1.71</v>
+      </c>
+      <c r="AS163">
+        <v>1.36</v>
+      </c>
+      <c r="AT163">
+        <v>3.07</v>
+      </c>
+      <c r="AU163">
+        <v>7</v>
+      </c>
+      <c r="AV163">
+        <v>4</v>
+      </c>
+      <c r="AW163">
+        <v>4</v>
+      </c>
+      <c r="AX163">
+        <v>4</v>
+      </c>
+      <c r="AY163">
+        <v>13</v>
+      </c>
+      <c r="AZ163">
+        <v>8</v>
+      </c>
+      <c r="BA163">
+        <v>5</v>
+      </c>
+      <c r="BB163">
+        <v>6</v>
+      </c>
+      <c r="BC163">
+        <v>11</v>
+      </c>
+      <c r="BD163">
+        <v>1.84</v>
+      </c>
+      <c r="BE163">
+        <v>6.55</v>
+      </c>
+      <c r="BF163">
+        <v>2.52</v>
+      </c>
+      <c r="BG163">
+        <v>1.24</v>
+      </c>
+      <c r="BH163">
+        <v>3.34</v>
+      </c>
+      <c r="BI163">
+        <v>1.47</v>
+      </c>
+      <c r="BJ163">
+        <v>2.42</v>
+      </c>
+      <c r="BK163">
+        <v>1.85</v>
+      </c>
+      <c r="BL163">
+        <v>1.85</v>
+      </c>
+      <c r="BM163">
+        <v>2.34</v>
+      </c>
+      <c r="BN163">
+        <v>1.5</v>
+      </c>
+      <c r="BO163">
+        <v>3.14</v>
+      </c>
+      <c r="BP163">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -617,6 +617,9 @@
   </si>
   <si>
     <t>['40', '61']</t>
+  </si>
+  <si>
+    <t>['9']</t>
   </si>
   <si>
     <t>['4', '6', '45+2']</t>
@@ -1227,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP163"/>
+  <dimension ref="A1:BP164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1486,7 +1489,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1692,7 +1695,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1898,7 +1901,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1976,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ4">
         <v>1.86</v>
@@ -2722,7 +2725,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -3009,7 +3012,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ9">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3134,7 +3137,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -3958,7 +3961,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q14">
         <v>3.1</v>
@@ -4164,7 +4167,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4370,7 +4373,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -4654,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ17">
         <v>1.62</v>
@@ -5194,7 +5197,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5400,7 +5403,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5606,7 +5609,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q22">
         <v>2.4</v>
@@ -5687,7 +5690,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ22">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5812,7 +5815,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6224,7 +6227,7 @@
         <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6508,10 +6511,10 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ26">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR26">
         <v>1.32</v>
@@ -6636,7 +6639,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6842,7 +6845,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7048,7 +7051,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q29">
         <v>4.33</v>
@@ -7872,7 +7875,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8078,7 +8081,7 @@
         <v>89</v>
       </c>
       <c r="P34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8284,7 +8287,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8490,7 +8493,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q36">
         <v>2.1</v>
@@ -8571,7 +8574,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ36">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR36">
         <v>1.35</v>
@@ -8696,7 +8699,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q37">
         <v>2.2</v>
@@ -9108,7 +9111,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9314,7 +9317,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9598,7 +9601,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ41">
         <v>0.85</v>
@@ -9726,7 +9729,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10138,7 +10141,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q44">
         <v>2.4</v>
@@ -10344,7 +10347,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q45">
         <v>2.2</v>
@@ -10628,7 +10631,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ46">
         <v>0.79</v>
@@ -10962,7 +10965,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11249,7 +11252,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ49">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR49">
         <v>1.83</v>
@@ -11786,7 +11789,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12198,7 +12201,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12404,7 +12407,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12485,7 +12488,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ55">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR55">
         <v>1.69</v>
@@ -12816,7 +12819,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -13022,7 +13025,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13228,7 +13231,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13846,7 +13849,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -13924,7 +13927,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ62">
         <v>0.92</v>
@@ -14464,7 +14467,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14670,7 +14673,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14876,7 +14879,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15163,7 +15166,7 @@
         <v>2</v>
       </c>
       <c r="AQ68">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR68">
         <v>2.3</v>
@@ -16318,7 +16321,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16396,7 +16399,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ74">
         <v>1.71</v>
@@ -16730,7 +16733,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17142,7 +17145,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -17966,7 +17969,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q82">
         <v>2.88</v>
@@ -18047,7 +18050,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ82">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR82">
         <v>1.31</v>
@@ -18378,7 +18381,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q84">
         <v>5.5</v>
@@ -18584,7 +18587,7 @@
         <v>119</v>
       </c>
       <c r="P85" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18662,7 +18665,7 @@
         <v>1.14</v>
       </c>
       <c r="AP85">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ85">
         <v>1.54</v>
@@ -18790,7 +18793,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -18996,7 +18999,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19408,7 +19411,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19820,7 +19823,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20026,7 +20029,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20232,7 +20235,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q93">
         <v>2.4</v>
@@ -20438,7 +20441,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20644,7 +20647,7 @@
         <v>89</v>
       </c>
       <c r="P95" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -21262,7 +21265,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21468,7 +21471,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q99">
         <v>2.3</v>
@@ -21674,7 +21677,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21755,7 +21758,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ100">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR100">
         <v>1.21</v>
@@ -22498,7 +22501,7 @@
         <v>103</v>
       </c>
       <c r="P104" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22910,7 +22913,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q106">
         <v>1.67</v>
@@ -23400,7 +23403,7 @@
         <v>0.78</v>
       </c>
       <c r="AP108">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ108">
         <v>0.85</v>
@@ -23734,7 +23737,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -23940,7 +23943,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24021,7 +24024,7 @@
         <v>1</v>
       </c>
       <c r="AQ111">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR111">
         <v>1.32</v>
@@ -24146,7 +24149,7 @@
         <v>165</v>
       </c>
       <c r="P112" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q112">
         <v>4.53</v>
@@ -24764,7 +24767,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24970,7 +24973,7 @@
         <v>89</v>
       </c>
       <c r="P116" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25048,7 +25051,7 @@
         <v>1.78</v>
       </c>
       <c r="AP116">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ116">
         <v>1.71</v>
@@ -25176,7 +25179,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25588,7 +25591,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q119">
         <v>4.33</v>
@@ -26000,7 +26003,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26206,7 +26209,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q122">
         <v>2.38</v>
@@ -26412,7 +26415,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q123">
         <v>2.6</v>
@@ -26824,7 +26827,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q125">
         <v>5.5</v>
@@ -27030,7 +27033,7 @@
         <v>87</v>
       </c>
       <c r="P126" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27236,7 +27239,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27314,7 +27317,7 @@
         <v>0.9</v>
       </c>
       <c r="AP127">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ127">
         <v>0.64</v>
@@ -27442,7 +27445,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q128">
         <v>3.5</v>
@@ -27648,7 +27651,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q129">
         <v>5.5</v>
@@ -28060,7 +28063,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28553,7 +28556,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ133">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR133">
         <v>1.71</v>
@@ -28678,7 +28681,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29090,7 +29093,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29168,7 +29171,7 @@
         <v>0.73</v>
       </c>
       <c r="AP136">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ136">
         <v>0.85</v>
@@ -29296,7 +29299,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29708,7 +29711,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -30120,7 +30123,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q141">
         <v>3.5</v>
@@ -30326,7 +30329,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q142">
         <v>3.5</v>
@@ -30613,7 +30616,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ143">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR143">
         <v>1.65</v>
@@ -31150,7 +31153,7 @@
         <v>134</v>
       </c>
       <c r="P146" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31562,7 +31565,7 @@
         <v>89</v>
       </c>
       <c r="P148" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31640,7 +31643,7 @@
         <v>1.67</v>
       </c>
       <c r="AP148">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ148">
         <v>1.86</v>
@@ -31768,7 +31771,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -31974,7 +31977,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32673,7 +32676,7 @@
         <v>1</v>
       </c>
       <c r="AQ153">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR153">
         <v>1.35</v>
@@ -32798,7 +32801,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33004,7 +33007,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q155">
         <v>3.75</v>
@@ -33416,7 +33419,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q157">
         <v>3.5</v>
@@ -33828,7 +33831,7 @@
         <v>89</v>
       </c>
       <c r="P159" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q159">
         <v>3.4</v>
@@ -34034,7 +34037,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -34240,7 +34243,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q161">
         <v>2.4</v>
@@ -34446,7 +34449,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -34652,7 +34655,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -34809,6 +34812,212 @@
       </c>
       <c r="BP163">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7859433</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45772.60416666666</v>
+      </c>
+      <c r="F164">
+        <v>6</v>
+      </c>
+      <c r="G164" t="s">
+        <v>72</v>
+      </c>
+      <c r="H164" t="s">
+        <v>70</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>2</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>2</v>
+      </c>
+      <c r="O164" t="s">
+        <v>201</v>
+      </c>
+      <c r="P164" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q164">
+        <v>2.75</v>
+      </c>
+      <c r="R164">
+        <v>2.1</v>
+      </c>
+      <c r="S164">
+        <v>4.33</v>
+      </c>
+      <c r="T164">
+        <v>1.44</v>
+      </c>
+      <c r="U164">
+        <v>2.63</v>
+      </c>
+      <c r="V164">
+        <v>3.25</v>
+      </c>
+      <c r="W164">
+        <v>1.33</v>
+      </c>
+      <c r="X164">
+        <v>9</v>
+      </c>
+      <c r="Y164">
+        <v>1.07</v>
+      </c>
+      <c r="Z164">
+        <v>1.99</v>
+      </c>
+      <c r="AA164">
+        <v>3.38</v>
+      </c>
+      <c r="AB164">
+        <v>3.68</v>
+      </c>
+      <c r="AC164">
+        <v>0</v>
+      </c>
+      <c r="AD164">
+        <v>0</v>
+      </c>
+      <c r="AE164">
+        <v>0</v>
+      </c>
+      <c r="AF164">
+        <v>0</v>
+      </c>
+      <c r="AG164">
+        <v>1.85</v>
+      </c>
+      <c r="AH164">
+        <v>1.89</v>
+      </c>
+      <c r="AI164">
+        <v>1.91</v>
+      </c>
+      <c r="AJ164">
+        <v>1.91</v>
+      </c>
+      <c r="AK164">
+        <v>0</v>
+      </c>
+      <c r="AL164">
+        <v>0</v>
+      </c>
+      <c r="AM164">
+        <v>0</v>
+      </c>
+      <c r="AN164">
+        <v>1.23</v>
+      </c>
+      <c r="AO164">
+        <v>0.77</v>
+      </c>
+      <c r="AP164">
+        <v>1.21</v>
+      </c>
+      <c r="AQ164">
+        <v>0.79</v>
+      </c>
+      <c r="AR164">
+        <v>1.18</v>
+      </c>
+      <c r="AS164">
+        <v>1.18</v>
+      </c>
+      <c r="AT164">
+        <v>2.36</v>
+      </c>
+      <c r="AU164">
+        <v>7</v>
+      </c>
+      <c r="AV164">
+        <v>5</v>
+      </c>
+      <c r="AW164">
+        <v>7</v>
+      </c>
+      <c r="AX164">
+        <v>5</v>
+      </c>
+      <c r="AY164">
+        <v>15</v>
+      </c>
+      <c r="AZ164">
+        <v>10</v>
+      </c>
+      <c r="BA164">
+        <v>2</v>
+      </c>
+      <c r="BB164">
+        <v>4</v>
+      </c>
+      <c r="BC164">
+        <v>6</v>
+      </c>
+      <c r="BD164">
+        <v>0</v>
+      </c>
+      <c r="BE164">
+        <v>0</v>
+      </c>
+      <c r="BF164">
+        <v>0</v>
+      </c>
+      <c r="BG164">
+        <v>0</v>
+      </c>
+      <c r="BH164">
+        <v>0</v>
+      </c>
+      <c r="BI164">
+        <v>0</v>
+      </c>
+      <c r="BJ164">
+        <v>0</v>
+      </c>
+      <c r="BK164">
+        <v>0</v>
+      </c>
+      <c r="BL164">
+        <v>0</v>
+      </c>
+      <c r="BM164">
+        <v>0</v>
+      </c>
+      <c r="BN164">
+        <v>0</v>
+      </c>
+      <c r="BO164">
+        <v>0</v>
+      </c>
+      <c r="BP164">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="287">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -620,6 +620,12 @@
   </si>
   <si>
     <t>['9']</t>
+  </si>
+  <si>
+    <t>['26', '42', '60', '65', '72', '83']</t>
+  </si>
+  <si>
+    <t>['29', '45+1', '90+3']</t>
   </si>
   <si>
     <t>['4', '6', '45+2']</t>
@@ -1230,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP164"/>
+  <dimension ref="A1:BP166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1489,7 +1495,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1695,7 +1701,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1773,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AQ3">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1901,7 +1907,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2188,7 +2194,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ5">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2725,7 +2731,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -2803,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ8">
         <v>0.79</v>
@@ -3137,7 +3143,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -3961,7 +3967,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q14">
         <v>3.1</v>
@@ -4167,7 +4173,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4373,7 +4379,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -4451,7 +4457,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ16">
         <v>1.54</v>
@@ -4866,7 +4872,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ18">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR18">
         <v>1.7</v>
@@ -5069,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AQ19">
         <v>1.71</v>
@@ -5197,7 +5203,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5278,7 +5284,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ20">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR20">
         <v>0.78</v>
@@ -5403,7 +5409,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5609,7 +5615,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q22">
         <v>2.4</v>
@@ -5815,7 +5821,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6227,7 +6233,7 @@
         <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6639,7 +6645,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6720,7 +6726,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ27">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR27">
         <v>1.97</v>
@@ -6845,7 +6851,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -6923,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ28">
         <v>1.71</v>
@@ -7051,7 +7057,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q29">
         <v>4.33</v>
@@ -7335,7 +7341,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AQ30">
         <v>1.62</v>
@@ -7875,7 +7881,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8081,7 +8087,7 @@
         <v>89</v>
       </c>
       <c r="P34" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8159,7 +8165,7 @@
         <v>0.33</v>
       </c>
       <c r="AP34">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AQ34">
         <v>0.92</v>
@@ -8287,7 +8293,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8493,7 +8499,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q36">
         <v>2.1</v>
@@ -8571,7 +8577,7 @@
         <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ36">
         <v>0.79</v>
@@ -8699,7 +8705,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q37">
         <v>2.2</v>
@@ -9111,7 +9117,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9317,7 +9323,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9604,7 +9610,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ41">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR41">
         <v>1.23</v>
@@ -9729,7 +9735,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10141,7 +10147,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q44">
         <v>2.4</v>
@@ -10347,7 +10353,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q45">
         <v>2.2</v>
@@ -10428,7 +10434,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ45">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR45">
         <v>1.79</v>
@@ -10840,7 +10846,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ47">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR47">
         <v>1.52</v>
@@ -10965,7 +10971,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11661,10 +11667,10 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ51">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR51">
         <v>1.44</v>
@@ -11789,7 +11795,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11867,7 +11873,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AQ52">
         <v>0.64</v>
@@ -12201,7 +12207,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12407,7 +12413,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12819,7 +12825,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -13025,7 +13031,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13231,7 +13237,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13518,7 +13524,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ60">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR60">
         <v>1.68</v>
@@ -13721,10 +13727,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AQ61">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -13849,7 +13855,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14467,7 +14473,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14545,7 +14551,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ65">
         <v>1.71</v>
@@ -14673,7 +14679,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14751,7 +14757,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ66">
         <v>1.21</v>
@@ -14879,7 +14885,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -16196,7 +16202,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ73">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR73">
         <v>1.44</v>
@@ -16321,7 +16327,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16733,7 +16739,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16811,7 +16817,7 @@
         <v>1.4</v>
       </c>
       <c r="AP76">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AQ76">
         <v>1.86</v>
@@ -17020,7 +17026,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ77">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR77">
         <v>1.67</v>
@@ -17145,7 +17151,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -17638,7 +17644,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ80">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR80">
         <v>1.71</v>
@@ -17969,7 +17975,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q82">
         <v>2.88</v>
@@ -18381,7 +18387,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q84">
         <v>5.5</v>
@@ -18459,7 +18465,7 @@
         <v>2.17</v>
       </c>
       <c r="AP84">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AQ84">
         <v>1.71</v>
@@ -18587,7 +18593,7 @@
         <v>119</v>
       </c>
       <c r="P85" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18793,7 +18799,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -18999,7 +19005,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19080,7 +19086,7 @@
         <v>1</v>
       </c>
       <c r="AQ87">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR87">
         <v>1.29</v>
@@ -19411,7 +19417,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19489,7 +19495,7 @@
         <v>1.14</v>
       </c>
       <c r="AP89">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ89">
         <v>1.62</v>
@@ -19823,7 +19829,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20029,7 +20035,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20235,7 +20241,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q93">
         <v>2.4</v>
@@ -20441,7 +20447,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20522,7 +20528,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ94">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR94">
         <v>1.33</v>
@@ -20647,7 +20653,7 @@
         <v>89</v>
       </c>
       <c r="P95" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -21140,7 +21146,7 @@
         <v>2</v>
       </c>
       <c r="AQ97">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR97">
         <v>2.11</v>
@@ -21265,7 +21271,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21471,7 +21477,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q99">
         <v>2.3</v>
@@ -21677,7 +21683,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21755,7 +21761,7 @@
         <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AQ100">
         <v>0.79</v>
@@ -22373,7 +22379,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ103">
         <v>0.92</v>
@@ -22501,7 +22507,7 @@
         <v>103</v>
       </c>
       <c r="P104" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22913,7 +22919,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q106">
         <v>1.67</v>
@@ -22994,7 +23000,7 @@
         <v>2</v>
       </c>
       <c r="AQ106">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR106">
         <v>2.12</v>
@@ -23406,7 +23412,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ108">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR108">
         <v>1.12</v>
@@ -23737,7 +23743,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -23943,7 +23949,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24149,7 +24155,7 @@
         <v>165</v>
       </c>
       <c r="P112" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q112">
         <v>4.53</v>
@@ -24639,7 +24645,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AQ114">
         <v>1.21</v>
@@ -24767,7 +24773,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24845,7 +24851,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ115">
         <v>0.64</v>
@@ -24973,7 +24979,7 @@
         <v>89</v>
       </c>
       <c r="P116" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25179,7 +25185,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25591,7 +25597,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q119">
         <v>4.33</v>
@@ -25878,7 +25884,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ120">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR120">
         <v>1.3</v>
@@ -26003,7 +26009,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26209,7 +26215,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q122">
         <v>2.38</v>
@@ -26287,10 +26293,10 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ122">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR122">
         <v>1.49</v>
@@ -26415,7 +26421,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q123">
         <v>2.6</v>
@@ -26702,7 +26708,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ124">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR124">
         <v>1.58</v>
@@ -26827,7 +26833,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q125">
         <v>5.5</v>
@@ -26905,7 +26911,7 @@
         <v>1.3</v>
       </c>
       <c r="AP125">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AQ125">
         <v>1.54</v>
@@ -27033,7 +27039,7 @@
         <v>87</v>
       </c>
       <c r="P126" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27239,7 +27245,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27445,7 +27451,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q128">
         <v>3.5</v>
@@ -27651,7 +27657,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q129">
         <v>5.5</v>
@@ -28063,7 +28069,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28681,7 +28687,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28759,7 +28765,7 @@
         <v>1.55</v>
       </c>
       <c r="AP134">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AQ134">
         <v>1.86</v>
@@ -28968,7 +28974,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ135">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR135">
         <v>1.31</v>
@@ -29093,7 +29099,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29174,7 +29180,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ136">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR136">
         <v>1.16</v>
@@ -29299,7 +29305,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29711,7 +29717,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -30123,7 +30129,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q141">
         <v>3.5</v>
@@ -30329,7 +30335,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q142">
         <v>3.5</v>
@@ -30613,7 +30619,7 @@
         <v>0.82</v>
       </c>
       <c r="AP143">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ143">
         <v>0.79</v>
@@ -31153,7 +31159,7 @@
         <v>134</v>
       </c>
       <c r="P146" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31565,7 +31571,7 @@
         <v>89</v>
       </c>
       <c r="P148" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31771,7 +31777,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -31852,7 +31858,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ149">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR149">
         <v>1.12</v>
@@ -31977,7 +31983,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32467,10 +32473,10 @@
         <v>0.92</v>
       </c>
       <c r="AP152">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ152">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR152">
         <v>1.69</v>
@@ -32801,7 +32807,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -32879,7 +32885,7 @@
         <v>1.08</v>
       </c>
       <c r="AP154">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AQ154">
         <v>1.21</v>
@@ -33007,7 +33013,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q155">
         <v>3.75</v>
@@ -33419,7 +33425,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q157">
         <v>3.5</v>
@@ -33831,7 +33837,7 @@
         <v>89</v>
       </c>
       <c r="P159" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q159">
         <v>3.4</v>
@@ -34037,7 +34043,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -34243,7 +34249,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q161">
         <v>2.4</v>
@@ -34449,7 +34455,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -34655,7 +34661,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -34861,7 +34867,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35017,6 +35023,418 @@
         <v>0</v>
       </c>
       <c r="BP164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7859434</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45773.5</v>
+      </c>
+      <c r="F165">
+        <v>6</v>
+      </c>
+      <c r="G165" t="s">
+        <v>76</v>
+      </c>
+      <c r="H165" t="s">
+        <v>79</v>
+      </c>
+      <c r="I165">
+        <v>2</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>2</v>
+      </c>
+      <c r="L165">
+        <v>6</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>6</v>
+      </c>
+      <c r="O165" t="s">
+        <v>202</v>
+      </c>
+      <c r="P165" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q165">
+        <v>2.05</v>
+      </c>
+      <c r="R165">
+        <v>2.5</v>
+      </c>
+      <c r="S165">
+        <v>5.5</v>
+      </c>
+      <c r="T165">
+        <v>1.29</v>
+      </c>
+      <c r="U165">
+        <v>3.5</v>
+      </c>
+      <c r="V165">
+        <v>2.38</v>
+      </c>
+      <c r="W165">
+        <v>1.53</v>
+      </c>
+      <c r="X165">
+        <v>5.5</v>
+      </c>
+      <c r="Y165">
+        <v>1.14</v>
+      </c>
+      <c r="Z165">
+        <v>1.5</v>
+      </c>
+      <c r="AA165">
+        <v>4.5</v>
+      </c>
+      <c r="AB165">
+        <v>5.5</v>
+      </c>
+      <c r="AC165">
+        <v>0</v>
+      </c>
+      <c r="AD165">
+        <v>0</v>
+      </c>
+      <c r="AE165">
+        <v>0</v>
+      </c>
+      <c r="AF165">
+        <v>0</v>
+      </c>
+      <c r="AG165">
+        <v>1.53</v>
+      </c>
+      <c r="AH165">
+        <v>2.25</v>
+      </c>
+      <c r="AI165">
+        <v>1.7</v>
+      </c>
+      <c r="AJ165">
+        <v>2.05</v>
+      </c>
+      <c r="AK165">
+        <v>0</v>
+      </c>
+      <c r="AL165">
+        <v>0</v>
+      </c>
+      <c r="AM165">
+        <v>0</v>
+      </c>
+      <c r="AN165">
+        <v>1.54</v>
+      </c>
+      <c r="AO165">
+        <v>0.85</v>
+      </c>
+      <c r="AP165">
+        <v>1.64</v>
+      </c>
+      <c r="AQ165">
+        <v>0.79</v>
+      </c>
+      <c r="AR165">
+        <v>1.73</v>
+      </c>
+      <c r="AS165">
+        <v>1.13</v>
+      </c>
+      <c r="AT165">
+        <v>2.86</v>
+      </c>
+      <c r="AU165">
+        <v>-1</v>
+      </c>
+      <c r="AV165">
+        <v>-1</v>
+      </c>
+      <c r="AW165">
+        <v>-1</v>
+      </c>
+      <c r="AX165">
+        <v>-1</v>
+      </c>
+      <c r="AY165">
+        <v>-1</v>
+      </c>
+      <c r="AZ165">
+        <v>-1</v>
+      </c>
+      <c r="BA165">
+        <v>-1</v>
+      </c>
+      <c r="BB165">
+        <v>-1</v>
+      </c>
+      <c r="BC165">
+        <v>-1</v>
+      </c>
+      <c r="BD165">
+        <v>0</v>
+      </c>
+      <c r="BE165">
+        <v>0</v>
+      </c>
+      <c r="BF165">
+        <v>0</v>
+      </c>
+      <c r="BG165">
+        <v>0</v>
+      </c>
+      <c r="BH165">
+        <v>0</v>
+      </c>
+      <c r="BI165">
+        <v>0</v>
+      </c>
+      <c r="BJ165">
+        <v>0</v>
+      </c>
+      <c r="BK165">
+        <v>0</v>
+      </c>
+      <c r="BL165">
+        <v>0</v>
+      </c>
+      <c r="BM165">
+        <v>0</v>
+      </c>
+      <c r="BN165">
+        <v>0</v>
+      </c>
+      <c r="BO165">
+        <v>0</v>
+      </c>
+      <c r="BP165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7859435</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45773.5</v>
+      </c>
+      <c r="F166">
+        <v>6</v>
+      </c>
+      <c r="G166" t="s">
+        <v>71</v>
+      </c>
+      <c r="H166" t="s">
+        <v>77</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>2</v>
+      </c>
+      <c r="L166">
+        <v>3</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166" t="s">
+        <v>203</v>
+      </c>
+      <c r="P166" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q166">
+        <v>2.75</v>
+      </c>
+      <c r="R166">
+        <v>2.05</v>
+      </c>
+      <c r="S166">
+        <v>4.5</v>
+      </c>
+      <c r="T166">
+        <v>1.5</v>
+      </c>
+      <c r="U166">
+        <v>2.5</v>
+      </c>
+      <c r="V166">
+        <v>3.4</v>
+      </c>
+      <c r="W166">
+        <v>1.3</v>
+      </c>
+      <c r="X166">
+        <v>10</v>
+      </c>
+      <c r="Y166">
+        <v>1.06</v>
+      </c>
+      <c r="Z166">
+        <v>1.99</v>
+      </c>
+      <c r="AA166">
+        <v>3.38</v>
+      </c>
+      <c r="AB166">
+        <v>3.68</v>
+      </c>
+      <c r="AC166">
+        <v>0</v>
+      </c>
+      <c r="AD166">
+        <v>0</v>
+      </c>
+      <c r="AE166">
+        <v>0</v>
+      </c>
+      <c r="AF166">
+        <v>0</v>
+      </c>
+      <c r="AG166">
+        <v>2</v>
+      </c>
+      <c r="AH166">
+        <v>1.67</v>
+      </c>
+      <c r="AI166">
+        <v>2</v>
+      </c>
+      <c r="AJ166">
+        <v>1.75</v>
+      </c>
+      <c r="AK166">
+        <v>0</v>
+      </c>
+      <c r="AL166">
+        <v>0</v>
+      </c>
+      <c r="AM166">
+        <v>0</v>
+      </c>
+      <c r="AN166">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AO166">
+        <v>0.85</v>
+      </c>
+      <c r="AP166">
+        <v>0.86</v>
+      </c>
+      <c r="AQ166">
+        <v>0.79</v>
+      </c>
+      <c r="AR166">
+        <v>1.33</v>
+      </c>
+      <c r="AS166">
+        <v>1.15</v>
+      </c>
+      <c r="AT166">
+        <v>2.48</v>
+      </c>
+      <c r="AU166">
+        <v>-1</v>
+      </c>
+      <c r="AV166">
+        <v>-1</v>
+      </c>
+      <c r="AW166">
+        <v>-1</v>
+      </c>
+      <c r="AX166">
+        <v>-1</v>
+      </c>
+      <c r="AY166">
+        <v>-1</v>
+      </c>
+      <c r="AZ166">
+        <v>-1</v>
+      </c>
+      <c r="BA166">
+        <v>-1</v>
+      </c>
+      <c r="BB166">
+        <v>-1</v>
+      </c>
+      <c r="BC166">
+        <v>-1</v>
+      </c>
+      <c r="BD166">
+        <v>0</v>
+      </c>
+      <c r="BE166">
+        <v>0</v>
+      </c>
+      <c r="BF166">
+        <v>0</v>
+      </c>
+      <c r="BG166">
+        <v>0</v>
+      </c>
+      <c r="BH166">
+        <v>0</v>
+      </c>
+      <c r="BI166">
+        <v>0</v>
+      </c>
+      <c r="BJ166">
+        <v>0</v>
+      </c>
+      <c r="BK166">
+        <v>0</v>
+      </c>
+      <c r="BL166">
+        <v>0</v>
+      </c>
+      <c r="BM166">
+        <v>0</v>
+      </c>
+      <c r="BN166">
+        <v>0</v>
+      </c>
+      <c r="BO166">
+        <v>0</v>
+      </c>
+      <c r="BP166">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -35166,31 +35166,31 @@
         <v>2.86</v>
       </c>
       <c r="AU165">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV165">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW165">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="AX165">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY165">
-        <v>-1</v>
+        <v>49</v>
       </c>
       <c r="AZ165">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA165">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB165">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC165">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD165">
         <v>0</v>
@@ -35372,31 +35372,31 @@
         <v>2.48</v>
       </c>
       <c r="AU166">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV166">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW166">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX166">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY166">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ166">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA166">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB166">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC166">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD166">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,7 +625,10 @@
     <t>['26', '42', '60', '65', '72', '83']</t>
   </si>
   <si>
-    <t>['29', '45+1', '90+3']</t>
+    <t>['29', '45+2', '90+3']</t>
+  </si>
+  <si>
+    <t>['15', '54']</t>
   </si>
   <si>
     <t>['4', '6', '45+2']</t>
@@ -875,6 +878,9 @@
   </si>
   <si>
     <t>['74']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1495,7 +1501,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1576,7 +1582,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ2">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1701,7 +1707,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1907,7 +1913,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2191,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ5">
         <v>0.79</v>
@@ -2397,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ6">
         <v>1.71</v>
@@ -2606,7 +2612,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ7">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2731,7 +2737,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -3143,7 +3149,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -3224,7 +3230,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3839,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ13">
         <v>1.21</v>
@@ -3967,7 +3973,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q14">
         <v>3.1</v>
@@ -4048,7 +4054,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ14">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR14">
         <v>1.07</v>
@@ -4173,7 +4179,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4379,7 +4385,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -4460,7 +4466,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ16">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR16">
         <v>1.73</v>
@@ -4666,7 +4672,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ17">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR17">
         <v>1.09</v>
@@ -4869,7 +4875,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ18">
         <v>0.79</v>
@@ -5203,7 +5209,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5409,7 +5415,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5487,7 +5493,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ21">
         <v>0.79</v>
@@ -5615,7 +5621,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q22">
         <v>2.4</v>
@@ -5693,7 +5699,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ22">
         <v>0.79</v>
@@ -5821,7 +5827,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6233,7 +6239,7 @@
         <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6314,7 +6320,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR25">
         <v>0.84</v>
@@ -6645,7 +6651,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6723,7 +6729,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ27">
         <v>0.79</v>
@@ -6851,7 +6857,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7057,7 +7063,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q29">
         <v>4.33</v>
@@ -7135,10 +7141,10 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ29">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR29">
         <v>1.88</v>
@@ -7344,7 +7350,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ30">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR30">
         <v>1.18</v>
@@ -7547,7 +7553,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ31">
         <v>0.64</v>
@@ -7881,7 +7887,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8087,7 +8093,7 @@
         <v>89</v>
       </c>
       <c r="P34" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8168,7 +8174,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ34">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR34">
         <v>1.26</v>
@@ -8293,7 +8299,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8499,7 +8505,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q36">
         <v>2.1</v>
@@ -8705,7 +8711,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q37">
         <v>2.2</v>
@@ -8783,7 +8789,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ37">
         <v>1.71</v>
@@ -8992,7 +8998,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ38">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR38">
         <v>1</v>
@@ -9117,7 +9123,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9195,10 +9201,10 @@
         <v>0.67</v>
       </c>
       <c r="AP39">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ39">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR39">
         <v>1.72</v>
@@ -9323,7 +9329,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9735,7 +9741,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10022,7 +10028,7 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR43">
         <v>2.5</v>
@@ -10147,7 +10153,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q44">
         <v>2.4</v>
@@ -10225,7 +10231,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ44">
         <v>1.86</v>
@@ -10353,7 +10359,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q45">
         <v>2.2</v>
@@ -10431,7 +10437,7 @@
         <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ45">
         <v>0.79</v>
@@ -10971,7 +10977,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11049,7 +11055,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ48">
         <v>1.21</v>
@@ -11464,7 +11470,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ50">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR50">
         <v>0.98</v>
@@ -11795,7 +11801,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12079,10 +12085,10 @@
         <v>1.75</v>
       </c>
       <c r="AP53">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ53">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR53">
         <v>1.83</v>
@@ -12207,7 +12213,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12413,7 +12419,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12491,7 +12497,7 @@
         <v>0.4</v>
       </c>
       <c r="AP55">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ55">
         <v>0.79</v>
@@ -12825,7 +12831,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12906,7 +12912,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR57">
         <v>1.44</v>
@@ -13031,7 +13037,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13237,7 +13243,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13315,7 +13321,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ59">
         <v>1.21</v>
@@ -13855,7 +13861,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -13936,7 +13942,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ62">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR62">
         <v>1.17</v>
@@ -14139,10 +14145,10 @@
         <v>1.4</v>
       </c>
       <c r="AP63">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ63">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR63">
         <v>1.65</v>
@@ -14473,7 +14479,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14679,7 +14685,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14885,7 +14891,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14963,7 +14969,7 @@
         <v>1.2</v>
       </c>
       <c r="AP67">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ67">
         <v>0.64</v>
@@ -15790,7 +15796,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ71">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR71">
         <v>1.72</v>
@@ -15993,10 +15999,10 @@
         <v>0.83</v>
       </c>
       <c r="AP72">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ72">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR72">
         <v>1.52</v>
@@ -16327,7 +16333,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16614,7 +16620,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ75">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR75">
         <v>1.32</v>
@@ -16739,7 +16745,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17023,7 +17029,7 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ77">
         <v>0.79</v>
@@ -17151,7 +17157,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -17641,7 +17647,7 @@
         <v>1.17</v>
       </c>
       <c r="AP80">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ80">
         <v>0.79</v>
@@ -17847,7 +17853,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ81">
         <v>0.79</v>
@@ -17975,7 +17981,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q82">
         <v>2.88</v>
@@ -18387,7 +18393,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q84">
         <v>5.5</v>
@@ -18593,7 +18599,7 @@
         <v>119</v>
       </c>
       <c r="P85" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18674,7 +18680,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ85">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR85">
         <v>1.2</v>
@@ -18799,7 +18805,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -19005,7 +19011,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19289,10 +19295,10 @@
         <v>0.71</v>
       </c>
       <c r="AP88">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ88">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR88">
         <v>1.65</v>
@@ -19417,7 +19423,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19498,7 +19504,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ89">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR89">
         <v>1.4</v>
@@ -19829,7 +19835,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -19907,7 +19913,7 @@
         <v>1.86</v>
       </c>
       <c r="AP91">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ91">
         <v>1.86</v>
@@ -20035,7 +20041,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20241,7 +20247,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q93">
         <v>2.4</v>
@@ -20447,7 +20453,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20653,7 +20659,7 @@
         <v>89</v>
       </c>
       <c r="P95" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -21271,7 +21277,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21349,10 +21355,10 @@
         <v>1.38</v>
       </c>
       <c r="AP98">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ98">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR98">
         <v>1.71</v>
@@ -21477,7 +21483,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q99">
         <v>2.3</v>
@@ -21555,7 +21561,7 @@
         <v>1.71</v>
       </c>
       <c r="AP99">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ99">
         <v>1.71</v>
@@ -21683,7 +21689,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21970,7 +21976,7 @@
         <v>1</v>
       </c>
       <c r="AQ101">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR101">
         <v>1.37</v>
@@ -22382,7 +22388,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ103">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR103">
         <v>1.4</v>
@@ -22507,7 +22513,7 @@
         <v>103</v>
       </c>
       <c r="P104" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22791,7 +22797,7 @@
         <v>2.13</v>
       </c>
       <c r="AP105">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ105">
         <v>1.71</v>
@@ -22919,7 +22925,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q106">
         <v>1.67</v>
@@ -23743,7 +23749,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -23824,7 +23830,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ110">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR110">
         <v>1.61</v>
@@ -23949,7 +23955,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24155,7 +24161,7 @@
         <v>165</v>
       </c>
       <c r="P112" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q112">
         <v>4.53</v>
@@ -24439,10 +24445,10 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ113">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR113">
         <v>1.71</v>
@@ -24773,7 +24779,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24979,7 +24985,7 @@
         <v>89</v>
       </c>
       <c r="P116" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25185,7 +25191,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25266,7 +25272,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ117">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR117">
         <v>1.34</v>
@@ -25469,7 +25475,7 @@
         <v>0.78</v>
       </c>
       <c r="AP118">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ118">
         <v>0.79</v>
@@ -25597,7 +25603,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q119">
         <v>4.33</v>
@@ -26009,7 +26015,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26215,7 +26221,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q122">
         <v>2.38</v>
@@ -26421,7 +26427,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q123">
         <v>2.6</v>
@@ -26499,10 +26505,10 @@
         <v>0.9</v>
       </c>
       <c r="AP123">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ123">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR123">
         <v>1.5</v>
@@ -26833,7 +26839,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q125">
         <v>5.5</v>
@@ -26914,7 +26920,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ125">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR125">
         <v>1.29</v>
@@ -27039,7 +27045,7 @@
         <v>87</v>
       </c>
       <c r="P126" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27245,7 +27251,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27451,7 +27457,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q128">
         <v>3.5</v>
@@ -27657,7 +27663,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q129">
         <v>5.5</v>
@@ -27738,7 +27744,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ129">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR129">
         <v>1.05</v>
@@ -28069,7 +28075,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28147,7 +28153,7 @@
         <v>1.7</v>
       </c>
       <c r="AP131">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ131">
         <v>1.86</v>
@@ -28559,7 +28565,7 @@
         <v>0.9</v>
       </c>
       <c r="AP133">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ133">
         <v>0.79</v>
@@ -28687,7 +28693,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29099,7 +29105,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29305,7 +29311,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29386,7 +29392,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ137">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR137">
         <v>1.48</v>
@@ -29589,7 +29595,7 @@
         <v>1.82</v>
       </c>
       <c r="AP138">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ138">
         <v>1.71</v>
@@ -29717,7 +29723,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -29795,10 +29801,10 @@
         <v>1.27</v>
       </c>
       <c r="AP139">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ139">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR139">
         <v>1.73</v>
@@ -30001,7 +30007,7 @@
         <v>0.82</v>
       </c>
       <c r="AP140">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ140">
         <v>0.64</v>
@@ -30129,7 +30135,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q141">
         <v>3.5</v>
@@ -30335,7 +30341,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q142">
         <v>3.5</v>
@@ -30828,7 +30834,7 @@
         <v>2</v>
       </c>
       <c r="AQ144">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR144">
         <v>2.17</v>
@@ -31159,7 +31165,7 @@
         <v>134</v>
       </c>
       <c r="P146" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31571,7 +31577,7 @@
         <v>89</v>
       </c>
       <c r="P148" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31777,7 +31783,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -31983,7 +31989,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32267,10 +32273,10 @@
         <v>1.75</v>
       </c>
       <c r="AP151">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ151">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR151">
         <v>1.69</v>
@@ -32807,7 +32813,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33013,7 +33019,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q155">
         <v>3.75</v>
@@ -33091,7 +33097,7 @@
         <v>0.75</v>
       </c>
       <c r="AP155">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ155">
         <v>0.64</v>
@@ -33297,10 +33303,10 @@
         <v>1</v>
       </c>
       <c r="AP156">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ156">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR156">
         <v>1.75</v>
@@ -33425,7 +33431,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q157">
         <v>3.5</v>
@@ -33506,7 +33512,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ157">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AR157">
         <v>1.69</v>
@@ -33837,7 +33843,7 @@
         <v>89</v>
       </c>
       <c r="P159" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q159">
         <v>3.4</v>
@@ -34043,7 +34049,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -34249,7 +34255,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q161">
         <v>2.4</v>
@@ -34455,7 +34461,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -34661,7 +34667,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -34867,7 +34873,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35435,6 +35441,624 @@
         <v>0</v>
       </c>
       <c r="BP166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7859437</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45774.39583333334</v>
+      </c>
+      <c r="F167">
+        <v>6</v>
+      </c>
+      <c r="G167" t="s">
+        <v>74</v>
+      </c>
+      <c r="H167" t="s">
+        <v>75</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167" t="s">
+        <v>89</v>
+      </c>
+      <c r="P167" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q167">
+        <v>2.2</v>
+      </c>
+      <c r="R167">
+        <v>2.25</v>
+      </c>
+      <c r="S167">
+        <v>5.5</v>
+      </c>
+      <c r="T167">
+        <v>1.36</v>
+      </c>
+      <c r="U167">
+        <v>3</v>
+      </c>
+      <c r="V167">
+        <v>2.75</v>
+      </c>
+      <c r="W167">
+        <v>1.4</v>
+      </c>
+      <c r="X167">
+        <v>7</v>
+      </c>
+      <c r="Y167">
+        <v>1.1</v>
+      </c>
+      <c r="Z167">
+        <v>1.61</v>
+      </c>
+      <c r="AA167">
+        <v>4</v>
+      </c>
+      <c r="AB167">
+        <v>5</v>
+      </c>
+      <c r="AC167">
+        <v>1.05</v>
+      </c>
+      <c r="AD167">
+        <v>9.5</v>
+      </c>
+      <c r="AE167">
+        <v>1.25</v>
+      </c>
+      <c r="AF167">
+        <v>3.7</v>
+      </c>
+      <c r="AG167">
+        <v>1.82</v>
+      </c>
+      <c r="AH167">
+        <v>1.92</v>
+      </c>
+      <c r="AI167">
+        <v>1.91</v>
+      </c>
+      <c r="AJ167">
+        <v>1.91</v>
+      </c>
+      <c r="AK167">
+        <v>1.15</v>
+      </c>
+      <c r="AL167">
+        <v>1.2</v>
+      </c>
+      <c r="AM167">
+        <v>2.2</v>
+      </c>
+      <c r="AN167">
+        <v>2.15</v>
+      </c>
+      <c r="AO167">
+        <v>0.92</v>
+      </c>
+      <c r="AP167">
+        <v>2.07</v>
+      </c>
+      <c r="AQ167">
+        <v>0.93</v>
+      </c>
+      <c r="AR167">
+        <v>1.71</v>
+      </c>
+      <c r="AS167">
+        <v>1.19</v>
+      </c>
+      <c r="AT167">
+        <v>2.9</v>
+      </c>
+      <c r="AU167">
+        <v>7</v>
+      </c>
+      <c r="AV167">
+        <v>4</v>
+      </c>
+      <c r="AW167">
+        <v>7</v>
+      </c>
+      <c r="AX167">
+        <v>9</v>
+      </c>
+      <c r="AY167">
+        <v>18</v>
+      </c>
+      <c r="AZ167">
+        <v>16</v>
+      </c>
+      <c r="BA167">
+        <v>4</v>
+      </c>
+      <c r="BB167">
+        <v>4</v>
+      </c>
+      <c r="BC167">
+        <v>8</v>
+      </c>
+      <c r="BD167">
+        <v>0</v>
+      </c>
+      <c r="BE167">
+        <v>0</v>
+      </c>
+      <c r="BF167">
+        <v>0</v>
+      </c>
+      <c r="BG167">
+        <v>0</v>
+      </c>
+      <c r="BH167">
+        <v>0</v>
+      </c>
+      <c r="BI167">
+        <v>0</v>
+      </c>
+      <c r="BJ167">
+        <v>0</v>
+      </c>
+      <c r="BK167">
+        <v>0</v>
+      </c>
+      <c r="BL167">
+        <v>0</v>
+      </c>
+      <c r="BM167">
+        <v>0</v>
+      </c>
+      <c r="BN167">
+        <v>0</v>
+      </c>
+      <c r="BO167">
+        <v>0</v>
+      </c>
+      <c r="BP167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7859436</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45774.39583333334</v>
+      </c>
+      <c r="F168">
+        <v>6</v>
+      </c>
+      <c r="G168" t="s">
+        <v>73</v>
+      </c>
+      <c r="H168" t="s">
+        <v>78</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>2</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>3</v>
+      </c>
+      <c r="O168" t="s">
+        <v>204</v>
+      </c>
+      <c r="P168" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q168">
+        <v>3.75</v>
+      </c>
+      <c r="R168">
+        <v>2.25</v>
+      </c>
+      <c r="S168">
+        <v>2.75</v>
+      </c>
+      <c r="T168">
+        <v>1.33</v>
+      </c>
+      <c r="U168">
+        <v>3.25</v>
+      </c>
+      <c r="V168">
+        <v>2.63</v>
+      </c>
+      <c r="W168">
+        <v>1.44</v>
+      </c>
+      <c r="X168">
+        <v>6.5</v>
+      </c>
+      <c r="Y168">
+        <v>1.11</v>
+      </c>
+      <c r="Z168">
+        <v>3.23</v>
+      </c>
+      <c r="AA168">
+        <v>3.57</v>
+      </c>
+      <c r="AB168">
+        <v>2.09</v>
+      </c>
+      <c r="AC168">
+        <v>0</v>
+      </c>
+      <c r="AD168">
+        <v>0</v>
+      </c>
+      <c r="AE168">
+        <v>0</v>
+      </c>
+      <c r="AF168">
+        <v>0</v>
+      </c>
+      <c r="AG168">
+        <v>1.65</v>
+      </c>
+      <c r="AH168">
+        <v>2.05</v>
+      </c>
+      <c r="AI168">
+        <v>1.62</v>
+      </c>
+      <c r="AJ168">
+        <v>2.2</v>
+      </c>
+      <c r="AK168">
+        <v>0</v>
+      </c>
+      <c r="AL168">
+        <v>0</v>
+      </c>
+      <c r="AM168">
+        <v>0</v>
+      </c>
+      <c r="AN168">
+        <v>1.62</v>
+      </c>
+      <c r="AO168">
+        <v>1.54</v>
+      </c>
+      <c r="AP168">
+        <v>1.71</v>
+      </c>
+      <c r="AQ168">
+        <v>1.43</v>
+      </c>
+      <c r="AR168">
+        <v>1.62</v>
+      </c>
+      <c r="AS168">
+        <v>1.55</v>
+      </c>
+      <c r="AT168">
+        <v>3.17</v>
+      </c>
+      <c r="AU168">
+        <v>8</v>
+      </c>
+      <c r="AV168">
+        <v>6</v>
+      </c>
+      <c r="AW168">
+        <v>7</v>
+      </c>
+      <c r="AX168">
+        <v>8</v>
+      </c>
+      <c r="AY168">
+        <v>15</v>
+      </c>
+      <c r="AZ168">
+        <v>15</v>
+      </c>
+      <c r="BA168">
+        <v>2</v>
+      </c>
+      <c r="BB168">
+        <v>1</v>
+      </c>
+      <c r="BC168">
+        <v>3</v>
+      </c>
+      <c r="BD168">
+        <v>0</v>
+      </c>
+      <c r="BE168">
+        <v>0</v>
+      </c>
+      <c r="BF168">
+        <v>0</v>
+      </c>
+      <c r="BG168">
+        <v>0</v>
+      </c>
+      <c r="BH168">
+        <v>0</v>
+      </c>
+      <c r="BI168">
+        <v>0</v>
+      </c>
+      <c r="BJ168">
+        <v>0</v>
+      </c>
+      <c r="BK168">
+        <v>0</v>
+      </c>
+      <c r="BL168">
+        <v>0</v>
+      </c>
+      <c r="BM168">
+        <v>0</v>
+      </c>
+      <c r="BN168">
+        <v>0</v>
+      </c>
+      <c r="BO168">
+        <v>0</v>
+      </c>
+      <c r="BP168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7859438</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45774.5</v>
+      </c>
+      <c r="F169">
+        <v>6</v>
+      </c>
+      <c r="G169" t="s">
+        <v>81</v>
+      </c>
+      <c r="H169" t="s">
+        <v>80</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>1</v>
+      </c>
+      <c r="O169" t="s">
+        <v>89</v>
+      </c>
+      <c r="P169" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q169">
+        <v>2.63</v>
+      </c>
+      <c r="R169">
+        <v>2.25</v>
+      </c>
+      <c r="S169">
+        <v>4</v>
+      </c>
+      <c r="T169">
+        <v>1.36</v>
+      </c>
+      <c r="U169">
+        <v>3</v>
+      </c>
+      <c r="V169">
+        <v>2.63</v>
+      </c>
+      <c r="W169">
+        <v>1.44</v>
+      </c>
+      <c r="X169">
+        <v>7</v>
+      </c>
+      <c r="Y169">
+        <v>1.1</v>
+      </c>
+      <c r="Z169">
+        <v>1.99</v>
+      </c>
+      <c r="AA169">
+        <v>3.57</v>
+      </c>
+      <c r="AB169">
+        <v>3.47</v>
+      </c>
+      <c r="AC169">
+        <v>0</v>
+      </c>
+      <c r="AD169">
+        <v>0</v>
+      </c>
+      <c r="AE169">
+        <v>2.57</v>
+      </c>
+      <c r="AF169">
+        <v>1.48</v>
+      </c>
+      <c r="AG169">
+        <v>1.77</v>
+      </c>
+      <c r="AH169">
+        <v>1.98</v>
+      </c>
+      <c r="AI169">
+        <v>1.67</v>
+      </c>
+      <c r="AJ169">
+        <v>2.1</v>
+      </c>
+      <c r="AK169">
+        <v>0</v>
+      </c>
+      <c r="AL169">
+        <v>0</v>
+      </c>
+      <c r="AM169">
+        <v>0</v>
+      </c>
+      <c r="AN169">
+        <v>2.46</v>
+      </c>
+      <c r="AO169">
+        <v>1.62</v>
+      </c>
+      <c r="AP169">
+        <v>2.29</v>
+      </c>
+      <c r="AQ169">
+        <v>1.71</v>
+      </c>
+      <c r="AR169">
+        <v>1.74</v>
+      </c>
+      <c r="AS169">
+        <v>1.25</v>
+      </c>
+      <c r="AT169">
+        <v>2.99</v>
+      </c>
+      <c r="AU169">
+        <v>5</v>
+      </c>
+      <c r="AV169">
+        <v>4</v>
+      </c>
+      <c r="AW169">
+        <v>13</v>
+      </c>
+      <c r="AX169">
+        <v>8</v>
+      </c>
+      <c r="AY169">
+        <v>20</v>
+      </c>
+      <c r="AZ169">
+        <v>14</v>
+      </c>
+      <c r="BA169">
+        <v>5</v>
+      </c>
+      <c r="BB169">
+        <v>8</v>
+      </c>
+      <c r="BC169">
+        <v>13</v>
+      </c>
+      <c r="BD169">
+        <v>0</v>
+      </c>
+      <c r="BE169">
+        <v>0</v>
+      </c>
+      <c r="BF169">
+        <v>0</v>
+      </c>
+      <c r="BG169">
+        <v>0</v>
+      </c>
+      <c r="BH169">
+        <v>0</v>
+      </c>
+      <c r="BI169">
+        <v>0</v>
+      </c>
+      <c r="BJ169">
+        <v>0</v>
+      </c>
+      <c r="BK169">
+        <v>0</v>
+      </c>
+      <c r="BL169">
+        <v>0</v>
+      </c>
+      <c r="BM169">
+        <v>0</v>
+      </c>
+      <c r="BN169">
+        <v>0</v>
+      </c>
+      <c r="BO169">
+        <v>0</v>
+      </c>
+      <c r="BP169">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -882,6 +882,9 @@
   <si>
     <t>['90+4']</t>
   </si>
+  <si>
+    <t>['37']</t>
+  </si>
 </sst>
 </file>
 
@@ -1242,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1579,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ2">
         <v>1.43</v>
@@ -2200,7 +2203,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ5">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -4051,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ14">
         <v>0.93</v>
@@ -5290,7 +5293,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ20">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR20">
         <v>0.78</v>
@@ -7965,7 +7968,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ33">
         <v>0.79</v>
@@ -10849,10 +10852,10 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ47">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR47">
         <v>1.52</v>
@@ -11676,7 +11679,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ51">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR51">
         <v>1.44</v>
@@ -13736,7 +13739,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ61">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -14351,7 +14354,7 @@
         <v>1.25</v>
       </c>
       <c r="AP64">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ64">
         <v>0.64</v>
@@ -16205,7 +16208,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ73">
         <v>0.79</v>
@@ -17032,7 +17035,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ77">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR77">
         <v>1.67</v>
@@ -17650,7 +17653,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ80">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR80">
         <v>1.71</v>
@@ -18883,7 +18886,7 @@
         <v>1.5</v>
       </c>
       <c r="AP86">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ86">
         <v>1.71</v>
@@ -20534,7 +20537,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ94">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR94">
         <v>1.33</v>
@@ -20737,7 +20740,7 @@
         <v>0.71</v>
       </c>
       <c r="AP95">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ95">
         <v>1.21</v>
@@ -21152,7 +21155,7 @@
         <v>2</v>
       </c>
       <c r="AQ97">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR97">
         <v>2.11</v>
@@ -23209,7 +23212,7 @@
         <v>1.63</v>
       </c>
       <c r="AP107">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ107">
         <v>1.86</v>
@@ -23418,7 +23421,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ108">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR108">
         <v>1.12</v>
@@ -25269,7 +25272,7 @@
         <v>1.33</v>
       </c>
       <c r="AP117">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ117">
         <v>1.71</v>
@@ -26714,7 +26717,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ124">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR124">
         <v>1.58</v>
@@ -27123,7 +27126,7 @@
         <v>1.7</v>
       </c>
       <c r="AP126">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ126">
         <v>1.71</v>
@@ -28977,7 +28980,7 @@
         <v>0.91</v>
       </c>
       <c r="AP135">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ135">
         <v>0.79</v>
@@ -29186,7 +29189,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ136">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR136">
         <v>1.16</v>
@@ -31449,7 +31452,7 @@
         <v>0.92</v>
       </c>
       <c r="AP147">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ147">
         <v>0.79</v>
@@ -31864,7 +31867,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ149">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR149">
         <v>1.12</v>
@@ -33921,7 +33924,7 @@
         <v>1.08</v>
       </c>
       <c r="AP159">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ159">
         <v>1.21</v>
@@ -35160,7 +35163,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ165">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR165">
         <v>1.73</v>
@@ -36060,6 +36063,212 @@
       </c>
       <c r="BP169">
         <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7859439</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45779.60416666666</v>
+      </c>
+      <c r="F170">
+        <v>7</v>
+      </c>
+      <c r="G170" t="s">
+        <v>70</v>
+      </c>
+      <c r="H170" t="s">
+        <v>79</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>2</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>2</v>
+      </c>
+      <c r="O170" t="s">
+        <v>116</v>
+      </c>
+      <c r="P170" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q170">
+        <v>2.88</v>
+      </c>
+      <c r="R170">
+        <v>2.2</v>
+      </c>
+      <c r="S170">
+        <v>3.75</v>
+      </c>
+      <c r="T170">
+        <v>1.4</v>
+      </c>
+      <c r="U170">
+        <v>2.75</v>
+      </c>
+      <c r="V170">
+        <v>2.75</v>
+      </c>
+      <c r="W170">
+        <v>1.4</v>
+      </c>
+      <c r="X170">
+        <v>8</v>
+      </c>
+      <c r="Y170">
+        <v>1.08</v>
+      </c>
+      <c r="Z170">
+        <v>2.13</v>
+      </c>
+      <c r="AA170">
+        <v>3.31</v>
+      </c>
+      <c r="AB170">
+        <v>3.36</v>
+      </c>
+      <c r="AC170">
+        <v>1.06</v>
+      </c>
+      <c r="AD170">
+        <v>8.5</v>
+      </c>
+      <c r="AE170">
+        <v>1.3</v>
+      </c>
+      <c r="AF170">
+        <v>3.4</v>
+      </c>
+      <c r="AG170">
+        <v>1.87</v>
+      </c>
+      <c r="AH170">
+        <v>1.87</v>
+      </c>
+      <c r="AI170">
+        <v>1.7</v>
+      </c>
+      <c r="AJ170">
+        <v>2.05</v>
+      </c>
+      <c r="AK170">
+        <v>1.33</v>
+      </c>
+      <c r="AL170">
+        <v>1.31</v>
+      </c>
+      <c r="AM170">
+        <v>1.63</v>
+      </c>
+      <c r="AN170">
+        <v>0.79</v>
+      </c>
+      <c r="AO170">
+        <v>0.79</v>
+      </c>
+      <c r="AP170">
+        <v>0.8</v>
+      </c>
+      <c r="AQ170">
+        <v>0.8</v>
+      </c>
+      <c r="AR170">
+        <v>1.31</v>
+      </c>
+      <c r="AS170">
+        <v>1.09</v>
+      </c>
+      <c r="AT170">
+        <v>2.4</v>
+      </c>
+      <c r="AU170">
+        <v>8</v>
+      </c>
+      <c r="AV170">
+        <v>4</v>
+      </c>
+      <c r="AW170">
+        <v>13</v>
+      </c>
+      <c r="AX170">
+        <v>8</v>
+      </c>
+      <c r="AY170">
+        <v>26</v>
+      </c>
+      <c r="AZ170">
+        <v>15</v>
+      </c>
+      <c r="BA170">
+        <v>6</v>
+      </c>
+      <c r="BB170">
+        <v>3</v>
+      </c>
+      <c r="BC170">
+        <v>9</v>
+      </c>
+      <c r="BD170">
+        <v>1.68</v>
+      </c>
+      <c r="BE170">
+        <v>6.4</v>
+      </c>
+      <c r="BF170">
+        <v>2.43</v>
+      </c>
+      <c r="BG170">
+        <v>1.3</v>
+      </c>
+      <c r="BH170">
+        <v>3.05</v>
+      </c>
+      <c r="BI170">
+        <v>1.53</v>
+      </c>
+      <c r="BJ170">
+        <v>2.3</v>
+      </c>
+      <c r="BK170">
+        <v>1.9</v>
+      </c>
+      <c r="BL170">
+        <v>1.9</v>
+      </c>
+      <c r="BM170">
+        <v>2.32</v>
+      </c>
+      <c r="BN170">
+        <v>1.52</v>
+      </c>
+      <c r="BO170">
+        <v>3</v>
+      </c>
+      <c r="BP170">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="292">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -631,6 +631,9 @@
     <t>['15', '54']</t>
   </si>
   <si>
+    <t>['50']</t>
+  </si>
+  <si>
     <t>['4', '6', '45+2']</t>
   </si>
   <si>
@@ -884,6 +887,9 @@
   </si>
   <si>
     <t>['37']</t>
+  </si>
+  <si>
+    <t>['46', '58', '65']</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1504,7 +1510,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1710,7 +1716,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1916,7 +1922,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1997,7 +2003,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ4">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2740,7 +2746,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -3024,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>0.79</v>
@@ -3152,7 +3158,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -3976,7 +3982,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q14">
         <v>3.1</v>
@@ -4182,7 +4188,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4388,7 +4394,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -5212,7 +5218,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5290,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>0.8</v>
@@ -5418,7 +5424,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5624,7 +5630,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q22">
         <v>2.4</v>
@@ -5830,7 +5836,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5911,7 +5917,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ23">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR23">
         <v>1.73</v>
@@ -6242,7 +6248,7 @@
         <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6654,7 +6660,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6860,7 +6866,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7066,7 +7072,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q29">
         <v>4.33</v>
@@ -7765,7 +7771,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ32">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR32">
         <v>1.09</v>
@@ -7890,7 +7896,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8096,7 +8102,7 @@
         <v>89</v>
       </c>
       <c r="P34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8302,7 +8308,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8508,7 +8514,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q36">
         <v>2.1</v>
@@ -8714,7 +8720,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q37">
         <v>2.2</v>
@@ -8998,7 +9004,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>1.43</v>
@@ -9126,7 +9132,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9332,7 +9338,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9744,7 +9750,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10156,7 +10162,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q44">
         <v>2.4</v>
@@ -10237,7 +10243,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ44">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR44">
         <v>1.82</v>
@@ -10362,7 +10368,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q45">
         <v>2.2</v>
@@ -10980,7 +10986,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11470,7 +11476,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ50">
         <v>0.93</v>
@@ -11804,7 +11810,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12216,7 +12222,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12422,7 +12428,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12834,7 +12840,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -13040,7 +13046,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13118,10 +13124,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR58">
         <v>1</v>
@@ -13246,7 +13252,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13864,7 +13870,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14482,7 +14488,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14688,7 +14694,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14894,7 +14900,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15590,7 +15596,7 @@
         <v>0.8</v>
       </c>
       <c r="AP70">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
         <v>0.79</v>
@@ -16336,7 +16342,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16748,7 +16754,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16829,7 +16835,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ76">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR76">
         <v>1.31</v>
@@ -17160,7 +17166,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -17241,7 +17247,7 @@
         <v>2</v>
       </c>
       <c r="AQ78">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR78">
         <v>2.16</v>
@@ -17444,7 +17450,7 @@
         <v>1.17</v>
       </c>
       <c r="AP79">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
         <v>0.64</v>
@@ -17984,7 +17990,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q82">
         <v>2.88</v>
@@ -18396,7 +18402,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q84">
         <v>5.5</v>
@@ -18602,7 +18608,7 @@
         <v>119</v>
       </c>
       <c r="P85" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18808,7 +18814,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -19014,7 +19020,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19426,7 +19432,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19838,7 +19844,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -19919,7 +19925,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ91">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -20044,7 +20050,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20122,7 +20128,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
         <v>1.71</v>
@@ -20250,7 +20256,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q93">
         <v>2.4</v>
@@ -20456,7 +20462,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20662,7 +20668,7 @@
         <v>89</v>
       </c>
       <c r="P95" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -21280,7 +21286,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21486,7 +21492,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q99">
         <v>2.3</v>
@@ -21692,7 +21698,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -22182,7 +22188,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ102">
         <v>1.21</v>
@@ -22516,7 +22522,7 @@
         <v>103</v>
       </c>
       <c r="P104" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22928,7 +22934,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q106">
         <v>1.67</v>
@@ -23215,7 +23221,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ107">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR107">
         <v>1.33</v>
@@ -23752,7 +23758,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -23958,7 +23964,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24164,7 +24170,7 @@
         <v>165</v>
       </c>
       <c r="P112" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q112">
         <v>4.53</v>
@@ -24242,7 +24248,7 @@
         <v>1.88</v>
       </c>
       <c r="AP112">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ112">
         <v>1.71</v>
@@ -24782,7 +24788,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24988,7 +24994,7 @@
         <v>89</v>
       </c>
       <c r="P116" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25194,7 +25200,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25606,7 +25612,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q119">
         <v>4.33</v>
@@ -25687,7 +25693,7 @@
         <v>1</v>
       </c>
       <c r="AQ119">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR119">
         <v>1.39</v>
@@ -26018,7 +26024,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26224,7 +26230,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q122">
         <v>2.38</v>
@@ -26430,7 +26436,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q123">
         <v>2.6</v>
@@ -26842,7 +26848,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q125">
         <v>5.5</v>
@@ -27048,7 +27054,7 @@
         <v>87</v>
       </c>
       <c r="P126" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27254,7 +27260,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27460,7 +27466,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q128">
         <v>3.5</v>
@@ -27666,7 +27672,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q129">
         <v>5.5</v>
@@ -27744,7 +27750,7 @@
         <v>1.5</v>
       </c>
       <c r="AP129">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ129">
         <v>1.71</v>
@@ -28078,7 +28084,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28159,7 +28165,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ131">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR131">
         <v>1.73</v>
@@ -28696,7 +28702,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28777,7 +28783,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ134">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR134">
         <v>1.26</v>
@@ -29108,7 +29114,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29314,7 +29320,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29726,7 +29732,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -30138,7 +30144,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q141">
         <v>3.5</v>
@@ -30344,7 +30350,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q142">
         <v>3.5</v>
@@ -30422,7 +30428,7 @@
         <v>0.91</v>
       </c>
       <c r="AP142">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ142">
         <v>1.21</v>
@@ -31168,7 +31174,7 @@
         <v>134</v>
       </c>
       <c r="P146" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31580,7 +31586,7 @@
         <v>89</v>
       </c>
       <c r="P148" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31661,7 +31667,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ148">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR148">
         <v>1.22</v>
@@ -31786,7 +31792,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -31864,7 +31870,7 @@
         <v>0.92</v>
       </c>
       <c r="AP149">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ149">
         <v>0.8</v>
@@ -31992,7 +31998,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32816,7 +32822,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33022,7 +33028,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q155">
         <v>3.75</v>
@@ -33434,7 +33440,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q157">
         <v>3.5</v>
@@ -33718,7 +33724,7 @@
         <v>0.85</v>
       </c>
       <c r="AP158">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ158">
         <v>0.79</v>
@@ -33846,7 +33852,7 @@
         <v>89</v>
       </c>
       <c r="P159" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q159">
         <v>3.4</v>
@@ -34052,7 +34058,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -34133,7 +34139,7 @@
         <v>1</v>
       </c>
       <c r="AQ160">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR160">
         <v>1.38</v>
@@ -34258,7 +34264,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q161">
         <v>2.4</v>
@@ -34464,7 +34470,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -34670,7 +34676,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -34876,7 +34882,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35700,7 +35706,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q168">
         <v>3.75</v>
@@ -36112,7 +36118,7 @@
         <v>116</v>
       </c>
       <c r="P170" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q170">
         <v>2.88</v>
@@ -36269,6 +36275,212 @@
       </c>
       <c r="BP170">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7859441</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45780.5</v>
+      </c>
+      <c r="F171">
+        <v>7</v>
+      </c>
+      <c r="G171" t="s">
+        <v>77</v>
+      </c>
+      <c r="H171" t="s">
+        <v>76</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>3</v>
+      </c>
+      <c r="N171">
+        <v>4</v>
+      </c>
+      <c r="O171" t="s">
+        <v>205</v>
+      </c>
+      <c r="P171" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q171">
+        <v>4.5</v>
+      </c>
+      <c r="R171">
+        <v>2.25</v>
+      </c>
+      <c r="S171">
+        <v>2.5</v>
+      </c>
+      <c r="T171">
+        <v>1.36</v>
+      </c>
+      <c r="U171">
+        <v>3</v>
+      </c>
+      <c r="V171">
+        <v>2.63</v>
+      </c>
+      <c r="W171">
+        <v>1.44</v>
+      </c>
+      <c r="X171">
+        <v>7</v>
+      </c>
+      <c r="Y171">
+        <v>1.1</v>
+      </c>
+      <c r="Z171">
+        <v>4.1</v>
+      </c>
+      <c r="AA171">
+        <v>3.7</v>
+      </c>
+      <c r="AB171">
+        <v>1.8</v>
+      </c>
+      <c r="AC171">
+        <v>1.05</v>
+      </c>
+      <c r="AD171">
+        <v>9.5</v>
+      </c>
+      <c r="AE171">
+        <v>1.28</v>
+      </c>
+      <c r="AF171">
+        <v>3.65</v>
+      </c>
+      <c r="AG171">
+        <v>1.83</v>
+      </c>
+      <c r="AH171">
+        <v>1.91</v>
+      </c>
+      <c r="AI171">
+        <v>1.75</v>
+      </c>
+      <c r="AJ171">
+        <v>2</v>
+      </c>
+      <c r="AK171">
+        <v>1.93</v>
+      </c>
+      <c r="AL171">
+        <v>1.26</v>
+      </c>
+      <c r="AM171">
+        <v>1.23</v>
+      </c>
+      <c r="AN171">
+        <v>1.07</v>
+      </c>
+      <c r="AO171">
+        <v>1.86</v>
+      </c>
+      <c r="AP171">
+        <v>1</v>
+      </c>
+      <c r="AQ171">
+        <v>1.93</v>
+      </c>
+      <c r="AR171">
+        <v>1.18</v>
+      </c>
+      <c r="AS171">
+        <v>1.18</v>
+      </c>
+      <c r="AT171">
+        <v>2.36</v>
+      </c>
+      <c r="AU171">
+        <v>4</v>
+      </c>
+      <c r="AV171">
+        <v>6</v>
+      </c>
+      <c r="AW171">
+        <v>8</v>
+      </c>
+      <c r="AX171">
+        <v>6</v>
+      </c>
+      <c r="AY171">
+        <v>13</v>
+      </c>
+      <c r="AZ171">
+        <v>15</v>
+      </c>
+      <c r="BA171">
+        <v>4</v>
+      </c>
+      <c r="BB171">
+        <v>8</v>
+      </c>
+      <c r="BC171">
+        <v>12</v>
+      </c>
+      <c r="BD171">
+        <v>2.48</v>
+      </c>
+      <c r="BE171">
+        <v>6.5</v>
+      </c>
+      <c r="BF171">
+        <v>1.66</v>
+      </c>
+      <c r="BG171">
+        <v>1.37</v>
+      </c>
+      <c r="BH171">
+        <v>2.8</v>
+      </c>
+      <c r="BI171">
+        <v>1.65</v>
+      </c>
+      <c r="BJ171">
+        <v>2.08</v>
+      </c>
+      <c r="BK171">
+        <v>2.02</v>
+      </c>
+      <c r="BL171">
+        <v>1.68</v>
+      </c>
+      <c r="BM171">
+        <v>2.55</v>
+      </c>
+      <c r="BN171">
+        <v>1.43</v>
+      </c>
+      <c r="BO171">
+        <v>3.4</v>
+      </c>
+      <c r="BP171">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="295">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -634,6 +634,12 @@
     <t>['50']</t>
   </si>
   <si>
+    <t>['55', '86']</t>
+  </si>
+  <si>
+    <t>['80', '89']</t>
+  </si>
+  <si>
     <t>['4', '6', '45+2']</t>
   </si>
   <si>
@@ -890,6 +896,9 @@
   </si>
   <si>
     <t>['46', '58', '65']</t>
+  </si>
+  <si>
+    <t>['63']</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP171"/>
+  <dimension ref="A1:BP175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1510,7 +1519,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1716,7 +1725,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1922,7 +1931,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2000,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
         <v>1.93</v>
@@ -2412,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ6">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2618,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ7">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2746,7 +2755,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -2827,7 +2836,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ8">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3158,7 +3167,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -3236,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ10">
         <v>0.93</v>
@@ -3651,7 +3660,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ12">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3982,7 +3991,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q14">
         <v>3.1</v>
@@ -4188,7 +4197,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4269,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR15">
         <v>0.52</v>
@@ -4394,7 +4403,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -4678,10 +4687,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR17">
         <v>1.09</v>
@@ -4884,7 +4893,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ18">
         <v>0.79</v>
@@ -5093,7 +5102,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ19">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR19">
         <v>1.26</v>
@@ -5218,7 +5227,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5424,7 +5433,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5505,7 +5514,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ21">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR21">
         <v>2.09</v>
@@ -5630,7 +5639,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q22">
         <v>2.4</v>
@@ -5836,7 +5845,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6120,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ24">
         <v>0.64</v>
@@ -6248,7 +6257,7 @@
         <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6532,7 +6541,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>0.79</v>
@@ -6660,7 +6669,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6866,7 +6875,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -6947,7 +6956,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ28">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR28">
         <v>1.52</v>
@@ -7072,7 +7081,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q29">
         <v>4.33</v>
@@ -7150,7 +7159,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ29">
         <v>1.43</v>
@@ -7359,7 +7368,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ30">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR30">
         <v>1.18</v>
@@ -7768,7 +7777,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ32">
         <v>1.93</v>
@@ -7896,7 +7905,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7977,7 +7986,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ33">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR33">
         <v>1.22</v>
@@ -8102,7 +8111,7 @@
         <v>89</v>
       </c>
       <c r="P34" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8308,7 +8317,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8514,7 +8523,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q36">
         <v>2.1</v>
@@ -8720,7 +8729,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q37">
         <v>2.2</v>
@@ -8801,7 +8810,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ37">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR37">
         <v>1.97</v>
@@ -9132,7 +9141,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9210,10 +9219,10 @@
         <v>0.67</v>
       </c>
       <c r="AP39">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ39">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR39">
         <v>1.72</v>
@@ -9338,7 +9347,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9419,7 +9428,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ40">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR40">
         <v>1.88</v>
@@ -9622,7 +9631,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ41">
         <v>0.79</v>
@@ -9750,7 +9759,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9828,10 +9837,10 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ42">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR42">
         <v>1.32</v>
@@ -10034,10 +10043,10 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ43">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR43">
         <v>2.5</v>
@@ -10162,7 +10171,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q44">
         <v>2.4</v>
@@ -10240,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ44">
         <v>1.93</v>
@@ -10368,7 +10377,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q45">
         <v>2.2</v>
@@ -10652,10 +10661,10 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ46">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR46">
         <v>1.2</v>
@@ -10986,7 +10995,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11810,7 +11819,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12222,7 +12231,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12300,10 +12309,10 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ54">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR54">
         <v>1.29</v>
@@ -12428,7 +12437,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12712,10 +12721,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ56">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR56">
         <v>2.36</v>
@@ -12840,7 +12849,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12921,7 +12930,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR57">
         <v>1.44</v>
@@ -13046,7 +13055,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13252,7 +13261,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13330,7 +13339,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ59">
         <v>1.21</v>
@@ -13870,7 +13879,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -13948,7 +13957,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ62">
         <v>0.93</v>
@@ -14488,7 +14497,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14569,7 +14578,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ65">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -14694,7 +14703,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14900,7 +14909,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15184,7 +15193,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ68">
         <v>0.79</v>
@@ -15393,7 +15402,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR69">
         <v>1.35</v>
@@ -15599,7 +15608,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR70">
         <v>0.89</v>
@@ -16011,7 +16020,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ72">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR72">
         <v>1.52</v>
@@ -16342,7 +16351,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16420,10 +16429,10 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ74">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR74">
         <v>1.16</v>
@@ -16626,7 +16635,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ75">
         <v>1.43</v>
@@ -16754,7 +16763,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17038,7 +17047,7 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ77">
         <v>0.8</v>
@@ -17166,7 +17175,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -17244,7 +17253,7 @@
         <v>1.67</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ78">
         <v>1.93</v>
@@ -17865,7 +17874,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ81">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR81">
         <v>1.54</v>
@@ -17990,7 +17999,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q82">
         <v>2.88</v>
@@ -18068,7 +18077,7 @@
         <v>0.43</v>
       </c>
       <c r="AP82">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ82">
         <v>0.79</v>
@@ -18402,7 +18411,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q84">
         <v>5.5</v>
@@ -18483,7 +18492,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ84">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR84">
         <v>1.26</v>
@@ -18608,7 +18617,7 @@
         <v>119</v>
       </c>
       <c r="P85" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18686,7 +18695,7 @@
         <v>1.14</v>
       </c>
       <c r="AP85">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ85">
         <v>1.43</v>
@@ -18814,7 +18823,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -18895,7 +18904,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ86">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR86">
         <v>1.46</v>
@@ -19020,7 +19029,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19304,7 +19313,7 @@
         <v>0.71</v>
       </c>
       <c r="AP88">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ88">
         <v>0.93</v>
@@ -19432,7 +19441,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19513,7 +19522,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ89">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR89">
         <v>1.4</v>
@@ -19716,7 +19725,7 @@
         <v>0.83</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ90">
         <v>1.21</v>
@@ -19844,7 +19853,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20050,7 +20059,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20131,7 +20140,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR92">
         <v>0.89</v>
@@ -20256,7 +20265,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q93">
         <v>2.4</v>
@@ -20334,7 +20343,7 @@
         <v>1.14</v>
       </c>
       <c r="AP93">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ93">
         <v>0.64</v>
@@ -20462,7 +20471,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20540,7 +20549,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ94">
         <v>0.8</v>
@@ -20668,7 +20677,7 @@
         <v>89</v>
       </c>
       <c r="P95" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20955,7 +20964,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ96">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR96">
         <v>1.72</v>
@@ -21158,7 +21167,7 @@
         <v>0.88</v>
       </c>
       <c r="AP97">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ97">
         <v>0.8</v>
@@ -21286,7 +21295,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21367,7 +21376,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ98">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR98">
         <v>1.71</v>
@@ -21492,7 +21501,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q99">
         <v>2.3</v>
@@ -21570,10 +21579,10 @@
         <v>1.71</v>
       </c>
       <c r="AP99">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ99">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR99">
         <v>1.69</v>
@@ -21698,7 +21707,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -22522,7 +22531,7 @@
         <v>103</v>
       </c>
       <c r="P104" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22600,10 +22609,10 @@
         <v>0.5</v>
       </c>
       <c r="AP104">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ104">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR104">
         <v>1.34</v>
@@ -22809,7 +22818,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ105">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR105">
         <v>1.48</v>
@@ -22934,7 +22943,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q106">
         <v>1.67</v>
@@ -23012,7 +23021,7 @@
         <v>1.13</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ106">
         <v>0.79</v>
@@ -23424,7 +23433,7 @@
         <v>0.78</v>
       </c>
       <c r="AP108">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ108">
         <v>0.8</v>
@@ -23758,7 +23767,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -23964,7 +23973,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24170,7 +24179,7 @@
         <v>165</v>
       </c>
       <c r="P112" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q112">
         <v>4.53</v>
@@ -24251,7 +24260,7 @@
         <v>1</v>
       </c>
       <c r="AQ112">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR112">
         <v>1.03</v>
@@ -24788,7 +24797,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24994,7 +25003,7 @@
         <v>89</v>
       </c>
       <c r="P116" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25072,10 +25081,10 @@
         <v>1.78</v>
       </c>
       <c r="AP116">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ116">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR116">
         <v>1.19</v>
@@ -25200,7 +25209,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25281,7 +25290,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ117">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR117">
         <v>1.34</v>
@@ -25484,10 +25493,10 @@
         <v>0.78</v>
       </c>
       <c r="AP118">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ118">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR118">
         <v>1.66</v>
@@ -25612,7 +25621,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q119">
         <v>4.33</v>
@@ -25896,7 +25905,7 @@
         <v>1.11</v>
       </c>
       <c r="AP120">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ120">
         <v>0.79</v>
@@ -26024,7 +26033,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26102,10 +26111,10 @@
         <v>1.89</v>
       </c>
       <c r="AP121">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ121">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR121">
         <v>2.18</v>
@@ -26230,7 +26239,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q122">
         <v>2.38</v>
@@ -26436,7 +26445,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q123">
         <v>2.6</v>
@@ -26848,7 +26857,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q125">
         <v>5.5</v>
@@ -27054,7 +27063,7 @@
         <v>87</v>
       </c>
       <c r="P126" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27135,7 +27144,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ126">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR126">
         <v>1.33</v>
@@ -27260,7 +27269,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27338,7 +27347,7 @@
         <v>0.9</v>
       </c>
       <c r="AP127">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ127">
         <v>0.64</v>
@@ -27466,7 +27475,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q128">
         <v>3.5</v>
@@ -27547,7 +27556,7 @@
         <v>1</v>
       </c>
       <c r="AQ128">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR128">
         <v>1.34</v>
@@ -27672,7 +27681,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q129">
         <v>5.5</v>
@@ -27753,7 +27762,7 @@
         <v>1</v>
       </c>
       <c r="AQ129">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR129">
         <v>1.05</v>
@@ -27956,7 +27965,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ130">
         <v>1.21</v>
@@ -28084,7 +28093,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28368,10 +28377,10 @@
         <v>1.9</v>
       </c>
       <c r="AP132">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ132">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR132">
         <v>2.23</v>
@@ -28574,7 +28583,7 @@
         <v>0.9</v>
       </c>
       <c r="AP133">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ133">
         <v>0.79</v>
@@ -28702,7 +28711,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29114,7 +29123,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29192,7 +29201,7 @@
         <v>0.73</v>
       </c>
       <c r="AP136">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ136">
         <v>0.8</v>
@@ -29320,7 +29329,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29398,10 +29407,10 @@
         <v>1.64</v>
       </c>
       <c r="AP137">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ137">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR137">
         <v>1.48</v>
@@ -29607,7 +29616,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ138">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR138">
         <v>1.54</v>
@@ -29732,7 +29741,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -29810,7 +29819,7 @@
         <v>1.27</v>
       </c>
       <c r="AP139">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ139">
         <v>1.43</v>
@@ -30144,7 +30153,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q141">
         <v>3.5</v>
@@ -30225,7 +30234,7 @@
         <v>1</v>
       </c>
       <c r="AQ141">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR141">
         <v>1.37</v>
@@ -30350,7 +30359,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q142">
         <v>3.5</v>
@@ -30840,7 +30849,7 @@
         <v>1.09</v>
       </c>
       <c r="AP144">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ144">
         <v>0.93</v>
@@ -31049,7 +31058,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ145">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR145">
         <v>1.73</v>
@@ -31174,7 +31183,7 @@
         <v>134</v>
       </c>
       <c r="P146" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31252,10 +31261,10 @@
         <v>1.67</v>
       </c>
       <c r="AP146">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ146">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR146">
         <v>1.49</v>
@@ -31461,7 +31470,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ147">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR147">
         <v>1.32</v>
@@ -31586,7 +31595,7 @@
         <v>89</v>
       </c>
       <c r="P148" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31664,7 +31673,7 @@
         <v>1.67</v>
       </c>
       <c r="AP148">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ148">
         <v>1.93</v>
@@ -31792,7 +31801,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -31998,7 +32007,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32076,10 +32085,10 @@
         <v>1.75</v>
       </c>
       <c r="AP150">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ150">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR150">
         <v>2.15</v>
@@ -32282,10 +32291,10 @@
         <v>1.75</v>
       </c>
       <c r="AP151">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ151">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR151">
         <v>1.69</v>
@@ -32822,7 +32831,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33028,7 +33037,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q155">
         <v>3.75</v>
@@ -33440,7 +33449,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q157">
         <v>3.5</v>
@@ -33727,7 +33736,7 @@
         <v>1</v>
       </c>
       <c r="AQ158">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR158">
         <v>1.17</v>
@@ -33852,7 +33861,7 @@
         <v>89</v>
       </c>
       <c r="P159" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q159">
         <v>3.4</v>
@@ -34058,7 +34067,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -34264,7 +34273,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q161">
         <v>2.4</v>
@@ -34342,10 +34351,10 @@
         <v>1.77</v>
       </c>
       <c r="AP161">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ161">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR161">
         <v>2.14</v>
@@ -34470,7 +34479,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -34548,7 +34557,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP162">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AQ162">
         <v>0.64</v>
@@ -34676,7 +34685,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -34757,7 +34766,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ163">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR163">
         <v>1.71</v>
@@ -34882,7 +34891,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -34960,7 +34969,7 @@
         <v>0.77</v>
       </c>
       <c r="AP164">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AQ164">
         <v>0.79</v>
@@ -35578,7 +35587,7 @@
         <v>0.92</v>
       </c>
       <c r="AP167">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ167">
         <v>0.93</v>
@@ -35706,7 +35715,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q168">
         <v>3.75</v>
@@ -35993,7 +36002,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ169">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR169">
         <v>1.74</v>
@@ -36118,7 +36127,7 @@
         <v>116</v>
       </c>
       <c r="P170" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q170">
         <v>2.88</v>
@@ -36324,7 +36333,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q171">
         <v>4.5</v>
@@ -36481,6 +36490,830 @@
       </c>
       <c r="BP171">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7859440</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45781.39583333334</v>
+      </c>
+      <c r="F172">
+        <v>7</v>
+      </c>
+      <c r="G172" t="s">
+        <v>72</v>
+      </c>
+      <c r="H172" t="s">
+        <v>71</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>2</v>
+      </c>
+      <c r="O172" t="s">
+        <v>206</v>
+      </c>
+      <c r="P172" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q172">
+        <v>3.1</v>
+      </c>
+      <c r="R172">
+        <v>2.1</v>
+      </c>
+      <c r="S172">
+        <v>3.5</v>
+      </c>
+      <c r="T172">
+        <v>1.4</v>
+      </c>
+      <c r="U172">
+        <v>2.75</v>
+      </c>
+      <c r="V172">
+        <v>3</v>
+      </c>
+      <c r="W172">
+        <v>1.36</v>
+      </c>
+      <c r="X172">
+        <v>8</v>
+      </c>
+      <c r="Y172">
+        <v>1.08</v>
+      </c>
+      <c r="Z172">
+        <v>2.4</v>
+      </c>
+      <c r="AA172">
+        <v>3.1</v>
+      </c>
+      <c r="AB172">
+        <v>2.85</v>
+      </c>
+      <c r="AC172">
+        <v>1.02</v>
+      </c>
+      <c r="AD172">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE172">
+        <v>1.32</v>
+      </c>
+      <c r="AF172">
+        <v>3.39</v>
+      </c>
+      <c r="AG172">
+        <v>1.91</v>
+      </c>
+      <c r="AH172">
+        <v>1.73</v>
+      </c>
+      <c r="AI172">
+        <v>1.75</v>
+      </c>
+      <c r="AJ172">
+        <v>2</v>
+      </c>
+      <c r="AK172">
+        <v>1.42</v>
+      </c>
+      <c r="AL172">
+        <v>1.32</v>
+      </c>
+      <c r="AM172">
+        <v>1.51</v>
+      </c>
+      <c r="AN172">
+        <v>1.21</v>
+      </c>
+      <c r="AO172">
+        <v>0.79</v>
+      </c>
+      <c r="AP172">
+        <v>1.33</v>
+      </c>
+      <c r="AQ172">
+        <v>0.73</v>
+      </c>
+      <c r="AR172">
+        <v>1.22</v>
+      </c>
+      <c r="AS172">
+        <v>1.16</v>
+      </c>
+      <c r="AT172">
+        <v>2.38</v>
+      </c>
+      <c r="AU172">
+        <v>6</v>
+      </c>
+      <c r="AV172">
+        <v>4</v>
+      </c>
+      <c r="AW172">
+        <v>6</v>
+      </c>
+      <c r="AX172">
+        <v>6</v>
+      </c>
+      <c r="AY172">
+        <v>15</v>
+      </c>
+      <c r="AZ172">
+        <v>12</v>
+      </c>
+      <c r="BA172">
+        <v>9</v>
+      </c>
+      <c r="BB172">
+        <v>4</v>
+      </c>
+      <c r="BC172">
+        <v>13</v>
+      </c>
+      <c r="BD172">
+        <v>1.9</v>
+      </c>
+      <c r="BE172">
+        <v>6.4</v>
+      </c>
+      <c r="BF172">
+        <v>2.08</v>
+      </c>
+      <c r="BG172">
+        <v>1.38</v>
+      </c>
+      <c r="BH172">
+        <v>2.75</v>
+      </c>
+      <c r="BI172">
+        <v>1.65</v>
+      </c>
+      <c r="BJ172">
+        <v>2.08</v>
+      </c>
+      <c r="BK172">
+        <v>2.04</v>
+      </c>
+      <c r="BL172">
+        <v>1.68</v>
+      </c>
+      <c r="BM172">
+        <v>2.55</v>
+      </c>
+      <c r="BN172">
+        <v>1.43</v>
+      </c>
+      <c r="BO172">
+        <v>3.4</v>
+      </c>
+      <c r="BP172">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7859442</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45781.39583333334</v>
+      </c>
+      <c r="F173">
+        <v>7</v>
+      </c>
+      <c r="G173" t="s">
+        <v>75</v>
+      </c>
+      <c r="H173" t="s">
+        <v>81</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>1</v>
+      </c>
+      <c r="O173" t="s">
+        <v>89</v>
+      </c>
+      <c r="P173" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q173">
+        <v>4</v>
+      </c>
+      <c r="R173">
+        <v>2.25</v>
+      </c>
+      <c r="S173">
+        <v>2.6</v>
+      </c>
+      <c r="T173">
+        <v>1.36</v>
+      </c>
+      <c r="U173">
+        <v>3</v>
+      </c>
+      <c r="V173">
+        <v>2.63</v>
+      </c>
+      <c r="W173">
+        <v>1.44</v>
+      </c>
+      <c r="X173">
+        <v>7</v>
+      </c>
+      <c r="Y173">
+        <v>1.1</v>
+      </c>
+      <c r="Z173">
+        <v>3.47</v>
+      </c>
+      <c r="AA173">
+        <v>3.5</v>
+      </c>
+      <c r="AB173">
+        <v>2.02</v>
+      </c>
+      <c r="AC173">
+        <v>1.02</v>
+      </c>
+      <c r="AD173">
+        <v>11</v>
+      </c>
+      <c r="AE173">
+        <v>1.26</v>
+      </c>
+      <c r="AF173">
+        <v>3.78</v>
+      </c>
+      <c r="AG173">
+        <v>1.83</v>
+      </c>
+      <c r="AH173">
+        <v>1.91</v>
+      </c>
+      <c r="AI173">
+        <v>1.75</v>
+      </c>
+      <c r="AJ173">
+        <v>2</v>
+      </c>
+      <c r="AK173">
+        <v>1.75</v>
+      </c>
+      <c r="AL173">
+        <v>1.29</v>
+      </c>
+      <c r="AM173">
+        <v>1.29</v>
+      </c>
+      <c r="AN173">
+        <v>1.71</v>
+      </c>
+      <c r="AO173">
+        <v>1.71</v>
+      </c>
+      <c r="AP173">
+        <v>1.6</v>
+      </c>
+      <c r="AQ173">
+        <v>1.8</v>
+      </c>
+      <c r="AR173">
+        <v>1.44</v>
+      </c>
+      <c r="AS173">
+        <v>1.34</v>
+      </c>
+      <c r="AT173">
+        <v>2.78</v>
+      </c>
+      <c r="AU173">
+        <v>0</v>
+      </c>
+      <c r="AV173">
+        <v>5</v>
+      </c>
+      <c r="AW173">
+        <v>8</v>
+      </c>
+      <c r="AX173">
+        <v>17</v>
+      </c>
+      <c r="AY173">
+        <v>9</v>
+      </c>
+      <c r="AZ173">
+        <v>25</v>
+      </c>
+      <c r="BA173">
+        <v>4</v>
+      </c>
+      <c r="BB173">
+        <v>4</v>
+      </c>
+      <c r="BC173">
+        <v>8</v>
+      </c>
+      <c r="BD173">
+        <v>2.3</v>
+      </c>
+      <c r="BE173">
+        <v>6.4</v>
+      </c>
+      <c r="BF173">
+        <v>1.75</v>
+      </c>
+      <c r="BG173">
+        <v>1.41</v>
+      </c>
+      <c r="BH173">
+        <v>2.65</v>
+      </c>
+      <c r="BI173">
+        <v>1.67</v>
+      </c>
+      <c r="BJ173">
+        <v>2.05</v>
+      </c>
+      <c r="BK173">
+        <v>2.08</v>
+      </c>
+      <c r="BL173">
+        <v>1.65</v>
+      </c>
+      <c r="BM173">
+        <v>2.65</v>
+      </c>
+      <c r="BN173">
+        <v>1.4</v>
+      </c>
+      <c r="BO173">
+        <v>3.55</v>
+      </c>
+      <c r="BP173">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7859443</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45781.39583333334</v>
+      </c>
+      <c r="F174">
+        <v>7</v>
+      </c>
+      <c r="G174" t="s">
+        <v>74</v>
+      </c>
+      <c r="H174" t="s">
+        <v>73</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" t="s">
+        <v>89</v>
+      </c>
+      <c r="P174" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q174">
+        <v>2.75</v>
+      </c>
+      <c r="R174">
+        <v>2.25</v>
+      </c>
+      <c r="S174">
+        <v>3.75</v>
+      </c>
+      <c r="T174">
+        <v>1.33</v>
+      </c>
+      <c r="U174">
+        <v>3.25</v>
+      </c>
+      <c r="V174">
+        <v>2.63</v>
+      </c>
+      <c r="W174">
+        <v>1.44</v>
+      </c>
+      <c r="X174">
+        <v>7</v>
+      </c>
+      <c r="Y174">
+        <v>1.1</v>
+      </c>
+      <c r="Z174">
+        <v>2.17</v>
+      </c>
+      <c r="AA174">
+        <v>3.32</v>
+      </c>
+      <c r="AB174">
+        <v>3.26</v>
+      </c>
+      <c r="AC174">
+        <v>1.01</v>
+      </c>
+      <c r="AD174">
+        <v>10.9</v>
+      </c>
+      <c r="AE174">
+        <v>1.25</v>
+      </c>
+      <c r="AF174">
+        <v>3.87</v>
+      </c>
+      <c r="AG174">
+        <v>1.82</v>
+      </c>
+      <c r="AH174">
+        <v>1.92</v>
+      </c>
+      <c r="AI174">
+        <v>1.67</v>
+      </c>
+      <c r="AJ174">
+        <v>2.1</v>
+      </c>
+      <c r="AK174">
+        <v>1.33</v>
+      </c>
+      <c r="AL174">
+        <v>1.28</v>
+      </c>
+      <c r="AM174">
+        <v>1.7</v>
+      </c>
+      <c r="AN174">
+        <v>2.07</v>
+      </c>
+      <c r="AO174">
+        <v>1.71</v>
+      </c>
+      <c r="AP174">
+        <v>1.93</v>
+      </c>
+      <c r="AQ174">
+        <v>1.8</v>
+      </c>
+      <c r="AR174">
+        <v>1.71</v>
+      </c>
+      <c r="AS174">
+        <v>1.44</v>
+      </c>
+      <c r="AT174">
+        <v>3.15</v>
+      </c>
+      <c r="AU174">
+        <v>3</v>
+      </c>
+      <c r="AV174">
+        <v>8</v>
+      </c>
+      <c r="AW174">
+        <v>11</v>
+      </c>
+      <c r="AX174">
+        <v>3</v>
+      </c>
+      <c r="AY174">
+        <v>19</v>
+      </c>
+      <c r="AZ174">
+        <v>11</v>
+      </c>
+      <c r="BA174">
+        <v>14</v>
+      </c>
+      <c r="BB174">
+        <v>4</v>
+      </c>
+      <c r="BC174">
+        <v>18</v>
+      </c>
+      <c r="BD174">
+        <v>1.63</v>
+      </c>
+      <c r="BE174">
+        <v>6.75</v>
+      </c>
+      <c r="BF174">
+        <v>2.55</v>
+      </c>
+      <c r="BG174">
+        <v>1.32</v>
+      </c>
+      <c r="BH174">
+        <v>3.05</v>
+      </c>
+      <c r="BI174">
+        <v>1.54</v>
+      </c>
+      <c r="BJ174">
+        <v>2.28</v>
+      </c>
+      <c r="BK174">
+        <v>1.9</v>
+      </c>
+      <c r="BL174">
+        <v>1.79</v>
+      </c>
+      <c r="BM174">
+        <v>2.38</v>
+      </c>
+      <c r="BN174">
+        <v>1.5</v>
+      </c>
+      <c r="BO174">
+        <v>3.05</v>
+      </c>
+      <c r="BP174">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7859444</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45781.5</v>
+      </c>
+      <c r="F175">
+        <v>7</v>
+      </c>
+      <c r="G175" t="s">
+        <v>78</v>
+      </c>
+      <c r="H175" t="s">
+        <v>80</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>2</v>
+      </c>
+      <c r="O175" t="s">
+        <v>207</v>
+      </c>
+      <c r="P175" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q175">
+        <v>2.38</v>
+      </c>
+      <c r="R175">
+        <v>2.3</v>
+      </c>
+      <c r="S175">
+        <v>4.33</v>
+      </c>
+      <c r="T175">
+        <v>1.33</v>
+      </c>
+      <c r="U175">
+        <v>3.25</v>
+      </c>
+      <c r="V175">
+        <v>2.5</v>
+      </c>
+      <c r="W175">
+        <v>1.5</v>
+      </c>
+      <c r="X175">
+        <v>6.5</v>
+      </c>
+      <c r="Y175">
+        <v>1.11</v>
+      </c>
+      <c r="Z175">
+        <v>1.81</v>
+      </c>
+      <c r="AA175">
+        <v>3.69</v>
+      </c>
+      <c r="AB175">
+        <v>4.1</v>
+      </c>
+      <c r="AC175">
+        <v>1.04</v>
+      </c>
+      <c r="AD175">
+        <v>10</v>
+      </c>
+      <c r="AE175">
+        <v>1.22</v>
+      </c>
+      <c r="AF175">
+        <v>4</v>
+      </c>
+      <c r="AG175">
+        <v>1.67</v>
+      </c>
+      <c r="AH175">
+        <v>2</v>
+      </c>
+      <c r="AI175">
+        <v>1.67</v>
+      </c>
+      <c r="AJ175">
+        <v>2.1</v>
+      </c>
+      <c r="AK175">
+        <v>1.24</v>
+      </c>
+      <c r="AL175">
+        <v>1.25</v>
+      </c>
+      <c r="AM175">
+        <v>1.93</v>
+      </c>
+      <c r="AN175">
+        <v>2</v>
+      </c>
+      <c r="AO175">
+        <v>1.71</v>
+      </c>
+      <c r="AP175">
+        <v>2.07</v>
+      </c>
+      <c r="AQ175">
+        <v>1.6</v>
+      </c>
+      <c r="AR175">
+        <v>2.16</v>
+      </c>
+      <c r="AS175">
+        <v>1.27</v>
+      </c>
+      <c r="AT175">
+        <v>3.43</v>
+      </c>
+      <c r="AU175">
+        <v>5</v>
+      </c>
+      <c r="AV175">
+        <v>4</v>
+      </c>
+      <c r="AW175">
+        <v>8</v>
+      </c>
+      <c r="AX175">
+        <v>2</v>
+      </c>
+      <c r="AY175">
+        <v>15</v>
+      </c>
+      <c r="AZ175">
+        <v>6</v>
+      </c>
+      <c r="BA175">
+        <v>11</v>
+      </c>
+      <c r="BB175">
+        <v>3</v>
+      </c>
+      <c r="BC175">
+        <v>14</v>
+      </c>
+      <c r="BD175">
+        <v>1.61</v>
+      </c>
+      <c r="BE175">
+        <v>6.75</v>
+      </c>
+      <c r="BF175">
+        <v>2.55</v>
+      </c>
+      <c r="BG175">
+        <v>1.3</v>
+      </c>
+      <c r="BH175">
+        <v>3.05</v>
+      </c>
+      <c r="BI175">
+        <v>1.54</v>
+      </c>
+      <c r="BJ175">
+        <v>2.3</v>
+      </c>
+      <c r="BK175">
+        <v>1.88</v>
+      </c>
+      <c r="BL175">
+        <v>1.81</v>
+      </c>
+      <c r="BM175">
+        <v>2.33</v>
+      </c>
+      <c r="BN175">
+        <v>1.5</v>
+      </c>
+      <c r="BO175">
+        <v>3.05</v>
+      </c>
+      <c r="BP175">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="297">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -640,6 +640,9 @@
     <t>['80', '89']</t>
   </si>
   <si>
+    <t>['18', '20', '48', '72']</t>
+  </si>
+  <si>
     <t>['4', '6', '45+2']</t>
   </si>
   <si>
@@ -899,6 +902,9 @@
   </si>
   <si>
     <t>['63']</t>
+  </si>
+  <si>
+    <t>['45', '59']</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP175"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1519,7 +1525,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1600,7 +1606,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ2">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1725,7 +1731,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1931,7 +1937,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2755,7 +2761,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -3167,7 +3173,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -3863,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ13">
         <v>1.21</v>
@@ -3991,7 +3997,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q14">
         <v>3.1</v>
@@ -4197,7 +4203,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4403,7 +4409,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -4484,7 +4490,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ16">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>1.73</v>
@@ -5227,7 +5233,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5433,7 +5439,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5511,7 +5517,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ21">
         <v>0.73</v>
@@ -5639,7 +5645,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q22">
         <v>2.4</v>
@@ -5845,7 +5851,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6257,7 +6263,7 @@
         <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6669,7 +6675,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6747,7 +6753,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ27">
         <v>0.79</v>
@@ -6875,7 +6881,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7081,7 +7087,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q29">
         <v>4.33</v>
@@ -7162,7 +7168,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ29">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>1.88</v>
@@ -7905,7 +7911,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8111,7 +8117,7 @@
         <v>89</v>
       </c>
       <c r="P34" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8317,7 +8323,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8523,7 +8529,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q36">
         <v>2.1</v>
@@ -8729,7 +8735,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q37">
         <v>2.2</v>
@@ -8807,7 +8813,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ37">
         <v>1.8</v>
@@ -9016,7 +9022,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR38">
         <v>1</v>
@@ -9141,7 +9147,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9347,7 +9353,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9759,7 +9765,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10171,7 +10177,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q44">
         <v>2.4</v>
@@ -10377,7 +10383,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q45">
         <v>2.2</v>
@@ -10995,7 +11001,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11819,7 +11825,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12103,10 +12109,10 @@
         <v>1.75</v>
       </c>
       <c r="AP53">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ53">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
         <v>1.83</v>
@@ -12231,7 +12237,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12437,7 +12443,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12515,7 +12521,7 @@
         <v>0.4</v>
       </c>
       <c r="AP55">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ55">
         <v>0.79</v>
@@ -12849,7 +12855,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -13055,7 +13061,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13261,7 +13267,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13879,7 +13885,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14166,7 +14172,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ63">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.65</v>
@@ -14497,7 +14503,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14703,7 +14709,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14909,7 +14915,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14987,7 +14993,7 @@
         <v>1.2</v>
       </c>
       <c r="AP67">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ67">
         <v>0.64</v>
@@ -16351,7 +16357,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16638,7 +16644,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ75">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR75">
         <v>1.32</v>
@@ -16763,7 +16769,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17175,7 +17181,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -17665,7 +17671,7 @@
         <v>1.17</v>
       </c>
       <c r="AP80">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ80">
         <v>0.8</v>
@@ -17999,7 +18005,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q82">
         <v>2.88</v>
@@ -18411,7 +18417,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q84">
         <v>5.5</v>
@@ -18617,7 +18623,7 @@
         <v>119</v>
       </c>
       <c r="P85" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18698,7 +18704,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ85">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR85">
         <v>1.2</v>
@@ -18823,7 +18829,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -19029,7 +19035,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19441,7 +19447,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19853,7 +19859,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20059,7 +20065,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20265,7 +20271,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q93">
         <v>2.4</v>
@@ -20471,7 +20477,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20677,7 +20683,7 @@
         <v>89</v>
       </c>
       <c r="P95" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -21295,7 +21301,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21373,7 +21379,7 @@
         <v>1.38</v>
       </c>
       <c r="AP98">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ98">
         <v>1.6</v>
@@ -21501,7 +21507,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q99">
         <v>2.3</v>
@@ -21707,7 +21713,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21994,7 +22000,7 @@
         <v>1</v>
       </c>
       <c r="AQ101">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR101">
         <v>1.37</v>
@@ -22531,7 +22537,7 @@
         <v>103</v>
       </c>
       <c r="P104" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22943,7 +22949,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q106">
         <v>1.67</v>
@@ -23767,7 +23773,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -23848,7 +23854,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ110">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR110">
         <v>1.61</v>
@@ -23973,7 +23979,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24179,7 +24185,7 @@
         <v>165</v>
       </c>
       <c r="P112" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q112">
         <v>4.53</v>
@@ -24463,7 +24469,7 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ113">
         <v>0.93</v>
@@ -24797,7 +24803,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25003,7 +25009,7 @@
         <v>89</v>
       </c>
       <c r="P116" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25209,7 +25215,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25621,7 +25627,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q119">
         <v>4.33</v>
@@ -26033,7 +26039,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26239,7 +26245,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q122">
         <v>2.38</v>
@@ -26445,7 +26451,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q123">
         <v>2.6</v>
@@ -26857,7 +26863,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q125">
         <v>5.5</v>
@@ -26938,7 +26944,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ125">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR125">
         <v>1.29</v>
@@ -27063,7 +27069,7 @@
         <v>87</v>
       </c>
       <c r="P126" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27269,7 +27275,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27475,7 +27481,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q128">
         <v>3.5</v>
@@ -27681,7 +27687,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q129">
         <v>5.5</v>
@@ -28093,7 +28099,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28171,7 +28177,7 @@
         <v>1.7</v>
       </c>
       <c r="AP131">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ131">
         <v>1.93</v>
@@ -28711,7 +28717,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29123,7 +29129,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29329,7 +29335,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29741,7 +29747,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -29822,7 +29828,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ139">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR139">
         <v>1.73</v>
@@ -30025,7 +30031,7 @@
         <v>0.82</v>
       </c>
       <c r="AP140">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ140">
         <v>0.64</v>
@@ -30153,7 +30159,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q141">
         <v>3.5</v>
@@ -30359,7 +30365,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q142">
         <v>3.5</v>
@@ -31183,7 +31189,7 @@
         <v>134</v>
       </c>
       <c r="P146" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31595,7 +31601,7 @@
         <v>89</v>
       </c>
       <c r="P148" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31801,7 +31807,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32007,7 +32013,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32831,7 +32837,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33037,7 +33043,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q155">
         <v>3.75</v>
@@ -33321,7 +33327,7 @@
         <v>1</v>
       </c>
       <c r="AP156">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ156">
         <v>0.93</v>
@@ -33449,7 +33455,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q157">
         <v>3.5</v>
@@ -33530,7 +33536,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ157">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR157">
         <v>1.69</v>
@@ -33861,7 +33867,7 @@
         <v>89</v>
       </c>
       <c r="P159" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q159">
         <v>3.4</v>
@@ -34067,7 +34073,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -34273,7 +34279,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q161">
         <v>2.4</v>
@@ -34479,7 +34485,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -34685,7 +34691,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -34891,7 +34897,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35715,7 +35721,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q168">
         <v>3.75</v>
@@ -35796,7 +35802,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ168">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR168">
         <v>1.62</v>
@@ -35999,7 +36005,7 @@
         <v>1.62</v>
       </c>
       <c r="AP169">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ169">
         <v>1.6</v>
@@ -36127,7 +36133,7 @@
         <v>116</v>
       </c>
       <c r="P170" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q170">
         <v>2.88</v>
@@ -36333,7 +36339,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q171">
         <v>4.5</v>
@@ -36951,7 +36957,7 @@
         <v>89</v>
       </c>
       <c r="P174" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q174">
         <v>2.75</v>
@@ -37314,6 +37320,212 @@
       </c>
       <c r="BP175">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7859445</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45786.60416666666</v>
+      </c>
+      <c r="F176">
+        <v>8</v>
+      </c>
+      <c r="G176" t="s">
+        <v>81</v>
+      </c>
+      <c r="H176" t="s">
+        <v>78</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>3</v>
+      </c>
+      <c r="L176">
+        <v>4</v>
+      </c>
+      <c r="M176">
+        <v>2</v>
+      </c>
+      <c r="N176">
+        <v>6</v>
+      </c>
+      <c r="O176" t="s">
+        <v>208</v>
+      </c>
+      <c r="P176" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q176">
+        <v>3.25</v>
+      </c>
+      <c r="R176">
+        <v>2.3</v>
+      </c>
+      <c r="S176">
+        <v>2.88</v>
+      </c>
+      <c r="T176">
+        <v>1.33</v>
+      </c>
+      <c r="U176">
+        <v>3.25</v>
+      </c>
+      <c r="V176">
+        <v>2.5</v>
+      </c>
+      <c r="W176">
+        <v>1.5</v>
+      </c>
+      <c r="X176">
+        <v>6</v>
+      </c>
+      <c r="Y176">
+        <v>1.13</v>
+      </c>
+      <c r="Z176">
+        <v>2.63</v>
+      </c>
+      <c r="AA176">
+        <v>3.19</v>
+      </c>
+      <c r="AB176">
+        <v>2.35</v>
+      </c>
+      <c r="AC176">
+        <v>1.05</v>
+      </c>
+      <c r="AD176">
+        <v>9.5</v>
+      </c>
+      <c r="AE176">
+        <v>1.22</v>
+      </c>
+      <c r="AF176">
+        <v>4</v>
+      </c>
+      <c r="AG176">
+        <v>1.65</v>
+      </c>
+      <c r="AH176">
+        <v>2.05</v>
+      </c>
+      <c r="AI176">
+        <v>1.57</v>
+      </c>
+      <c r="AJ176">
+        <v>2.25</v>
+      </c>
+      <c r="AK176">
+        <v>1.53</v>
+      </c>
+      <c r="AL176">
+        <v>1.28</v>
+      </c>
+      <c r="AM176">
+        <v>1.44</v>
+      </c>
+      <c r="AN176">
+        <v>2.29</v>
+      </c>
+      <c r="AO176">
+        <v>1.43</v>
+      </c>
+      <c r="AP176">
+        <v>2.33</v>
+      </c>
+      <c r="AQ176">
+        <v>1.33</v>
+      </c>
+      <c r="AR176">
+        <v>1.75</v>
+      </c>
+      <c r="AS176">
+        <v>1.57</v>
+      </c>
+      <c r="AT176">
+        <v>3.32</v>
+      </c>
+      <c r="AU176">
+        <v>-1</v>
+      </c>
+      <c r="AV176">
+        <v>-1</v>
+      </c>
+      <c r="AW176">
+        <v>-1</v>
+      </c>
+      <c r="AX176">
+        <v>-1</v>
+      </c>
+      <c r="AY176">
+        <v>-1</v>
+      </c>
+      <c r="AZ176">
+        <v>-1</v>
+      </c>
+      <c r="BA176">
+        <v>-1</v>
+      </c>
+      <c r="BB176">
+        <v>-1</v>
+      </c>
+      <c r="BC176">
+        <v>-1</v>
+      </c>
+      <c r="BD176">
+        <v>1.98</v>
+      </c>
+      <c r="BE176">
+        <v>6.4</v>
+      </c>
+      <c r="BF176">
+        <v>1.98</v>
+      </c>
+      <c r="BG176">
+        <v>1.36</v>
+      </c>
+      <c r="BH176">
+        <v>2.8</v>
+      </c>
+      <c r="BI176">
+        <v>1.62</v>
+      </c>
+      <c r="BJ176">
+        <v>2.14</v>
+      </c>
+      <c r="BK176">
+        <v>1.98</v>
+      </c>
+      <c r="BL176">
+        <v>1.72</v>
+      </c>
+      <c r="BM176">
+        <v>2.55</v>
+      </c>
+      <c r="BN176">
+        <v>1.44</v>
+      </c>
+      <c r="BO176">
+        <v>3.3</v>
+      </c>
+      <c r="BP176">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -37462,31 +37462,31 @@
         <v>3.32</v>
       </c>
       <c r="AU176">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV176">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW176">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX176">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AY176">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AZ176">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="BA176">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB176">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC176">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD176">
         <v>1.98</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="301">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -643,6 +643,12 @@
     <t>['18', '20', '48', '72']</t>
   </si>
   <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['25', '56']</t>
+  </si>
+  <si>
     <t>['4', '6', '45+2']</t>
   </si>
   <si>
@@ -905,6 +911,12 @@
   </si>
   <si>
     <t>['45', '59']</t>
+  </si>
+  <si>
+    <t>['43', '48', '51', '90+1']</t>
+  </si>
+  <si>
+    <t>['28', '61']</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1525,7 +1537,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1731,7 +1743,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1809,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ3">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1937,7 +1949,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2761,7 +2773,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -2839,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ8">
         <v>0.73</v>
@@ -3048,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3173,7 +3185,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -3457,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ11">
         <v>0.64</v>
@@ -3872,7 +3884,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ13">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3997,7 +4009,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q14">
         <v>3.1</v>
@@ -4203,7 +4215,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4281,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ15">
         <v>1.8</v>
@@ -4409,7 +4421,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -4487,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -4902,7 +4914,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ18">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR18">
         <v>1.7</v>
@@ -5105,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ19">
         <v>1.8</v>
@@ -5233,7 +5245,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5439,7 +5451,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5645,7 +5657,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q22">
         <v>2.4</v>
@@ -5726,7 +5738,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ22">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5851,7 +5863,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6263,7 +6275,7 @@
         <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6341,7 +6353,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ25">
         <v>0.93</v>
@@ -6550,7 +6562,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ26">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR26">
         <v>1.32</v>
@@ -6675,7 +6687,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6756,7 +6768,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ27">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR27">
         <v>1.97</v>
@@ -6881,7 +6893,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -6959,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ28">
         <v>1.8</v>
@@ -7087,7 +7099,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q29">
         <v>4.33</v>
@@ -7371,7 +7383,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ30">
         <v>1.6</v>
@@ -7911,7 +7923,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8117,7 +8129,7 @@
         <v>89</v>
       </c>
       <c r="P34" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8195,7 +8207,7 @@
         <v>0.33</v>
       </c>
       <c r="AP34">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ34">
         <v>0.93</v>
@@ -8323,7 +8335,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8401,10 +8413,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ35">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR35">
         <v>1.2</v>
@@ -8529,7 +8541,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q36">
         <v>2.1</v>
@@ -8607,10 +8619,10 @@
         <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ36">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR36">
         <v>1.35</v>
@@ -8735,7 +8747,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q37">
         <v>2.2</v>
@@ -9147,7 +9159,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9353,7 +9365,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9640,7 +9652,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ41">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR41">
         <v>1.23</v>
@@ -9765,7 +9777,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10177,7 +10189,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q44">
         <v>2.4</v>
@@ -10383,7 +10395,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q45">
         <v>2.2</v>
@@ -10464,7 +10476,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ45">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR45">
         <v>1.79</v>
@@ -11001,7 +11013,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11082,7 +11094,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ48">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR48">
         <v>1.74</v>
@@ -11288,7 +11300,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ49">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR49">
         <v>1.83</v>
@@ -11697,7 +11709,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ51">
         <v>0.8</v>
@@ -11825,7 +11837,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11903,7 +11915,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ52">
         <v>0.64</v>
@@ -12237,7 +12249,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12443,7 +12455,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12524,7 +12536,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ55">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR55">
         <v>1.69</v>
@@ -12855,7 +12867,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12933,7 +12945,7 @@
         <v>0.4</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ57">
         <v>1.6</v>
@@ -13061,7 +13073,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13267,7 +13279,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13348,7 +13360,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ59">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR59">
         <v>1.71</v>
@@ -13554,7 +13566,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ60">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR60">
         <v>1.68</v>
@@ -13757,7 +13769,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ61">
         <v>0.8</v>
@@ -13885,7 +13897,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14503,7 +14515,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14581,7 +14593,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ65">
         <v>1.8</v>
@@ -14709,7 +14721,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14787,10 +14799,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ66">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR66">
         <v>1.38</v>
@@ -14915,7 +14927,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15202,7 +15214,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ68">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR68">
         <v>2.3</v>
@@ -15405,7 +15417,7 @@
         <v>1.8</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ69">
         <v>1.8</v>
@@ -16232,7 +16244,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ73">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR73">
         <v>1.44</v>
@@ -16357,7 +16369,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16769,7 +16781,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16847,7 +16859,7 @@
         <v>1.4</v>
       </c>
       <c r="AP76">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ76">
         <v>1.93</v>
@@ -17181,7 +17193,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -18005,7 +18017,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q82">
         <v>2.88</v>
@@ -18086,7 +18098,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ82">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR82">
         <v>1.31</v>
@@ -18292,7 +18304,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ83">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR83">
         <v>1.76</v>
@@ -18417,7 +18429,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q84">
         <v>5.5</v>
@@ -18495,7 +18507,7 @@
         <v>2.17</v>
       </c>
       <c r="AP84">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ84">
         <v>1.8</v>
@@ -18623,7 +18635,7 @@
         <v>119</v>
       </c>
       <c r="P85" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18829,7 +18841,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -19035,7 +19047,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19113,10 +19125,10 @@
         <v>0.86</v>
       </c>
       <c r="AP87">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ87">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR87">
         <v>1.29</v>
@@ -19447,7 +19459,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19525,7 +19537,7 @@
         <v>1.14</v>
       </c>
       <c r="AP89">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ89">
         <v>1.6</v>
@@ -19734,7 +19746,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ90">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR90">
         <v>2.08</v>
@@ -19859,7 +19871,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20065,7 +20077,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20271,7 +20283,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q93">
         <v>2.4</v>
@@ -20477,7 +20489,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20683,7 +20695,7 @@
         <v>89</v>
       </c>
       <c r="P95" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20764,7 +20776,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ95">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR95">
         <v>1.42</v>
@@ -21301,7 +21313,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21507,7 +21519,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q99">
         <v>2.3</v>
@@ -21713,7 +21725,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21791,10 +21803,10 @@
         <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ100">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR100">
         <v>1.21</v>
@@ -21997,7 +22009,7 @@
         <v>1.13</v>
       </c>
       <c r="AP101">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ101">
         <v>1.33</v>
@@ -22206,7 +22218,7 @@
         <v>1</v>
       </c>
       <c r="AQ102">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR102">
         <v>0.9</v>
@@ -22409,7 +22421,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ103">
         <v>0.93</v>
@@ -22537,7 +22549,7 @@
         <v>103</v>
       </c>
       <c r="P104" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22949,7 +22961,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q106">
         <v>1.67</v>
@@ -23030,7 +23042,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ106">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR106">
         <v>2.12</v>
@@ -23773,7 +23785,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -23979,7 +23991,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24057,10 +24069,10 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ111">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR111">
         <v>1.32</v>
@@ -24185,7 +24197,7 @@
         <v>165</v>
       </c>
       <c r="P112" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q112">
         <v>4.53</v>
@@ -24675,10 +24687,10 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ114">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR114">
         <v>1.24</v>
@@ -24803,7 +24815,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24881,7 +24893,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ115">
         <v>0.64</v>
@@ -25009,7 +25021,7 @@
         <v>89</v>
       </c>
       <c r="P116" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25215,7 +25227,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25627,7 +25639,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q119">
         <v>4.33</v>
@@ -25705,7 +25717,7 @@
         <v>1.56</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ119">
         <v>1.93</v>
@@ -25914,7 +25926,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ120">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR120">
         <v>1.3</v>
@@ -26039,7 +26051,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26245,7 +26257,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q122">
         <v>2.38</v>
@@ -26323,10 +26335,10 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ122">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR122">
         <v>1.49</v>
@@ -26451,7 +26463,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q123">
         <v>2.6</v>
@@ -26863,7 +26875,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q125">
         <v>5.5</v>
@@ -26941,7 +26953,7 @@
         <v>1.3</v>
       </c>
       <c r="AP125">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ125">
         <v>1.33</v>
@@ -27069,7 +27081,7 @@
         <v>87</v>
       </c>
       <c r="P126" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27275,7 +27287,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27481,7 +27493,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q128">
         <v>3.5</v>
@@ -27559,7 +27571,7 @@
         <v>0.7</v>
       </c>
       <c r="AP128">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ128">
         <v>0.73</v>
@@ -27687,7 +27699,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q129">
         <v>5.5</v>
@@ -27974,7 +27986,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ130">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR130">
         <v>1.42</v>
@@ -28099,7 +28111,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28592,7 +28604,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ133">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR133">
         <v>1.71</v>
@@ -28717,7 +28729,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28795,7 +28807,7 @@
         <v>1.55</v>
       </c>
       <c r="AP134">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ134">
         <v>1.93</v>
@@ -29004,7 +29016,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ135">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR135">
         <v>1.31</v>
@@ -29129,7 +29141,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29335,7 +29347,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29747,7 +29759,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -30159,7 +30171,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q141">
         <v>3.5</v>
@@ -30237,7 +30249,7 @@
         <v>0.73</v>
       </c>
       <c r="AP141">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ141">
         <v>0.73</v>
@@ -30365,7 +30377,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q142">
         <v>3.5</v>
@@ -30446,7 +30458,7 @@
         <v>1</v>
       </c>
       <c r="AQ142">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR142">
         <v>1.09</v>
@@ -30649,10 +30661,10 @@
         <v>0.82</v>
       </c>
       <c r="AP143">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ143">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR143">
         <v>1.65</v>
@@ -31189,7 +31201,7 @@
         <v>134</v>
       </c>
       <c r="P146" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31601,7 +31613,7 @@
         <v>89</v>
       </c>
       <c r="P148" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31807,7 +31819,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32013,7 +32025,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32503,10 +32515,10 @@
         <v>0.92</v>
       </c>
       <c r="AP152">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ152">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR152">
         <v>1.69</v>
@@ -32709,10 +32721,10 @@
         <v>0.75</v>
       </c>
       <c r="AP153">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ153">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR153">
         <v>1.35</v>
@@ -32837,7 +32849,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -32915,10 +32927,10 @@
         <v>1.08</v>
       </c>
       <c r="AP154">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ154">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR154">
         <v>1.31</v>
@@ -33043,7 +33055,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q155">
         <v>3.75</v>
@@ -33455,7 +33467,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q157">
         <v>3.5</v>
@@ -33867,7 +33879,7 @@
         <v>89</v>
       </c>
       <c r="P159" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q159">
         <v>3.4</v>
@@ -33948,7 +33960,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ159">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR159">
         <v>1.32</v>
@@ -34073,7 +34085,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -34151,7 +34163,7 @@
         <v>1.77</v>
       </c>
       <c r="AP160">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ160">
         <v>1.93</v>
@@ -34279,7 +34291,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q161">
         <v>2.4</v>
@@ -34485,7 +34497,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -34691,7 +34703,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -34897,7 +34909,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -34978,7 +34990,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ164">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR164">
         <v>1.18</v>
@@ -35181,7 +35193,7 @@
         <v>0.85</v>
       </c>
       <c r="AP165">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ165">
         <v>0.8</v>
@@ -35387,10 +35399,10 @@
         <v>0.85</v>
       </c>
       <c r="AP166">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ166">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR166">
         <v>1.33</v>
@@ -35721,7 +35733,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q168">
         <v>3.75</v>
@@ -36133,7 +36145,7 @@
         <v>116</v>
       </c>
       <c r="P170" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q170">
         <v>2.88</v>
@@ -36339,7 +36351,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q171">
         <v>4.5</v>
@@ -36957,7 +36969,7 @@
         <v>89</v>
       </c>
       <c r="P174" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q174">
         <v>2.75</v>
@@ -37369,7 +37381,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q176">
         <v>3.25</v>
@@ -37526,6 +37538,624 @@
       </c>
       <c r="BP176">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7859448</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45787.5</v>
+      </c>
+      <c r="F177">
+        <v>8</v>
+      </c>
+      <c r="G177" t="s">
+        <v>79</v>
+      </c>
+      <c r="H177" t="s">
+        <v>77</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>4</v>
+      </c>
+      <c r="N177">
+        <v>5</v>
+      </c>
+      <c r="O177" t="s">
+        <v>209</v>
+      </c>
+      <c r="P177" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q177">
+        <v>3</v>
+      </c>
+      <c r="R177">
+        <v>2.2</v>
+      </c>
+      <c r="S177">
+        <v>3.5</v>
+      </c>
+      <c r="T177">
+        <v>1.36</v>
+      </c>
+      <c r="U177">
+        <v>3</v>
+      </c>
+      <c r="V177">
+        <v>2.75</v>
+      </c>
+      <c r="W177">
+        <v>1.4</v>
+      </c>
+      <c r="X177">
+        <v>7</v>
+      </c>
+      <c r="Y177">
+        <v>1.1</v>
+      </c>
+      <c r="Z177">
+        <v>2.21</v>
+      </c>
+      <c r="AA177">
+        <v>3.12</v>
+      </c>
+      <c r="AB177">
+        <v>2.89</v>
+      </c>
+      <c r="AC177">
+        <v>1.06</v>
+      </c>
+      <c r="AD177">
+        <v>8.5</v>
+      </c>
+      <c r="AE177">
+        <v>1.3</v>
+      </c>
+      <c r="AF177">
+        <v>3.45</v>
+      </c>
+      <c r="AG177">
+        <v>1.9</v>
+      </c>
+      <c r="AH177">
+        <v>1.8</v>
+      </c>
+      <c r="AI177">
+        <v>1.7</v>
+      </c>
+      <c r="AJ177">
+        <v>2.05</v>
+      </c>
+      <c r="AK177">
+        <v>1.38</v>
+      </c>
+      <c r="AL177">
+        <v>1.3</v>
+      </c>
+      <c r="AM177">
+        <v>1.58</v>
+      </c>
+      <c r="AN177">
+        <v>1</v>
+      </c>
+      <c r="AO177">
+        <v>0.79</v>
+      </c>
+      <c r="AP177">
+        <v>0.93</v>
+      </c>
+      <c r="AQ177">
+        <v>0.93</v>
+      </c>
+      <c r="AR177">
+        <v>1.4</v>
+      </c>
+      <c r="AS177">
+        <v>1.14</v>
+      </c>
+      <c r="AT177">
+        <v>2.54</v>
+      </c>
+      <c r="AU177">
+        <v>2</v>
+      </c>
+      <c r="AV177">
+        <v>8</v>
+      </c>
+      <c r="AW177">
+        <v>16</v>
+      </c>
+      <c r="AX177">
+        <v>3</v>
+      </c>
+      <c r="AY177">
+        <v>26</v>
+      </c>
+      <c r="AZ177">
+        <v>11</v>
+      </c>
+      <c r="BA177">
+        <v>11</v>
+      </c>
+      <c r="BB177">
+        <v>5</v>
+      </c>
+      <c r="BC177">
+        <v>16</v>
+      </c>
+      <c r="BD177">
+        <v>1.8</v>
+      </c>
+      <c r="BE177">
+        <v>6.4</v>
+      </c>
+      <c r="BF177">
+        <v>2.2</v>
+      </c>
+      <c r="BG177">
+        <v>1.36</v>
+      </c>
+      <c r="BH177">
+        <v>2.8</v>
+      </c>
+      <c r="BI177">
+        <v>1.61</v>
+      </c>
+      <c r="BJ177">
+        <v>2.15</v>
+      </c>
+      <c r="BK177">
+        <v>1.98</v>
+      </c>
+      <c r="BL177">
+        <v>1.72</v>
+      </c>
+      <c r="BM177">
+        <v>2.55</v>
+      </c>
+      <c r="BN177">
+        <v>1.44</v>
+      </c>
+      <c r="BO177">
+        <v>3.3</v>
+      </c>
+      <c r="BP177">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7859446</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45787.5</v>
+      </c>
+      <c r="F178">
+        <v>8</v>
+      </c>
+      <c r="G178" t="s">
+        <v>71</v>
+      </c>
+      <c r="H178" t="s">
+        <v>70</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>2</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>2</v>
+      </c>
+      <c r="N178">
+        <v>4</v>
+      </c>
+      <c r="O178" t="s">
+        <v>210</v>
+      </c>
+      <c r="P178" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q178">
+        <v>2.6</v>
+      </c>
+      <c r="R178">
+        <v>2.2</v>
+      </c>
+      <c r="S178">
+        <v>4.33</v>
+      </c>
+      <c r="T178">
+        <v>1.4</v>
+      </c>
+      <c r="U178">
+        <v>2.75</v>
+      </c>
+      <c r="V178">
+        <v>3</v>
+      </c>
+      <c r="W178">
+        <v>1.36</v>
+      </c>
+      <c r="X178">
+        <v>8</v>
+      </c>
+      <c r="Y178">
+        <v>1.08</v>
+      </c>
+      <c r="Z178">
+        <v>1.87</v>
+      </c>
+      <c r="AA178">
+        <v>3.25</v>
+      </c>
+      <c r="AB178">
+        <v>3.63</v>
+      </c>
+      <c r="AC178">
+        <v>1.07</v>
+      </c>
+      <c r="AD178">
+        <v>8</v>
+      </c>
+      <c r="AE178">
+        <v>1.36</v>
+      </c>
+      <c r="AF178">
+        <v>3.1</v>
+      </c>
+      <c r="AG178">
+        <v>1.93</v>
+      </c>
+      <c r="AH178">
+        <v>1.77</v>
+      </c>
+      <c r="AI178">
+        <v>1.91</v>
+      </c>
+      <c r="AJ178">
+        <v>1.91</v>
+      </c>
+      <c r="AK178">
+        <v>1.26</v>
+      </c>
+      <c r="AL178">
+        <v>1.3</v>
+      </c>
+      <c r="AM178">
+        <v>1.78</v>
+      </c>
+      <c r="AN178">
+        <v>0.86</v>
+      </c>
+      <c r="AO178">
+        <v>0.79</v>
+      </c>
+      <c r="AP178">
+        <v>0.87</v>
+      </c>
+      <c r="AQ178">
+        <v>0.8</v>
+      </c>
+      <c r="AR178">
+        <v>1.37</v>
+      </c>
+      <c r="AS178">
+        <v>1.18</v>
+      </c>
+      <c r="AT178">
+        <v>2.55</v>
+      </c>
+      <c r="AU178">
+        <v>11</v>
+      </c>
+      <c r="AV178">
+        <v>4</v>
+      </c>
+      <c r="AW178">
+        <v>13</v>
+      </c>
+      <c r="AX178">
+        <v>4</v>
+      </c>
+      <c r="AY178">
+        <v>27</v>
+      </c>
+      <c r="AZ178">
+        <v>10</v>
+      </c>
+      <c r="BA178">
+        <v>5</v>
+      </c>
+      <c r="BB178">
+        <v>1</v>
+      </c>
+      <c r="BC178">
+        <v>6</v>
+      </c>
+      <c r="BD178">
+        <v>1.58</v>
+      </c>
+      <c r="BE178">
+        <v>6.75</v>
+      </c>
+      <c r="BF178">
+        <v>2.65</v>
+      </c>
+      <c r="BG178">
+        <v>1.35</v>
+      </c>
+      <c r="BH178">
+        <v>2.9</v>
+      </c>
+      <c r="BI178">
+        <v>1.58</v>
+      </c>
+      <c r="BJ178">
+        <v>2.18</v>
+      </c>
+      <c r="BK178">
+        <v>1.96</v>
+      </c>
+      <c r="BL178">
+        <v>1.73</v>
+      </c>
+      <c r="BM178">
+        <v>2.48</v>
+      </c>
+      <c r="BN178">
+        <v>1.47</v>
+      </c>
+      <c r="BO178">
+        <v>3.2</v>
+      </c>
+      <c r="BP178">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7859447</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45787.5</v>
+      </c>
+      <c r="F179">
+        <v>8</v>
+      </c>
+      <c r="G179" t="s">
+        <v>76</v>
+      </c>
+      <c r="H179" t="s">
+        <v>72</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179" t="s">
+        <v>89</v>
+      </c>
+      <c r="P179" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q179">
+        <v>2.25</v>
+      </c>
+      <c r="R179">
+        <v>2.38</v>
+      </c>
+      <c r="S179">
+        <v>4.75</v>
+      </c>
+      <c r="T179">
+        <v>1.33</v>
+      </c>
+      <c r="U179">
+        <v>3.25</v>
+      </c>
+      <c r="V179">
+        <v>2.5</v>
+      </c>
+      <c r="W179">
+        <v>1.5</v>
+      </c>
+      <c r="X179">
+        <v>6.5</v>
+      </c>
+      <c r="Y179">
+        <v>1.11</v>
+      </c>
+      <c r="Z179">
+        <v>1.83</v>
+      </c>
+      <c r="AA179">
+        <v>3.41</v>
+      </c>
+      <c r="AB179">
+        <v>3.55</v>
+      </c>
+      <c r="AC179">
+        <v>1.04</v>
+      </c>
+      <c r="AD179">
+        <v>10</v>
+      </c>
+      <c r="AE179">
+        <v>1.22</v>
+      </c>
+      <c r="AF179">
+        <v>4</v>
+      </c>
+      <c r="AG179">
+        <v>1.67</v>
+      </c>
+      <c r="AH179">
+        <v>2</v>
+      </c>
+      <c r="AI179">
+        <v>1.75</v>
+      </c>
+      <c r="AJ179">
+        <v>2</v>
+      </c>
+      <c r="AK179">
+        <v>1.21</v>
+      </c>
+      <c r="AL179">
+        <v>1.26</v>
+      </c>
+      <c r="AM179">
+        <v>2</v>
+      </c>
+      <c r="AN179">
+        <v>1.64</v>
+      </c>
+      <c r="AO179">
+        <v>1.21</v>
+      </c>
+      <c r="AP179">
+        <v>1.6</v>
+      </c>
+      <c r="AQ179">
+        <v>1.2</v>
+      </c>
+      <c r="AR179">
+        <v>1.87</v>
+      </c>
+      <c r="AS179">
+        <v>1.19</v>
+      </c>
+      <c r="AT179">
+        <v>3.06</v>
+      </c>
+      <c r="AU179">
+        <v>4</v>
+      </c>
+      <c r="AV179">
+        <v>7</v>
+      </c>
+      <c r="AW179">
+        <v>12</v>
+      </c>
+      <c r="AX179">
+        <v>10</v>
+      </c>
+      <c r="AY179">
+        <v>16</v>
+      </c>
+      <c r="AZ179">
+        <v>17</v>
+      </c>
+      <c r="BA179">
+        <v>3</v>
+      </c>
+      <c r="BB179">
+        <v>3</v>
+      </c>
+      <c r="BC179">
+        <v>6</v>
+      </c>
+      <c r="BD179">
+        <v>1.61</v>
+      </c>
+      <c r="BE179">
+        <v>6.5</v>
+      </c>
+      <c r="BF179">
+        <v>2.55</v>
+      </c>
+      <c r="BG179">
+        <v>1.35</v>
+      </c>
+      <c r="BH179">
+        <v>2.9</v>
+      </c>
+      <c r="BI179">
+        <v>1.6</v>
+      </c>
+      <c r="BJ179">
+        <v>2.17</v>
+      </c>
+      <c r="BK179">
+        <v>1.98</v>
+      </c>
+      <c r="BL179">
+        <v>1.72</v>
+      </c>
+      <c r="BM179">
+        <v>2.5</v>
+      </c>
+      <c r="BN179">
+        <v>1.46</v>
+      </c>
+      <c r="BO179">
+        <v>3.3</v>
+      </c>
+      <c r="BP179">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="303">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -649,6 +649,9 @@
     <t>['25', '56']</t>
   </si>
   <si>
+    <t>['6', '53']</t>
+  </si>
+  <si>
     <t>['4', '6', '45+2']</t>
   </si>
   <si>
@@ -917,6 +920,9 @@
   </si>
   <si>
     <t>['28', '61']</t>
+  </si>
+  <si>
+    <t>['32', '84']</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP179"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1537,7 +1543,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1743,7 +1749,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1949,7 +1955,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2233,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ5">
         <v>0.8</v>
@@ -2773,7 +2779,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -3185,7 +3191,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -3266,7 +3272,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ10">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3472,7 +3478,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ11">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3675,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ12">
         <v>1.8</v>
@@ -4009,7 +4015,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q14">
         <v>3.1</v>
@@ -4090,7 +4096,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ14">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR14">
         <v>1.07</v>
@@ -4215,7 +4221,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4421,7 +4427,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -5245,7 +5251,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5451,7 +5457,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5657,7 +5663,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q22">
         <v>2.4</v>
@@ -5735,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ22">
         <v>0.8</v>
@@ -5863,7 +5869,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5941,7 +5947,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ23">
         <v>1.93</v>
@@ -6150,7 +6156,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ24">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR24">
         <v>0.92</v>
@@ -6275,7 +6281,7 @@
         <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6356,7 +6362,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ25">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR25">
         <v>0.84</v>
@@ -6687,7 +6693,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6893,7 +6899,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7099,7 +7105,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q29">
         <v>4.33</v>
@@ -7589,10 +7595,10 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ31">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR31">
         <v>1.82</v>
@@ -7923,7 +7929,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8129,7 +8135,7 @@
         <v>89</v>
       </c>
       <c r="P34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8210,7 +8216,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ34">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR34">
         <v>1.26</v>
@@ -8335,7 +8341,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8541,7 +8547,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q36">
         <v>2.1</v>
@@ -8747,7 +8753,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q37">
         <v>2.2</v>
@@ -9159,7 +9165,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9365,7 +9371,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9443,7 +9449,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ40">
         <v>1.8</v>
@@ -9777,7 +9783,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10189,7 +10195,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q44">
         <v>2.4</v>
@@ -10395,7 +10401,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q45">
         <v>2.2</v>
@@ -10473,7 +10479,7 @@
         <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ45">
         <v>0.93</v>
@@ -11013,7 +11019,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11091,7 +11097,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ48">
         <v>1.2</v>
@@ -11297,7 +11303,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ49">
         <v>0.8</v>
@@ -11506,7 +11512,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR50">
         <v>0.98</v>
@@ -11837,7 +11843,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11918,7 +11924,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ52">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR52">
         <v>1.2</v>
@@ -12249,7 +12255,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12455,7 +12461,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12867,7 +12873,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -13073,7 +13079,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13279,7 +13285,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13563,7 +13569,7 @@
         <v>1.2</v>
       </c>
       <c r="AP60">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ60">
         <v>0.93</v>
@@ -13897,7 +13903,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -13978,7 +13984,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ62">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR62">
         <v>1.17</v>
@@ -14181,7 +14187,7 @@
         <v>1.4</v>
       </c>
       <c r="AP63">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ63">
         <v>1.33</v>
@@ -14390,7 +14396,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ64">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR64">
         <v>1.56</v>
@@ -14515,7 +14521,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14721,7 +14727,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14927,7 +14933,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15008,7 +15014,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ67">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR67">
         <v>1.79</v>
@@ -15829,10 +15835,10 @@
         <v>0.83</v>
       </c>
       <c r="AP71">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ71">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR71">
         <v>1.72</v>
@@ -16035,7 +16041,7 @@
         <v>0.83</v>
       </c>
       <c r="AP72">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ72">
         <v>1.6</v>
@@ -16369,7 +16375,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16781,7 +16787,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17193,7 +17199,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -17480,7 +17486,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR79">
         <v>0.96</v>
@@ -17889,7 +17895,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ81">
         <v>0.73</v>
@@ -18017,7 +18023,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q82">
         <v>2.88</v>
@@ -18301,7 +18307,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ83">
         <v>1.2</v>
@@ -18429,7 +18435,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q84">
         <v>5.5</v>
@@ -18635,7 +18641,7 @@
         <v>119</v>
       </c>
       <c r="P85" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18841,7 +18847,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -19047,7 +19053,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19334,7 +19340,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ88">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR88">
         <v>1.65</v>
@@ -19459,7 +19465,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19871,7 +19877,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -19949,7 +19955,7 @@
         <v>1.86</v>
       </c>
       <c r="AP91">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ91">
         <v>1.93</v>
@@ -20077,7 +20083,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20283,7 +20289,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q93">
         <v>2.4</v>
@@ -20364,7 +20370,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ93">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR93">
         <v>2.1</v>
@@ -20489,7 +20495,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20695,7 +20701,7 @@
         <v>89</v>
       </c>
       <c r="P95" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20979,7 +20985,7 @@
         <v>0.57</v>
       </c>
       <c r="AP96">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ96">
         <v>0.73</v>
@@ -21313,7 +21319,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21519,7 +21525,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q99">
         <v>2.3</v>
@@ -21725,7 +21731,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -22424,7 +22430,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ103">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR103">
         <v>1.4</v>
@@ -22549,7 +22555,7 @@
         <v>103</v>
       </c>
       <c r="P104" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22833,7 +22839,7 @@
         <v>2.13</v>
       </c>
       <c r="AP105">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ105">
         <v>1.8</v>
@@ -22961,7 +22967,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q106">
         <v>1.67</v>
@@ -23657,10 +23663,10 @@
         <v>1.13</v>
       </c>
       <c r="AP109">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ109">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR109">
         <v>1.67</v>
@@ -23785,7 +23791,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -23863,7 +23869,7 @@
         <v>1.11</v>
       </c>
       <c r="AP110">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ110">
         <v>1.33</v>
@@ -23991,7 +23997,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24197,7 +24203,7 @@
         <v>165</v>
       </c>
       <c r="P112" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q112">
         <v>4.53</v>
@@ -24484,7 +24490,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ113">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR113">
         <v>1.71</v>
@@ -24815,7 +24821,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24896,7 +24902,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ115">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR115">
         <v>1.44</v>
@@ -25021,7 +25027,7 @@
         <v>89</v>
       </c>
       <c r="P116" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25227,7 +25233,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25639,7 +25645,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q119">
         <v>4.33</v>
@@ -26051,7 +26057,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26257,7 +26263,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q122">
         <v>2.38</v>
@@ -26463,7 +26469,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q123">
         <v>2.6</v>
@@ -26541,10 +26547,10 @@
         <v>0.9</v>
       </c>
       <c r="AP123">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ123">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR123">
         <v>1.5</v>
@@ -26747,7 +26753,7 @@
         <v>0.8</v>
       </c>
       <c r="AP124">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ124">
         <v>0.8</v>
@@ -26875,7 +26881,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q125">
         <v>5.5</v>
@@ -27081,7 +27087,7 @@
         <v>87</v>
       </c>
       <c r="P126" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27287,7 +27293,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27368,7 +27374,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ127">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR127">
         <v>1.17</v>
@@ -27493,7 +27499,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q128">
         <v>3.5</v>
@@ -27699,7 +27705,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q129">
         <v>5.5</v>
@@ -28111,7 +28117,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28729,7 +28735,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29141,7 +29147,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29347,7 +29353,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29631,7 +29637,7 @@
         <v>1.82</v>
       </c>
       <c r="AP138">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ138">
         <v>1.8</v>
@@ -29759,7 +29765,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -30046,7 +30052,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ140">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR140">
         <v>1.8</v>
@@ -30171,7 +30177,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q141">
         <v>3.5</v>
@@ -30377,7 +30383,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q142">
         <v>3.5</v>
@@ -30870,7 +30876,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ144">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR144">
         <v>2.17</v>
@@ -31073,7 +31079,7 @@
         <v>1.73</v>
       </c>
       <c r="AP145">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ145">
         <v>1.8</v>
@@ -31201,7 +31207,7 @@
         <v>134</v>
       </c>
       <c r="P146" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31613,7 +31619,7 @@
         <v>89</v>
       </c>
       <c r="P148" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31819,7 +31825,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32025,7 +32031,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32849,7 +32855,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33055,7 +33061,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q155">
         <v>3.75</v>
@@ -33133,10 +33139,10 @@
         <v>0.75</v>
       </c>
       <c r="AP155">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ155">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR155">
         <v>1.53</v>
@@ -33342,7 +33348,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ156">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR156">
         <v>1.75</v>
@@ -33467,7 +33473,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q157">
         <v>3.5</v>
@@ -33545,7 +33551,7 @@
         <v>1.42</v>
       </c>
       <c r="AP157">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ157">
         <v>1.33</v>
@@ -33879,7 +33885,7 @@
         <v>89</v>
       </c>
       <c r="P159" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q159">
         <v>3.4</v>
@@ -34085,7 +34091,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -34291,7 +34297,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q161">
         <v>2.4</v>
@@ -34497,7 +34503,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -34578,7 +34584,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ162">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AR162">
         <v>1.45</v>
@@ -34703,7 +34709,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -34781,7 +34787,7 @@
         <v>1.85</v>
       </c>
       <c r="AP163">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ163">
         <v>1.8</v>
@@ -34909,7 +34915,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35608,7 +35614,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ167">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR167">
         <v>1.71</v>
@@ -35733,7 +35739,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q168">
         <v>3.75</v>
@@ -35811,7 +35817,7 @@
         <v>1.54</v>
       </c>
       <c r="AP168">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ168">
         <v>1.33</v>
@@ -36145,7 +36151,7 @@
         <v>116</v>
       </c>
       <c r="P170" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q170">
         <v>2.88</v>
@@ -36351,7 +36357,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q171">
         <v>4.5</v>
@@ -36969,7 +36975,7 @@
         <v>89</v>
       </c>
       <c r="P174" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q174">
         <v>2.75</v>
@@ -37381,7 +37387,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q176">
         <v>3.25</v>
@@ -37587,7 +37593,7 @@
         <v>209</v>
       </c>
       <c r="P177" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -37793,7 +37799,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q178">
         <v>2.6</v>
@@ -38156,6 +38162,418 @@
       </c>
       <c r="BP179">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7859449</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45788.39583333334</v>
+      </c>
+      <c r="F180">
+        <v>8</v>
+      </c>
+      <c r="G180" t="s">
+        <v>73</v>
+      </c>
+      <c r="H180" t="s">
+        <v>75</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>2</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180" t="s">
+        <v>211</v>
+      </c>
+      <c r="P180" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q180">
+        <v>2.3</v>
+      </c>
+      <c r="R180">
+        <v>2.2</v>
+      </c>
+      <c r="S180">
+        <v>5.5</v>
+      </c>
+      <c r="T180">
+        <v>1.4</v>
+      </c>
+      <c r="U180">
+        <v>2.75</v>
+      </c>
+      <c r="V180">
+        <v>2.75</v>
+      </c>
+      <c r="W180">
+        <v>1.4</v>
+      </c>
+      <c r="X180">
+        <v>8</v>
+      </c>
+      <c r="Y180">
+        <v>1.08</v>
+      </c>
+      <c r="Z180">
+        <v>1.71</v>
+      </c>
+      <c r="AA180">
+        <v>3.3</v>
+      </c>
+      <c r="AB180">
+        <v>4.3</v>
+      </c>
+      <c r="AC180">
+        <v>1.06</v>
+      </c>
+      <c r="AD180">
+        <v>8.5</v>
+      </c>
+      <c r="AE180">
+        <v>1.33</v>
+      </c>
+      <c r="AF180">
+        <v>3.25</v>
+      </c>
+      <c r="AG180">
+        <v>1.96</v>
+      </c>
+      <c r="AH180">
+        <v>1.74</v>
+      </c>
+      <c r="AI180">
+        <v>1.95</v>
+      </c>
+      <c r="AJ180">
+        <v>1.8</v>
+      </c>
+      <c r="AK180">
+        <v>1.18</v>
+      </c>
+      <c r="AL180">
+        <v>1.27</v>
+      </c>
+      <c r="AM180">
+        <v>2.05</v>
+      </c>
+      <c r="AN180">
+        <v>1.71</v>
+      </c>
+      <c r="AO180">
+        <v>0.93</v>
+      </c>
+      <c r="AP180">
+        <v>1.8</v>
+      </c>
+      <c r="AQ180">
+        <v>0.87</v>
+      </c>
+      <c r="AR180">
+        <v>1.62</v>
+      </c>
+      <c r="AS180">
+        <v>1.2</v>
+      </c>
+      <c r="AT180">
+        <v>2.82</v>
+      </c>
+      <c r="AU180">
+        <v>4</v>
+      </c>
+      <c r="AV180">
+        <v>0</v>
+      </c>
+      <c r="AW180">
+        <v>4</v>
+      </c>
+      <c r="AX180">
+        <v>12</v>
+      </c>
+      <c r="AY180">
+        <v>8</v>
+      </c>
+      <c r="AZ180">
+        <v>14</v>
+      </c>
+      <c r="BA180">
+        <v>5</v>
+      </c>
+      <c r="BB180">
+        <v>5</v>
+      </c>
+      <c r="BC180">
+        <v>10</v>
+      </c>
+      <c r="BD180">
+        <v>1.56</v>
+      </c>
+      <c r="BE180">
+        <v>6.5</v>
+      </c>
+      <c r="BF180">
+        <v>2.7</v>
+      </c>
+      <c r="BG180">
+        <v>1.38</v>
+      </c>
+      <c r="BH180">
+        <v>2.75</v>
+      </c>
+      <c r="BI180">
+        <v>1.65</v>
+      </c>
+      <c r="BJ180">
+        <v>2.08</v>
+      </c>
+      <c r="BK180">
+        <v>2.05</v>
+      </c>
+      <c r="BL180">
+        <v>1.67</v>
+      </c>
+      <c r="BM180">
+        <v>2.63</v>
+      </c>
+      <c r="BN180">
+        <v>1.41</v>
+      </c>
+      <c r="BO180">
+        <v>3.4</v>
+      </c>
+      <c r="BP180">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7859450</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45788.5</v>
+      </c>
+      <c r="F181">
+        <v>8</v>
+      </c>
+      <c r="G181" t="s">
+        <v>80</v>
+      </c>
+      <c r="H181" t="s">
+        <v>74</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>2</v>
+      </c>
+      <c r="N181">
+        <v>3</v>
+      </c>
+      <c r="O181" t="s">
+        <v>175</v>
+      </c>
+      <c r="P181" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q181">
+        <v>2.75</v>
+      </c>
+      <c r="R181">
+        <v>2.2</v>
+      </c>
+      <c r="S181">
+        <v>3.75</v>
+      </c>
+      <c r="T181">
+        <v>1.36</v>
+      </c>
+      <c r="U181">
+        <v>3</v>
+      </c>
+      <c r="V181">
+        <v>2.63</v>
+      </c>
+      <c r="W181">
+        <v>1.44</v>
+      </c>
+      <c r="X181">
+        <v>7</v>
+      </c>
+      <c r="Y181">
+        <v>1.1</v>
+      </c>
+      <c r="Z181">
+        <v>2.16</v>
+      </c>
+      <c r="AA181">
+        <v>3.39</v>
+      </c>
+      <c r="AB181">
+        <v>2.76</v>
+      </c>
+      <c r="AC181">
+        <v>1.05</v>
+      </c>
+      <c r="AD181">
+        <v>9.5</v>
+      </c>
+      <c r="AE181">
+        <v>1.25</v>
+      </c>
+      <c r="AF181">
+        <v>3.75</v>
+      </c>
+      <c r="AG181">
+        <v>1.82</v>
+      </c>
+      <c r="AH181">
+        <v>1.88</v>
+      </c>
+      <c r="AI181">
+        <v>1.7</v>
+      </c>
+      <c r="AJ181">
+        <v>2.05</v>
+      </c>
+      <c r="AK181">
+        <v>1.35</v>
+      </c>
+      <c r="AL181">
+        <v>1.28</v>
+      </c>
+      <c r="AM181">
+        <v>1.65</v>
+      </c>
+      <c r="AN181">
+        <v>2.29</v>
+      </c>
+      <c r="AO181">
+        <v>0.64</v>
+      </c>
+      <c r="AP181">
+        <v>2.13</v>
+      </c>
+      <c r="AQ181">
+        <v>0.8</v>
+      </c>
+      <c r="AR181">
+        <v>1.7</v>
+      </c>
+      <c r="AS181">
+        <v>1.46</v>
+      </c>
+      <c r="AT181">
+        <v>3.16</v>
+      </c>
+      <c r="AU181">
+        <v>-1</v>
+      </c>
+      <c r="AV181">
+        <v>-1</v>
+      </c>
+      <c r="AW181">
+        <v>-1</v>
+      </c>
+      <c r="AX181">
+        <v>-1</v>
+      </c>
+      <c r="AY181">
+        <v>-1</v>
+      </c>
+      <c r="AZ181">
+        <v>-1</v>
+      </c>
+      <c r="BA181">
+        <v>-1</v>
+      </c>
+      <c r="BB181">
+        <v>-1</v>
+      </c>
+      <c r="BC181">
+        <v>-1</v>
+      </c>
+      <c r="BD181">
+        <v>1.9</v>
+      </c>
+      <c r="BE181">
+        <v>6.4</v>
+      </c>
+      <c r="BF181">
+        <v>2.1</v>
+      </c>
+      <c r="BG181">
+        <v>1.28</v>
+      </c>
+      <c r="BH181">
+        <v>3.2</v>
+      </c>
+      <c r="BI181">
+        <v>1.48</v>
+      </c>
+      <c r="BJ181">
+        <v>2.43</v>
+      </c>
+      <c r="BK181">
+        <v>1.79</v>
+      </c>
+      <c r="BL181">
+        <v>1.9</v>
+      </c>
+      <c r="BM181">
+        <v>2.23</v>
+      </c>
+      <c r="BN181">
+        <v>1.56</v>
+      </c>
+      <c r="BO181">
+        <v>2.9</v>
+      </c>
+      <c r="BP181">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -38510,31 +38510,31 @@
         <v>3.16</v>
       </c>
       <c r="AU181">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV181">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW181">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX181">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY181">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AZ181">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA181">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BB181">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC181">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD181">
         <v>1.9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="303">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1284,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP181"/>
+  <dimension ref="A1:BP183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ2">
         <v>1.33</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ3">
         <v>0.93</v>
@@ -2036,7 +2036,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ5">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ14">
         <v>0.87</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ19">
         <v>1.8</v>
@@ -5332,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR20">
         <v>0.78</v>
@@ -5950,7 +5950,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ23">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR23">
         <v>1.73</v>
@@ -7389,7 +7389,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ30">
         <v>1.6</v>
@@ -7804,7 +7804,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ32">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR32">
         <v>1.09</v>
@@ -8007,7 +8007,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ33">
         <v>0.73</v>
@@ -8213,7 +8213,7 @@
         <v>0.33</v>
       </c>
       <c r="AP34">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ34">
         <v>0.87</v>
@@ -10276,7 +10276,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ44">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR44">
         <v>1.82</v>
@@ -10891,10 +10891,10 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ47">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR47">
         <v>1.52</v>
@@ -11718,7 +11718,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ51">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR51">
         <v>1.44</v>
@@ -11921,7 +11921,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ52">
         <v>0.8</v>
@@ -13160,7 +13160,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR58">
         <v>1</v>
@@ -13775,10 +13775,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ61">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -14393,7 +14393,7 @@
         <v>1.25</v>
       </c>
       <c r="AP64">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ64">
         <v>0.8</v>
@@ -16247,7 +16247,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ73">
         <v>0.93</v>
@@ -16865,10 +16865,10 @@
         <v>1.4</v>
       </c>
       <c r="AP76">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ76">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR76">
         <v>1.31</v>
@@ -17074,7 +17074,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ77">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR77">
         <v>1.67</v>
@@ -17280,7 +17280,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ78">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR78">
         <v>2.16</v>
@@ -17692,7 +17692,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ80">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR80">
         <v>1.71</v>
@@ -18513,7 +18513,7 @@
         <v>2.17</v>
       </c>
       <c r="AP84">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ84">
         <v>1.8</v>
@@ -18925,7 +18925,7 @@
         <v>1.5</v>
       </c>
       <c r="AP86">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ86">
         <v>1.8</v>
@@ -19958,7 +19958,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ91">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -20576,7 +20576,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ94">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR94">
         <v>1.33</v>
@@ -20779,7 +20779,7 @@
         <v>0.71</v>
       </c>
       <c r="AP95">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ95">
         <v>1.2</v>
@@ -21194,7 +21194,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ97">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR97">
         <v>2.11</v>
@@ -21809,7 +21809,7 @@
         <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ100">
         <v>0.8</v>
@@ -23251,10 +23251,10 @@
         <v>1.63</v>
       </c>
       <c r="AP107">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ107">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR107">
         <v>1.33</v>
@@ -23460,7 +23460,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ108">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR108">
         <v>1.12</v>
@@ -24693,7 +24693,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ114">
         <v>1.2</v>
@@ -25311,7 +25311,7 @@
         <v>1.33</v>
       </c>
       <c r="AP117">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ117">
         <v>1.6</v>
@@ -25726,7 +25726,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ119">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR119">
         <v>1.39</v>
@@ -26756,7 +26756,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ124">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR124">
         <v>1.58</v>
@@ -26959,7 +26959,7 @@
         <v>1.3</v>
       </c>
       <c r="AP125">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ125">
         <v>1.33</v>
@@ -27165,7 +27165,7 @@
         <v>1.7</v>
       </c>
       <c r="AP126">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ126">
         <v>1.8</v>
@@ -28198,7 +28198,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ131">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR131">
         <v>1.73</v>
@@ -28813,10 +28813,10 @@
         <v>1.55</v>
       </c>
       <c r="AP134">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ134">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR134">
         <v>1.26</v>
@@ -29019,7 +29019,7 @@
         <v>0.91</v>
       </c>
       <c r="AP135">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ135">
         <v>0.93</v>
@@ -29228,7 +29228,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ136">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR136">
         <v>1.16</v>
@@ -31491,7 +31491,7 @@
         <v>0.92</v>
       </c>
       <c r="AP147">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ147">
         <v>0.73</v>
@@ -31700,7 +31700,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ148">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR148">
         <v>1.22</v>
@@ -31906,7 +31906,7 @@
         <v>1</v>
       </c>
       <c r="AQ149">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR149">
         <v>1.12</v>
@@ -32933,7 +32933,7 @@
         <v>1.08</v>
       </c>
       <c r="AP154">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ154">
         <v>1.2</v>
@@ -33963,7 +33963,7 @@
         <v>1.08</v>
       </c>
       <c r="AP159">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ159">
         <v>1.2</v>
@@ -34172,7 +34172,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ160">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR160">
         <v>1.38</v>
@@ -35202,7 +35202,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ165">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR165">
         <v>1.73</v>
@@ -35405,7 +35405,7 @@
         <v>0.85</v>
       </c>
       <c r="AP166">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ166">
         <v>0.93</v>
@@ -36229,10 +36229,10 @@
         <v>0.79</v>
       </c>
       <c r="AP170">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ170">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR170">
         <v>1.31</v>
@@ -36438,7 +36438,7 @@
         <v>1</v>
       </c>
       <c r="AQ171">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR171">
         <v>1.18</v>
@@ -37877,7 +37877,7 @@
         <v>0.79</v>
       </c>
       <c r="AP178">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ178">
         <v>0.8</v>
@@ -38574,6 +38574,418 @@
       </c>
       <c r="BP181">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7859451</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45794.5</v>
+      </c>
+      <c r="F182">
+        <v>9</v>
+      </c>
+      <c r="G182" t="s">
+        <v>71</v>
+      </c>
+      <c r="H182" t="s">
+        <v>79</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182" t="s">
+        <v>89</v>
+      </c>
+      <c r="P182" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q182">
+        <v>2.25</v>
+      </c>
+      <c r="R182">
+        <v>2.25</v>
+      </c>
+      <c r="S182">
+        <v>5.5</v>
+      </c>
+      <c r="T182">
+        <v>1.36</v>
+      </c>
+      <c r="U182">
+        <v>3</v>
+      </c>
+      <c r="V182">
+        <v>2.75</v>
+      </c>
+      <c r="W182">
+        <v>1.4</v>
+      </c>
+      <c r="X182">
+        <v>7</v>
+      </c>
+      <c r="Y182">
+        <v>1.1</v>
+      </c>
+      <c r="Z182">
+        <v>1.69</v>
+      </c>
+      <c r="AA182">
+        <v>3.41</v>
+      </c>
+      <c r="AB182">
+        <v>4.2</v>
+      </c>
+      <c r="AC182">
+        <v>1</v>
+      </c>
+      <c r="AD182">
+        <v>10.2</v>
+      </c>
+      <c r="AE182">
+        <v>1.28</v>
+      </c>
+      <c r="AF182">
+        <v>3.63</v>
+      </c>
+      <c r="AG182">
+        <v>1.88</v>
+      </c>
+      <c r="AH182">
+        <v>1.82</v>
+      </c>
+      <c r="AI182">
+        <v>1.91</v>
+      </c>
+      <c r="AJ182">
+        <v>1.91</v>
+      </c>
+      <c r="AK182">
+        <v>1.15</v>
+      </c>
+      <c r="AL182">
+        <v>1.22</v>
+      </c>
+      <c r="AM182">
+        <v>2.15</v>
+      </c>
+      <c r="AN182">
+        <v>0.87</v>
+      </c>
+      <c r="AO182">
+        <v>0.8</v>
+      </c>
+      <c r="AP182">
+        <v>0.88</v>
+      </c>
+      <c r="AQ182">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR182">
+        <v>1.46</v>
+      </c>
+      <c r="AS182">
+        <v>1.1</v>
+      </c>
+      <c r="AT182">
+        <v>2.56</v>
+      </c>
+      <c r="AU182">
+        <v>2</v>
+      </c>
+      <c r="AV182">
+        <v>4</v>
+      </c>
+      <c r="AW182">
+        <v>6</v>
+      </c>
+      <c r="AX182">
+        <v>9</v>
+      </c>
+      <c r="AY182">
+        <v>10</v>
+      </c>
+      <c r="AZ182">
+        <v>14</v>
+      </c>
+      <c r="BA182">
+        <v>4</v>
+      </c>
+      <c r="BB182">
+        <v>3</v>
+      </c>
+      <c r="BC182">
+        <v>7</v>
+      </c>
+      <c r="BD182">
+        <v>1.47</v>
+      </c>
+      <c r="BE182">
+        <v>6.75</v>
+      </c>
+      <c r="BF182">
+        <v>3</v>
+      </c>
+      <c r="BG182">
+        <v>1.38</v>
+      </c>
+      <c r="BH182">
+        <v>2.7</v>
+      </c>
+      <c r="BI182">
+        <v>1.65</v>
+      </c>
+      <c r="BJ182">
+        <v>2.08</v>
+      </c>
+      <c r="BK182">
+        <v>2</v>
+      </c>
+      <c r="BL182">
+        <v>1.8</v>
+      </c>
+      <c r="BM182">
+        <v>2.55</v>
+      </c>
+      <c r="BN182">
+        <v>1.43</v>
+      </c>
+      <c r="BO182">
+        <v>3.4</v>
+      </c>
+      <c r="BP182">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7859452</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45794.5</v>
+      </c>
+      <c r="F183">
+        <v>9</v>
+      </c>
+      <c r="G183" t="s">
+        <v>70</v>
+      </c>
+      <c r="H183" t="s">
+        <v>76</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
+        <v>150</v>
+      </c>
+      <c r="P183" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q183">
+        <v>3.6</v>
+      </c>
+      <c r="R183">
+        <v>2.25</v>
+      </c>
+      <c r="S183">
+        <v>2.75</v>
+      </c>
+      <c r="T183">
+        <v>1.33</v>
+      </c>
+      <c r="U183">
+        <v>3.25</v>
+      </c>
+      <c r="V183">
+        <v>2.63</v>
+      </c>
+      <c r="W183">
+        <v>1.44</v>
+      </c>
+      <c r="X183">
+        <v>6.5</v>
+      </c>
+      <c r="Y183">
+        <v>1.11</v>
+      </c>
+      <c r="Z183">
+        <v>2.92</v>
+      </c>
+      <c r="AA183">
+        <v>3.45</v>
+      </c>
+      <c r="AB183">
+        <v>2.05</v>
+      </c>
+      <c r="AC183">
+        <v>1.01</v>
+      </c>
+      <c r="AD183">
+        <v>11.3</v>
+      </c>
+      <c r="AE183">
+        <v>1.25</v>
+      </c>
+      <c r="AF183">
+        <v>3.89</v>
+      </c>
+      <c r="AG183">
+        <v>1.76</v>
+      </c>
+      <c r="AH183">
+        <v>1.94</v>
+      </c>
+      <c r="AI183">
+        <v>1.67</v>
+      </c>
+      <c r="AJ183">
+        <v>2.1</v>
+      </c>
+      <c r="AK183">
+        <v>1.65</v>
+      </c>
+      <c r="AL183">
+        <v>1.25</v>
+      </c>
+      <c r="AM183">
+        <v>1.35</v>
+      </c>
+      <c r="AN183">
+        <v>0.8</v>
+      </c>
+      <c r="AO183">
+        <v>1.93</v>
+      </c>
+      <c r="AP183">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ183">
+        <v>1.81</v>
+      </c>
+      <c r="AR183">
+        <v>1.37</v>
+      </c>
+      <c r="AS183">
+        <v>1.2</v>
+      </c>
+      <c r="AT183">
+        <v>2.57</v>
+      </c>
+      <c r="AU183">
+        <v>6</v>
+      </c>
+      <c r="AV183">
+        <v>4</v>
+      </c>
+      <c r="AW183">
+        <v>6</v>
+      </c>
+      <c r="AX183">
+        <v>9</v>
+      </c>
+      <c r="AY183">
+        <v>14</v>
+      </c>
+      <c r="AZ183">
+        <v>17</v>
+      </c>
+      <c r="BA183">
+        <v>4</v>
+      </c>
+      <c r="BB183">
+        <v>4</v>
+      </c>
+      <c r="BC183">
+        <v>8</v>
+      </c>
+      <c r="BD183">
+        <v>2.18</v>
+      </c>
+      <c r="BE183">
+        <v>6.4</v>
+      </c>
+      <c r="BF183">
+        <v>1.83</v>
+      </c>
+      <c r="BG183">
+        <v>1.33</v>
+      </c>
+      <c r="BH183">
+        <v>2.95</v>
+      </c>
+      <c r="BI183">
+        <v>1.56</v>
+      </c>
+      <c r="BJ183">
+        <v>2.23</v>
+      </c>
+      <c r="BK183">
+        <v>1.95</v>
+      </c>
+      <c r="BL183">
+        <v>1.85</v>
+      </c>
+      <c r="BM183">
+        <v>2.43</v>
+      </c>
+      <c r="BN183">
+        <v>1.48</v>
+      </c>
+      <c r="BO183">
+        <v>3.15</v>
+      </c>
+      <c r="BP183">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="305">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -652,6 +652,9 @@
     <t>['6', '53']</t>
   </si>
   <si>
+    <t>['71', '83', '90+3']</t>
+  </si>
+  <si>
     <t>['4', '6', '45+2']</t>
   </si>
   <si>
@@ -923,6 +926,9 @@
   </si>
   <si>
     <t>['32', '84']</t>
+  </si>
+  <si>
+    <t>['27', '89']</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP183"/>
+  <dimension ref="A1:BP184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1543,7 +1549,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1749,7 +1755,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1830,7 +1836,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ3">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1955,7 +1961,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2033,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ4">
         <v>1.81</v>
@@ -2779,7 +2785,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -3191,7 +3197,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -4015,7 +4021,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q14">
         <v>3.1</v>
@@ -4221,7 +4227,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4427,7 +4433,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -4711,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ17">
         <v>1.6</v>
@@ -4920,7 +4926,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ18">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR18">
         <v>1.7</v>
@@ -5251,7 +5257,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5457,7 +5463,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5663,7 +5669,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q22">
         <v>2.4</v>
@@ -5869,7 +5875,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6281,7 +6287,7 @@
         <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6565,7 +6571,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ26">
         <v>0.8</v>
@@ -6693,7 +6699,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6774,7 +6780,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ27">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR27">
         <v>1.97</v>
@@ -6899,7 +6905,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7105,7 +7111,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q29">
         <v>4.33</v>
@@ -7929,7 +7935,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8135,7 +8141,7 @@
         <v>89</v>
       </c>
       <c r="P34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8341,7 +8347,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8547,7 +8553,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q36">
         <v>2.1</v>
@@ -8753,7 +8759,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q37">
         <v>2.2</v>
@@ -9165,7 +9171,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9371,7 +9377,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9655,10 +9661,10 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ41">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR41">
         <v>1.23</v>
@@ -9783,7 +9789,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10195,7 +10201,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q44">
         <v>2.4</v>
@@ -10401,7 +10407,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q45">
         <v>2.2</v>
@@ -10482,7 +10488,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ45">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR45">
         <v>1.79</v>
@@ -10685,7 +10691,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ46">
         <v>0.73</v>
@@ -11019,7 +11025,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11843,7 +11849,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12255,7 +12261,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12461,7 +12467,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12873,7 +12879,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -13079,7 +13085,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13285,7 +13291,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13572,7 +13578,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ60">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR60">
         <v>1.68</v>
@@ -13903,7 +13909,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -13981,7 +13987,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ62">
         <v>0.87</v>
@@ -14521,7 +14527,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14727,7 +14733,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14933,7 +14939,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -16250,7 +16256,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ73">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR73">
         <v>1.44</v>
@@ -16375,7 +16381,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16453,7 +16459,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ74">
         <v>1.8</v>
@@ -16787,7 +16793,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17199,7 +17205,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -18023,7 +18029,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q82">
         <v>2.88</v>
@@ -18435,7 +18441,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q84">
         <v>5.5</v>
@@ -18641,7 +18647,7 @@
         <v>119</v>
       </c>
       <c r="P85" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18719,7 +18725,7 @@
         <v>1.14</v>
       </c>
       <c r="AP85">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ85">
         <v>1.33</v>
@@ -18847,7 +18853,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -19053,7 +19059,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19134,7 +19140,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ87">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR87">
         <v>1.29</v>
@@ -19465,7 +19471,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19877,7 +19883,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20083,7 +20089,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20289,7 +20295,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q93">
         <v>2.4</v>
@@ -20495,7 +20501,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20701,7 +20707,7 @@
         <v>89</v>
       </c>
       <c r="P95" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -21319,7 +21325,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21525,7 +21531,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q99">
         <v>2.3</v>
@@ -21731,7 +21737,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -22555,7 +22561,7 @@
         <v>103</v>
       </c>
       <c r="P104" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22967,7 +22973,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q106">
         <v>1.67</v>
@@ -23048,7 +23054,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ106">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR106">
         <v>2.12</v>
@@ -23457,7 +23463,7 @@
         <v>0.78</v>
       </c>
       <c r="AP108">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ108">
         <v>0.8100000000000001</v>
@@ -23791,7 +23797,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -23997,7 +24003,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24203,7 +24209,7 @@
         <v>165</v>
       </c>
       <c r="P112" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q112">
         <v>4.53</v>
@@ -24821,7 +24827,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25027,7 +25033,7 @@
         <v>89</v>
       </c>
       <c r="P116" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25105,7 +25111,7 @@
         <v>1.78</v>
       </c>
       <c r="AP116">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ116">
         <v>1.8</v>
@@ -25233,7 +25239,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25645,7 +25651,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q119">
         <v>4.33</v>
@@ -25932,7 +25938,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ120">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR120">
         <v>1.3</v>
@@ -26057,7 +26063,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26263,7 +26269,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q122">
         <v>2.38</v>
@@ -26344,7 +26350,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ122">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR122">
         <v>1.49</v>
@@ -26469,7 +26475,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q123">
         <v>2.6</v>
@@ -26881,7 +26887,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q125">
         <v>5.5</v>
@@ -27087,7 +27093,7 @@
         <v>87</v>
       </c>
       <c r="P126" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27293,7 +27299,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27371,7 +27377,7 @@
         <v>0.9</v>
       </c>
       <c r="AP127">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ127">
         <v>0.8</v>
@@ -27499,7 +27505,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q128">
         <v>3.5</v>
@@ -27705,7 +27711,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q129">
         <v>5.5</v>
@@ -28117,7 +28123,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28735,7 +28741,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29022,7 +29028,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ135">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR135">
         <v>1.31</v>
@@ -29147,7 +29153,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29225,7 +29231,7 @@
         <v>0.73</v>
       </c>
       <c r="AP136">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ136">
         <v>0.8100000000000001</v>
@@ -29353,7 +29359,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29765,7 +29771,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -30177,7 +30183,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q141">
         <v>3.5</v>
@@ -30383,7 +30389,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q142">
         <v>3.5</v>
@@ -31207,7 +31213,7 @@
         <v>134</v>
       </c>
       <c r="P146" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31619,7 +31625,7 @@
         <v>89</v>
       </c>
       <c r="P148" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31697,7 +31703,7 @@
         <v>1.67</v>
       </c>
       <c r="AP148">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ148">
         <v>1.81</v>
@@ -31825,7 +31831,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32031,7 +32037,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32524,7 +32530,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ152">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR152">
         <v>1.69</v>
@@ -32855,7 +32861,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33061,7 +33067,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q155">
         <v>3.75</v>
@@ -33473,7 +33479,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q157">
         <v>3.5</v>
@@ -33885,7 +33891,7 @@
         <v>89</v>
       </c>
       <c r="P159" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q159">
         <v>3.4</v>
@@ -34091,7 +34097,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -34297,7 +34303,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q161">
         <v>2.4</v>
@@ -34503,7 +34509,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -34709,7 +34715,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -34915,7 +34921,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -34993,7 +34999,7 @@
         <v>0.77</v>
       </c>
       <c r="AP164">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ164">
         <v>0.8</v>
@@ -35408,7 +35414,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ166">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR166">
         <v>1.33</v>
@@ -35739,7 +35745,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q168">
         <v>3.75</v>
@@ -36151,7 +36157,7 @@
         <v>116</v>
       </c>
       <c r="P170" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q170">
         <v>2.88</v>
@@ -36357,7 +36363,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q171">
         <v>4.5</v>
@@ -36641,7 +36647,7 @@
         <v>0.79</v>
       </c>
       <c r="AP172">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ172">
         <v>0.73</v>
@@ -36975,7 +36981,7 @@
         <v>89</v>
       </c>
       <c r="P174" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q174">
         <v>2.75</v>
@@ -37387,7 +37393,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q176">
         <v>3.25</v>
@@ -37593,7 +37599,7 @@
         <v>209</v>
       </c>
       <c r="P177" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -37674,7 +37680,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ177">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR177">
         <v>1.4</v>
@@ -37799,7 +37805,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q178">
         <v>2.6</v>
@@ -38417,7 +38423,7 @@
         <v>175</v>
       </c>
       <c r="P181" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38985,6 +38991,212 @@
         <v>3.15</v>
       </c>
       <c r="BP183">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7859453</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45794.5</v>
+      </c>
+      <c r="F184">
+        <v>9</v>
+      </c>
+      <c r="G184" t="s">
+        <v>72</v>
+      </c>
+      <c r="H184" t="s">
+        <v>77</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>3</v>
+      </c>
+      <c r="M184">
+        <v>2</v>
+      </c>
+      <c r="N184">
+        <v>5</v>
+      </c>
+      <c r="O184" t="s">
+        <v>212</v>
+      </c>
+      <c r="P184" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q184">
+        <v>2.5</v>
+      </c>
+      <c r="R184">
+        <v>2.25</v>
+      </c>
+      <c r="S184">
+        <v>4.5</v>
+      </c>
+      <c r="T184">
+        <v>1.36</v>
+      </c>
+      <c r="U184">
+        <v>3</v>
+      </c>
+      <c r="V184">
+        <v>2.75</v>
+      </c>
+      <c r="W184">
+        <v>1.4</v>
+      </c>
+      <c r="X184">
+        <v>7</v>
+      </c>
+      <c r="Y184">
+        <v>1.1</v>
+      </c>
+      <c r="Z184">
+        <v>1.76</v>
+      </c>
+      <c r="AA184">
+        <v>3.28</v>
+      </c>
+      <c r="AB184">
+        <v>4</v>
+      </c>
+      <c r="AC184">
+        <v>1</v>
+      </c>
+      <c r="AD184">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE184">
+        <v>1.27</v>
+      </c>
+      <c r="AF184">
+        <v>3.7</v>
+      </c>
+      <c r="AG184">
+        <v>1.86</v>
+      </c>
+      <c r="AH184">
+        <v>1.84</v>
+      </c>
+      <c r="AI184">
+        <v>1.75</v>
+      </c>
+      <c r="AJ184">
+        <v>2</v>
+      </c>
+      <c r="AK184">
+        <v>1.2</v>
+      </c>
+      <c r="AL184">
+        <v>1.25</v>
+      </c>
+      <c r="AM184">
+        <v>1.93</v>
+      </c>
+      <c r="AN184">
+        <v>1.33</v>
+      </c>
+      <c r="AO184">
+        <v>0.93</v>
+      </c>
+      <c r="AP184">
+        <v>1.44</v>
+      </c>
+      <c r="AQ184">
+        <v>0.88</v>
+      </c>
+      <c r="AR184">
+        <v>1.23</v>
+      </c>
+      <c r="AS184">
+        <v>1.16</v>
+      </c>
+      <c r="AT184">
+        <v>2.39</v>
+      </c>
+      <c r="AU184">
+        <v>8</v>
+      </c>
+      <c r="AV184">
+        <v>5</v>
+      </c>
+      <c r="AW184">
+        <v>5</v>
+      </c>
+      <c r="AX184">
+        <v>2</v>
+      </c>
+      <c r="AY184">
+        <v>14</v>
+      </c>
+      <c r="AZ184">
+        <v>8</v>
+      </c>
+      <c r="BA184">
+        <v>6</v>
+      </c>
+      <c r="BB184">
+        <v>6</v>
+      </c>
+      <c r="BC184">
+        <v>12</v>
+      </c>
+      <c r="BD184">
+        <v>1.58</v>
+      </c>
+      <c r="BE184">
+        <v>6.5</v>
+      </c>
+      <c r="BF184">
+        <v>2.65</v>
+      </c>
+      <c r="BG184">
+        <v>1.33</v>
+      </c>
+      <c r="BH184">
+        <v>2.95</v>
+      </c>
+      <c r="BI184">
+        <v>1.57</v>
+      </c>
+      <c r="BJ184">
+        <v>2.23</v>
+      </c>
+      <c r="BK184">
+        <v>1.95</v>
+      </c>
+      <c r="BL184">
+        <v>1.85</v>
+      </c>
+      <c r="BM184">
+        <v>2.4</v>
+      </c>
+      <c r="BN184">
+        <v>1.49</v>
+      </c>
+      <c r="BO184">
+        <v>3.15</v>
+      </c>
+      <c r="BP184">
         <v>1.3</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="308">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -655,6 +655,9 @@
     <t>['71', '83', '90+3']</t>
   </si>
   <si>
+    <t>['21', '41', '78']</t>
+  </si>
+  <si>
     <t>['4', '6', '45+2']</t>
   </si>
   <si>
@@ -929,6 +932,12 @@
   </si>
   <si>
     <t>['27', '89']</t>
+  </si>
+  <si>
+    <t>['46', '50']</t>
+  </si>
+  <si>
+    <t>['79', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP184"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1549,7 +1558,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1630,7 +1639,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1755,7 +1764,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1961,7 +1970,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2245,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ5">
         <v>0.8100000000000001</v>
@@ -2451,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2657,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2785,7 +2794,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -3197,7 +3206,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -4021,7 +4030,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q14">
         <v>3.1</v>
@@ -4227,7 +4236,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4308,7 +4317,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ15">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR15">
         <v>0.52</v>
@@ -4433,7 +4442,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -4514,7 +4523,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR16">
         <v>1.73</v>
@@ -4720,7 +4729,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ17">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR17">
         <v>1.09</v>
@@ -4923,7 +4932,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>0.88</v>
@@ -5257,7 +5266,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5463,7 +5472,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5669,7 +5678,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q22">
         <v>2.4</v>
@@ -5747,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ22">
         <v>0.8</v>
@@ -5875,7 +5884,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6159,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>0.8</v>
@@ -6287,7 +6296,7 @@
         <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6699,7 +6708,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6905,7 +6914,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7111,7 +7120,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q29">
         <v>4.33</v>
@@ -7189,10 +7198,10 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR29">
         <v>1.88</v>
@@ -7398,7 +7407,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ30">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR30">
         <v>1.18</v>
@@ -7601,7 +7610,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ31">
         <v>0.8</v>
@@ -7807,7 +7816,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>1.81</v>
@@ -7935,7 +7944,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8141,7 +8150,7 @@
         <v>89</v>
       </c>
       <c r="P34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8347,7 +8356,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8553,7 +8562,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q36">
         <v>2.1</v>
@@ -8759,7 +8768,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q37">
         <v>2.2</v>
@@ -9046,7 +9055,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR38">
         <v>1</v>
@@ -9171,7 +9180,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9249,10 +9258,10 @@
         <v>0.67</v>
       </c>
       <c r="AP39">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR39">
         <v>1.72</v>
@@ -9377,7 +9386,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9458,7 +9467,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ40">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR40">
         <v>1.88</v>
@@ -9789,7 +9798,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9867,10 +9876,10 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR42">
         <v>1.32</v>
@@ -10076,7 +10085,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ43">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR43">
         <v>2.5</v>
@@ -10201,7 +10210,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q44">
         <v>2.4</v>
@@ -10279,7 +10288,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>1.81</v>
@@ -10407,7 +10416,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q45">
         <v>2.2</v>
@@ -10485,7 +10494,7 @@
         <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ45">
         <v>0.88</v>
@@ -11025,7 +11034,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11103,7 +11112,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ48">
         <v>1.2</v>
@@ -11849,7 +11858,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12136,7 +12145,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR53">
         <v>1.83</v>
@@ -12261,7 +12270,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12339,7 +12348,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54">
         <v>1.8</v>
@@ -12467,7 +12476,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12879,7 +12888,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12960,7 +12969,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ57">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR57">
         <v>1.44</v>
@@ -13085,7 +13094,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13291,7 +13300,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13369,7 +13378,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ59">
         <v>1.2</v>
@@ -13909,7 +13918,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14193,10 +14202,10 @@
         <v>1.4</v>
       </c>
       <c r="AP63">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ63">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR63">
         <v>1.65</v>
@@ -14527,7 +14536,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14608,7 +14617,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ65">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -14733,7 +14742,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14939,7 +14948,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -16047,10 +16056,10 @@
         <v>0.83</v>
       </c>
       <c r="AP72">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ72">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR72">
         <v>1.52</v>
@@ -16381,7 +16390,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16462,7 +16471,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ74">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR74">
         <v>1.16</v>
@@ -16665,10 +16674,10 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR75">
         <v>1.32</v>
@@ -16793,7 +16802,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17077,7 +17086,7 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
         <v>0.8100000000000001</v>
@@ -17205,7 +17214,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -17901,7 +17910,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ81">
         <v>0.73</v>
@@ -18029,7 +18038,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q82">
         <v>2.88</v>
@@ -18107,7 +18116,7 @@
         <v>0.43</v>
       </c>
       <c r="AP82">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ82">
         <v>0.8</v>
@@ -18441,7 +18450,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q84">
         <v>5.5</v>
@@ -18522,7 +18531,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ84">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR84">
         <v>1.26</v>
@@ -18647,7 +18656,7 @@
         <v>119</v>
       </c>
       <c r="P85" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18728,7 +18737,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ85">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR85">
         <v>1.2</v>
@@ -18853,7 +18862,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -19059,7 +19068,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19343,7 +19352,7 @@
         <v>0.71</v>
       </c>
       <c r="AP88">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
         <v>0.87</v>
@@ -19471,7 +19480,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19552,7 +19561,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ89">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR89">
         <v>1.4</v>
@@ -19883,7 +19892,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -19961,7 +19970,7 @@
         <v>1.86</v>
       </c>
       <c r="AP91">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ91">
         <v>1.81</v>
@@ -20089,7 +20098,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20170,7 +20179,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR92">
         <v>0.89</v>
@@ -20295,7 +20304,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q93">
         <v>2.4</v>
@@ -20501,7 +20510,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20579,7 +20588,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ94">
         <v>0.8100000000000001</v>
@@ -20707,7 +20716,7 @@
         <v>89</v>
       </c>
       <c r="P95" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -21325,7 +21334,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21406,7 +21415,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ98">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR98">
         <v>1.71</v>
@@ -21531,7 +21540,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q99">
         <v>2.3</v>
@@ -21609,7 +21618,7 @@
         <v>1.71</v>
       </c>
       <c r="AP99">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
         <v>1.8</v>
@@ -21737,7 +21746,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -22024,7 +22033,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ101">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR101">
         <v>1.37</v>
@@ -22561,7 +22570,7 @@
         <v>103</v>
       </c>
       <c r="P104" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22639,7 +22648,7 @@
         <v>0.5</v>
       </c>
       <c r="AP104">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ104">
         <v>0.73</v>
@@ -22845,10 +22854,10 @@
         <v>2.13</v>
       </c>
       <c r="AP105">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ105">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR105">
         <v>1.48</v>
@@ -22973,7 +22982,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q106">
         <v>1.67</v>
@@ -23797,7 +23806,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -23878,7 +23887,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ110">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR110">
         <v>1.61</v>
@@ -24003,7 +24012,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24209,7 +24218,7 @@
         <v>165</v>
       </c>
       <c r="P112" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q112">
         <v>4.53</v>
@@ -24827,7 +24836,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25033,7 +25042,7 @@
         <v>89</v>
       </c>
       <c r="P116" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25239,7 +25248,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25320,7 +25329,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ117">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR117">
         <v>1.34</v>
@@ -25523,7 +25532,7 @@
         <v>0.78</v>
       </c>
       <c r="AP118">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ118">
         <v>0.73</v>
@@ -25651,7 +25660,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q119">
         <v>4.33</v>
@@ -25935,7 +25944,7 @@
         <v>1.11</v>
       </c>
       <c r="AP120">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
         <v>0.88</v>
@@ -26063,7 +26072,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26144,7 +26153,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ121">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR121">
         <v>2.18</v>
@@ -26269,7 +26278,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q122">
         <v>2.38</v>
@@ -26475,7 +26484,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q123">
         <v>2.6</v>
@@ -26553,7 +26562,7 @@
         <v>0.9</v>
       </c>
       <c r="AP123">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ123">
         <v>0.87</v>
@@ -26887,7 +26896,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q125">
         <v>5.5</v>
@@ -26968,7 +26977,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ125">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR125">
         <v>1.29</v>
@@ -27093,7 +27102,7 @@
         <v>87</v>
       </c>
       <c r="P126" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -27174,7 +27183,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ126">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR126">
         <v>1.33</v>
@@ -27299,7 +27308,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27505,7 +27514,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q128">
         <v>3.5</v>
@@ -27711,7 +27720,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q129">
         <v>5.5</v>
@@ -27792,7 +27801,7 @@
         <v>1</v>
       </c>
       <c r="AQ129">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR129">
         <v>1.05</v>
@@ -27995,7 +28004,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ130">
         <v>1.2</v>
@@ -28123,7 +28132,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28613,7 +28622,7 @@
         <v>0.9</v>
       </c>
       <c r="AP133">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ133">
         <v>0.8</v>
@@ -28741,7 +28750,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -29153,7 +29162,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29359,7 +29368,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29437,10 +29446,10 @@
         <v>1.64</v>
       </c>
       <c r="AP137">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ137">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR137">
         <v>1.48</v>
@@ -29643,10 +29652,10 @@
         <v>1.82</v>
       </c>
       <c r="AP138">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ138">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR138">
         <v>1.54</v>
@@ -29771,7 +29780,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -29849,10 +29858,10 @@
         <v>1.27</v>
       </c>
       <c r="AP139">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ139">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR139">
         <v>1.73</v>
@@ -30183,7 +30192,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q141">
         <v>3.5</v>
@@ -30389,7 +30398,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q142">
         <v>3.5</v>
@@ -31213,7 +31222,7 @@
         <v>134</v>
       </c>
       <c r="P146" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31291,7 +31300,7 @@
         <v>1.67</v>
       </c>
       <c r="AP146">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ146">
         <v>1.8</v>
@@ -31625,7 +31634,7 @@
         <v>89</v>
       </c>
       <c r="P148" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31831,7 +31840,7 @@
         <v>188</v>
       </c>
       <c r="P149" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32037,7 +32046,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32118,7 +32127,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ150">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR150">
         <v>2.15</v>
@@ -32321,10 +32330,10 @@
         <v>1.75</v>
       </c>
       <c r="AP151">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ151">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR151">
         <v>1.69</v>
@@ -32861,7 +32870,7 @@
         <v>192</v>
       </c>
       <c r="P154" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33067,7 +33076,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q155">
         <v>3.75</v>
@@ -33145,7 +33154,7 @@
         <v>0.75</v>
       </c>
       <c r="AP155">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ155">
         <v>0.8</v>
@@ -33479,7 +33488,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q157">
         <v>3.5</v>
@@ -33560,7 +33569,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ157">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR157">
         <v>1.69</v>
@@ -33891,7 +33900,7 @@
         <v>89</v>
       </c>
       <c r="P159" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q159">
         <v>3.4</v>
@@ -34097,7 +34106,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -34303,7 +34312,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q161">
         <v>2.4</v>
@@ -34509,7 +34518,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -34587,7 +34596,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP162">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ162">
         <v>0.8</v>
@@ -34715,7 +34724,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -34796,7 +34805,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ163">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR163">
         <v>1.71</v>
@@ -34921,7 +34930,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35617,7 +35626,7 @@
         <v>0.92</v>
       </c>
       <c r="AP167">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ167">
         <v>0.87</v>
@@ -35745,7 +35754,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q168">
         <v>3.75</v>
@@ -35823,10 +35832,10 @@
         <v>1.54</v>
       </c>
       <c r="AP168">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ168">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR168">
         <v>1.62</v>
@@ -36032,7 +36041,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ169">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR169">
         <v>1.74</v>
@@ -36157,7 +36166,7 @@
         <v>116</v>
       </c>
       <c r="P170" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q170">
         <v>2.88</v>
@@ -36363,7 +36372,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q171">
         <v>4.5</v>
@@ -36853,10 +36862,10 @@
         <v>1.71</v>
       </c>
       <c r="AP173">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ173">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR173">
         <v>1.44</v>
@@ -36981,7 +36990,7 @@
         <v>89</v>
       </c>
       <c r="P174" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q174">
         <v>2.75</v>
@@ -37059,7 +37068,7 @@
         <v>1.71</v>
       </c>
       <c r="AP174">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ174">
         <v>1.8</v>
@@ -37268,7 +37277,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ175">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR175">
         <v>2.16</v>
@@ -37393,7 +37402,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q176">
         <v>3.25</v>
@@ -37474,7 +37483,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ176">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR176">
         <v>1.75</v>
@@ -37599,7 +37608,7 @@
         <v>209</v>
       </c>
       <c r="P177" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -37805,7 +37814,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q178">
         <v>2.6</v>
@@ -38295,7 +38304,7 @@
         <v>0.93</v>
       </c>
       <c r="AP180">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ180">
         <v>0.87</v>
@@ -38423,7 +38432,7 @@
         <v>175</v>
       </c>
       <c r="P181" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -39041,7 +39050,7 @@
         <v>212</v>
       </c>
       <c r="P184" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39198,6 +39207,624 @@
       </c>
       <c r="BP184">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7859455</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45795.5</v>
+      </c>
+      <c r="F185">
+        <v>9</v>
+      </c>
+      <c r="G185" t="s">
+        <v>74</v>
+      </c>
+      <c r="H185" t="s">
+        <v>81</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>4</v>
+      </c>
+      <c r="O185" t="s">
+        <v>213</v>
+      </c>
+      <c r="P185" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q185">
+        <v>3.4</v>
+      </c>
+      <c r="R185">
+        <v>2.3</v>
+      </c>
+      <c r="S185">
+        <v>2.88</v>
+      </c>
+      <c r="T185">
+        <v>1.3</v>
+      </c>
+      <c r="U185">
+        <v>3.4</v>
+      </c>
+      <c r="V185">
+        <v>2.5</v>
+      </c>
+      <c r="W185">
+        <v>1.5</v>
+      </c>
+      <c r="X185">
+        <v>6</v>
+      </c>
+      <c r="Y185">
+        <v>1.13</v>
+      </c>
+      <c r="Z185">
+        <v>2.77</v>
+      </c>
+      <c r="AA185">
+        <v>3.37</v>
+      </c>
+      <c r="AB185">
+        <v>2.17</v>
+      </c>
+      <c r="AC185">
+        <v>1.04</v>
+      </c>
+      <c r="AD185">
+        <v>10</v>
+      </c>
+      <c r="AE185">
+        <v>1.22</v>
+      </c>
+      <c r="AF185">
+        <v>4.2</v>
+      </c>
+      <c r="AG185">
+        <v>1.65</v>
+      </c>
+      <c r="AH185">
+        <v>2.05</v>
+      </c>
+      <c r="AI185">
+        <v>1.57</v>
+      </c>
+      <c r="AJ185">
+        <v>2.25</v>
+      </c>
+      <c r="AK185">
+        <v>1.62</v>
+      </c>
+      <c r="AL185">
+        <v>1.22</v>
+      </c>
+      <c r="AM185">
+        <v>1.38</v>
+      </c>
+      <c r="AN185">
+        <v>1.93</v>
+      </c>
+      <c r="AO185">
+        <v>1.8</v>
+      </c>
+      <c r="AP185">
+        <v>2</v>
+      </c>
+      <c r="AQ185">
+        <v>1.69</v>
+      </c>
+      <c r="AR185">
+        <v>1.7</v>
+      </c>
+      <c r="AS185">
+        <v>1.4</v>
+      </c>
+      <c r="AT185">
+        <v>3.1</v>
+      </c>
+      <c r="AU185">
+        <v>8</v>
+      </c>
+      <c r="AV185">
+        <v>5</v>
+      </c>
+      <c r="AW185">
+        <v>12</v>
+      </c>
+      <c r="AX185">
+        <v>7</v>
+      </c>
+      <c r="AY185">
+        <v>26</v>
+      </c>
+      <c r="AZ185">
+        <v>16</v>
+      </c>
+      <c r="BA185">
+        <v>4</v>
+      </c>
+      <c r="BB185">
+        <v>4</v>
+      </c>
+      <c r="BC185">
+        <v>8</v>
+      </c>
+      <c r="BD185">
+        <v>1.98</v>
+      </c>
+      <c r="BE185">
+        <v>6.4</v>
+      </c>
+      <c r="BF185">
+        <v>1.98</v>
+      </c>
+      <c r="BG185">
+        <v>1.26</v>
+      </c>
+      <c r="BH185">
+        <v>3.4</v>
+      </c>
+      <c r="BI185">
+        <v>1.47</v>
+      </c>
+      <c r="BJ185">
+        <v>2.48</v>
+      </c>
+      <c r="BK185">
+        <v>1.75</v>
+      </c>
+      <c r="BL185">
+        <v>1.95</v>
+      </c>
+      <c r="BM185">
+        <v>2.17</v>
+      </c>
+      <c r="BN185">
+        <v>1.6</v>
+      </c>
+      <c r="BO185">
+        <v>2.7</v>
+      </c>
+      <c r="BP185">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7859454</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45795.5</v>
+      </c>
+      <c r="F186">
+        <v>9</v>
+      </c>
+      <c r="G186" t="s">
+        <v>73</v>
+      </c>
+      <c r="H186" t="s">
+        <v>80</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>2</v>
+      </c>
+      <c r="N186">
+        <v>3</v>
+      </c>
+      <c r="O186" t="s">
+        <v>144</v>
+      </c>
+      <c r="P186" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q186">
+        <v>3.1</v>
+      </c>
+      <c r="R186">
+        <v>2.1</v>
+      </c>
+      <c r="S186">
+        <v>3.4</v>
+      </c>
+      <c r="T186">
+        <v>1.4</v>
+      </c>
+      <c r="U186">
+        <v>2.75</v>
+      </c>
+      <c r="V186">
+        <v>3</v>
+      </c>
+      <c r="W186">
+        <v>1.36</v>
+      </c>
+      <c r="X186">
+        <v>8</v>
+      </c>
+      <c r="Y186">
+        <v>1.08</v>
+      </c>
+      <c r="Z186">
+        <v>2.19</v>
+      </c>
+      <c r="AA186">
+        <v>2.98</v>
+      </c>
+      <c r="AB186">
+        <v>3.05</v>
+      </c>
+      <c r="AC186">
+        <v>1.06</v>
+      </c>
+      <c r="AD186">
+        <v>8.5</v>
+      </c>
+      <c r="AE186">
+        <v>1.33</v>
+      </c>
+      <c r="AF186">
+        <v>3.25</v>
+      </c>
+      <c r="AG186">
+        <v>1.94</v>
+      </c>
+      <c r="AH186">
+        <v>1.76</v>
+      </c>
+      <c r="AI186">
+        <v>1.75</v>
+      </c>
+      <c r="AJ186">
+        <v>2</v>
+      </c>
+      <c r="AK186">
+        <v>1.42</v>
+      </c>
+      <c r="AL186">
+        <v>1.28</v>
+      </c>
+      <c r="AM186">
+        <v>1.5</v>
+      </c>
+      <c r="AN186">
+        <v>1.8</v>
+      </c>
+      <c r="AO186">
+        <v>1.6</v>
+      </c>
+      <c r="AP186">
+        <v>1.69</v>
+      </c>
+      <c r="AQ186">
+        <v>1.69</v>
+      </c>
+      <c r="AR186">
+        <v>1.58</v>
+      </c>
+      <c r="AS186">
+        <v>1.24</v>
+      </c>
+      <c r="AT186">
+        <v>2.82</v>
+      </c>
+      <c r="AU186">
+        <v>3</v>
+      </c>
+      <c r="AV186">
+        <v>6</v>
+      </c>
+      <c r="AW186">
+        <v>2</v>
+      </c>
+      <c r="AX186">
+        <v>5</v>
+      </c>
+      <c r="AY186">
+        <v>6</v>
+      </c>
+      <c r="AZ186">
+        <v>15</v>
+      </c>
+      <c r="BA186">
+        <v>8</v>
+      </c>
+      <c r="BB186">
+        <v>6</v>
+      </c>
+      <c r="BC186">
+        <v>14</v>
+      </c>
+      <c r="BD186">
+        <v>1.98</v>
+      </c>
+      <c r="BE186">
+        <v>6.4</v>
+      </c>
+      <c r="BF186">
+        <v>2</v>
+      </c>
+      <c r="BG186">
+        <v>1.34</v>
+      </c>
+      <c r="BH186">
+        <v>2.9</v>
+      </c>
+      <c r="BI186">
+        <v>1.58</v>
+      </c>
+      <c r="BJ186">
+        <v>2.2</v>
+      </c>
+      <c r="BK186">
+        <v>1.8</v>
+      </c>
+      <c r="BL186">
+        <v>2</v>
+      </c>
+      <c r="BM186">
+        <v>2.45</v>
+      </c>
+      <c r="BN186">
+        <v>1.48</v>
+      </c>
+      <c r="BO186">
+        <v>3.15</v>
+      </c>
+      <c r="BP186">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7859456</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45795.5</v>
+      </c>
+      <c r="F187">
+        <v>9</v>
+      </c>
+      <c r="G187" t="s">
+        <v>75</v>
+      </c>
+      <c r="H187" t="s">
+        <v>78</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>2</v>
+      </c>
+      <c r="N187">
+        <v>3</v>
+      </c>
+      <c r="O187" t="s">
+        <v>201</v>
+      </c>
+      <c r="P187" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q187">
+        <v>5.5</v>
+      </c>
+      <c r="R187">
+        <v>2.38</v>
+      </c>
+      <c r="S187">
+        <v>2.1</v>
+      </c>
+      <c r="T187">
+        <v>1.3</v>
+      </c>
+      <c r="U187">
+        <v>3.4</v>
+      </c>
+      <c r="V187">
+        <v>2.5</v>
+      </c>
+      <c r="W187">
+        <v>1.5</v>
+      </c>
+      <c r="X187">
+        <v>6</v>
+      </c>
+      <c r="Y187">
+        <v>1.13</v>
+      </c>
+      <c r="Z187">
+        <v>4.7</v>
+      </c>
+      <c r="AA187">
+        <v>3.93</v>
+      </c>
+      <c r="AB187">
+        <v>1.53</v>
+      </c>
+      <c r="AC187">
+        <v>1.01</v>
+      </c>
+      <c r="AD187">
+        <v>11</v>
+      </c>
+      <c r="AE187">
+        <v>1.19</v>
+      </c>
+      <c r="AF187">
+        <v>3.94</v>
+      </c>
+      <c r="AG187">
+        <v>1.65</v>
+      </c>
+      <c r="AH187">
+        <v>2.05</v>
+      </c>
+      <c r="AI187">
+        <v>1.75</v>
+      </c>
+      <c r="AJ187">
+        <v>2</v>
+      </c>
+      <c r="AK187">
+        <v>2.25</v>
+      </c>
+      <c r="AL187">
+        <v>1.25</v>
+      </c>
+      <c r="AM187">
+        <v>1.17</v>
+      </c>
+      <c r="AN187">
+        <v>1.6</v>
+      </c>
+      <c r="AO187">
+        <v>1.33</v>
+      </c>
+      <c r="AP187">
+        <v>1.5</v>
+      </c>
+      <c r="AQ187">
+        <v>1.44</v>
+      </c>
+      <c r="AR187">
+        <v>1.41</v>
+      </c>
+      <c r="AS187">
+        <v>1.61</v>
+      </c>
+      <c r="AT187">
+        <v>3.02</v>
+      </c>
+      <c r="AU187">
+        <v>4</v>
+      </c>
+      <c r="AV187">
+        <v>5</v>
+      </c>
+      <c r="AW187">
+        <v>8</v>
+      </c>
+      <c r="AX187">
+        <v>8</v>
+      </c>
+      <c r="AY187">
+        <v>15</v>
+      </c>
+      <c r="AZ187">
+        <v>15</v>
+      </c>
+      <c r="BA187">
+        <v>6</v>
+      </c>
+      <c r="BB187">
+        <v>9</v>
+      </c>
+      <c r="BC187">
+        <v>15</v>
+      </c>
+      <c r="BD187">
+        <v>2.9</v>
+      </c>
+      <c r="BE187">
+        <v>6.4</v>
+      </c>
+      <c r="BF187">
+        <v>1.5</v>
+      </c>
+      <c r="BG187">
+        <v>1.47</v>
+      </c>
+      <c r="BH187">
+        <v>2.48</v>
+      </c>
+      <c r="BI187">
+        <v>1.77</v>
+      </c>
+      <c r="BJ187">
+        <v>1.92</v>
+      </c>
+      <c r="BK187">
+        <v>2.23</v>
+      </c>
+      <c r="BL187">
+        <v>1.57</v>
+      </c>
+      <c r="BM187">
+        <v>2.85</v>
+      </c>
+      <c r="BN187">
+        <v>1.36</v>
+      </c>
+      <c r="BO187">
+        <v>3.8</v>
+      </c>
+      <c r="BP187">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -38596,7 +38596,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>7859452</v>
+        <v>7859451</v>
       </c>
       <c r="C182" t="s">
         <v>68</v>
@@ -38611,10 +38611,10 @@
         <v>9</v>
       </c>
       <c r="G182" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H182" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -38626,112 +38626,112 @@
         <v>0</v>
       </c>
       <c r="L182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M182">
         <v>0</v>
       </c>
       <c r="N182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O182" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="P182" t="s">
         <v>89</v>
       </c>
       <c r="Q182">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="R182">
         <v>2.25</v>
       </c>
       <c r="S182">
+        <v>5.5</v>
+      </c>
+      <c r="T182">
+        <v>1.36</v>
+      </c>
+      <c r="U182">
+        <v>3</v>
+      </c>
+      <c r="V182">
         <v>2.75</v>
       </c>
-      <c r="T182">
-        <v>1.33</v>
-      </c>
-      <c r="U182">
-        <v>3.25</v>
-      </c>
-      <c r="V182">
-        <v>2.63</v>
-      </c>
       <c r="W182">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X182">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y182">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z182">
-        <v>2.92</v>
+        <v>1.69</v>
       </c>
       <c r="AA182">
-        <v>3.45</v>
+        <v>3.41</v>
       </c>
       <c r="AB182">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="AC182">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="AD182">
-        <v>11.3</v>
+        <v>10.2</v>
       </c>
       <c r="AE182">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF182">
-        <v>3.89</v>
+        <v>3.63</v>
       </c>
       <c r="AG182">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="AH182">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AI182">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="AJ182">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AK182">
-        <v>1.65</v>
+        <v>1.15</v>
       </c>
       <c r="AL182">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM182">
-        <v>1.35</v>
+        <v>2.15</v>
       </c>
       <c r="AN182">
+        <v>0.87</v>
+      </c>
+      <c r="AO182">
         <v>0.8</v>
       </c>
-      <c r="AO182">
-        <v>1.93</v>
-      </c>
       <c r="AP182">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ182">
-        <v>1.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR182">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="AS182">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AT182">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="AU182">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV182">
         <v>4</v>
@@ -38743,58 +38743,58 @@
         <v>9</v>
       </c>
       <c r="AY182">
+        <v>10</v>
+      </c>
+      <c r="AZ182">
         <v>14</v>
-      </c>
-      <c r="AZ182">
-        <v>17</v>
       </c>
       <c r="BA182">
         <v>4</v>
       </c>
       <c r="BB182">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC182">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD182">
-        <v>2.18</v>
+        <v>1.47</v>
       </c>
       <c r="BE182">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF182">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="BG182">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="BH182">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="BI182">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="BJ182">
-        <v>2.23</v>
+        <v>2.08</v>
       </c>
       <c r="BK182">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BL182">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BM182">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="BN182">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="BO182">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="BP182">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="183" spans="1:68">
@@ -38802,7 +38802,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>7859453</v>
+        <v>7859452</v>
       </c>
       <c r="C183" t="s">
         <v>68</v>
@@ -38817,160 +38817,160 @@
         <v>9</v>
       </c>
       <c r="G183" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H183" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I183">
         <v>0</v>
       </c>
       <c r="J183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N183">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O183" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="P183" t="s">
-        <v>305</v>
+        <v>89</v>
       </c>
       <c r="Q183">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="R183">
         <v>2.25</v>
       </c>
       <c r="S183">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="T183">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U183">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V183">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W183">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X183">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y183">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z183">
+        <v>2.92</v>
+      </c>
+      <c r="AA183">
+        <v>3.45</v>
+      </c>
+      <c r="AB183">
+        <v>2.05</v>
+      </c>
+      <c r="AC183">
+        <v>1.01</v>
+      </c>
+      <c r="AD183">
+        <v>11.3</v>
+      </c>
+      <c r="AE183">
+        <v>1.25</v>
+      </c>
+      <c r="AF183">
+        <v>3.89</v>
+      </c>
+      <c r="AG183">
         <v>1.76</v>
       </c>
-      <c r="AA183">
-        <v>3.28</v>
-      </c>
-      <c r="AB183">
-        <v>4</v>
-      </c>
-      <c r="AC183">
-        <v>1</v>
-      </c>
-      <c r="AD183">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AE183">
-        <v>1.27</v>
-      </c>
-      <c r="AF183">
-        <v>3.7</v>
-      </c>
-      <c r="AG183">
-        <v>1.86</v>
-      </c>
       <c r="AH183">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AI183">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AJ183">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AK183">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="AL183">
         <v>1.25</v>
       </c>
       <c r="AM183">
+        <v>1.35</v>
+      </c>
+      <c r="AN183">
+        <v>0.8</v>
+      </c>
+      <c r="AO183">
         <v>1.93</v>
       </c>
-      <c r="AN183">
-        <v>1.33</v>
-      </c>
-      <c r="AO183">
-        <v>0.93</v>
-      </c>
       <c r="AP183">
-        <v>1.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ183">
-        <v>0.88</v>
+        <v>1.81</v>
       </c>
       <c r="AR183">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="AS183">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AT183">
-        <v>2.39</v>
+        <v>2.57</v>
       </c>
       <c r="AU183">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV183">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW183">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX183">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AY183">
         <v>14</v>
       </c>
       <c r="AZ183">
+        <v>17</v>
+      </c>
+      <c r="BA183">
+        <v>4</v>
+      </c>
+      <c r="BB183">
+        <v>4</v>
+      </c>
+      <c r="BC183">
         <v>8</v>
       </c>
-      <c r="BA183">
-        <v>6</v>
-      </c>
-      <c r="BB183">
-        <v>6</v>
-      </c>
-      <c r="BC183">
-        <v>12</v>
-      </c>
       <c r="BD183">
-        <v>1.58</v>
+        <v>2.18</v>
       </c>
       <c r="BE183">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF183">
-        <v>2.65</v>
+        <v>1.83</v>
       </c>
       <c r="BG183">
         <v>1.33</v>
@@ -38979,7 +38979,7 @@
         <v>2.95</v>
       </c>
       <c r="BI183">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="BJ183">
         <v>2.23</v>
@@ -38991,10 +38991,10 @@
         <v>1.85</v>
       </c>
       <c r="BM183">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="BN183">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="BO183">
         <v>3.15</v>
@@ -39008,7 +39008,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>7859451</v>
+        <v>7859453</v>
       </c>
       <c r="C184" t="s">
         <v>68</v>
@@ -39023,43 +39023,43 @@
         <v>9</v>
       </c>
       <c r="G184" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H184" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L184">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N184">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O184" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="P184" t="s">
-        <v>89</v>
+        <v>305</v>
       </c>
       <c r="Q184">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="R184">
         <v>2.25</v>
       </c>
       <c r="S184">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="T184">
         <v>1.36</v>
@@ -39080,133 +39080,133 @@
         <v>1.1</v>
       </c>
       <c r="Z184">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AA184">
-        <v>3.41</v>
+        <v>3.28</v>
       </c>
       <c r="AB184">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AC184">
         <v>1</v>
       </c>
       <c r="AD184">
-        <v>10.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AE184">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AF184">
-        <v>3.63</v>
+        <v>3.7</v>
       </c>
       <c r="AG184">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="AH184">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="AI184">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AJ184">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AK184">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AL184">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM184">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="AN184">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="AO184">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="AP184">
+        <v>1.44</v>
+      </c>
+      <c r="AQ184">
         <v>0.88</v>
       </c>
-      <c r="AQ184">
-        <v>0.8100000000000001</v>
-      </c>
       <c r="AR184">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="AS184">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AT184">
-        <v>2.56</v>
+        <v>2.39</v>
       </c>
       <c r="AU184">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV184">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW184">
+        <v>5</v>
+      </c>
+      <c r="AX184">
+        <v>2</v>
+      </c>
+      <c r="AY184">
+        <v>14</v>
+      </c>
+      <c r="AZ184">
+        <v>8</v>
+      </c>
+      <c r="BA184">
         <v>6</v>
       </c>
-      <c r="AX184">
-        <v>9</v>
-      </c>
-      <c r="AY184">
-        <v>10</v>
-      </c>
-      <c r="AZ184">
-        <v>14</v>
-      </c>
-      <c r="BA184">
-        <v>4</v>
-      </c>
       <c r="BB184">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC184">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD184">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="BE184">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF184">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="BG184">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="BH184">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="BI184">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="BJ184">
-        <v>2.08</v>
+        <v>2.23</v>
       </c>
       <c r="BK184">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BL184">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BM184">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="BN184">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="BO184">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="BP184">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="185" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="315">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -658,6 +658,18 @@
     <t>['21', '41', '78']</t>
   </si>
   <si>
+    <t>['33', '90']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['8', '11', '24', '56']</t>
+  </si>
+  <si>
+    <t>['21', '64']</t>
+  </si>
+  <si>
     <t>['4', '6', '45+2']</t>
   </si>
   <si>
@@ -758,9 +770,6 @@
   </si>
   <si>
     <t>['33', '84']</t>
-  </si>
-  <si>
-    <t>['45+1']</t>
   </si>
   <si>
     <t>['90']</t>
@@ -938,6 +947,18 @@
   </si>
   <si>
     <t>['79', '90+4']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['78', '90+2']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['19', '63']</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1558,7 +1579,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1764,7 +1785,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1970,7 +1991,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2794,7 +2815,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -2872,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ8">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3081,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3206,7 +3227,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -3284,10 +3305,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ10">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3490,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ11">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3696,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ12">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3902,10 +3923,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ13">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4030,7 +4051,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q14">
         <v>3.1</v>
@@ -4111,7 +4132,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ14">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR14">
         <v>1.07</v>
@@ -4236,7 +4257,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4314,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ15">
         <v>1.69</v>
@@ -4442,7 +4463,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -4520,7 +4541,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ16">
         <v>1.44</v>
@@ -4935,7 +4956,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ18">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -5266,7 +5287,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5472,7 +5493,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5550,10 +5571,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ21">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR21">
         <v>2.09</v>
@@ -5678,7 +5699,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5756,7 +5777,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ22">
         <v>1.81</v>
@@ -5965,7 +5986,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR23">
         <v>0.92</v>
@@ -6090,7 +6111,7 @@
         <v>101</v>
       </c>
       <c r="P24" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6171,7 +6192,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ24">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6296,7 +6317,7 @@
         <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6374,10 +6395,10 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ25">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR25">
         <v>0.84</v>
@@ -6583,7 +6604,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ26">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR26">
         <v>1.32</v>
@@ -6708,7 +6729,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6786,7 +6807,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ27">
         <v>0.88</v>
@@ -6914,7 +6935,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -6992,10 +7013,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ28">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR28">
         <v>1.52</v>
@@ -7120,7 +7141,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q29">
         <v>4.33</v>
@@ -7613,7 +7634,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ31">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR31">
         <v>1.82</v>
@@ -7944,7 +7965,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8025,7 +8046,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ33">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR33">
         <v>1.22</v>
@@ -8150,7 +8171,7 @@
         <v>89</v>
       </c>
       <c r="P34" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8231,7 +8252,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ34">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR34">
         <v>1.26</v>
@@ -8356,7 +8377,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8434,10 +8455,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ35">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AR35">
         <v>1.2</v>
@@ -8562,7 +8583,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q36">
         <v>2.1</v>
@@ -8640,10 +8661,10 @@
         <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ36">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR36">
         <v>1.35</v>
@@ -8974,7 +8995,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9052,10 +9073,10 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ38">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR38">
         <v>1.97</v>
@@ -9180,7 +9201,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9386,7 +9407,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9464,7 +9485,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ40">
         <v>1.69</v>
@@ -9798,7 +9819,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -10004,7 +10025,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10288,7 +10309,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ44">
         <v>1.69</v>
@@ -10497,7 +10518,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ45">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR45">
         <v>1.2</v>
@@ -10622,7 +10643,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -11034,7 +11055,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11115,7 +11136,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ48">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AR48">
         <v>1.74</v>
@@ -11321,7 +11342,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR49">
         <v>0.98</v>
@@ -11524,10 +11545,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ50">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR50">
         <v>1.83</v>
@@ -11730,7 +11751,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ51">
         <v>0.8100000000000001</v>
@@ -11858,7 +11879,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11939,7 +11960,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ52">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR52">
         <v>1.2</v>
@@ -12142,7 +12163,7 @@
         <v>1.75</v>
       </c>
       <c r="AP53">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ53">
         <v>1.44</v>
@@ -12348,10 +12369,10 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ54">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR54">
         <v>2.36</v>
@@ -12476,7 +12497,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12554,10 +12575,10 @@
         <v>0.4</v>
       </c>
       <c r="AP55">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ55">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR55">
         <v>1.69</v>
@@ -12682,7 +12703,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q56">
         <v>3.2</v>
@@ -12763,7 +12784,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12888,7 +12909,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12966,7 +12987,7 @@
         <v>0.4</v>
       </c>
       <c r="AP57">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ57">
         <v>1.69</v>
@@ -13094,7 +13115,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13300,7 +13321,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13381,7 +13402,7 @@
         <v>2</v>
       </c>
       <c r="AQ59">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AR59">
         <v>1.71</v>
@@ -13506,7 +13527,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13587,7 +13608,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ60">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR60">
         <v>1.17</v>
@@ -13996,7 +14017,7 @@
         <v>1.2</v>
       </c>
       <c r="AP62">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ62">
         <v>0.88</v>
@@ -14205,7 +14226,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ63">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR63">
         <v>1.56</v>
@@ -14536,7 +14557,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14614,7 +14635,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ65">
         <v>1.69</v>
@@ -14820,10 +14841,10 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ66">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR66">
         <v>2.3</v>
@@ -14948,7 +14969,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15026,10 +15047,10 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ67">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AR67">
         <v>1.38</v>
@@ -15154,7 +15175,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15232,10 +15253,10 @@
         <v>1.2</v>
       </c>
       <c r="AP68">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ68">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR68">
         <v>1.79</v>
@@ -15438,10 +15459,10 @@
         <v>1.8</v>
       </c>
       <c r="AP69">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ69">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR69">
         <v>1.35</v>
@@ -15647,7 +15668,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR70">
         <v>0.89</v>
@@ -15850,10 +15871,10 @@
         <v>0.83</v>
       </c>
       <c r="AP71">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ71">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR71">
         <v>1.72</v>
@@ -16184,7 +16205,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16596,7 +16617,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -17295,7 +17316,7 @@
         <v>1</v>
       </c>
       <c r="AQ78">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR78">
         <v>0.96</v>
@@ -17420,7 +17441,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q79">
         <v>2.2</v>
@@ -17498,7 +17519,7 @@
         <v>1.67</v>
       </c>
       <c r="AP79">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ79">
         <v>1.81</v>
@@ -17704,7 +17725,7 @@
         <v>1.17</v>
       </c>
       <c r="AP80">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ80">
         <v>0.8100000000000001</v>
@@ -17913,7 +17934,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ81">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR81">
         <v>1.54</v>
@@ -18038,7 +18059,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q82">
         <v>2.88</v>
@@ -18119,7 +18140,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ82">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR82">
         <v>1.31</v>
@@ -18322,10 +18343,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ83">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AR83">
         <v>1.76</v>
@@ -18450,7 +18471,7 @@
         <v>120</v>
       </c>
       <c r="P84" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q84">
         <v>4.75</v>
@@ -18656,7 +18677,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q85">
         <v>3.4</v>
@@ -18737,7 +18758,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ85">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR85">
         <v>1.46</v>
@@ -18862,7 +18883,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -19068,7 +19089,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19146,7 +19167,7 @@
         <v>0.86</v>
       </c>
       <c r="AP87">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ87">
         <v>0.88</v>
@@ -19355,7 +19376,7 @@
         <v>2</v>
       </c>
       <c r="AQ88">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR88">
         <v>1.65</v>
@@ -19480,7 +19501,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19558,7 +19579,7 @@
         <v>1.14</v>
       </c>
       <c r="AP89">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ89">
         <v>1.69</v>
@@ -19764,10 +19785,10 @@
         <v>0.83</v>
       </c>
       <c r="AP90">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ90">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AR90">
         <v>2.08</v>
@@ -19892,7 +19913,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -20098,7 +20119,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q92">
         <v>2.4</v>
@@ -20176,10 +20197,10 @@
         <v>1.14</v>
       </c>
       <c r="AP92">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ92">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR92">
         <v>2.1</v>
@@ -20304,7 +20325,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -20510,7 +20531,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20716,7 +20737,7 @@
         <v>89</v>
       </c>
       <c r="P95" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20797,7 +20818,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ95">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AR95">
         <v>1.42</v>
@@ -21000,10 +21021,10 @@
         <v>0.57</v>
       </c>
       <c r="AP96">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ96">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR96">
         <v>1.72</v>
@@ -21206,7 +21227,7 @@
         <v>0.88</v>
       </c>
       <c r="AP97">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ97">
         <v>0.8100000000000001</v>
@@ -21334,7 +21355,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21412,7 +21433,7 @@
         <v>1.38</v>
       </c>
       <c r="AP98">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ98">
         <v>1.69</v>
@@ -21540,7 +21561,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q99">
         <v>2.3</v>
@@ -21621,7 +21642,7 @@
         <v>2</v>
       </c>
       <c r="AQ99">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR99">
         <v>1.69</v>
@@ -21746,7 +21767,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21827,7 +21848,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ100">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR100">
         <v>1.21</v>
@@ -22033,7 +22054,7 @@
         <v>1</v>
       </c>
       <c r="AQ101">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AR101">
         <v>0.9</v>
@@ -22236,7 +22257,7 @@
         <v>1.13</v>
       </c>
       <c r="AP102">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ102">
         <v>1.44</v>
@@ -22442,10 +22463,10 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ103">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR103">
         <v>1.4</v>
@@ -22570,7 +22591,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q104">
         <v>1.67</v>
@@ -22648,7 +22669,7 @@
         <v>1.13</v>
       </c>
       <c r="AP104">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ104">
         <v>0.88</v>
@@ -22982,7 +23003,7 @@
         <v>103</v>
       </c>
       <c r="P106" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q106">
         <v>2.75</v>
@@ -23063,7 +23084,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ106">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR106">
         <v>1.34</v>
@@ -23678,10 +23699,10 @@
         <v>1.13</v>
       </c>
       <c r="AP109">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ109">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR109">
         <v>1.67</v>
@@ -23806,7 +23827,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q110">
         <v>4.53</v>
@@ -23887,7 +23908,7 @@
         <v>1</v>
       </c>
       <c r="AQ110">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR110">
         <v>1.03</v>
@@ -24012,7 +24033,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24090,10 +24111,10 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ111">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR111">
         <v>1.32</v>
@@ -24218,7 +24239,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q112">
         <v>3.4</v>
@@ -24296,7 +24317,7 @@
         <v>1.11</v>
       </c>
       <c r="AP112">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ112">
         <v>1.44</v>
@@ -24502,10 +24523,10 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ113">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR113">
         <v>1.71</v>
@@ -24711,7 +24732,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ114">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AR114">
         <v>1.24</v>
@@ -24836,7 +24857,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24914,10 +24935,10 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ115">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR115">
         <v>1.44</v>
@@ -25123,7 +25144,7 @@
         <v>2</v>
       </c>
       <c r="AQ116">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR116">
         <v>1.66</v>
@@ -25248,7 +25269,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25454,7 +25475,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q118">
         <v>3.4</v>
@@ -25535,7 +25556,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ118">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR118">
         <v>1.19</v>
@@ -25660,7 +25681,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q119">
         <v>4.33</v>
@@ -25738,7 +25759,7 @@
         <v>1.56</v>
       </c>
       <c r="AP119">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ119">
         <v>1.81</v>
@@ -26072,7 +26093,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26150,7 +26171,7 @@
         <v>1.89</v>
       </c>
       <c r="AP121">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ121">
         <v>1.69</v>
@@ -26278,7 +26299,7 @@
         <v>87</v>
       </c>
       <c r="P122" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -26562,7 +26583,7 @@
         <v>0.8</v>
       </c>
       <c r="AP123">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ123">
         <v>0.8100000000000001</v>
@@ -26690,7 +26711,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q124">
         <v>5.5</v>
@@ -26896,7 +26917,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q125">
         <v>2.38</v>
@@ -26974,7 +26995,7 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ125">
         <v>0.88</v>
@@ -27102,7 +27123,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27183,7 +27204,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ126">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR126">
         <v>1.5</v>
@@ -27308,7 +27329,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27389,7 +27410,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ127">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR127">
         <v>1.17</v>
@@ -27592,10 +27613,10 @@
         <v>1.9</v>
       </c>
       <c r="AP128">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ128">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR128">
         <v>2.23</v>
@@ -27720,7 +27741,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -27798,7 +27819,7 @@
         <v>1.7</v>
       </c>
       <c r="AP129">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ129">
         <v>1.81</v>
@@ -27926,7 +27947,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q130">
         <v>3.5</v>
@@ -28004,10 +28025,10 @@
         <v>0.7</v>
       </c>
       <c r="AP130">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ130">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR130">
         <v>1.34</v>
@@ -28213,7 +28234,7 @@
         <v>2</v>
       </c>
       <c r="AQ131">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR131">
         <v>1.71</v>
@@ -28419,7 +28440,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ132">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AR132">
         <v>1.42</v>
@@ -28544,7 +28565,7 @@
         <v>89</v>
       </c>
       <c r="P133" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q133">
         <v>5.5</v>
@@ -28750,7 +28771,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28956,7 +28977,7 @@
         <v>182</v>
       </c>
       <c r="P135" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29574,7 +29595,7 @@
         <v>89</v>
       </c>
       <c r="P138" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29780,7 +29801,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -30064,10 +30085,10 @@
         <v>0.82</v>
       </c>
       <c r="AP140">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ140">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR140">
         <v>1.8</v>
@@ -30270,10 +30291,10 @@
         <v>0.82</v>
       </c>
       <c r="AP141">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ141">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR141">
         <v>1.65</v>
@@ -30398,7 +30419,7 @@
         <v>184</v>
       </c>
       <c r="P142" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q142">
         <v>3.5</v>
@@ -30476,10 +30497,10 @@
         <v>0.73</v>
       </c>
       <c r="AP142">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ142">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR142">
         <v>1.37</v>
@@ -30604,7 +30625,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q143">
         <v>3.5</v>
@@ -30685,7 +30706,7 @@
         <v>1</v>
       </c>
       <c r="AQ143">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AR143">
         <v>1.09</v>
@@ -30888,10 +30909,10 @@
         <v>1.09</v>
       </c>
       <c r="AP144">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ144">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR144">
         <v>2.17</v>
@@ -31094,10 +31115,10 @@
         <v>1.73</v>
       </c>
       <c r="AP145">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ145">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR145">
         <v>1.73</v>
@@ -31222,7 +31243,7 @@
         <v>134</v>
       </c>
       <c r="P146" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31303,7 +31324,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ146">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR146">
         <v>1.49</v>
@@ -31428,7 +31449,7 @@
         <v>89</v>
       </c>
       <c r="P147" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31634,7 +31655,7 @@
         <v>187</v>
       </c>
       <c r="P148" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -31921,7 +31942,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ149">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR149">
         <v>1.32</v>
@@ -32046,7 +32067,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32124,7 +32145,7 @@
         <v>1.75</v>
       </c>
       <c r="AP150">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ150">
         <v>1.69</v>
@@ -32536,7 +32557,7 @@
         <v>0.92</v>
       </c>
       <c r="AP152">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ152">
         <v>0.88</v>
@@ -32664,7 +32685,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -32745,7 +32766,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ153">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AR153">
         <v>1.31</v>
@@ -32948,10 +32969,10 @@
         <v>0.75</v>
       </c>
       <c r="AP154">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ154">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR154">
         <v>1.35</v>
@@ -33076,7 +33097,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q155">
         <v>3.75</v>
@@ -33157,7 +33178,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ155">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR155">
         <v>1.53</v>
@@ -33360,10 +33381,10 @@
         <v>1</v>
       </c>
       <c r="AP156">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ156">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR156">
         <v>1.75</v>
@@ -33488,7 +33509,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q157">
         <v>3.5</v>
@@ -33566,7 +33587,7 @@
         <v>1.42</v>
       </c>
       <c r="AP157">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ157">
         <v>1.44</v>
@@ -33694,7 +33715,7 @@
         <v>89</v>
       </c>
       <c r="P158" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q158">
         <v>3.4</v>
@@ -33775,7 +33796,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ158">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AR158">
         <v>1.32</v>
@@ -33981,7 +34002,7 @@
         <v>1</v>
       </c>
       <c r="AQ159">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR159">
         <v>1.17</v>
@@ -34106,7 +34127,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -34184,7 +34205,7 @@
         <v>1.77</v>
       </c>
       <c r="AP160">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ160">
         <v>1.81</v>
@@ -34312,7 +34333,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q161">
         <v>2.4</v>
@@ -34390,10 +34411,10 @@
         <v>1.77</v>
       </c>
       <c r="AP161">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ161">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR161">
         <v>2.14</v>
@@ -34518,7 +34539,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -34599,7 +34620,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ162">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR162">
         <v>1.45</v>
@@ -34724,7 +34745,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -34802,7 +34823,7 @@
         <v>1.85</v>
       </c>
       <c r="AP163">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ163">
         <v>1.69</v>
@@ -34930,7 +34951,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35011,7 +35032,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ164">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR164">
         <v>1.18</v>
@@ -35214,7 +35235,7 @@
         <v>0.85</v>
       </c>
       <c r="AP165">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ165">
         <v>0.8100000000000001</v>
@@ -35548,7 +35569,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35835,7 +35856,7 @@
         <v>2</v>
       </c>
       <c r="AQ168">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR168">
         <v>1.71</v>
@@ -36038,7 +36059,7 @@
         <v>1.62</v>
       </c>
       <c r="AP169">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ169">
         <v>1.69</v>
@@ -36166,7 +36187,7 @@
         <v>117</v>
       </c>
       <c r="P170" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q170">
         <v>2.88</v>
@@ -36372,7 +36393,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q171">
         <v>4.5</v>
@@ -36578,7 +36599,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q172">
         <v>2.75</v>
@@ -36659,7 +36680,7 @@
         <v>2</v>
       </c>
       <c r="AQ172">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR172">
         <v>1.71</v>
@@ -36865,7 +36886,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ173">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR173">
         <v>1.22</v>
@@ -37274,7 +37295,7 @@
         <v>1.71</v>
       </c>
       <c r="AP175">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ175">
         <v>1.69</v>
@@ -37402,7 +37423,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q176">
         <v>3.25</v>
@@ -37480,7 +37501,7 @@
         <v>1.43</v>
       </c>
       <c r="AP176">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ176">
         <v>1.44</v>
@@ -37608,7 +37629,7 @@
         <v>209</v>
       </c>
       <c r="P177" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q177">
         <v>2.6</v>
@@ -37689,7 +37710,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ177">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR177">
         <v>1.37</v>
@@ -37892,10 +37913,10 @@
         <v>1.21</v>
       </c>
       <c r="AP178">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ178">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AR178">
         <v>1.87</v>
@@ -38020,7 +38041,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38098,7 +38119,7 @@
         <v>0.79</v>
       </c>
       <c r="AP179">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ179">
         <v>0.88</v>
@@ -38307,7 +38328,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ180">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR180">
         <v>1.62</v>
@@ -38432,7 +38453,7 @@
         <v>173</v>
       </c>
       <c r="P181" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38510,10 +38531,10 @@
         <v>0.64</v>
       </c>
       <c r="AP181">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ181">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR181">
         <v>1.7</v>
@@ -39050,7 +39071,7 @@
         <v>212</v>
       </c>
       <c r="P184" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39256,7 +39277,7 @@
         <v>144</v>
       </c>
       <c r="P185" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q185">
         <v>3.1</v>
@@ -39462,7 +39483,7 @@
         <v>213</v>
       </c>
       <c r="P186" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q186">
         <v>3.4</v>
@@ -39668,7 +39689,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q187">
         <v>5.5</v>
@@ -39825,6 +39846,1448 @@
       </c>
       <c r="BP187">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7859458</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45800.60416666666</v>
+      </c>
+      <c r="F188">
+        <v>10</v>
+      </c>
+      <c r="G188" t="s">
+        <v>79</v>
+      </c>
+      <c r="H188" t="s">
+        <v>72</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188" t="s">
+        <v>89</v>
+      </c>
+      <c r="P188" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q188">
+        <v>2.05</v>
+      </c>
+      <c r="R188">
+        <v>2.35</v>
+      </c>
+      <c r="S188">
+        <v>4.75</v>
+      </c>
+      <c r="T188">
+        <v>1.3</v>
+      </c>
+      <c r="U188">
+        <v>3.2</v>
+      </c>
+      <c r="V188">
+        <v>2.45</v>
+      </c>
+      <c r="W188">
+        <v>1.48</v>
+      </c>
+      <c r="X188">
+        <v>5.55</v>
+      </c>
+      <c r="Y188">
+        <v>1.08</v>
+      </c>
+      <c r="Z188">
+        <v>2.47</v>
+      </c>
+      <c r="AA188">
+        <v>3.19</v>
+      </c>
+      <c r="AB188">
+        <v>2.49</v>
+      </c>
+      <c r="AC188">
+        <v>1.04</v>
+      </c>
+      <c r="AD188">
+        <v>10</v>
+      </c>
+      <c r="AE188">
+        <v>1.22</v>
+      </c>
+      <c r="AF188">
+        <v>4.2</v>
+      </c>
+      <c r="AG188">
+        <v>1.87</v>
+      </c>
+      <c r="AH188">
+        <v>1.83</v>
+      </c>
+      <c r="AI188">
+        <v>1.73</v>
+      </c>
+      <c r="AJ188">
+        <v>1.95</v>
+      </c>
+      <c r="AK188">
+        <v>1.17</v>
+      </c>
+      <c r="AL188">
+        <v>1.17</v>
+      </c>
+      <c r="AM188">
+        <v>2.25</v>
+      </c>
+      <c r="AN188">
+        <v>0.93</v>
+      </c>
+      <c r="AO188">
+        <v>1.2</v>
+      </c>
+      <c r="AP188">
+        <v>0.88</v>
+      </c>
+      <c r="AQ188">
+        <v>1.24</v>
+      </c>
+      <c r="AR188">
+        <v>1.42</v>
+      </c>
+      <c r="AS188">
+        <v>1.23</v>
+      </c>
+      <c r="AT188">
+        <v>2.65</v>
+      </c>
+      <c r="AU188">
+        <v>4</v>
+      </c>
+      <c r="AV188">
+        <v>4</v>
+      </c>
+      <c r="AW188">
+        <v>10</v>
+      </c>
+      <c r="AX188">
+        <v>6</v>
+      </c>
+      <c r="AY188">
+        <v>14</v>
+      </c>
+      <c r="AZ188">
+        <v>11</v>
+      </c>
+      <c r="BA188">
+        <v>5</v>
+      </c>
+      <c r="BB188">
+        <v>4</v>
+      </c>
+      <c r="BC188">
+        <v>9</v>
+      </c>
+      <c r="BD188">
+        <v>1.48</v>
+      </c>
+      <c r="BE188">
+        <v>6.75</v>
+      </c>
+      <c r="BF188">
+        <v>2.9</v>
+      </c>
+      <c r="BG188">
+        <v>1.34</v>
+      </c>
+      <c r="BH188">
+        <v>2.9</v>
+      </c>
+      <c r="BI188">
+        <v>1.58</v>
+      </c>
+      <c r="BJ188">
+        <v>2.18</v>
+      </c>
+      <c r="BK188">
+        <v>1.94</v>
+      </c>
+      <c r="BL188">
+        <v>1.76</v>
+      </c>
+      <c r="BM188">
+        <v>2.43</v>
+      </c>
+      <c r="BN188">
+        <v>1.48</v>
+      </c>
+      <c r="BO188">
+        <v>3.15</v>
+      </c>
+      <c r="BP188">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7859459</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45800.60416666666</v>
+      </c>
+      <c r="F189">
+        <v>10</v>
+      </c>
+      <c r="G189" t="s">
+        <v>77</v>
+      </c>
+      <c r="H189" t="s">
+        <v>70</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>2</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>2</v>
+      </c>
+      <c r="O189" t="s">
+        <v>86</v>
+      </c>
+      <c r="P189" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q189">
+        <v>3</v>
+      </c>
+      <c r="R189">
+        <v>2.05</v>
+      </c>
+      <c r="S189">
+        <v>3.35</v>
+      </c>
+      <c r="T189">
+        <v>1.38</v>
+      </c>
+      <c r="U189">
+        <v>2.8</v>
+      </c>
+      <c r="V189">
+        <v>2.75</v>
+      </c>
+      <c r="W189">
+        <v>1.4</v>
+      </c>
+      <c r="X189">
+        <v>6.15</v>
+      </c>
+      <c r="Y189">
+        <v>1.06</v>
+      </c>
+      <c r="Z189">
+        <v>2.61</v>
+      </c>
+      <c r="AA189">
+        <v>2.94</v>
+      </c>
+      <c r="AB189">
+        <v>2.52</v>
+      </c>
+      <c r="AC189">
+        <v>1.08</v>
+      </c>
+      <c r="AD189">
+        <v>7.5</v>
+      </c>
+      <c r="AE189">
+        <v>1.33</v>
+      </c>
+      <c r="AF189">
+        <v>3.25</v>
+      </c>
+      <c r="AG189">
+        <v>2.02</v>
+      </c>
+      <c r="AH189">
+        <v>1.7</v>
+      </c>
+      <c r="AI189">
+        <v>1.67</v>
+      </c>
+      <c r="AJ189">
+        <v>2.05</v>
+      </c>
+      <c r="AK189">
+        <v>1.35</v>
+      </c>
+      <c r="AL189">
+        <v>1.38</v>
+      </c>
+      <c r="AM189">
+        <v>1.45</v>
+      </c>
+      <c r="AN189">
+        <v>1</v>
+      </c>
+      <c r="AO189">
+        <v>0.8</v>
+      </c>
+      <c r="AP189">
+        <v>1</v>
+      </c>
+      <c r="AQ189">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR189">
+        <v>1.19</v>
+      </c>
+      <c r="AS189">
+        <v>1.17</v>
+      </c>
+      <c r="AT189">
+        <v>2.36</v>
+      </c>
+      <c r="AU189">
+        <v>2</v>
+      </c>
+      <c r="AV189">
+        <v>3</v>
+      </c>
+      <c r="AW189">
+        <v>6</v>
+      </c>
+      <c r="AX189">
+        <v>6</v>
+      </c>
+      <c r="AY189">
+        <v>12</v>
+      </c>
+      <c r="AZ189">
+        <v>11</v>
+      </c>
+      <c r="BA189">
+        <v>3</v>
+      </c>
+      <c r="BB189">
+        <v>7</v>
+      </c>
+      <c r="BC189">
+        <v>10</v>
+      </c>
+      <c r="BD189">
+        <v>1.83</v>
+      </c>
+      <c r="BE189">
+        <v>6.25</v>
+      </c>
+      <c r="BF189">
+        <v>2.18</v>
+      </c>
+      <c r="BG189">
+        <v>1.4</v>
+      </c>
+      <c r="BH189">
+        <v>2.7</v>
+      </c>
+      <c r="BI189">
+        <v>1.65</v>
+      </c>
+      <c r="BJ189">
+        <v>2.07</v>
+      </c>
+      <c r="BK189">
+        <v>2.07</v>
+      </c>
+      <c r="BL189">
+        <v>1.66</v>
+      </c>
+      <c r="BM189">
+        <v>2.65</v>
+      </c>
+      <c r="BN189">
+        <v>1.41</v>
+      </c>
+      <c r="BO189">
+        <v>3.45</v>
+      </c>
+      <c r="BP189">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7859457</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45800.60416666666</v>
+      </c>
+      <c r="F190">
+        <v>10</v>
+      </c>
+      <c r="G190" t="s">
+        <v>76</v>
+      </c>
+      <c r="H190" t="s">
+        <v>71</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+      <c r="O190" t="s">
+        <v>89</v>
+      </c>
+      <c r="P190" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q190">
+        <v>3.1</v>
+      </c>
+      <c r="R190">
+        <v>2.15</v>
+      </c>
+      <c r="S190">
+        <v>3</v>
+      </c>
+      <c r="T190">
+        <v>1.38</v>
+      </c>
+      <c r="U190">
+        <v>2.8</v>
+      </c>
+      <c r="V190">
+        <v>2.8</v>
+      </c>
+      <c r="W190">
+        <v>1.38</v>
+      </c>
+      <c r="X190">
+        <v>7.4</v>
+      </c>
+      <c r="Y190">
+        <v>1.03</v>
+      </c>
+      <c r="Z190">
+        <v>1.82</v>
+      </c>
+      <c r="AA190">
+        <v>3.26</v>
+      </c>
+      <c r="AB190">
+        <v>3.79</v>
+      </c>
+      <c r="AC190">
+        <v>1.05</v>
+      </c>
+      <c r="AD190">
+        <v>9.5</v>
+      </c>
+      <c r="AE190">
+        <v>1.28</v>
+      </c>
+      <c r="AF190">
+        <v>3.55</v>
+      </c>
+      <c r="AG190">
+        <v>1.9</v>
+      </c>
+      <c r="AH190">
+        <v>1.8</v>
+      </c>
+      <c r="AI190">
+        <v>1.7</v>
+      </c>
+      <c r="AJ190">
+        <v>2</v>
+      </c>
+      <c r="AK190">
+        <v>1.53</v>
+      </c>
+      <c r="AL190">
+        <v>1.22</v>
+      </c>
+      <c r="AM190">
+        <v>1.48</v>
+      </c>
+      <c r="AN190">
+        <v>1.6</v>
+      </c>
+      <c r="AO190">
+        <v>0.73</v>
+      </c>
+      <c r="AP190">
+        <v>1.65</v>
+      </c>
+      <c r="AQ190">
+        <v>0.75</v>
+      </c>
+      <c r="AR190">
+        <v>1.86</v>
+      </c>
+      <c r="AS190">
+        <v>1.17</v>
+      </c>
+      <c r="AT190">
+        <v>3.03</v>
+      </c>
+      <c r="AU190">
+        <v>2</v>
+      </c>
+      <c r="AV190">
+        <v>3</v>
+      </c>
+      <c r="AW190">
+        <v>10</v>
+      </c>
+      <c r="AX190">
+        <v>6</v>
+      </c>
+      <c r="AY190">
+        <v>16</v>
+      </c>
+      <c r="AZ190">
+        <v>13</v>
+      </c>
+      <c r="BA190">
+        <v>7</v>
+      </c>
+      <c r="BB190">
+        <v>4</v>
+      </c>
+      <c r="BC190">
+        <v>11</v>
+      </c>
+      <c r="BD190">
+        <v>2.05</v>
+      </c>
+      <c r="BE190">
+        <v>6.4</v>
+      </c>
+      <c r="BF190">
+        <v>1.95</v>
+      </c>
+      <c r="BG190">
+        <v>1.34</v>
+      </c>
+      <c r="BH190">
+        <v>2.9</v>
+      </c>
+      <c r="BI190">
+        <v>1.58</v>
+      </c>
+      <c r="BJ190">
+        <v>2.2</v>
+      </c>
+      <c r="BK190">
+        <v>1.93</v>
+      </c>
+      <c r="BL190">
+        <v>1.76</v>
+      </c>
+      <c r="BM190">
+        <v>2.43</v>
+      </c>
+      <c r="BN190">
+        <v>1.48</v>
+      </c>
+      <c r="BO190">
+        <v>3.15</v>
+      </c>
+      <c r="BP190">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7859461</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45801.5</v>
+      </c>
+      <c r="F191">
+        <v>10</v>
+      </c>
+      <c r="G191" t="s">
+        <v>81</v>
+      </c>
+      <c r="H191" t="s">
+        <v>75</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>2</v>
+      </c>
+      <c r="N191">
+        <v>4</v>
+      </c>
+      <c r="O191" t="s">
+        <v>214</v>
+      </c>
+      <c r="P191" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q191">
+        <v>1.77</v>
+      </c>
+      <c r="R191">
+        <v>2.5</v>
+      </c>
+      <c r="S191">
+        <v>6.5</v>
+      </c>
+      <c r="T191">
+        <v>1.28</v>
+      </c>
+      <c r="U191">
+        <v>3.3</v>
+      </c>
+      <c r="V191">
+        <v>2.35</v>
+      </c>
+      <c r="W191">
+        <v>1.53</v>
+      </c>
+      <c r="X191">
+        <v>5.15</v>
+      </c>
+      <c r="Y191">
+        <v>1.1</v>
+      </c>
+      <c r="Z191">
+        <v>1.55</v>
+      </c>
+      <c r="AA191">
+        <v>3.59</v>
+      </c>
+      <c r="AB191">
+        <v>5.1</v>
+      </c>
+      <c r="AC191">
+        <v>1.03</v>
+      </c>
+      <c r="AD191">
+        <v>11</v>
+      </c>
+      <c r="AE191">
+        <v>1.2</v>
+      </c>
+      <c r="AF191">
+        <v>4.33</v>
+      </c>
+      <c r="AG191">
+        <v>1.85</v>
+      </c>
+      <c r="AH191">
+        <v>1.85</v>
+      </c>
+      <c r="AI191">
+        <v>1.85</v>
+      </c>
+      <c r="AJ191">
+        <v>1.8</v>
+      </c>
+      <c r="AK191">
+        <v>1.07</v>
+      </c>
+      <c r="AL191">
+        <v>1.12</v>
+      </c>
+      <c r="AM191">
+        <v>3.1</v>
+      </c>
+      <c r="AN191">
+        <v>2.13</v>
+      </c>
+      <c r="AO191">
+        <v>0.87</v>
+      </c>
+      <c r="AP191">
+        <v>2.06</v>
+      </c>
+      <c r="AQ191">
+        <v>0.88</v>
+      </c>
+      <c r="AR191">
+        <v>1.73</v>
+      </c>
+      <c r="AS191">
+        <v>1.19</v>
+      </c>
+      <c r="AT191">
+        <v>2.92</v>
+      </c>
+      <c r="AU191">
+        <v>3</v>
+      </c>
+      <c r="AV191">
+        <v>9</v>
+      </c>
+      <c r="AW191">
+        <v>10</v>
+      </c>
+      <c r="AX191">
+        <v>2</v>
+      </c>
+      <c r="AY191">
+        <v>15</v>
+      </c>
+      <c r="AZ191">
+        <v>13</v>
+      </c>
+      <c r="BA191">
+        <v>11</v>
+      </c>
+      <c r="BB191">
+        <v>2</v>
+      </c>
+      <c r="BC191">
+        <v>13</v>
+      </c>
+      <c r="BD191">
+        <v>1.24</v>
+      </c>
+      <c r="BE191">
+        <v>8</v>
+      </c>
+      <c r="BF191">
+        <v>4.3</v>
+      </c>
+      <c r="BG191">
+        <v>1.3</v>
+      </c>
+      <c r="BH191">
+        <v>3.15</v>
+      </c>
+      <c r="BI191">
+        <v>1.5</v>
+      </c>
+      <c r="BJ191">
+        <v>2.38</v>
+      </c>
+      <c r="BK191">
+        <v>1.81</v>
+      </c>
+      <c r="BL191">
+        <v>1.88</v>
+      </c>
+      <c r="BM191">
+        <v>2.28</v>
+      </c>
+      <c r="BN191">
+        <v>1.55</v>
+      </c>
+      <c r="BO191">
+        <v>2.9</v>
+      </c>
+      <c r="BP191">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7859462</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45801.5</v>
+      </c>
+      <c r="F192">
+        <v>10</v>
+      </c>
+      <c r="G192" t="s">
+        <v>80</v>
+      </c>
+      <c r="H192" t="s">
+        <v>73</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>2</v>
+      </c>
+      <c r="O192" t="s">
+        <v>215</v>
+      </c>
+      <c r="P192" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q192">
+        <v>2.45</v>
+      </c>
+      <c r="R192">
+        <v>2.15</v>
+      </c>
+      <c r="S192">
+        <v>4</v>
+      </c>
+      <c r="T192">
+        <v>1.36</v>
+      </c>
+      <c r="U192">
+        <v>2.88</v>
+      </c>
+      <c r="V192">
+        <v>2.62</v>
+      </c>
+      <c r="W192">
+        <v>1.42</v>
+      </c>
+      <c r="X192">
+        <v>5.9</v>
+      </c>
+      <c r="Y192">
+        <v>1.07</v>
+      </c>
+      <c r="Z192">
+        <v>1.95</v>
+      </c>
+      <c r="AA192">
+        <v>3.28</v>
+      </c>
+      <c r="AB192">
+        <v>3.32</v>
+      </c>
+      <c r="AC192">
+        <v>1.05</v>
+      </c>
+      <c r="AD192">
+        <v>9.5</v>
+      </c>
+      <c r="AE192">
+        <v>1.28</v>
+      </c>
+      <c r="AF192">
+        <v>3.65</v>
+      </c>
+      <c r="AG192">
+        <v>1.82</v>
+      </c>
+      <c r="AH192">
+        <v>1.88</v>
+      </c>
+      <c r="AI192">
+        <v>1.67</v>
+      </c>
+      <c r="AJ192">
+        <v>2.05</v>
+      </c>
+      <c r="AK192">
+        <v>1.25</v>
+      </c>
+      <c r="AL192">
+        <v>1.25</v>
+      </c>
+      <c r="AM192">
+        <v>1.83</v>
+      </c>
+      <c r="AN192">
+        <v>2.33</v>
+      </c>
+      <c r="AO192">
+        <v>1.8</v>
+      </c>
+      <c r="AP192">
+        <v>2.25</v>
+      </c>
+      <c r="AQ192">
+        <v>1.75</v>
+      </c>
+      <c r="AR192">
+        <v>1.76</v>
+      </c>
+      <c r="AS192">
+        <v>1.44</v>
+      </c>
+      <c r="AT192">
+        <v>3.2</v>
+      </c>
+      <c r="AU192">
+        <v>3</v>
+      </c>
+      <c r="AV192">
+        <v>4</v>
+      </c>
+      <c r="AW192">
+        <v>8</v>
+      </c>
+      <c r="AX192">
+        <v>5</v>
+      </c>
+      <c r="AY192">
+        <v>12</v>
+      </c>
+      <c r="AZ192">
+        <v>10</v>
+      </c>
+      <c r="BA192">
+        <v>4</v>
+      </c>
+      <c r="BB192">
+        <v>5</v>
+      </c>
+      <c r="BC192">
+        <v>9</v>
+      </c>
+      <c r="BD192">
+        <v>1.6</v>
+      </c>
+      <c r="BE192">
+        <v>6.75</v>
+      </c>
+      <c r="BF192">
+        <v>2.55</v>
+      </c>
+      <c r="BG192">
+        <v>1.33</v>
+      </c>
+      <c r="BH192">
+        <v>2.95</v>
+      </c>
+      <c r="BI192">
+        <v>1.57</v>
+      </c>
+      <c r="BJ192">
+        <v>2.23</v>
+      </c>
+      <c r="BK192">
+        <v>1.92</v>
+      </c>
+      <c r="BL192">
+        <v>1.77</v>
+      </c>
+      <c r="BM192">
+        <v>2.43</v>
+      </c>
+      <c r="BN192">
+        <v>1.48</v>
+      </c>
+      <c r="BO192">
+        <v>3.15</v>
+      </c>
+      <c r="BP192">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7859460</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45801.5</v>
+      </c>
+      <c r="F193">
+        <v>10</v>
+      </c>
+      <c r="G193" t="s">
+        <v>78</v>
+      </c>
+      <c r="H193" t="s">
+        <v>74</v>
+      </c>
+      <c r="I193">
+        <v>3</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>4</v>
+      </c>
+      <c r="L193">
+        <v>4</v>
+      </c>
+      <c r="M193">
+        <v>2</v>
+      </c>
+      <c r="N193">
+        <v>6</v>
+      </c>
+      <c r="O193" t="s">
+        <v>216</v>
+      </c>
+      <c r="P193" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q193">
+        <v>1.95</v>
+      </c>
+      <c r="R193">
+        <v>2.4</v>
+      </c>
+      <c r="S193">
+        <v>5.25</v>
+      </c>
+      <c r="T193">
+        <v>1.28</v>
+      </c>
+      <c r="U193">
+        <v>3.3</v>
+      </c>
+      <c r="V193">
+        <v>2.25</v>
+      </c>
+      <c r="W193">
+        <v>1.57</v>
+      </c>
+      <c r="X193">
+        <v>5.2</v>
+      </c>
+      <c r="Y193">
+        <v>1.1</v>
+      </c>
+      <c r="Z193">
+        <v>1.69</v>
+      </c>
+      <c r="AA193">
+        <v>3.62</v>
+      </c>
+      <c r="AB193">
+        <v>3.98</v>
+      </c>
+      <c r="AC193">
+        <v>1.04</v>
+      </c>
+      <c r="AD193">
+        <v>10</v>
+      </c>
+      <c r="AE193">
+        <v>1.2</v>
+      </c>
+      <c r="AF193">
+        <v>4.5</v>
+      </c>
+      <c r="AG193">
+        <v>1.63</v>
+      </c>
+      <c r="AH193">
+        <v>2.13</v>
+      </c>
+      <c r="AI193">
+        <v>1.65</v>
+      </c>
+      <c r="AJ193">
+        <v>2.05</v>
+      </c>
+      <c r="AK193">
+        <v>1.12</v>
+      </c>
+      <c r="AL193">
+        <v>1.17</v>
+      </c>
+      <c r="AM193">
+        <v>2.45</v>
+      </c>
+      <c r="AN193">
+        <v>2.07</v>
+      </c>
+      <c r="AO193">
+        <v>0.8</v>
+      </c>
+      <c r="AP193">
+        <v>2.13</v>
+      </c>
+      <c r="AQ193">
+        <v>0.75</v>
+      </c>
+      <c r="AR193">
+        <v>2.12</v>
+      </c>
+      <c r="AS193">
+        <v>1.42</v>
+      </c>
+      <c r="AT193">
+        <v>3.54</v>
+      </c>
+      <c r="AU193">
+        <v>8</v>
+      </c>
+      <c r="AV193">
+        <v>7</v>
+      </c>
+      <c r="AW193">
+        <v>7</v>
+      </c>
+      <c r="AX193">
+        <v>10</v>
+      </c>
+      <c r="AY193">
+        <v>16</v>
+      </c>
+      <c r="AZ193">
+        <v>20</v>
+      </c>
+      <c r="BA193">
+        <v>2</v>
+      </c>
+      <c r="BB193">
+        <v>5</v>
+      </c>
+      <c r="BC193">
+        <v>7</v>
+      </c>
+      <c r="BD193">
+        <v>1.49</v>
+      </c>
+      <c r="BE193">
+        <v>6.75</v>
+      </c>
+      <c r="BF193">
+        <v>2.9</v>
+      </c>
+      <c r="BG193">
+        <v>1.3</v>
+      </c>
+      <c r="BH193">
+        <v>3.05</v>
+      </c>
+      <c r="BI193">
+        <v>1.54</v>
+      </c>
+      <c r="BJ193">
+        <v>2.3</v>
+      </c>
+      <c r="BK193">
+        <v>1.88</v>
+      </c>
+      <c r="BL193">
+        <v>1.81</v>
+      </c>
+      <c r="BM193">
+        <v>2.33</v>
+      </c>
+      <c r="BN193">
+        <v>1.52</v>
+      </c>
+      <c r="BO193">
+        <v>3.05</v>
+      </c>
+      <c r="BP193">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7901499</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45803.58333333334</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194" t="s">
+        <v>76</v>
+      </c>
+      <c r="H194" t="s">
+        <v>72</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>2</v>
+      </c>
+      <c r="O194" t="s">
+        <v>217</v>
+      </c>
+      <c r="P194" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q194">
+        <v>2.3</v>
+      </c>
+      <c r="R194">
+        <v>2.2</v>
+      </c>
+      <c r="S194">
+        <v>4.33</v>
+      </c>
+      <c r="T194">
+        <v>1.34</v>
+      </c>
+      <c r="U194">
+        <v>3</v>
+      </c>
+      <c r="V194">
+        <v>2.5</v>
+      </c>
+      <c r="W194">
+        <v>1.46</v>
+      </c>
+      <c r="X194">
+        <v>6.25</v>
+      </c>
+      <c r="Y194">
+        <v>1.1</v>
+      </c>
+      <c r="Z194">
+        <v>1.7</v>
+      </c>
+      <c r="AA194">
+        <v>3.53</v>
+      </c>
+      <c r="AB194">
+        <v>4</v>
+      </c>
+      <c r="AC194">
+        <v>1.05</v>
+      </c>
+      <c r="AD194">
+        <v>9.5</v>
+      </c>
+      <c r="AE194">
+        <v>1.25</v>
+      </c>
+      <c r="AF194">
+        <v>3.7</v>
+      </c>
+      <c r="AG194">
+        <v>1.76</v>
+      </c>
+      <c r="AH194">
+        <v>1.94</v>
+      </c>
+      <c r="AI194">
+        <v>1.73</v>
+      </c>
+      <c r="AJ194">
+        <v>1.98</v>
+      </c>
+      <c r="AK194">
+        <v>1.22</v>
+      </c>
+      <c r="AL194">
+        <v>1.26</v>
+      </c>
+      <c r="AM194">
+        <v>1.98</v>
+      </c>
+      <c r="AN194">
+        <v>1.69</v>
+      </c>
+      <c r="AO194">
+        <v>1.38</v>
+      </c>
+      <c r="AP194">
+        <v>1.73</v>
+      </c>
+      <c r="AQ194">
+        <v>1.33</v>
+      </c>
+      <c r="AR194">
+        <v>1.5</v>
+      </c>
+      <c r="AS194">
+        <v>1.24</v>
+      </c>
+      <c r="AT194">
+        <v>2.74</v>
+      </c>
+      <c r="AU194">
+        <v>8</v>
+      </c>
+      <c r="AV194">
+        <v>5</v>
+      </c>
+      <c r="AW194">
+        <v>5</v>
+      </c>
+      <c r="AX194">
+        <v>8</v>
+      </c>
+      <c r="AY194">
+        <v>13</v>
+      </c>
+      <c r="AZ194">
+        <v>16</v>
+      </c>
+      <c r="BA194">
+        <v>10</v>
+      </c>
+      <c r="BB194">
+        <v>10</v>
+      </c>
+      <c r="BC194">
+        <v>20</v>
+      </c>
+      <c r="BD194">
+        <v>1.58</v>
+      </c>
+      <c r="BE194">
+        <v>6.5</v>
+      </c>
+      <c r="BF194">
+        <v>2.65</v>
+      </c>
+      <c r="BG194">
+        <v>1.34</v>
+      </c>
+      <c r="BH194">
+        <v>2.9</v>
+      </c>
+      <c r="BI194">
+        <v>1.52</v>
+      </c>
+      <c r="BJ194">
+        <v>2.47</v>
+      </c>
+      <c r="BK194">
+        <v>1.88</v>
+      </c>
+      <c r="BL194">
+        <v>1.92</v>
+      </c>
+      <c r="BM194">
+        <v>2.38</v>
+      </c>
+      <c r="BN194">
+        <v>1.56</v>
+      </c>
+      <c r="BO194">
+        <v>3.15</v>
+      </c>
+      <c r="BP194">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="315">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,10 +661,13 @@
     <t>['33', '90']</t>
   </si>
   <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
     <t>['8', '11', '24', '56']</t>
   </si>
   <si>
-    <t>['45+1']</t>
+    <t>['21', '64']</t>
   </si>
   <si>
     <t>['4', '6', '45+2']</t>
@@ -952,10 +955,10 @@
     <t>['78', '90+2']</t>
   </si>
   <si>
-    <t>['19', '63']</t>
+    <t>['67']</t>
   </si>
   <si>
-    <t>['67']</t>
+    <t>['19', '63']</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP193"/>
+  <dimension ref="A1:BP194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1576,7 +1579,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1782,7 +1785,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1988,7 +1991,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2812,7 +2815,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -2890,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ8">
         <v>0.75</v>
@@ -3224,7 +3227,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -3717,7 +3720,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ12">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4048,7 +4051,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q14">
         <v>3.1</v>
@@ -4254,7 +4257,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4460,7 +4463,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -4538,7 +4541,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ16">
         <v>1.44</v>
@@ -5284,7 +5287,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5490,7 +5493,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5902,7 +5905,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6108,7 +6111,7 @@
         <v>101</v>
       </c>
       <c r="P24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6314,7 +6317,7 @@
         <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6726,7 +6729,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6932,7 +6935,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7010,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ28">
         <v>1.75</v>
@@ -7138,7 +7141,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q29">
         <v>4.33</v>
@@ -7962,7 +7965,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8168,7 +8171,7 @@
         <v>89</v>
       </c>
       <c r="P34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8374,7 +8377,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8455,7 +8458,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ35">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR35">
         <v>1.2</v>
@@ -8580,7 +8583,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q36">
         <v>2.1</v>
@@ -8658,7 +8661,7 @@
         <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ36">
         <v>0.8100000000000001</v>
@@ -8992,7 +8995,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9198,7 +9201,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9404,7 +9407,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9816,7 +9819,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10022,7 +10025,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10640,7 +10643,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -11052,7 +11055,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11133,7 +11136,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ48">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR48">
         <v>1.74</v>
@@ -11748,7 +11751,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ51">
         <v>0.8100000000000001</v>
@@ -11876,7 +11879,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12494,7 +12497,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12700,7 +12703,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q56">
         <v>3.2</v>
@@ -12906,7 +12909,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -13112,7 +13115,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13318,7 +13321,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13399,7 +13402,7 @@
         <v>2</v>
       </c>
       <c r="AQ59">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR59">
         <v>1.71</v>
@@ -13936,7 +13939,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14554,7 +14557,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14632,7 +14635,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ65">
         <v>1.69</v>
@@ -14760,7 +14763,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -14838,10 +14841,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ66">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR66">
         <v>1.38</v>
@@ -14966,7 +14969,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -16408,7 +16411,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16820,7 +16823,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17232,7 +17235,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -18056,7 +18059,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q82">
         <v>2.88</v>
@@ -18343,7 +18346,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ83">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR83">
         <v>1.76</v>
@@ -18468,7 +18471,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q84">
         <v>5.5</v>
@@ -18674,7 +18677,7 @@
         <v>120</v>
       </c>
       <c r="P85" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18880,7 +18883,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -19086,7 +19089,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19498,7 +19501,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19576,7 +19579,7 @@
         <v>1.14</v>
       </c>
       <c r="AP89">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ89">
         <v>1.69</v>
@@ -19785,7 +19788,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ90">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR90">
         <v>2.08</v>
@@ -19910,7 +19913,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20116,7 +20119,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20322,7 +20325,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q93">
         <v>2.4</v>
@@ -20528,7 +20531,7 @@
         <v>89</v>
       </c>
       <c r="P94" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20609,7 +20612,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ94">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR94">
         <v>1.42</v>
@@ -20734,7 +20737,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q95">
         <v>2.6</v>
@@ -21352,7 +21355,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21558,7 +21561,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q99">
         <v>2.3</v>
@@ -21764,7 +21767,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -22257,7 +22260,7 @@
         <v>1</v>
       </c>
       <c r="AQ102">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR102">
         <v>0.9</v>
@@ -22460,7 +22463,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ103">
         <v>0.88</v>
@@ -22588,7 +22591,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q104">
         <v>1.67</v>
@@ -23000,7 +23003,7 @@
         <v>103</v>
       </c>
       <c r="P106" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q106">
         <v>2.75</v>
@@ -23824,7 +23827,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q110">
         <v>4.53</v>
@@ -24030,7 +24033,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24236,7 +24239,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q112">
         <v>3.4</v>
@@ -24523,7 +24526,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ113">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR113">
         <v>1.24</v>
@@ -24854,7 +24857,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24932,7 +24935,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ115">
         <v>0.75</v>
@@ -25266,7 +25269,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25472,7 +25475,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q118">
         <v>3.4</v>
@@ -25678,7 +25681,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q119">
         <v>4.33</v>
@@ -26090,7 +26093,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26296,7 +26299,7 @@
         <v>87</v>
       </c>
       <c r="P122" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -26502,7 +26505,7 @@
         <v>172</v>
       </c>
       <c r="P123" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q123">
         <v>5.5</v>
@@ -26708,7 +26711,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26914,7 +26917,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q125">
         <v>2.38</v>
@@ -26992,7 +26995,7 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ125">
         <v>0.88</v>
@@ -27326,7 +27329,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27738,7 +27741,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -27944,7 +27947,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q130">
         <v>3.5</v>
@@ -28437,7 +28440,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ132">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR132">
         <v>1.42</v>
@@ -28562,7 +28565,7 @@
         <v>89</v>
       </c>
       <c r="P133" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q133">
         <v>5.5</v>
@@ -28768,7 +28771,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28974,7 +28977,7 @@
         <v>182</v>
       </c>
       <c r="P135" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29592,7 +29595,7 @@
         <v>89</v>
       </c>
       <c r="P138" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29798,7 +29801,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -30288,7 +30291,7 @@
         <v>0.82</v>
       </c>
       <c r="AP141">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ141">
         <v>0.8100000000000001</v>
@@ -30416,7 +30419,7 @@
         <v>184</v>
       </c>
       <c r="P142" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q142">
         <v>3.5</v>
@@ -30622,7 +30625,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q143">
         <v>3.5</v>
@@ -30703,7 +30706,7 @@
         <v>1</v>
       </c>
       <c r="AQ143">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR143">
         <v>1.09</v>
@@ -31240,7 +31243,7 @@
         <v>134</v>
       </c>
       <c r="P146" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31446,7 +31449,7 @@
         <v>187</v>
       </c>
       <c r="P147" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -31858,7 +31861,7 @@
         <v>89</v>
       </c>
       <c r="P149" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q149">
         <v>3.75</v>
@@ -32064,7 +32067,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32554,7 +32557,7 @@
         <v>0.92</v>
       </c>
       <c r="AP152">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ152">
         <v>0.88</v>
@@ -32682,7 +32685,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -32763,7 +32766,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ153">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR153">
         <v>1.31</v>
@@ -33094,7 +33097,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q155">
         <v>3.75</v>
@@ -33506,7 +33509,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q157">
         <v>3.5</v>
@@ -33670,7 +33673,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>7859427</v>
+        <v>7859428</v>
       </c>
       <c r="C158" t="s">
         <v>68</v>
@@ -33685,190 +33688,190 @@
         <v>5</v>
       </c>
       <c r="G158" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H158" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158">
         <v>0</v>
       </c>
       <c r="K158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O158" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="P158" t="s">
-        <v>89</v>
+        <v>297</v>
       </c>
       <c r="Q158">
+        <v>3.4</v>
+      </c>
+      <c r="R158">
+        <v>2.1</v>
+      </c>
+      <c r="S158">
         <v>3.1</v>
       </c>
-      <c r="R158">
+      <c r="T158">
+        <v>1.4</v>
+      </c>
+      <c r="U158">
+        <v>2.75</v>
+      </c>
+      <c r="V158">
+        <v>3</v>
+      </c>
+      <c r="W158">
+        <v>1.36</v>
+      </c>
+      <c r="X158">
+        <v>8</v>
+      </c>
+      <c r="Y158">
+        <v>1.08</v>
+      </c>
+      <c r="Z158">
+        <v>2.77</v>
+      </c>
+      <c r="AA158">
+        <v>3.36</v>
+      </c>
+      <c r="AB158">
+        <v>2.43</v>
+      </c>
+      <c r="AC158">
+        <v>1</v>
+      </c>
+      <c r="AD158">
+        <v>10.2</v>
+      </c>
+      <c r="AE158">
+        <v>1.22</v>
+      </c>
+      <c r="AF158">
+        <v>3.64</v>
+      </c>
+      <c r="AG158">
+        <v>1.89</v>
+      </c>
+      <c r="AH158">
+        <v>1.85</v>
+      </c>
+      <c r="AI158">
+        <v>1.7</v>
+      </c>
+      <c r="AJ158">
         <v>2.05</v>
       </c>
-      <c r="S158">
-        <v>3.6</v>
-      </c>
-      <c r="T158">
-        <v>1.44</v>
-      </c>
-      <c r="U158">
-        <v>2.63</v>
-      </c>
-      <c r="V158">
-        <v>3.25</v>
-      </c>
-      <c r="W158">
-        <v>1.33</v>
-      </c>
-      <c r="X158">
-        <v>10</v>
-      </c>
-      <c r="Y158">
-        <v>1.06</v>
-      </c>
-      <c r="Z158">
-        <v>2.38</v>
-      </c>
-      <c r="AA158">
-        <v>3.18</v>
-      </c>
-      <c r="AB158">
-        <v>2.98</v>
-      </c>
-      <c r="AC158">
-        <v>1.03</v>
-      </c>
-      <c r="AD158">
-        <v>7.3</v>
-      </c>
-      <c r="AE158">
-        <v>1.34</v>
-      </c>
-      <c r="AF158">
-        <v>2.88</v>
-      </c>
-      <c r="AG158">
-        <v>2</v>
-      </c>
-      <c r="AH158">
-        <v>1.65</v>
-      </c>
-      <c r="AI158">
-        <v>1.8</v>
-      </c>
-      <c r="AJ158">
-        <v>1.95</v>
-      </c>
       <c r="AK158">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AL158">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM158">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AN158">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AO158">
-        <v>0.85</v>
+        <v>1.08</v>
       </c>
       <c r="AP158">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ158">
-        <v>0.75</v>
+        <v>1.24</v>
       </c>
       <c r="AR158">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="AS158">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AT158">
-        <v>2.29</v>
+        <v>2.47</v>
       </c>
       <c r="AU158">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV158">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW158">
         <v>6</v>
       </c>
       <c r="AX158">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AY158">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ158">
         <v>19</v>
       </c>
       <c r="BA158">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB158">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC158">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD158">
-        <v>2.23</v>
+        <v>2.16</v>
       </c>
       <c r="BE158">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="BF158">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="BG158">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="BH158">
-        <v>2.78</v>
+        <v>3.08</v>
       </c>
       <c r="BI158">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="BJ158">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="BK158">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BL158">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="BM158">
-        <v>2.83</v>
+        <v>2.54</v>
       </c>
       <c r="BN158">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="BO158">
-        <v>4</v>
+        <v>3.42</v>
       </c>
       <c r="BP158">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="159" spans="1:68">
@@ -33876,7 +33879,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>7859428</v>
+        <v>7859427</v>
       </c>
       <c r="C159" t="s">
         <v>68</v>
@@ -33891,190 +33894,190 @@
         <v>5</v>
       </c>
       <c r="G159" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H159" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159">
         <v>0</v>
       </c>
       <c r="K159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M159">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O159" t="s">
+        <v>196</v>
+      </c>
+      <c r="P159" t="s">
         <v>89</v>
       </c>
-      <c r="P159" t="s">
-        <v>296</v>
-      </c>
       <c r="Q159">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R159">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S159">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="T159">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U159">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V159">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W159">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X159">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y159">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z159">
-        <v>2.77</v>
+        <v>2.38</v>
       </c>
       <c r="AA159">
-        <v>3.36</v>
+        <v>3.18</v>
       </c>
       <c r="AB159">
-        <v>2.43</v>
+        <v>2.98</v>
       </c>
       <c r="AC159">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="AD159">
-        <v>10.2</v>
+        <v>7.3</v>
       </c>
       <c r="AE159">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="AF159">
-        <v>3.64</v>
+        <v>2.88</v>
       </c>
       <c r="AG159">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AH159">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="AI159">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AJ159">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AK159">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AL159">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM159">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="AN159">
+        <v>0.92</v>
+      </c>
+      <c r="AO159">
         <v>0.85</v>
       </c>
-      <c r="AO159">
-        <v>1.08</v>
-      </c>
       <c r="AP159">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ159">
-        <v>1.31</v>
+        <v>0.75</v>
       </c>
       <c r="AR159">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="AS159">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AT159">
-        <v>2.47</v>
+        <v>2.29</v>
       </c>
       <c r="AU159">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV159">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW159">
         <v>6</v>
       </c>
       <c r="AX159">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AY159">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ159">
         <v>19</v>
       </c>
       <c r="BA159">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB159">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC159">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD159">
-        <v>2.16</v>
+        <v>2.23</v>
       </c>
       <c r="BE159">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
       <c r="BF159">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="BG159">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="BH159">
-        <v>3.08</v>
+        <v>2.78</v>
       </c>
       <c r="BI159">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="BJ159">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="BK159">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BL159">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="BM159">
-        <v>2.54</v>
+        <v>2.83</v>
       </c>
       <c r="BN159">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="BO159">
-        <v>3.42</v>
+        <v>4</v>
       </c>
       <c r="BP159">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="160" spans="1:68">
@@ -34124,7 +34127,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -34330,7 +34333,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q161">
         <v>2.4</v>
@@ -34536,7 +34539,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -34742,7 +34745,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -34948,7 +34951,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35232,7 +35235,7 @@
         <v>0.85</v>
       </c>
       <c r="AP165">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ165">
         <v>0.8100000000000001</v>
@@ -35566,7 +35569,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -36184,7 +36187,7 @@
         <v>116</v>
       </c>
       <c r="P170" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q170">
         <v>2.88</v>
@@ -36390,7 +36393,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q171">
         <v>4.5</v>
@@ -36596,7 +36599,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q172">
         <v>2.75</v>
@@ -37420,7 +37423,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q176">
         <v>3.25</v>
@@ -37626,7 +37629,7 @@
         <v>209</v>
       </c>
       <c r="P177" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q177">
         <v>2.6</v>
@@ -37910,10 +37913,10 @@
         <v>1.21</v>
       </c>
       <c r="AP178">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ178">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR178">
         <v>1.87</v>
@@ -38038,7 +38041,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38450,7 +38453,7 @@
         <v>172</v>
       </c>
       <c r="P181" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -39068,7 +39071,7 @@
         <v>212</v>
       </c>
       <c r="P184" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39274,7 +39277,7 @@
         <v>144</v>
       </c>
       <c r="P185" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q185">
         <v>3.1</v>
@@ -39480,7 +39483,7 @@
         <v>213</v>
       </c>
       <c r="P186" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q186">
         <v>3.4</v>
@@ -39686,7 +39689,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q187">
         <v>5.5</v>
@@ -39892,7 +39895,7 @@
         <v>89</v>
       </c>
       <c r="P188" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q188">
         <v>2.05</v>
@@ -39973,7 +39976,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ188">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR188">
         <v>1.42</v>
@@ -40056,7 +40059,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>7859457</v>
+        <v>7859459</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40071,43 +40074,43 @@
         <v>10</v>
       </c>
       <c r="G189" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H189" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O189" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P189" t="s">
-        <v>89</v>
+        <v>311</v>
       </c>
       <c r="Q189">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="R189">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S189">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="T189">
         <v>1.38</v>
@@ -40116,79 +40119,79 @@
         <v>2.8</v>
       </c>
       <c r="V189">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="W189">
+        <v>1.4</v>
+      </c>
+      <c r="X189">
+        <v>6.15</v>
+      </c>
+      <c r="Y189">
+        <v>1.06</v>
+      </c>
+      <c r="Z189">
+        <v>2.61</v>
+      </c>
+      <c r="AA189">
+        <v>2.94</v>
+      </c>
+      <c r="AB189">
+        <v>2.52</v>
+      </c>
+      <c r="AC189">
+        <v>1.08</v>
+      </c>
+      <c r="AD189">
+        <v>7.5</v>
+      </c>
+      <c r="AE189">
+        <v>1.33</v>
+      </c>
+      <c r="AF189">
+        <v>3.25</v>
+      </c>
+      <c r="AG189">
+        <v>2.02</v>
+      </c>
+      <c r="AH189">
+        <v>1.7</v>
+      </c>
+      <c r="AI189">
+        <v>1.67</v>
+      </c>
+      <c r="AJ189">
+        <v>2.05</v>
+      </c>
+      <c r="AK189">
+        <v>1.35</v>
+      </c>
+      <c r="AL189">
         <v>1.38</v>
       </c>
-      <c r="X189">
-        <v>7.4</v>
-      </c>
-      <c r="Y189">
-        <v>1.03</v>
-      </c>
-      <c r="Z189">
-        <v>1.82</v>
-      </c>
-      <c r="AA189">
-        <v>3.26</v>
-      </c>
-      <c r="AB189">
-        <v>3.79</v>
-      </c>
-      <c r="AC189">
-        <v>1.05</v>
-      </c>
-      <c r="AD189">
-        <v>9.5</v>
-      </c>
-      <c r="AE189">
-        <v>1.28</v>
-      </c>
-      <c r="AF189">
-        <v>3.55</v>
-      </c>
-      <c r="AG189">
-        <v>1.9</v>
-      </c>
-      <c r="AH189">
-        <v>1.8</v>
-      </c>
-      <c r="AI189">
-        <v>1.7</v>
-      </c>
-      <c r="AJ189">
-        <v>2</v>
-      </c>
-      <c r="AK189">
-        <v>1.53</v>
-      </c>
-      <c r="AL189">
-        <v>1.22</v>
-      </c>
       <c r="AM189">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AN189">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AO189">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="AP189">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AQ189">
-        <v>0.75</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR189">
-        <v>1.86</v>
+        <v>1.19</v>
       </c>
       <c r="AS189">
         <v>1.17</v>
       </c>
       <c r="AT189">
-        <v>3.03</v>
+        <v>2.36</v>
       </c>
       <c r="AU189">
         <v>2</v>
@@ -40197,64 +40200,64 @@
         <v>3</v>
       </c>
       <c r="AW189">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX189">
         <v>6</v>
       </c>
       <c r="AY189">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ189">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA189">
+        <v>3</v>
+      </c>
+      <c r="BB189">
         <v>7</v>
       </c>
-      <c r="BB189">
-        <v>4</v>
-      </c>
       <c r="BC189">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD189">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="BE189">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
       <c r="BF189">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="BG189">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="BH189">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="BI189">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="BJ189">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="BK189">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="BL189">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="BM189">
-        <v>2.43</v>
+        <v>2.65</v>
       </c>
       <c r="BN189">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="BO189">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="BP189">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="190" spans="1:68">
@@ -40262,7 +40265,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>7859459</v>
+        <v>7859457</v>
       </c>
       <c r="C190" t="s">
         <v>68</v>
@@ -40277,43 +40280,43 @@
         <v>10</v>
       </c>
       <c r="G190" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H190" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O190" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P190" t="s">
-        <v>310</v>
+        <v>89</v>
       </c>
       <c r="Q190">
+        <v>3.1</v>
+      </c>
+      <c r="R190">
+        <v>2.15</v>
+      </c>
+      <c r="S190">
         <v>3</v>
-      </c>
-      <c r="R190">
-        <v>2.05</v>
-      </c>
-      <c r="S190">
-        <v>3.35</v>
       </c>
       <c r="T190">
         <v>1.38</v>
@@ -40322,79 +40325,79 @@
         <v>2.8</v>
       </c>
       <c r="V190">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="W190">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X190">
-        <v>6.15</v>
+        <v>7.4</v>
       </c>
       <c r="Y190">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="Z190">
-        <v>2.61</v>
+        <v>1.82</v>
       </c>
       <c r="AA190">
-        <v>2.94</v>
+        <v>3.26</v>
       </c>
       <c r="AB190">
-        <v>2.52</v>
+        <v>3.79</v>
       </c>
       <c r="AC190">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AD190">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE190">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AF190">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="AG190">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="AH190">
+        <v>1.8</v>
+      </c>
+      <c r="AI190">
         <v>1.7</v>
       </c>
-      <c r="AI190">
-        <v>1.67</v>
-      </c>
       <c r="AJ190">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AK190">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AL190">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AM190">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AN190">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO190">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AP190">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="AQ190">
-        <v>0.8100000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AR190">
-        <v>1.19</v>
+        <v>1.86</v>
       </c>
       <c r="AS190">
         <v>1.17</v>
       </c>
       <c r="AT190">
-        <v>2.36</v>
+        <v>3.03</v>
       </c>
       <c r="AU190">
         <v>2</v>
@@ -40403,64 +40406,64 @@
         <v>3</v>
       </c>
       <c r="AW190">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX190">
         <v>6</v>
       </c>
       <c r="AY190">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ190">
+        <v>13</v>
+      </c>
+      <c r="BA190">
+        <v>7</v>
+      </c>
+      <c r="BB190">
+        <v>4</v>
+      </c>
+      <c r="BC190">
         <v>11</v>
       </c>
-      <c r="BA190">
-        <v>3</v>
-      </c>
-      <c r="BB190">
-        <v>7</v>
-      </c>
-      <c r="BC190">
-        <v>10</v>
-      </c>
       <c r="BD190">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="BE190">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="BF190">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="BG190">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="BH190">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BI190">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="BJ190">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="BK190">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="BL190">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="BM190">
-        <v>2.65</v>
+        <v>2.43</v>
       </c>
       <c r="BN190">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="BO190">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="BP190">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="191" spans="1:68">
@@ -40510,7 +40513,7 @@
         <v>214</v>
       </c>
       <c r="P191" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q191">
         <v>1.77</v>
@@ -40674,7 +40677,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>7859460</v>
+        <v>7859462</v>
       </c>
       <c r="C192" t="s">
         <v>68</v>
@@ -40689,190 +40692,190 @@
         <v>10</v>
       </c>
       <c r="G192" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H192" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K192">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L192">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N192">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O192" t="s">
         <v>215</v>
       </c>
       <c r="P192" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q192">
+        <v>2.45</v>
+      </c>
+      <c r="R192">
+        <v>2.15</v>
+      </c>
+      <c r="S192">
+        <v>4</v>
+      </c>
+      <c r="T192">
+        <v>1.36</v>
+      </c>
+      <c r="U192">
+        <v>2.88</v>
+      </c>
+      <c r="V192">
+        <v>2.62</v>
+      </c>
+      <c r="W192">
+        <v>1.42</v>
+      </c>
+      <c r="X192">
+        <v>5.9</v>
+      </c>
+      <c r="Y192">
+        <v>1.07</v>
+      </c>
+      <c r="Z192">
         <v>1.95</v>
       </c>
-      <c r="R192">
-        <v>2.4</v>
-      </c>
-      <c r="S192">
-        <v>5.25</v>
-      </c>
-      <c r="T192">
+      <c r="AA192">
+        <v>3.28</v>
+      </c>
+      <c r="AB192">
+        <v>3.32</v>
+      </c>
+      <c r="AC192">
+        <v>1.05</v>
+      </c>
+      <c r="AD192">
+        <v>9.5</v>
+      </c>
+      <c r="AE192">
         <v>1.28</v>
       </c>
-      <c r="U192">
-        <v>3.3</v>
-      </c>
-      <c r="V192">
-        <v>2.25</v>
-      </c>
-      <c r="W192">
-        <v>1.57</v>
-      </c>
-      <c r="X192">
-        <v>5.2</v>
-      </c>
-      <c r="Y192">
-        <v>1.1</v>
-      </c>
-      <c r="Z192">
-        <v>1.69</v>
-      </c>
-      <c r="AA192">
-        <v>3.62</v>
-      </c>
-      <c r="AB192">
-        <v>3.98</v>
-      </c>
-      <c r="AC192">
-        <v>1.04</v>
-      </c>
-      <c r="AD192">
-        <v>10</v>
-      </c>
-      <c r="AE192">
-        <v>1.2</v>
-      </c>
       <c r="AF192">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="AG192">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
       <c r="AH192">
-        <v>2.13</v>
+        <v>1.88</v>
       </c>
       <c r="AI192">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AJ192">
         <v>2.05</v>
       </c>
       <c r="AK192">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="AL192">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AM192">
-        <v>2.45</v>
+        <v>1.83</v>
       </c>
       <c r="AN192">
-        <v>2.07</v>
+        <v>2.33</v>
       </c>
       <c r="AO192">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="AP192">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="AQ192">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="AR192">
-        <v>2.12</v>
+        <v>1.76</v>
       </c>
       <c r="AS192">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AT192">
-        <v>3.54</v>
+        <v>3.2</v>
       </c>
       <c r="AU192">
+        <v>3</v>
+      </c>
+      <c r="AV192">
+        <v>4</v>
+      </c>
+      <c r="AW192">
         <v>8</v>
       </c>
-      <c r="AV192">
-        <v>7</v>
-      </c>
-      <c r="AW192">
-        <v>7</v>
-      </c>
       <c r="AX192">
+        <v>5</v>
+      </c>
+      <c r="AY192">
+        <v>12</v>
+      </c>
+      <c r="AZ192">
         <v>10</v>
       </c>
-      <c r="AY192">
-        <v>16</v>
-      </c>
-      <c r="AZ192">
-        <v>20</v>
-      </c>
       <c r="BA192">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB192">
         <v>5</v>
       </c>
       <c r="BC192">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD192">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="BE192">
         <v>6.75</v>
       </c>
       <c r="BF192">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="BG192">
+        <v>1.33</v>
+      </c>
+      <c r="BH192">
+        <v>2.95</v>
+      </c>
+      <c r="BI192">
+        <v>1.57</v>
+      </c>
+      <c r="BJ192">
+        <v>2.23</v>
+      </c>
+      <c r="BK192">
+        <v>1.92</v>
+      </c>
+      <c r="BL192">
+        <v>1.77</v>
+      </c>
+      <c r="BM192">
+        <v>2.43</v>
+      </c>
+      <c r="BN192">
+        <v>1.48</v>
+      </c>
+      <c r="BO192">
+        <v>3.15</v>
+      </c>
+      <c r="BP192">
         <v>1.3</v>
-      </c>
-      <c r="BH192">
-        <v>3.05</v>
-      </c>
-      <c r="BI192">
-        <v>1.54</v>
-      </c>
-      <c r="BJ192">
-        <v>2.3</v>
-      </c>
-      <c r="BK192">
-        <v>1.88</v>
-      </c>
-      <c r="BL192">
-        <v>1.81</v>
-      </c>
-      <c r="BM192">
-        <v>2.33</v>
-      </c>
-      <c r="BN192">
-        <v>1.52</v>
-      </c>
-      <c r="BO192">
-        <v>3.05</v>
-      </c>
-      <c r="BP192">
-        <v>1.32</v>
       </c>
     </row>
     <row r="193" spans="1:68">
@@ -40880,7 +40883,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>7859462</v>
+        <v>7859460</v>
       </c>
       <c r="C193" t="s">
         <v>68</v>
@@ -40895,189 +40898,395 @@
         <v>10</v>
       </c>
       <c r="G193" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H193" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L193">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N193">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O193" t="s">
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q193">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="R193">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="S193">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="T193">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="U193">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="V193">
-        <v>2.62</v>
+        <v>2.25</v>
       </c>
       <c r="W193">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="X193">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="Y193">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z193">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="AA193">
-        <v>3.28</v>
+        <v>3.62</v>
       </c>
       <c r="AB193">
-        <v>3.32</v>
+        <v>3.98</v>
       </c>
       <c r="AC193">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD193">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE193">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AF193">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="AG193">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="AH193">
-        <v>1.88</v>
+        <v>2.13</v>
       </c>
       <c r="AI193">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AJ193">
         <v>2.05</v>
       </c>
       <c r="AK193">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="AL193">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AM193">
-        <v>1.83</v>
+        <v>2.45</v>
       </c>
       <c r="AN193">
-        <v>2.33</v>
+        <v>2.07</v>
       </c>
       <c r="AO193">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="AP193">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="AQ193">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="AR193">
-        <v>1.76</v>
+        <v>2.12</v>
       </c>
       <c r="AS193">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT193">
-        <v>3.2</v>
+        <v>3.54</v>
       </c>
       <c r="AU193">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV193">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW193">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX193">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AY193">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ193">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BA193">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB193">
         <v>5</v>
       </c>
       <c r="BC193">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD193">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="BE193">
         <v>6.75</v>
       </c>
       <c r="BF193">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="BG193">
+        <v>1.3</v>
+      </c>
+      <c r="BH193">
+        <v>3.05</v>
+      </c>
+      <c r="BI193">
+        <v>1.54</v>
+      </c>
+      <c r="BJ193">
+        <v>2.3</v>
+      </c>
+      <c r="BK193">
+        <v>1.88</v>
+      </c>
+      <c r="BL193">
+        <v>1.81</v>
+      </c>
+      <c r="BM193">
+        <v>2.33</v>
+      </c>
+      <c r="BN193">
+        <v>1.52</v>
+      </c>
+      <c r="BO193">
+        <v>3.05</v>
+      </c>
+      <c r="BP193">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7901499</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45803.58333333334</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194" t="s">
+        <v>76</v>
+      </c>
+      <c r="H194" t="s">
+        <v>72</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>2</v>
+      </c>
+      <c r="O194" t="s">
+        <v>217</v>
+      </c>
+      <c r="P194" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q194">
+        <v>2.3</v>
+      </c>
+      <c r="R194">
+        <v>2.2</v>
+      </c>
+      <c r="S194">
+        <v>4.33</v>
+      </c>
+      <c r="T194">
+        <v>1.34</v>
+      </c>
+      <c r="U194">
+        <v>3</v>
+      </c>
+      <c r="V194">
+        <v>2.5</v>
+      </c>
+      <c r="W194">
+        <v>1.46</v>
+      </c>
+      <c r="X194">
+        <v>6.25</v>
+      </c>
+      <c r="Y194">
+        <v>1.1</v>
+      </c>
+      <c r="Z194">
+        <v>1.7</v>
+      </c>
+      <c r="AA194">
+        <v>3.53</v>
+      </c>
+      <c r="AB194">
+        <v>4</v>
+      </c>
+      <c r="AC194">
+        <v>1.05</v>
+      </c>
+      <c r="AD194">
+        <v>9.5</v>
+      </c>
+      <c r="AE194">
+        <v>1.25</v>
+      </c>
+      <c r="AF194">
+        <v>3.7</v>
+      </c>
+      <c r="AG194">
+        <v>1.76</v>
+      </c>
+      <c r="AH194">
+        <v>1.94</v>
+      </c>
+      <c r="AI194">
+        <v>1.73</v>
+      </c>
+      <c r="AJ194">
+        <v>1.98</v>
+      </c>
+      <c r="AK194">
+        <v>1.22</v>
+      </c>
+      <c r="AL194">
+        <v>1.26</v>
+      </c>
+      <c r="AM194">
+        <v>1.98</v>
+      </c>
+      <c r="AN194">
+        <v>1.69</v>
+      </c>
+      <c r="AO194">
+        <v>1.38</v>
+      </c>
+      <c r="AP194">
+        <v>1.73</v>
+      </c>
+      <c r="AQ194">
         <v>1.33</v>
       </c>
-      <c r="BH193">
-        <v>2.95</v>
-      </c>
-      <c r="BI193">
-        <v>1.57</v>
-      </c>
-      <c r="BJ193">
-        <v>2.23</v>
-      </c>
-      <c r="BK193">
+      <c r="AR194">
+        <v>1.5</v>
+      </c>
+      <c r="AS194">
+        <v>1.24</v>
+      </c>
+      <c r="AT194">
+        <v>2.74</v>
+      </c>
+      <c r="AU194">
+        <v>-1</v>
+      </c>
+      <c r="AV194">
+        <v>-1</v>
+      </c>
+      <c r="AW194">
+        <v>-1</v>
+      </c>
+      <c r="AX194">
+        <v>-1</v>
+      </c>
+      <c r="AY194">
+        <v>-1</v>
+      </c>
+      <c r="AZ194">
+        <v>-1</v>
+      </c>
+      <c r="BA194">
+        <v>-1</v>
+      </c>
+      <c r="BB194">
+        <v>-1</v>
+      </c>
+      <c r="BC194">
+        <v>-1</v>
+      </c>
+      <c r="BD194">
+        <v>1.58</v>
+      </c>
+      <c r="BE194">
+        <v>6.5</v>
+      </c>
+      <c r="BF194">
+        <v>2.65</v>
+      </c>
+      <c r="BG194">
+        <v>1.34</v>
+      </c>
+      <c r="BH194">
+        <v>2.9</v>
+      </c>
+      <c r="BI194">
+        <v>1.52</v>
+      </c>
+      <c r="BJ194">
+        <v>2.47</v>
+      </c>
+      <c r="BK194">
+        <v>1.88</v>
+      </c>
+      <c r="BL194">
         <v>1.92</v>
       </c>
-      <c r="BL193">
-        <v>1.77</v>
-      </c>
-      <c r="BM193">
-        <v>2.43</v>
-      </c>
-      <c r="BN193">
-        <v>1.48</v>
-      </c>
-      <c r="BO193">
+      <c r="BM194">
+        <v>2.38</v>
+      </c>
+      <c r="BN194">
+        <v>1.56</v>
+      </c>
+      <c r="BO194">
         <v>3.15</v>
       </c>
-      <c r="BP193">
+      <c r="BP194">
         <v>1.3</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -41224,31 +41224,31 @@
         <v>2.74</v>
       </c>
       <c r="AU194">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV194">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW194">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX194">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY194">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ194">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA194">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BB194">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BC194">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="BD194">
         <v>1.58</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="316">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -670,6 +670,9 @@
     <t>['21', '64']</t>
   </si>
   <si>
+    <t>['5', '66', '90+1']</t>
+  </si>
+  <si>
     <t>['4', '6', '45+2']</t>
   </si>
   <si>
@@ -1320,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP194"/>
+  <dimension ref="A1:BP195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1579,7 +1582,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1785,7 +1788,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1991,7 +1994,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2815,7 +2818,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -2893,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ8">
         <v>0.75</v>
@@ -3227,7 +3230,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -3514,7 +3517,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ11">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4051,7 +4054,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q14">
         <v>3.1</v>
@@ -4257,7 +4260,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4463,7 +4466,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -4541,7 +4544,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ16">
         <v>1.44</v>
@@ -5287,7 +5290,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5493,7 +5496,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5780,7 +5783,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR22">
         <v>0.92</v>
@@ -5905,7 +5908,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6111,7 +6114,7 @@
         <v>101</v>
       </c>
       <c r="P24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6317,7 +6320,7 @@
         <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6729,7 +6732,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6935,7 +6938,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7013,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ28">
         <v>1.75</v>
@@ -7141,7 +7144,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q29">
         <v>4.33</v>
@@ -7634,7 +7637,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ31">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR31">
         <v>1.82</v>
@@ -7965,7 +7968,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8171,7 +8174,7 @@
         <v>89</v>
       </c>
       <c r="P34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8377,7 +8380,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8583,7 +8586,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q36">
         <v>2.1</v>
@@ -8661,7 +8664,7 @@
         <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ36">
         <v>0.8100000000000001</v>
@@ -8995,7 +8998,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9201,7 +9204,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9407,7 +9410,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9819,7 +9822,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10025,7 +10028,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10643,7 +10646,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -11055,7 +11058,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11751,7 +11754,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ51">
         <v>0.8100000000000001</v>
@@ -11879,7 +11882,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -11960,7 +11963,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ52">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR52">
         <v>1.2</v>
@@ -12497,7 +12500,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12703,7 +12706,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q56">
         <v>3.2</v>
@@ -12909,7 +12912,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -13115,7 +13118,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13321,7 +13324,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13939,7 +13942,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14432,7 +14435,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ64">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR64">
         <v>1.56</v>
@@ -14557,7 +14560,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14635,7 +14638,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ65">
         <v>1.69</v>
@@ -14841,7 +14844,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ66">
         <v>1.24</v>
@@ -14969,7 +14972,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15050,7 +15053,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ67">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR67">
         <v>1.79</v>
@@ -16411,7 +16414,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16823,7 +16826,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17235,7 +17238,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -17522,7 +17525,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR79">
         <v>0.96</v>
@@ -18059,7 +18062,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q82">
         <v>2.88</v>
@@ -18677,7 +18680,7 @@
         <v>120</v>
       </c>
       <c r="P85" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18883,7 +18886,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -19089,7 +19092,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19501,7 +19504,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19579,7 +19582,7 @@
         <v>1.14</v>
       </c>
       <c r="AP89">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ89">
         <v>1.69</v>
@@ -19913,7 +19916,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20119,7 +20122,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20325,7 +20328,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q93">
         <v>2.4</v>
@@ -20406,7 +20409,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ93">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR93">
         <v>2.1</v>
@@ -20531,7 +20534,7 @@
         <v>89</v>
       </c>
       <c r="P94" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20737,7 +20740,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q95">
         <v>2.6</v>
@@ -21355,7 +21358,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21561,7 +21564,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q99">
         <v>2.3</v>
@@ -21767,7 +21770,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -22463,7 +22466,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ103">
         <v>0.88</v>
@@ -22591,7 +22594,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q104">
         <v>1.67</v>
@@ -23003,7 +23006,7 @@
         <v>103</v>
       </c>
       <c r="P106" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q106">
         <v>2.75</v>
@@ -23702,7 +23705,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ109">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR109">
         <v>1.67</v>
@@ -23827,7 +23830,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q110">
         <v>4.53</v>
@@ -24033,7 +24036,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24239,7 +24242,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q112">
         <v>3.4</v>
@@ -24857,7 +24860,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24935,10 +24938,10 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ115">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR115">
         <v>1.44</v>
@@ -25269,7 +25272,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25475,7 +25478,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q118">
         <v>3.4</v>
@@ -25681,7 +25684,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q119">
         <v>4.33</v>
@@ -26093,7 +26096,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26299,7 +26302,7 @@
         <v>87</v>
       </c>
       <c r="P122" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -26505,7 +26508,7 @@
         <v>172</v>
       </c>
       <c r="P123" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q123">
         <v>5.5</v>
@@ -26711,7 +26714,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26917,7 +26920,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q125">
         <v>2.38</v>
@@ -26995,7 +26998,7 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ125">
         <v>0.88</v>
@@ -27329,7 +27332,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27410,7 +27413,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ127">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR127">
         <v>1.17</v>
@@ -27741,7 +27744,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -27947,7 +27950,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q130">
         <v>3.5</v>
@@ -28565,7 +28568,7 @@
         <v>89</v>
       </c>
       <c r="P133" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q133">
         <v>5.5</v>
@@ -28771,7 +28774,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28977,7 +28980,7 @@
         <v>182</v>
       </c>
       <c r="P135" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29595,7 +29598,7 @@
         <v>89</v>
       </c>
       <c r="P138" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29801,7 +29804,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -30088,7 +30091,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ140">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR140">
         <v>1.8</v>
@@ -30291,7 +30294,7 @@
         <v>0.82</v>
       </c>
       <c r="AP141">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ141">
         <v>0.8100000000000001</v>
@@ -30419,7 +30422,7 @@
         <v>184</v>
       </c>
       <c r="P142" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q142">
         <v>3.5</v>
@@ -30625,7 +30628,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q143">
         <v>3.5</v>
@@ -31243,7 +31246,7 @@
         <v>134</v>
       </c>
       <c r="P146" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31449,7 +31452,7 @@
         <v>187</v>
       </c>
       <c r="P147" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -31861,7 +31864,7 @@
         <v>89</v>
       </c>
       <c r="P149" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q149">
         <v>3.75</v>
@@ -32067,7 +32070,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32557,7 +32560,7 @@
         <v>0.92</v>
       </c>
       <c r="AP152">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ152">
         <v>0.88</v>
@@ -32685,7 +32688,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -33097,7 +33100,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q155">
         <v>3.75</v>
@@ -33178,7 +33181,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ155">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR155">
         <v>1.53</v>
@@ -33509,7 +33512,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q157">
         <v>3.5</v>
@@ -33715,7 +33718,7 @@
         <v>89</v>
       </c>
       <c r="P158" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q158">
         <v>3.4</v>
@@ -34127,7 +34130,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -34333,7 +34336,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q161">
         <v>2.4</v>
@@ -34539,7 +34542,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -34620,7 +34623,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ162">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR162">
         <v>1.45</v>
@@ -34745,7 +34748,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -34951,7 +34954,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35235,7 +35238,7 @@
         <v>0.85</v>
       </c>
       <c r="AP165">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ165">
         <v>0.8100000000000001</v>
@@ -35569,7 +35572,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -36187,7 +36190,7 @@
         <v>116</v>
       </c>
       <c r="P170" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q170">
         <v>2.88</v>
@@ -36393,7 +36396,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q171">
         <v>4.5</v>
@@ -36599,7 +36602,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q172">
         <v>2.75</v>
@@ -37423,7 +37426,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q176">
         <v>3.25</v>
@@ -37629,7 +37632,7 @@
         <v>209</v>
       </c>
       <c r="P177" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q177">
         <v>2.6</v>
@@ -37913,7 +37916,7 @@
         <v>1.21</v>
       </c>
       <c r="AP178">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ178">
         <v>1.24</v>
@@ -38041,7 +38044,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38453,7 +38456,7 @@
         <v>172</v>
       </c>
       <c r="P181" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38534,7 +38537,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ181">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR181">
         <v>1.7</v>
@@ -39071,7 +39074,7 @@
         <v>212</v>
       </c>
       <c r="P184" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39277,7 +39280,7 @@
         <v>144</v>
       </c>
       <c r="P185" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q185">
         <v>3.1</v>
@@ -39483,7 +39486,7 @@
         <v>213</v>
       </c>
       <c r="P186" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q186">
         <v>3.4</v>
@@ -39689,7 +39692,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q187">
         <v>5.5</v>
@@ -39895,7 +39898,7 @@
         <v>89</v>
       </c>
       <c r="P188" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q188">
         <v>2.05</v>
@@ -40101,7 +40104,7 @@
         <v>86</v>
       </c>
       <c r="P189" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -40385,7 +40388,7 @@
         <v>0.73</v>
       </c>
       <c r="AP190">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ190">
         <v>0.75</v>
@@ -40513,7 +40516,7 @@
         <v>214</v>
       </c>
       <c r="P191" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q191">
         <v>1.77</v>
@@ -40719,7 +40722,7 @@
         <v>215</v>
       </c>
       <c r="P192" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q192">
         <v>2.45</v>
@@ -40925,7 +40928,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q193">
         <v>1.95</v>
@@ -41006,7 +41009,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ193">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR193">
         <v>2.12</v>
@@ -41209,7 +41212,7 @@
         <v>1.38</v>
       </c>
       <c r="AP194">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="AQ194">
         <v>1.33</v>
@@ -41288,6 +41291,212 @@
       </c>
       <c r="BP194">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7905977</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45806.5</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195" t="s">
+        <v>76</v>
+      </c>
+      <c r="H195" t="s">
+        <v>74</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>2</v>
+      </c>
+      <c r="L195">
+        <v>3</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>4</v>
+      </c>
+      <c r="O195" t="s">
+        <v>218</v>
+      </c>
+      <c r="P195" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q195">
+        <v>2.88</v>
+      </c>
+      <c r="R195">
+        <v>2.45</v>
+      </c>
+      <c r="S195">
+        <v>3.33</v>
+      </c>
+      <c r="T195">
+        <v>1.26</v>
+      </c>
+      <c r="U195">
+        <v>3.6</v>
+      </c>
+      <c r="V195">
+        <v>2.39</v>
+      </c>
+      <c r="W195">
+        <v>1.58</v>
+      </c>
+      <c r="X195">
+        <v>4.7</v>
+      </c>
+      <c r="Y195">
+        <v>1.14</v>
+      </c>
+      <c r="Z195">
+        <v>2.35</v>
+      </c>
+      <c r="AA195">
+        <v>3.75</v>
+      </c>
+      <c r="AB195">
+        <v>2.8</v>
+      </c>
+      <c r="AC195">
+        <v>1</v>
+      </c>
+      <c r="AD195">
+        <v>12</v>
+      </c>
+      <c r="AE195">
+        <v>1.18</v>
+      </c>
+      <c r="AF195">
+        <v>4.33</v>
+      </c>
+      <c r="AG195">
+        <v>1.57</v>
+      </c>
+      <c r="AH195">
+        <v>2.25</v>
+      </c>
+      <c r="AI195">
+        <v>1.52</v>
+      </c>
+      <c r="AJ195">
+        <v>2.53</v>
+      </c>
+      <c r="AK195">
+        <v>1.44</v>
+      </c>
+      <c r="AL195">
+        <v>1.28</v>
+      </c>
+      <c r="AM195">
+        <v>1.61</v>
+      </c>
+      <c r="AN195">
+        <v>1.73</v>
+      </c>
+      <c r="AO195">
+        <v>1.38</v>
+      </c>
+      <c r="AP195">
+        <v>1.76</v>
+      </c>
+      <c r="AQ195">
+        <v>1.33</v>
+      </c>
+      <c r="AR195">
+        <v>1.5</v>
+      </c>
+      <c r="AS195">
+        <v>1.59</v>
+      </c>
+      <c r="AT195">
+        <v>3.09</v>
+      </c>
+      <c r="AU195">
+        <v>6</v>
+      </c>
+      <c r="AV195">
+        <v>3</v>
+      </c>
+      <c r="AW195">
+        <v>7</v>
+      </c>
+      <c r="AX195">
+        <v>2</v>
+      </c>
+      <c r="AY195">
+        <v>17</v>
+      </c>
+      <c r="AZ195">
+        <v>7</v>
+      </c>
+      <c r="BA195">
+        <v>3</v>
+      </c>
+      <c r="BB195">
+        <v>8</v>
+      </c>
+      <c r="BC195">
+        <v>11</v>
+      </c>
+      <c r="BD195">
+        <v>2.05</v>
+      </c>
+      <c r="BE195">
+        <v>6.75</v>
+      </c>
+      <c r="BF195">
+        <v>1.94</v>
+      </c>
+      <c r="BG195">
+        <v>1.25</v>
+      </c>
+      <c r="BH195">
+        <v>3.45</v>
+      </c>
+      <c r="BI195">
+        <v>1.47</v>
+      </c>
+      <c r="BJ195">
+        <v>2.54</v>
+      </c>
+      <c r="BK195">
+        <v>1.85</v>
+      </c>
+      <c r="BL195">
+        <v>1.95</v>
+      </c>
+      <c r="BM195">
+        <v>2.25</v>
+      </c>
+      <c r="BN195">
+        <v>1.6</v>
+      </c>
+      <c r="BO195">
+        <v>2.65</v>
+      </c>
+      <c r="BP195">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -673,6 +673,9 @@
     <t>['5', '66', '90+1']</t>
   </si>
   <si>
+    <t>['31', '81', '90+5']</t>
+  </si>
+  <si>
     <t>['4', '6', '45+2']</t>
   </si>
   <si>
@@ -1323,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP195"/>
+  <dimension ref="A1:BP196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1582,7 +1585,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1788,7 +1791,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1994,7 +1997,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2075,7 +2078,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ4">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2484,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ6">
         <v>1.69</v>
@@ -2818,7 +2821,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
@@ -3230,7 +3233,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q10">
         <v>1.67</v>
@@ -4054,7 +4057,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q14">
         <v>3.1</v>
@@ -4260,7 +4263,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q15">
         <v>5.5</v>
@@ -4466,7 +4469,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q16">
         <v>3.8</v>
@@ -4750,7 +4753,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ17">
         <v>0.88</v>
@@ -5290,7 +5293,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5496,7 +5499,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q21">
         <v>2.03</v>
@@ -5908,7 +5911,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5989,7 +5992,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ23">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR23">
         <v>1.73</v>
@@ -6114,7 +6117,7 @@
         <v>101</v>
       </c>
       <c r="P24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6320,7 +6323,7 @@
         <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6732,7 +6735,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q27">
         <v>1.72</v>
@@ -6938,7 +6941,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7144,7 +7147,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q29">
         <v>4.33</v>
@@ -7222,7 +7225,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ29">
         <v>1.44</v>
@@ -7843,7 +7846,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR32">
         <v>1.09</v>
@@ -7968,7 +7971,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8174,7 +8177,7 @@
         <v>89</v>
       </c>
       <c r="P34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8380,7 +8383,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8586,7 +8589,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q36">
         <v>2.1</v>
@@ -8998,7 +9001,7 @@
         <v>89</v>
       </c>
       <c r="P38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9204,7 +9207,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9282,7 +9285,7 @@
         <v>0.67</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ39">
         <v>1.69</v>
@@ -9410,7 +9413,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q40">
         <v>3.6</v>
@@ -9822,7 +9825,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10028,7 +10031,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10106,10 +10109,10 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ43">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR43">
         <v>1.82</v>
@@ -10646,7 +10649,7 @@
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -11058,7 +11061,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q48">
         <v>2.6</v>
@@ -11882,7 +11885,7 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12500,7 +12503,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12706,7 +12709,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q56">
         <v>3.2</v>
@@ -12912,7 +12915,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -13118,7 +13121,7 @@
         <v>109</v>
       </c>
       <c r="P58" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13199,7 +13202,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR58">
         <v>1</v>
@@ -13324,7 +13327,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13402,7 +13405,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ59">
         <v>1.24</v>
@@ -13942,7 +13945,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14560,7 +14563,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q65">
         <v>3.25</v>
@@ -14972,7 +14975,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -16414,7 +16417,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16826,7 +16829,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16907,7 +16910,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ76">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR76">
         <v>1.31</v>
@@ -17110,7 +17113,7 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ77">
         <v>0.8100000000000001</v>
@@ -17238,7 +17241,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q78">
         <v>2.2</v>
@@ -17319,7 +17322,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ78">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR78">
         <v>2.16</v>
@@ -18062,7 +18065,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q82">
         <v>2.88</v>
@@ -18680,7 +18683,7 @@
         <v>120</v>
       </c>
       <c r="P85" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18886,7 +18889,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -19092,7 +19095,7 @@
         <v>89</v>
       </c>
       <c r="P87" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q87">
         <v>2.75</v>
@@ -19376,7 +19379,7 @@
         <v>0.71</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ88">
         <v>0.88</v>
@@ -19504,7 +19507,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19916,7 +19919,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -19997,7 +20000,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ91">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -20122,7 +20125,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20328,7 +20331,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q93">
         <v>2.4</v>
@@ -20534,7 +20537,7 @@
         <v>89</v>
       </c>
       <c r="P94" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20740,7 +20743,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q95">
         <v>2.6</v>
@@ -21358,7 +21361,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21564,7 +21567,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q99">
         <v>2.3</v>
@@ -21642,7 +21645,7 @@
         <v>1.71</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ99">
         <v>1.75</v>
@@ -21770,7 +21773,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -22594,7 +22597,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q104">
         <v>1.67</v>
@@ -23006,7 +23009,7 @@
         <v>103</v>
       </c>
       <c r="P106" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q106">
         <v>2.75</v>
@@ -23293,7 +23296,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ107">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR107">
         <v>1.33</v>
@@ -23830,7 +23833,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q110">
         <v>4.53</v>
@@ -24036,7 +24039,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24242,7 +24245,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q112">
         <v>3.4</v>
@@ -24860,7 +24863,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25144,7 +25147,7 @@
         <v>0.78</v>
       </c>
       <c r="AP116">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ116">
         <v>0.75</v>
@@ -25272,7 +25275,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25478,7 +25481,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q118">
         <v>3.4</v>
@@ -25684,7 +25687,7 @@
         <v>91</v>
       </c>
       <c r="P119" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q119">
         <v>4.33</v>
@@ -25765,7 +25768,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ119">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR119">
         <v>1.39</v>
@@ -26096,7 +26099,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26302,7 +26305,7 @@
         <v>87</v>
       </c>
       <c r="P122" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -26508,7 +26511,7 @@
         <v>172</v>
       </c>
       <c r="P123" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q123">
         <v>5.5</v>
@@ -26714,7 +26717,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26920,7 +26923,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q125">
         <v>2.38</v>
@@ -27332,7 +27335,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27744,7 +27747,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -27825,7 +27828,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ129">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR129">
         <v>1.73</v>
@@ -27950,7 +27953,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q130">
         <v>3.5</v>
@@ -28234,7 +28237,7 @@
         <v>0.9</v>
       </c>
       <c r="AP131">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ131">
         <v>0.8100000000000001</v>
@@ -28568,7 +28571,7 @@
         <v>89</v>
       </c>
       <c r="P133" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q133">
         <v>5.5</v>
@@ -28774,7 +28777,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28855,7 +28858,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ134">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR134">
         <v>1.26</v>
@@ -28980,7 +28983,7 @@
         <v>182</v>
       </c>
       <c r="P135" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29598,7 +29601,7 @@
         <v>89</v>
       </c>
       <c r="P138" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29804,7 +29807,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -29882,7 +29885,7 @@
         <v>1.27</v>
       </c>
       <c r="AP139">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ139">
         <v>1.44</v>
@@ -30422,7 +30425,7 @@
         <v>184</v>
       </c>
       <c r="P142" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q142">
         <v>3.5</v>
@@ -30628,7 +30631,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q143">
         <v>3.5</v>
@@ -31246,7 +31249,7 @@
         <v>134</v>
       </c>
       <c r="P146" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q146">
         <v>3.4</v>
@@ -31452,7 +31455,7 @@
         <v>187</v>
       </c>
       <c r="P147" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -31864,7 +31867,7 @@
         <v>89</v>
       </c>
       <c r="P149" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q149">
         <v>3.75</v>
@@ -31945,7 +31948,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ149">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR149">
         <v>1.22</v>
@@ -32070,7 +32073,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32354,7 +32357,7 @@
         <v>1.75</v>
       </c>
       <c r="AP151">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ151">
         <v>1.69</v>
@@ -32688,7 +32691,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -33100,7 +33103,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q155">
         <v>3.75</v>
@@ -33512,7 +33515,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q157">
         <v>3.5</v>
@@ -33718,7 +33721,7 @@
         <v>89</v>
       </c>
       <c r="P158" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q158">
         <v>3.4</v>
@@ -34130,7 +34133,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -34211,7 +34214,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ160">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR160">
         <v>1.38</v>
@@ -34336,7 +34339,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q161">
         <v>2.4</v>
@@ -34542,7 +34545,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q162">
         <v>4</v>
@@ -34748,7 +34751,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q163">
         <v>3.1</v>
@@ -34954,7 +34957,7 @@
         <v>201</v>
       </c>
       <c r="P164" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q164">
         <v>2.75</v>
@@ -35572,7 +35575,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35856,7 +35859,7 @@
         <v>0.92</v>
       </c>
       <c r="AP168">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ168">
         <v>0.88</v>
@@ -36190,7 +36193,7 @@
         <v>116</v>
       </c>
       <c r="P170" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q170">
         <v>2.88</v>
@@ -36396,7 +36399,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q171">
         <v>4.5</v>
@@ -36477,7 +36480,7 @@
         <v>1</v>
       </c>
       <c r="AQ171">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR171">
         <v>1.18</v>
@@ -36602,7 +36605,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q172">
         <v>2.75</v>
@@ -36680,7 +36683,7 @@
         <v>1.71</v>
       </c>
       <c r="AP172">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ172">
         <v>1.75</v>
@@ -37426,7 +37429,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q176">
         <v>3.25</v>
@@ -37632,7 +37635,7 @@
         <v>209</v>
       </c>
       <c r="P177" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q177">
         <v>2.6</v>
@@ -38044,7 +38047,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38456,7 +38459,7 @@
         <v>172</v>
       </c>
       <c r="P181" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38949,7 +38952,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ183">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR183">
         <v>1.37</v>
@@ -39074,7 +39077,7 @@
         <v>212</v>
       </c>
       <c r="P184" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q184">
         <v>2.5</v>
@@ -39280,7 +39283,7 @@
         <v>144</v>
       </c>
       <c r="P185" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q185">
         <v>3.1</v>
@@ -39486,7 +39489,7 @@
         <v>213</v>
       </c>
       <c r="P186" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q186">
         <v>3.4</v>
@@ -39564,7 +39567,7 @@
         <v>1.8</v>
       </c>
       <c r="AP186">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ186">
         <v>1.69</v>
@@ -39692,7 +39695,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q187">
         <v>5.5</v>
@@ -39898,7 +39901,7 @@
         <v>89</v>
       </c>
       <c r="P188" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q188">
         <v>2.05</v>
@@ -40104,7 +40107,7 @@
         <v>86</v>
       </c>
       <c r="P189" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -40516,7 +40519,7 @@
         <v>214</v>
       </c>
       <c r="P191" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q191">
         <v>1.77</v>
@@ -40722,7 +40725,7 @@
         <v>215</v>
       </c>
       <c r="P192" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q192">
         <v>2.45</v>
@@ -40928,7 +40931,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q193">
         <v>1.95</v>
@@ -41212,7 +41215,7 @@
         <v>1.38</v>
       </c>
       <c r="AP194">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AQ194">
         <v>1.33</v>
@@ -41418,10 +41421,10 @@
         <v>1.38</v>
       </c>
       <c r="AP195">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AQ195">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AR195">
         <v>1.5</v>
@@ -41497,6 +41500,212 @@
       </c>
       <c r="BP195">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7905978</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45809.5</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196" t="s">
+        <v>74</v>
+      </c>
+      <c r="H196" t="s">
+        <v>76</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>3</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>3</v>
+      </c>
+      <c r="O196" t="s">
+        <v>219</v>
+      </c>
+      <c r="P196" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q196">
+        <v>2.45</v>
+      </c>
+      <c r="R196">
+        <v>2.2</v>
+      </c>
+      <c r="S196">
+        <v>3.8</v>
+      </c>
+      <c r="T196">
+        <v>1.31</v>
+      </c>
+      <c r="U196">
+        <v>3.1</v>
+      </c>
+      <c r="V196">
+        <v>2.4</v>
+      </c>
+      <c r="W196">
+        <v>1.49</v>
+      </c>
+      <c r="X196">
+        <v>5.75</v>
+      </c>
+      <c r="Y196">
+        <v>1.12</v>
+      </c>
+      <c r="Z196">
+        <v>1.95</v>
+      </c>
+      <c r="AA196">
+        <v>3.66</v>
+      </c>
+      <c r="AB196">
+        <v>3.59</v>
+      </c>
+      <c r="AC196">
+        <v>1.04</v>
+      </c>
+      <c r="AD196">
+        <v>10</v>
+      </c>
+      <c r="AE196">
+        <v>1.22</v>
+      </c>
+      <c r="AF196">
+        <v>4</v>
+      </c>
+      <c r="AG196">
+        <v>1.7</v>
+      </c>
+      <c r="AH196">
+        <v>2.1</v>
+      </c>
+      <c r="AI196">
+        <v>1.63</v>
+      </c>
+      <c r="AJ196">
+        <v>2.1</v>
+      </c>
+      <c r="AK196">
+        <v>1.28</v>
+      </c>
+      <c r="AL196">
+        <v>1.27</v>
+      </c>
+      <c r="AM196">
+        <v>1.8</v>
+      </c>
+      <c r="AN196">
+        <v>1.33</v>
+      </c>
+      <c r="AO196">
+        <v>1.76</v>
+      </c>
+      <c r="AP196">
+        <v>1.38</v>
+      </c>
+      <c r="AQ196">
+        <v>1.71</v>
+      </c>
+      <c r="AR196">
+        <v>1.57</v>
+      </c>
+      <c r="AS196">
+        <v>1.5</v>
+      </c>
+      <c r="AT196">
+        <v>3.07</v>
+      </c>
+      <c r="AU196">
+        <v>6</v>
+      </c>
+      <c r="AV196">
+        <v>4</v>
+      </c>
+      <c r="AW196">
+        <v>11</v>
+      </c>
+      <c r="AX196">
+        <v>8</v>
+      </c>
+      <c r="AY196">
+        <v>20</v>
+      </c>
+      <c r="AZ196">
+        <v>12</v>
+      </c>
+      <c r="BA196">
+        <v>7</v>
+      </c>
+      <c r="BB196">
+        <v>4</v>
+      </c>
+      <c r="BC196">
+        <v>11</v>
+      </c>
+      <c r="BD196">
+        <v>1.15</v>
+      </c>
+      <c r="BE196">
+        <v>10.5</v>
+      </c>
+      <c r="BF196">
+        <v>7.8</v>
+      </c>
+      <c r="BG196">
+        <v>1.17</v>
+      </c>
+      <c r="BH196">
+        <v>3.98</v>
+      </c>
+      <c r="BI196">
+        <v>1.36</v>
+      </c>
+      <c r="BJ196">
+        <v>2.79</v>
+      </c>
+      <c r="BK196">
+        <v>1.66</v>
+      </c>
+      <c r="BL196">
+        <v>2.09</v>
+      </c>
+      <c r="BM196">
+        <v>2.05</v>
+      </c>
+      <c r="BN196">
+        <v>1.65</v>
+      </c>
+      <c r="BO196">
+        <v>2.69</v>
+      </c>
+      <c r="BP196">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Austria Bundesliga_20242025.xlsx
@@ -670,10 +670,10 @@
     <t>['21', '64']</t>
   </si>
   <si>
-    <t>['5', '66', '90+1']</t>
+    <t>['5', '66', '9001']</t>
   </si>
   <si>
-    <t>['31', '81', '90+5']</t>
+    <t>['31', '81', '9005']</t>
   </si>
   <si>
     <t>['4', '6', '45+2']</t>
@@ -1690,10 +1690,10 @@
         <v>11</v>
       </c>
       <c r="AY2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BA2">
         <v>3</v>
@@ -1896,10 +1896,10 @@
         <v>4</v>
       </c>
       <c r="AY3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AZ3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BA3">
         <v>6</v>
@@ -2102,10 +2102,10 @@
         <v>4</v>
       </c>
       <c r="AY4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AZ4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA4">
         <v>9</v>
@@ -2308,7 +2308,7 @@
         <v>-1</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AZ5">
         <v>-1</v>
@@ -2514,10 +2514,10 @@
         <v>1</v>
       </c>
       <c r="AY6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AZ6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BA6">
         <v>7</v>
@@ -2720,10 +2720,10 @@
         <v>8</v>
       </c>
       <c r="AY7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BA7">
         <v>7</v>
@@ -2926,10 +2926,10 @@
         <v>2</v>
       </c>
       <c r="AY8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA8">
         <v>6</v>
@@ -3132,10 +3132,10 @@
         <v>7</v>
       </c>
       <c r="AY9">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AZ9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA9">
         <v>6</v>
@@ -3338,19 +3338,19 @@
         <v>1</v>
       </c>
       <c r="AY10">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="AZ10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA10">
+        <v>5</v>
+      </c>
+      <c r="BB10">
+        <v>1</v>
+      </c>
+      <c r="BC10">
         <v>6</v>
-      </c>
-      <c r="BB10">
-        <v>1</v>
-      </c>
-      <c r="BC10">
-        <v>7</v>
       </c>
       <c r="BD10">
         <v>1.09</v>
@@ -3544,10 +3544,10 @@
         <v>11</v>
       </c>
       <c r="AY11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AZ11">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="BA11">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>1</v>
       </c>
       <c r="AY12">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BA12">
         <v>5</v>
@@ -3956,10 +3956,10 @@
         <v>4</v>
       </c>
       <c r="AY13">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AZ13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA13">
         <v>12</v>
@@ -4162,10 +4162,10 @@
         <v>4</v>
       </c>
       <c r="AY14">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ14">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA14">
         <v>7</v>
@@ -4368,10 +4368,10 @@
         <v>4</v>
       </c>
       <c r="AY15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA15">
         <v>3</v>
@@ -4574,10 +4574,10 @@
         <v>10</v>
       </c>
       <c r="AY16">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA16">
         <v>4</v>
@@ -4780,10 +4780,10 @@
         <v>8</v>
       </c>
       <c r="AY17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AZ17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA17">
         <v>11</v>
@@ -4989,7 +4989,7 @@
         <v>8</v>
       </c>
       <c r="AZ18">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA18">
         <v>1</v>
@@ -5192,10 +5192,10 @@
         <v>6</v>
       </c>
       <c r="AY19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA19">
         <v>6</v>
@@ -5398,10 +5398,10 @@
         <v>8</v>
       </c>
       <c r="AY20">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AZ20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA20">
         <v>6</v>
@@ -5604,10 +5604,10 @@
         <v>4</v>
       </c>
       <c r="AY21">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ21">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA21">
         <v>6</v>
@@ -5810,10 +5810,10 @@
         <v>7</v>
       </c>
       <c r="AY22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ22">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BA22">
         <v>4</v>
@@ -6016,10 +6016,10 @@
         <v>3</v>
       </c>
       <c r="AY23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ23">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA23">
         <v>8</v>
@@ -6225,7 +6225,7 @@
         <v>13</v>
       </c>
       <c r="AZ24">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA24">
         <v>5</v>
@@ -6428,7 +6428,7 @@
         <v>1</v>
       </c>
       <c r="AY25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ25">
         <v>4</v>
@@ -6634,10 +6634,10 @@
         <v>2</v>
       </c>
       <c r="AY26">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AZ26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA26">
         <v>8</v>
@@ -6840,10 +6840,10 @@
         <v>5</v>
       </c>
       <c r="AY27">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ27">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA27">
         <v>5</v>
@@ -7046,10 +7046,10 @@
         <v>8</v>
       </c>
       <c r="AY28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ28">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA28">
         <v>10</v>
@@ -7252,10 +7252,10 @@
         <v>6</v>
       </c>
       <c r="AY29">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ29">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA29">
         <v>4</v>
@@ -7458,10 +7458,10 @@
         <v>10</v>
       </c>
       <c r="AY30">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ30">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA30">
         <v>3</v>
@@ -7664,10 +7664,10 @@
         <v>5</v>
       </c>
       <c r="AY31">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ31">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA31">
         <v>4</v>
@@ -7870,10 +7870,10 @@
         <v>4</v>
       </c>
       <c r="AY32">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA32">
         <v>3</v>
@@ -8076,10 +8076,10 @@
         <v>4</v>
       </c>
       <c r="AY33">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA33">
         <v>6</v>
@@ -8282,10 +8282,10 @@
         <v>6</v>
       </c>
       <c r="AY34">
+        <v>8</v>
+      </c>
+      <c r="AZ34">
         <v>11</v>
-      </c>
-      <c r="AZ34">
-        <v>14</v>
       </c>
       <c r="BA34">
         <v>4</v>
@@ -8488,10 +8488,10 @@
         <v>6</v>
       </c>
       <c r="AY35">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AZ35">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA35">
         <v>10</v>
@@ -8694,10 +8694,10 @@
         <v>3</v>
       </c>
       <c r="AY36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ36">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA36">
         <v>3</v>
@@ -8900,7 +8900,7 @@
         <v>5</v>
       </c>
       <c r="AY37">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AZ37">
         <v>9</v>
@@ -9106,7 +9106,7 @@
         <v>1</v>
       </c>
       <c r="AY38">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ38">
         <v>5</v>
@@ -9312,10 +9312,10 @@
         <v>6</v>
       </c>
       <c r="AY39">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AZ39">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA39">
         <v>4</v>
@@ -9518,10 +9518,10 @@
         <v>5</v>
       </c>
       <c r="AY40">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ40">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA40">
         <v>5</v>
@@ -9724,10 +9724,10 @@
         <v>3</v>
       </c>
       <c r="AY41">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ41">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA41">
         <v>5</v>
@@ -9930,10 +9930,10 @@
         <v>7</v>
       </c>
       <c r="AY42">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AZ42">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BA42">
         <v>4</v>
@@ -10136,7 +10136,7 @@
         <v>2</v>
       </c>
       <c r="AY43">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ43">
         <v>6</v>
@@ -10342,10 +10342,10 @@
         <v>2</v>
       </c>
       <c r="AY44">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA44">
         <v>7</v>
@@ -10548,10 +10548,10 @@
         <v>5</v>
       </c>
       <c r="AY45">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AZ45">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA45">
         <v>3</v>
@@ -10754,10 +10754,10 @@
         <v>1</v>
       </c>
       <c r="AY46">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ46">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA46">
         <v>2</v>
@@ -10960,10 +10960,10 @@
         <v>6</v>
       </c>
       <c r="AY47">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AZ47">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA47">
         <v>11</v>
@@ -11166,10 +11166,10 @@
         <v>4</v>
       </c>
       <c r="AY48">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ48">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA48">
         <v>3</v>
@@ -11372,10 +11372,10 @@
         <v>5</v>
       </c>
       <c r="AY49">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ49">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA49">
         <v>4</v>
@@ -11578,10 +11578,10 @@
         <v>9</v>
       </c>
       <c r="AY50">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AZ50">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA50">
         <v>1</v>
@@ -11784,10 +11784,10 @@
         <v>4</v>
       </c>
       <c r="AY51">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA51">
         <v>2</v>
@@ -11990,10 +11990,10 @@
         <v>3</v>
       </c>
       <c r="AY52">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ52">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BA52">
         <v>6</v>
@@ -12402,7 +12402,7 @@
         <v>1</v>
       </c>
       <c r="AY54">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ54">
         <v>4</v>
@@ -12608,10 +12608,10 @@
         <v>2</v>
       </c>
       <c r="AY55">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AZ55">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA55">
         <v>2</v>
@@ -12814,10 +12814,10 @@
         <v>4</v>
       </c>
       <c r="AY56">
+        <v>11</v>
+      </c>
+      <c r="AZ56">
         <v>14</v>
-      </c>
-      <c r="AZ56">
-        <v>16</v>
       </c>
       <c r="BA56">
         <v>6</v>
@@ -13638,10 +13638,10 @@
         <v>4</v>
       </c>
       <c r="AY60">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA60">
         <v>6</v>
@@ -13844,10 +13844,10 @@
         <v>3</v>
       </c>
       <c r="AY61">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AZ61">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA61">
         <v>4</v>
@@ -14050,10 +14050,10 @@
         <v>5</v>
       </c>
       <c r="AY62">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AZ62">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA62">
         <v>8</v>
@@ -14256,10 +14256,10 @@
         <v>6</v>
       </c>
       <c r="AY63">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AZ63">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="BA63">
         <v>4</v>
@@ -14462,10 +14462,10 @@
         <v>2</v>
       </c>
       <c r="AY64">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ64">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BA64">
         <v>7</v>
@@ -14668,10 +14668,10 @@
         <v>2</v>
       </c>
       <c r="AY65">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AZ65">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA65">
         <v>8</v>
@@ -14874,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="AY66">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ66">
         <v>6</v>
@@ -15080,10 +15080,10 @@
         <v>2</v>
       </c>
       <c r="AY67">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AZ67">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BA67">
         <v>7</v>
@@ -15286,10 +15286,10 @@
         <v>7</v>
       </c>
       <c r="AY68">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ68">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA68">
         <v>5</v>
@@ -15492,10 +15492,10 @@
         <v>6</v>
       </c>
       <c r="AY69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ69">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA69">
         <v>4</v>
@@ -15698,10 +15698,10 @@
         <v>6</v>
       </c>
       <c r="AY70">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ70">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BA70">
         <v>5</v>
@@ -15904,10 +15904,10 @@
         <v>3</v>
       </c>
       <c r="AY71">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA71">
         <v>7</v>
@@ -16110,7 +16110,7 @@
         <v>0</v>
       </c>
       <c r="AY72">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ72">
         <v>4</v>
@@ -16316,10 +16316,10 @@
         <v>5</v>
       </c>
       <c r="AY73">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ73">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA73">
         <v>2</v>
@@ -16522,10 +16522,10 @@
         <v>3</v>
       </c>
       <c r="AY74">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ74">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA74">
         <v>2</v>
@@ -16728,10 +16728,10 @@
         <v>4</v>
       </c>
       <c r="AY75">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ75">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BA75">
         <v>5</v>
@@ -16934,10 +16934,10 @@
         <v>7</v>
       </c>
       <c r="AY76">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AZ76">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA76">
         <v>5</v>
@@ -17140,7 +17140,7 @@
         <v>5</v>
       </c>
       <c r="AY77">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ77">
         <v>10</v>
@@ -17764,13 +17764,13 @@
         <v>-1</v>
       </c>
       <c r="BA80">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BB80">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BC80">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BD80">
         <v>0</v>
@@ -17964,10 +17964,10 @@
         <v>1</v>
       </c>
       <c r="AY81">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA81">
         <v>2</v>
@@ -18376,7 +18376,7 @@
         <v>3</v>
       </c>
       <c r="AY83">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ83">
         <v>7</v>
@@ -18582,10 +18582,10 @@
         <v>7</v>
       </c>
       <c r="AY84">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ84">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA84">
         <v>2</v>
@@ -18791,7 +18791,7 @@
         <v>3</v>
       </c>
       <c r="AZ85">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="BA85">
         <v>1</v>
@@ -18994,10 +18994,10 @@
         <v>9</v>
       </c>
       <c r="AY86">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ86">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="BA86">
         <v>2</v>
@@ -19200,10 +19200,10 @@
         <v>4</v>
       </c>
       <c r="AY87">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ87">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA87">
         <v>6</v>
@@ -19406,19 +19406,19 @@
         <v>5</v>
       </c>
       <c r="AY88">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ88">
+        <v>8</v>
+      </c>
+      <c r="BA88">
         <v>11</v>
-      </c>
-      <c r="BA88">
-        <v>12</v>
       </c>
       <c r="BB88">
         <v>5</v>
       </c>
       <c r="BC88">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD88">
         <v>1.23</v>
@@ -19612,10 +19612,10 @@
         <v>2</v>
       </c>
       <c r="AY89">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ89">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA89">
         <v>4</v>
@@ -19818,10 +19818,10 @@
         <v>6</v>
       </c>
       <c r="AY90">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AZ90">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA90">
         <v>4</v>
@@ -20024,10 +20024,10 @@
         <v>1</v>
       </c>
       <c r="AY91">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA91">
         <v>4</v>
@@ -20230,10 +20230,10 @@
         <v>4</v>
       </c>
       <c r="AY92">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ92">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA92">
         <v>4</v>
@@ -20436,10 +20436,10 @@
         <v>3</v>
       </c>
       <c r="AY93">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AZ93">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA93">
         <v>5</v>
@@ -20642,10 +20642,10 @@
         <v>7</v>
       </c>
       <c r="AY94">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AZ94">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA94">
         <v>1</v>
@@ -20848,10 +20848,10 @@
         <v>1</v>
       </c>
       <c r="AY95">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ95">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA95">
         <v>4</v>
@@ -21054,7 +21054,7 @@
         <v>3</v>
       </c>
       <c r="AY96">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ96">
         <v>6</v>
@@ -21260,19 +21260,19 @@
         <v>2</v>
       </c>
       <c r="AY97">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA97">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB97">
         <v>2</v>
       </c>
       <c r="BC97">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD97">
         <v>1.07</v>
@@ -21466,10 +21466,10 @@
         <v>6</v>
       </c>
       <c r="AY98">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ98">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA98">
         <v>3</v>
@@ -21672,10 +21672,10 @@
         <v>7</v>
       </c>
       <c r="AY99">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ99">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA99">
         <v>3</v>
@@ -22084,10 +22084,10 @@
         <v>10</v>
       </c>
       <c r="AY101">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AZ101">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BA101">
         <v>5</v>
@@ -22290,10 +22290,10 @@
         <v>2</v>
       </c>
       <c r="AY102">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AZ102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA102">
         <v>4</v>
@@ -22496,10 +22496,10 @@
         <v>5</v>
       </c>
       <c r="AY103">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ103">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA103">
         <v>4</v>
@@ -22702,10 +22702,10 @@
         <v>3</v>
       </c>
       <c r="AY104">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ104">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA104">
         <v>9</v>
@@ -22908,10 +22908,10 @@
         <v>9</v>
       </c>
       <c r="AY105">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ105">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA105">
         <v>3</v>
@@ -23117,7 +23117,7 @@
         <v>7</v>
       </c>
       <c r="AZ106">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA106">
         <v>2</v>
@@ -23320,10 +23320,10 @@
         <v>7</v>
       </c>
       <c r="AY107">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ107">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA107">
         <v>4</v>
@@ -23526,7 +23526,7 @@
         <v>5</v>
       </c>
       <c r="AY108">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ108">
         <v>11</v>
@@ -23732,10 +23732,10 @@
         <v>8</v>
       </c>
       <c r="AY109">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ109">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA109">
         <v>2</v>
@@ -23938,10 +23938,10 @@
         <v>8</v>
       </c>
       <c r="AY110">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ110">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA110">
         <v>3</v>
@@ -24147,7 +24147,7 @@
         <v>15</v>
       </c>
       <c r="AZ111">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA111">
         <v>5</v>
@@ -24353,7 +24353,7 @@
         <v>11</v>
       </c>
       <c r="AZ112">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA112">
         <v>6</v>
@@ -24556,10 +24556,10 @@
         <v>6</v>
       </c>
       <c r="AY113">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ113">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA113">
         <v>6</v>
@@ -24762,10 +24762,10 @@
         <v>5</v>
       </c>
       <c r="AY114">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AZ114">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA114">
         <v>2</v>
@@ -24968,7 +24968,7 @@
         <v>13</v>
       </c>
       <c r="AY115">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ115">
         <v>23</v>
@@ -25174,10 +25174,10 @@
         <v>6</v>
       </c>
       <c r="AY116">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ116">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA116">
         <v>5</v>
@@ -25380,7 +25380,7 @@
         <v>6</v>
       </c>
       <c r="AY117">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ117">
         <v>11</v>
@@ -25589,7 +25589,7 @@
         <v>7</v>
       </c>
       <c r="AZ118">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA118">
         <v>3</v>
@@ -25792,10 +25792,10 @@
         <v>9</v>
       </c>
       <c r="AY119">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ119">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA119">
         <v>2</v>
@@ -25998,10 +25998,10 @@
         <v>4</v>
       </c>
       <c r="AY120">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="AZ120">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA120">
         <v>4</v>
@@ -26204,10 +26204,10 @@
         <v>10</v>
       </c>
       <c r="AY121">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ121">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BA121">
         <v>3</v>
@@ -26410,10 +26410,10 @@
         <v>7</v>
       </c>
       <c r="AY122">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ122">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA122">
         <v>3</v>
@@ -26616,10 +26616,10 @@
         <v>12</v>
       </c>
       <c r="AY123">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ123">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="BA123">
         <v>0</v>
@@ -26822,10 +26822,10 @@
         <v>5</v>
       </c>
       <c r="AY124">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ124">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA124">
         <v>5</v>
@@ -27028,7 +27028,7 @@
         <v>1</v>
       </c>
       <c r="AY125">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AZ125">
         <v>5</v>
@@ -27234,7 +27234,7 @@
         <v>2</v>
       </c>
       <c r="AY126">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AZ126">
         <v>5</v>
@@ -27440,10 +27440,10 @@
         <v>5</v>
       </c>
       <c r="AY127">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ127">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA127">
         <v>6</v>
@@ -27852,10 +27852,10 @@
         <v>3</v>
       </c>
       <c r="AY129">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AZ129">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA129">
         <v>9</v>
@@ -28058,10 +28058,10 @@
         <v>5</v>
       </c>
       <c r="AY130">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ130">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA130">
         <v>6</v>
@@ -28264,10 +28264,10 @@
         <v>2</v>
       </c>
       <c r="AY131">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ131">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA131">
         <v>12</v>
@@ -28470,10 +28470,10 @@
         <v>1</v>
       </c>
       <c r="AY132">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ132">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA132">
         <v>7</v>
@@ -28676,10 +28676,10 @@
         <v>8</v>
       </c>
       <c r="AY133">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ133">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA133">
         <v>3</v>
@@ -28882,10 +28882,10 @@
         <v>3</v>
       </c>
       <c r="AY134">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ134">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA134">
         <v>7</v>
@@ -29088,10 +29088,10 @@
         <v>12</v>
       </c>
       <c r="AY135">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ135">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA135">
         <v>7</v>
@@ -29500,10 +29500,10 @@
         <v>9</v>
       </c>
       <c r="AY137">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ137">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA137">
         <v>7</v>
@@ -29706,7 +29706,7 @@
         <v>3</v>
       </c>
       <c r="AY138">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ138">
         <v>7</v>
@@ -29912,19 +29912,19 @@
         <v>5</v>
       </c>
       <c r="AY139">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ139">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA139">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB139">
         <v>2</v>
       </c>
       <c r="BC139">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD139">
         <v>1.73</v>
@@ -30118,10 +30118,10 @@
         <v>9</v>
       </c>
       <c r="AY140">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ140">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA140">
         <v>5</v>
@@ -30324,10 +30324,10 @@
         <v>9</v>
       </c>
       <c r="AY141">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ141">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BA141">
         <v>5</v>
@@ -30530,7 +30530,7 @@
         <v>4</v>
       </c>
       <c r="AY142">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ142">
         <v>12</v>
@@ -30736,10 +30736,10 @@
         <v>8</v>
       </c>
       <c r="AY143">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ143">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA143">
         <v>1</v>
@@ -30942,7 +30942,7 @@
         <v>1</v>
       </c>
       <c r="AY144">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ144">
         <v>5</v>
@@ -31148,10 +31148,10 @@
         <v>10</v>
       </c>
       <c r="AY145">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ145">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA145">
         <v>6</v>
@@ -31354,10 +31354,10 @@
         <v>12</v>
       </c>
       <c r="AY146">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ146">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="BA146">
         <v>2</v>
@@ -31560,7 +31560,7 @@
         <v>5</v>
       </c>
       <c r="AY147">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ147">
         <v>10</v>
@@ -31766,10 +31766,10 @@
         <v>14</v>
       </c>
       <c r="AY148">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ148">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="BA148">
         <v>4</v>
@@ -31972,10 +31972,10 @@
         <v>9</v>
       </c>
       <c r="AY149">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ149">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA149">
         <v>1</v>
@@ -32178,10 +32178,10 @@
         <v>6</v>
       </c>
       <c r="AY150">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AZ150">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA150">
         <v>3</v>
@@ -32384,7 +32384,7 @@
         <v>6</v>
       </c>
       <c r="AY151">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ151">
         <v>8</v>
@@ -32590,10 +32590,10 @@
         <v>7</v>
       </c>
       <c r="AY152">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AZ152">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA152">
         <v>7</v>
@@ -33208,10 +33208,10 @@
         <v>7</v>
       </c>
       <c r="AY155">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AZ155">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA155">
         <v>5</v>
@@ -33414,10 +33414,10 @@
         <v>7</v>
       </c>
       <c r="AY156">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ156">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA156">
         <v>3</v>
@@ -33620,10 +33620,10 @@
         <v>7</v>
       </c>
       <c r="AY157">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ157">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA157">
         <v>9</v>
@@ -33826,10 +33826,10 @@
         <v>6</v>
       </c>
       <c r="AY158">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ158">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="BA158">
         <v>7</v>
@@ -34032,10 +34032,10 @@
         <v>11</v>
       </c>
       <c r="AY159">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ159">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA159">
         <v>5</v>
@@ -34444,10 +34444,10 @@
         <v>7</v>
       </c>
       <c r="AY161">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AZ161">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA161">
         <v>9</v>
@@ -34650,10 +34650,10 @@
         <v>12</v>
       </c>
       <c r="AY162">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ162">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BA162">
         <v>3</v>
@@ -34856,7 +34856,7 @@
         <v>4</v>
       </c>
       <c r="AY163">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ163">
         <v>8</v>
@@ -35062,7 +35062,7 @@
         <v>5</v>
       </c>
       <c r="AY164">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ164">
         <v>10</v>
@@ -35268,7 +35268,7 @@
         <v>3</v>
       </c>
       <c r="AY165">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AZ165">
         <v>5</v>
@@ -35474,10 +35474,10 @@
         <v>6</v>
       </c>
       <c r="AY166">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ166">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA166">
         <v>5</v>
@@ -35683,7 +35683,7 @@
         <v>15</v>
       </c>
       <c r="AZ167">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA167">
         <v>2</v>
@@ -35886,10 +35886,10 @@
         <v>9</v>
       </c>
       <c r="AY168">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ168">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA168">
         <v>4</v>
@@ -36092,10 +36092,10 @@
         <v>8</v>
       </c>
       <c r="AY169">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ169">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA169">
         <v>5</v>
@@ -36298,10 +36298,10 @@
         <v>8</v>
       </c>
       <c r="AY170">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ170">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA170">
         <v>6</v>
@@ -36504,10 +36504,10 @@
         <v>6</v>
       </c>
       <c r="AY171">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ171">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA171">
         <v>4</v>
@@ -36710,7 +36710,7 @@
         <v>3</v>
       </c>
       <c r="AY172">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AZ172">
         <v>11</v>
@@ -36916,10 +36916,10 @@
         <v>6</v>
       </c>
       <c r="AY173">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ173">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA173">
         <v>9</v>
@@ -37122,10 +37122,10 @@
         <v>17</v>
       </c>
       <c r="AY174">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ174">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BA174">
         <v>4</v>
@@ -37328,7 +37328,7 @@
         <v>2</v>
       </c>
       <c r="AY175">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ175">
         <v>6</v>
@@ -37534,10 +37534,10 @@
         <v>16</v>
       </c>
       <c r="AY176">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ176">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="BA176">
         <v>4</v>
@@ -37740,10 +37740,10 @@
         <v>4</v>
       </c>
       <c r="AY177">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AZ177">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA177">
         <v>5</v>
@@ -38152,7 +38152,7 @@
         <v>3</v>
       </c>
       <c r="AY179">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AZ179">
         <v>11</v>
@@ -38361,7 +38361,7 @@
         <v>8</v>
       </c>
       <c r="AZ180">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA180">
         <v>5</v>
@@ -38567,7 +38567,7 @@
         <v>17</v>
       </c>
       <c r="AZ181">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA181">
         <v>10</v>
@@ -38770,10 +38770,10 @@
         <v>9</v>
       </c>
       <c r="AY182">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ182">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA182">
         <v>4</v>
@@ -38976,10 +38976,10 @@
         <v>9</v>
       </c>
       <c r="AY183">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ183">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BA183">
         <v>4</v>
@@ -39182,10 +39182,10 @@
         <v>2</v>
       </c>
       <c r="AY184">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ184">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA184">
         <v>6</v>
@@ -39388,10 +39388,10 @@
         <v>5</v>
       </c>
       <c r="AY185">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ185">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA185">
         <v>8</v>
@@ -39594,10 +39594,10 @@
         <v>7</v>
       </c>
       <c r="AY186">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AZ186">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA186">
         <v>4</v>
@@ -39800,10 +39800,10 @@
         <v>8</v>
       </c>
       <c r="AY187">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ187">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA187">
         <v>6</v>
@@ -40009,7 +40009,7 @@
         <v>14</v>
       </c>
       <c r="AZ188">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA188">
         <v>5</v>
@@ -40212,10 +40212,10 @@
         <v>6</v>
       </c>
       <c r="AY189">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ189">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA189">
         <v>3</v>
@@ -40418,10 +40418,10 @@
         <v>6</v>
       </c>
       <c r="AY190">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ190">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA190">
         <v>7</v>
@@ -40624,10 +40624,10 @@
         <v>2</v>
       </c>
       <c r="AY191">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ191">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA191">
         <v>11</v>
@@ -40830,10 +40830,10 @@
         <v>5</v>
       </c>
       <c r="AY192">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ192">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA192">
         <v>4</v>
@@ -41036,10 +41036,10 @@
         <v>10</v>
       </c>
       <c r="AY193">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ193">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA193">
         <v>2</v>
@@ -41245,7 +41245,7 @@
         <v>13</v>
       </c>
       <c r="AZ194">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA194">
         <v>10</v>
@@ -41436,22 +41436,22 @@
         <v>3.09</v>
       </c>
       <c r="AU195">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV195">
+        <v>4</v>
+      </c>
+      <c r="AW195">
         <v>3</v>
       </c>
-      <c r="AW195">
-        <v>7</v>
-      </c>
       <c r="AX195">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY195">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AZ195">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BA195">
         <v>3</v>
@@ -41633,31 +41633,31 @@
         <v>1.71</v>
       </c>
       <c r="AR196">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="AS196">
         <v>1.5</v>
       </c>
       <c r="AT196">
-        <v>3.07</v>
+        <v>3.09</v>
       </c>
       <c r="AU196">
+        <v>7</v>
+      </c>
+      <c r="AV196">
+        <v>3</v>
+      </c>
+      <c r="AW196">
+        <v>5</v>
+      </c>
+      <c r="AX196">
         <v>6</v>
       </c>
-      <c r="AV196">
-        <v>4</v>
-      </c>
-      <c r="AW196">
-        <v>11</v>
-      </c>
-      <c r="AX196">
-        <v>8</v>
-      </c>
       <c r="AY196">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AZ196">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA196">
         <v>7</v>
